--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(バッチ)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(バッチ)_(取引ID)_(取引名).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE9DB4A-2F1E-4FC4-B2CF-54396884BECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6F418D-50E4-416A-9C88-AA3AAEDA366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="900" windowWidth="21825" windowHeight="15075" tabRatio="445" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="690" windowWidth="21630" windowHeight="13725" tabRatio="445" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="515">
   <si>
     <t>正常取引</t>
     <rPh sb="0" eb="2">
@@ -7019,16 +7019,6 @@
       <t>セッケイショ</t>
     </rPh>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>システム機能設計書
-共通コンポーネント設計書
-メール設計書</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メール設計書</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>システム機能設計書
@@ -8011,8 +8001,98 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -8112,96 +8192,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9130,12 +9120,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="162">
+      <c r="I25" s="163">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44795</v>
       </c>
-      <c r="J25" s="162"/>
-      <c r="K25" s="162"/>
+      <c r="J25" s="163"/>
+      <c r="K25" s="163"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="3"/>
@@ -9695,55 +9685,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="193" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="178" t="s">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="208" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
-      <c r="R1" s="180"/>
-      <c r="S1" s="187" t="s">
+      <c r="P1" s="209"/>
+      <c r="Q1" s="209"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="188"/>
-      <c r="U1" s="188"/>
-      <c r="V1" s="188"/>
-      <c r="W1" s="188"/>
-      <c r="X1" s="188"/>
-      <c r="Y1" s="188"/>
-      <c r="Z1" s="189"/>
-      <c r="AA1" s="163" t="s">
+      <c r="T1" s="218"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="218"/>
+      <c r="W1" s="218"/>
+      <c r="X1" s="218"/>
+      <c r="Y1" s="218"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="193" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="165" t="str">
+      <c r="AB1" s="194"/>
+      <c r="AC1" s="195" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="166"/>
-      <c r="AE1" s="166"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="172">
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="202">
         <f>IF(D8="","",D8)</f>
         <v>44795</v>
       </c>
-      <c r="AH1" s="173"/>
-      <c r="AI1" s="174"/>
+      <c r="AH1" s="203"/>
+      <c r="AI1" s="204"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -9751,51 +9741,51 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="193" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="168"/>
-      <c r="C2" s="168"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="191"/>
-      <c r="U2" s="191"/>
-      <c r="V2" s="191"/>
-      <c r="W2" s="191"/>
-      <c r="X2" s="191"/>
-      <c r="Y2" s="191"/>
-      <c r="Z2" s="192"/>
-      <c r="AA2" s="163" t="s">
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="212"/>
+      <c r="Q2" s="212"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="221"/>
+      <c r="U2" s="221"/>
+      <c r="V2" s="221"/>
+      <c r="W2" s="221"/>
+      <c r="X2" s="221"/>
+      <c r="Y2" s="221"/>
+      <c r="Z2" s="222"/>
+      <c r="AA2" s="193" t="s">
         <v>41</v>
       </c>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="175" t="str">
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="205" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="176"/>
-      <c r="AE2" s="176"/>
-      <c r="AF2" s="177"/>
-      <c r="AG2" s="172" t="str">
+      <c r="AD2" s="206"/>
+      <c r="AE2" s="206"/>
+      <c r="AF2" s="207"/>
+      <c r="AG2" s="202" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="173"/>
-      <c r="AI2" s="174"/>
+      <c r="AH2" s="203"/>
+      <c r="AI2" s="204"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -9803,43 +9793,43 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="193" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="184"/>
-      <c r="P3" s="185"/>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="186"/>
-      <c r="S3" s="193"/>
-      <c r="T3" s="194"/>
-      <c r="U3" s="194"/>
-      <c r="V3" s="194"/>
-      <c r="W3" s="194"/>
-      <c r="X3" s="194"/>
-      <c r="Y3" s="194"/>
-      <c r="Z3" s="195"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="172"/>
-      <c r="AH3" s="173"/>
-      <c r="AI3" s="174"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="200"/>
+      <c r="H3" s="200"/>
+      <c r="I3" s="200"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="215"/>
+      <c r="Q3" s="215"/>
+      <c r="R3" s="216"/>
+      <c r="S3" s="223"/>
+      <c r="T3" s="224"/>
+      <c r="U3" s="224"/>
+      <c r="V3" s="224"/>
+      <c r="W3" s="224"/>
+      <c r="X3" s="224"/>
+      <c r="Y3" s="224"/>
+      <c r="Z3" s="225"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="195"/>
+      <c r="AD3" s="196"/>
+      <c r="AE3" s="196"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="202"/>
+      <c r="AH3" s="203"/>
+      <c r="AI3" s="204"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -9876,1032 +9866,1193 @@
       <c r="A7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="197"/>
-      <c r="D7" s="196" t="s">
+      <c r="C7" s="178"/>
+      <c r="D7" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="198"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="196" t="s">
+      <c r="E7" s="179"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="198"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="196" t="s">
+      <c r="H7" s="179"/>
+      <c r="I7" s="178"/>
+      <c r="J7" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="198"/>
-      <c r="L7" s="198"/>
-      <c r="M7" s="198"/>
-      <c r="N7" s="198"/>
-      <c r="O7" s="198"/>
-      <c r="P7" s="197"/>
-      <c r="Q7" s="196" t="s">
+      <c r="K7" s="179"/>
+      <c r="L7" s="179"/>
+      <c r="M7" s="179"/>
+      <c r="N7" s="179"/>
+      <c r="O7" s="179"/>
+      <c r="P7" s="178"/>
+      <c r="Q7" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="198"/>
-      <c r="S7" s="198"/>
-      <c r="T7" s="198"/>
-      <c r="U7" s="198"/>
-      <c r="V7" s="198"/>
-      <c r="W7" s="198"/>
-      <c r="X7" s="198"/>
-      <c r="Y7" s="198"/>
-      <c r="Z7" s="198"/>
-      <c r="AA7" s="198"/>
-      <c r="AB7" s="198"/>
-      <c r="AC7" s="198"/>
-      <c r="AD7" s="198"/>
-      <c r="AE7" s="197"/>
-      <c r="AF7" s="196" t="s">
+      <c r="R7" s="179"/>
+      <c r="S7" s="179"/>
+      <c r="T7" s="179"/>
+      <c r="U7" s="179"/>
+      <c r="V7" s="179"/>
+      <c r="W7" s="179"/>
+      <c r="X7" s="179"/>
+      <c r="Y7" s="179"/>
+      <c r="Z7" s="179"/>
+      <c r="AA7" s="179"/>
+      <c r="AB7" s="179"/>
+      <c r="AC7" s="179"/>
+      <c r="AD7" s="179"/>
+      <c r="AE7" s="178"/>
+      <c r="AF7" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="AG7" s="198"/>
-      <c r="AH7" s="198"/>
-      <c r="AI7" s="197"/>
+      <c r="AG7" s="179"/>
+      <c r="AH7" s="179"/>
+      <c r="AI7" s="178"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15">
         <v>1</v>
       </c>
-      <c r="B8" s="199" t="s">
+      <c r="B8" s="180" t="s">
         <v>492</v>
       </c>
-      <c r="C8" s="200"/>
-      <c r="D8" s="201">
+      <c r="C8" s="181"/>
+      <c r="D8" s="182">
         <v>44795</v>
       </c>
-      <c r="E8" s="202"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="204" t="s">
+      <c r="E8" s="183"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="185" t="s">
         <v>493</v>
       </c>
-      <c r="H8" s="205"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="206"/>
-      <c r="K8" s="207"/>
-      <c r="L8" s="207"/>
-      <c r="M8" s="207"/>
-      <c r="N8" s="207"/>
-      <c r="O8" s="207"/>
-      <c r="P8" s="208"/>
-      <c r="Q8" s="209" t="s">
+      <c r="H8" s="186"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="187"/>
+      <c r="K8" s="188"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="188"/>
+      <c r="N8" s="188"/>
+      <c r="O8" s="188"/>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="190" t="s">
         <v>494</v>
       </c>
-      <c r="R8" s="210"/>
-      <c r="S8" s="210"/>
-      <c r="T8" s="210"/>
-      <c r="U8" s="210"/>
-      <c r="V8" s="210"/>
-      <c r="W8" s="210"/>
-      <c r="X8" s="210"/>
-      <c r="Y8" s="210"/>
-      <c r="Z8" s="210"/>
-      <c r="AA8" s="210"/>
-      <c r="AB8" s="210"/>
-      <c r="AC8" s="210"/>
-      <c r="AD8" s="210"/>
-      <c r="AE8" s="211"/>
-      <c r="AF8" s="206" t="s">
+      <c r="R8" s="191"/>
+      <c r="S8" s="191"/>
+      <c r="T8" s="191"/>
+      <c r="U8" s="191"/>
+      <c r="V8" s="191"/>
+      <c r="W8" s="191"/>
+      <c r="X8" s="191"/>
+      <c r="Y8" s="191"/>
+      <c r="Z8" s="191"/>
+      <c r="AA8" s="191"/>
+      <c r="AB8" s="191"/>
+      <c r="AC8" s="191"/>
+      <c r="AD8" s="191"/>
+      <c r="AE8" s="192"/>
+      <c r="AF8" s="187" t="s">
         <v>63</v>
       </c>
-      <c r="AG8" s="207"/>
-      <c r="AH8" s="207"/>
-      <c r="AI8" s="208"/>
+      <c r="AG8" s="188"/>
+      <c r="AH8" s="188"/>
+      <c r="AI8" s="189"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="212"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="216"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="219"/>
-      <c r="L9" s="219"/>
-      <c r="M9" s="219"/>
-      <c r="N9" s="219"/>
-      <c r="O9" s="219"/>
-      <c r="P9" s="220"/>
-      <c r="Q9" s="221"/>
-      <c r="R9" s="222"/>
-      <c r="S9" s="222"/>
-      <c r="T9" s="222"/>
-      <c r="U9" s="222"/>
-      <c r="V9" s="222"/>
-      <c r="W9" s="222"/>
-      <c r="X9" s="222"/>
-      <c r="Y9" s="222"/>
-      <c r="Z9" s="222"/>
-      <c r="AA9" s="222"/>
-      <c r="AB9" s="222"/>
-      <c r="AC9" s="222"/>
-      <c r="AD9" s="222"/>
-      <c r="AE9" s="223"/>
-      <c r="AF9" s="218"/>
-      <c r="AG9" s="219"/>
-      <c r="AH9" s="219"/>
-      <c r="AI9" s="220"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="173"/>
+      <c r="R9" s="174"/>
+      <c r="S9" s="174"/>
+      <c r="T9" s="174"/>
+      <c r="U9" s="174"/>
+      <c r="V9" s="174"/>
+      <c r="W9" s="174"/>
+      <c r="X9" s="174"/>
+      <c r="Y9" s="174"/>
+      <c r="Z9" s="174"/>
+      <c r="AA9" s="174"/>
+      <c r="AB9" s="174"/>
+      <c r="AC9" s="174"/>
+      <c r="AD9" s="174"/>
+      <c r="AE9" s="175"/>
+      <c r="AF9" s="170"/>
+      <c r="AG9" s="171"/>
+      <c r="AH9" s="171"/>
+      <c r="AI9" s="172"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="212"/>
-      <c r="C10" s="213"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="216"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="218"/>
-      <c r="K10" s="219"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="219"/>
-      <c r="N10" s="219"/>
-      <c r="O10" s="219"/>
-      <c r="P10" s="220"/>
-      <c r="Q10" s="221"/>
-      <c r="R10" s="222"/>
-      <c r="S10" s="222"/>
-      <c r="T10" s="222"/>
-      <c r="U10" s="222"/>
-      <c r="V10" s="222"/>
-      <c r="W10" s="222"/>
-      <c r="X10" s="222"/>
-      <c r="Y10" s="222"/>
-      <c r="Z10" s="222"/>
-      <c r="AA10" s="222"/>
-      <c r="AB10" s="222"/>
-      <c r="AC10" s="222"/>
-      <c r="AD10" s="222"/>
-      <c r="AE10" s="223"/>
-      <c r="AF10" s="218"/>
-      <c r="AG10" s="219"/>
-      <c r="AH10" s="219"/>
-      <c r="AI10" s="220"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="171"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="173"/>
+      <c r="R10" s="174"/>
+      <c r="S10" s="174"/>
+      <c r="T10" s="174"/>
+      <c r="U10" s="174"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="174"/>
+      <c r="X10" s="174"/>
+      <c r="Y10" s="174"/>
+      <c r="Z10" s="174"/>
+      <c r="AA10" s="174"/>
+      <c r="AB10" s="174"/>
+      <c r="AC10" s="174"/>
+      <c r="AD10" s="174"/>
+      <c r="AE10" s="175"/>
+      <c r="AF10" s="170"/>
+      <c r="AG10" s="171"/>
+      <c r="AH10" s="171"/>
+      <c r="AI10" s="172"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="212"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="216"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="219"/>
-      <c r="L11" s="219"/>
-      <c r="M11" s="219"/>
-      <c r="N11" s="219"/>
-      <c r="O11" s="219"/>
-      <c r="P11" s="220"/>
-      <c r="Q11" s="221"/>
-      <c r="R11" s="222"/>
-      <c r="S11" s="222"/>
-      <c r="T11" s="222"/>
-      <c r="U11" s="222"/>
-      <c r="V11" s="222"/>
-      <c r="W11" s="222"/>
-      <c r="X11" s="222"/>
-      <c r="Y11" s="222"/>
-      <c r="Z11" s="222"/>
-      <c r="AA11" s="222"/>
-      <c r="AB11" s="222"/>
-      <c r="AC11" s="222"/>
-      <c r="AD11" s="222"/>
-      <c r="AE11" s="223"/>
-      <c r="AF11" s="218"/>
-      <c r="AG11" s="219"/>
-      <c r="AH11" s="219"/>
-      <c r="AI11" s="220"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="172"/>
+      <c r="Q11" s="173"/>
+      <c r="R11" s="174"/>
+      <c r="S11" s="174"/>
+      <c r="T11" s="174"/>
+      <c r="U11" s="174"/>
+      <c r="V11" s="174"/>
+      <c r="W11" s="174"/>
+      <c r="X11" s="174"/>
+      <c r="Y11" s="174"/>
+      <c r="Z11" s="174"/>
+      <c r="AA11" s="174"/>
+      <c r="AB11" s="174"/>
+      <c r="AC11" s="174"/>
+      <c r="AD11" s="174"/>
+      <c r="AE11" s="175"/>
+      <c r="AF11" s="170"/>
+      <c r="AG11" s="171"/>
+      <c r="AH11" s="171"/>
+      <c r="AI11" s="172"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="212"/>
-      <c r="C12" s="213"/>
-      <c r="D12" s="214"/>
-      <c r="E12" s="215"/>
-      <c r="F12" s="216"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="217"/>
-      <c r="I12" s="213"/>
-      <c r="J12" s="218"/>
-      <c r="K12" s="219"/>
-      <c r="L12" s="219"/>
-      <c r="M12" s="219"/>
-      <c r="N12" s="219"/>
-      <c r="O12" s="219"/>
-      <c r="P12" s="220"/>
-      <c r="Q12" s="221"/>
-      <c r="R12" s="222"/>
-      <c r="S12" s="222"/>
-      <c r="T12" s="222"/>
-      <c r="U12" s="222"/>
-      <c r="V12" s="222"/>
-      <c r="W12" s="222"/>
-      <c r="X12" s="222"/>
-      <c r="Y12" s="222"/>
-      <c r="Z12" s="222"/>
-      <c r="AA12" s="222"/>
-      <c r="AB12" s="222"/>
-      <c r="AC12" s="222"/>
-      <c r="AD12" s="222"/>
-      <c r="AE12" s="223"/>
-      <c r="AF12" s="218"/>
-      <c r="AG12" s="219"/>
-      <c r="AH12" s="219"/>
-      <c r="AI12" s="220"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="171"/>
+      <c r="P12" s="172"/>
+      <c r="Q12" s="173"/>
+      <c r="R12" s="174"/>
+      <c r="S12" s="174"/>
+      <c r="T12" s="174"/>
+      <c r="U12" s="174"/>
+      <c r="V12" s="174"/>
+      <c r="W12" s="174"/>
+      <c r="X12" s="174"/>
+      <c r="Y12" s="174"/>
+      <c r="Z12" s="174"/>
+      <c r="AA12" s="174"/>
+      <c r="AB12" s="174"/>
+      <c r="AC12" s="174"/>
+      <c r="AD12" s="174"/>
+      <c r="AE12" s="175"/>
+      <c r="AF12" s="170"/>
+      <c r="AG12" s="171"/>
+      <c r="AH12" s="171"/>
+      <c r="AI12" s="172"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="212"/>
-      <c r="C13" s="213"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="216"/>
-      <c r="G13" s="212"/>
-      <c r="H13" s="217"/>
-      <c r="I13" s="213"/>
-      <c r="J13" s="218"/>
-      <c r="K13" s="219"/>
-      <c r="L13" s="219"/>
-      <c r="M13" s="219"/>
-      <c r="N13" s="219"/>
-      <c r="O13" s="219"/>
-      <c r="P13" s="220"/>
-      <c r="Q13" s="221"/>
-      <c r="R13" s="222"/>
-      <c r="S13" s="222"/>
-      <c r="T13" s="222"/>
-      <c r="U13" s="222"/>
-      <c r="V13" s="222"/>
-      <c r="W13" s="222"/>
-      <c r="X13" s="222"/>
-      <c r="Y13" s="222"/>
-      <c r="Z13" s="222"/>
-      <c r="AA13" s="222"/>
-      <c r="AB13" s="222"/>
-      <c r="AC13" s="222"/>
-      <c r="AD13" s="222"/>
-      <c r="AE13" s="223"/>
-      <c r="AF13" s="218"/>
-      <c r="AG13" s="219"/>
-      <c r="AH13" s="219"/>
-      <c r="AI13" s="220"/>
+      <c r="B13" s="164"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="164"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="171"/>
+      <c r="O13" s="171"/>
+      <c r="P13" s="172"/>
+      <c r="Q13" s="173"/>
+      <c r="R13" s="174"/>
+      <c r="S13" s="174"/>
+      <c r="T13" s="174"/>
+      <c r="U13" s="174"/>
+      <c r="V13" s="174"/>
+      <c r="W13" s="174"/>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="174"/>
+      <c r="Z13" s="174"/>
+      <c r="AA13" s="174"/>
+      <c r="AB13" s="174"/>
+      <c r="AC13" s="174"/>
+      <c r="AD13" s="174"/>
+      <c r="AE13" s="175"/>
+      <c r="AF13" s="170"/>
+      <c r="AG13" s="171"/>
+      <c r="AH13" s="171"/>
+      <c r="AI13" s="172"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="212"/>
-      <c r="C14" s="213"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="215"/>
-      <c r="F14" s="216"/>
-      <c r="G14" s="212"/>
-      <c r="H14" s="217"/>
-      <c r="I14" s="213"/>
-      <c r="J14" s="218"/>
-      <c r="K14" s="219"/>
-      <c r="L14" s="219"/>
-      <c r="M14" s="219"/>
-      <c r="N14" s="219"/>
-      <c r="O14" s="219"/>
-      <c r="P14" s="220"/>
-      <c r="Q14" s="221"/>
-      <c r="R14" s="222"/>
-      <c r="S14" s="222"/>
-      <c r="T14" s="222"/>
-      <c r="U14" s="222"/>
-      <c r="V14" s="222"/>
-      <c r="W14" s="222"/>
-      <c r="X14" s="222"/>
-      <c r="Y14" s="222"/>
-      <c r="Z14" s="222"/>
-      <c r="AA14" s="222"/>
-      <c r="AB14" s="222"/>
-      <c r="AC14" s="222"/>
-      <c r="AD14" s="222"/>
-      <c r="AE14" s="223"/>
-      <c r="AF14" s="218"/>
-      <c r="AG14" s="219"/>
-      <c r="AH14" s="219"/>
-      <c r="AI14" s="220"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="171"/>
+      <c r="P14" s="172"/>
+      <c r="Q14" s="173"/>
+      <c r="R14" s="174"/>
+      <c r="S14" s="174"/>
+      <c r="T14" s="174"/>
+      <c r="U14" s="174"/>
+      <c r="V14" s="174"/>
+      <c r="W14" s="174"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="174"/>
+      <c r="Z14" s="174"/>
+      <c r="AA14" s="174"/>
+      <c r="AB14" s="174"/>
+      <c r="AC14" s="174"/>
+      <c r="AD14" s="174"/>
+      <c r="AE14" s="175"/>
+      <c r="AF14" s="170"/>
+      <c r="AG14" s="171"/>
+      <c r="AH14" s="171"/>
+      <c r="AI14" s="172"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="212"/>
-      <c r="C15" s="213"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="212"/>
-      <c r="H15" s="217"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="218"/>
-      <c r="K15" s="219"/>
-      <c r="L15" s="219"/>
-      <c r="M15" s="219"/>
-      <c r="N15" s="219"/>
-      <c r="O15" s="219"/>
-      <c r="P15" s="220"/>
-      <c r="Q15" s="221"/>
-      <c r="R15" s="222"/>
-      <c r="S15" s="222"/>
-      <c r="T15" s="222"/>
-      <c r="U15" s="222"/>
-      <c r="V15" s="222"/>
-      <c r="W15" s="222"/>
-      <c r="X15" s="222"/>
-      <c r="Y15" s="222"/>
-      <c r="Z15" s="222"/>
-      <c r="AA15" s="222"/>
-      <c r="AB15" s="222"/>
-      <c r="AC15" s="222"/>
-      <c r="AD15" s="222"/>
-      <c r="AE15" s="223"/>
-      <c r="AF15" s="218"/>
-      <c r="AG15" s="219"/>
-      <c r="AH15" s="219"/>
-      <c r="AI15" s="220"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="172"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="174"/>
+      <c r="S15" s="174"/>
+      <c r="T15" s="174"/>
+      <c r="U15" s="174"/>
+      <c r="V15" s="174"/>
+      <c r="W15" s="174"/>
+      <c r="X15" s="174"/>
+      <c r="Y15" s="174"/>
+      <c r="Z15" s="174"/>
+      <c r="AA15" s="174"/>
+      <c r="AB15" s="174"/>
+      <c r="AC15" s="174"/>
+      <c r="AD15" s="174"/>
+      <c r="AE15" s="175"/>
+      <c r="AF15" s="170"/>
+      <c r="AG15" s="171"/>
+      <c r="AH15" s="171"/>
+      <c r="AI15" s="172"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="212"/>
-      <c r="C16" s="213"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="216"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="217"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="218"/>
-      <c r="K16" s="219"/>
-      <c r="L16" s="219"/>
-      <c r="M16" s="219"/>
-      <c r="N16" s="219"/>
-      <c r="O16" s="219"/>
-      <c r="P16" s="220"/>
-      <c r="Q16" s="221"/>
-      <c r="R16" s="222"/>
-      <c r="S16" s="222"/>
-      <c r="T16" s="222"/>
-      <c r="U16" s="222"/>
-      <c r="V16" s="222"/>
-      <c r="W16" s="222"/>
-      <c r="X16" s="222"/>
-      <c r="Y16" s="222"/>
-      <c r="Z16" s="222"/>
-      <c r="AA16" s="222"/>
-      <c r="AB16" s="222"/>
-      <c r="AC16" s="222"/>
-      <c r="AD16" s="222"/>
-      <c r="AE16" s="223"/>
-      <c r="AF16" s="218"/>
-      <c r="AG16" s="219"/>
-      <c r="AH16" s="219"/>
-      <c r="AI16" s="220"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="171"/>
+      <c r="L16" s="171"/>
+      <c r="M16" s="171"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="172"/>
+      <c r="Q16" s="173"/>
+      <c r="R16" s="174"/>
+      <c r="S16" s="174"/>
+      <c r="T16" s="174"/>
+      <c r="U16" s="174"/>
+      <c r="V16" s="174"/>
+      <c r="W16" s="174"/>
+      <c r="X16" s="174"/>
+      <c r="Y16" s="174"/>
+      <c r="Z16" s="174"/>
+      <c r="AA16" s="174"/>
+      <c r="AB16" s="174"/>
+      <c r="AC16" s="174"/>
+      <c r="AD16" s="174"/>
+      <c r="AE16" s="175"/>
+      <c r="AF16" s="170"/>
+      <c r="AG16" s="171"/>
+      <c r="AH16" s="171"/>
+      <c r="AI16" s="172"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="212"/>
-      <c r="C17" s="213"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="218"/>
-      <c r="K17" s="219"/>
-      <c r="L17" s="219"/>
-      <c r="M17" s="219"/>
-      <c r="N17" s="219"/>
-      <c r="O17" s="219"/>
-      <c r="P17" s="220"/>
-      <c r="Q17" s="221"/>
-      <c r="R17" s="222"/>
-      <c r="S17" s="222"/>
-      <c r="T17" s="222"/>
-      <c r="U17" s="222"/>
-      <c r="V17" s="222"/>
-      <c r="W17" s="222"/>
-      <c r="X17" s="222"/>
-      <c r="Y17" s="222"/>
-      <c r="Z17" s="222"/>
-      <c r="AA17" s="222"/>
-      <c r="AB17" s="222"/>
-      <c r="AC17" s="222"/>
-      <c r="AD17" s="222"/>
-      <c r="AE17" s="223"/>
-      <c r="AF17" s="218"/>
-      <c r="AG17" s="219"/>
-      <c r="AH17" s="219"/>
-      <c r="AI17" s="220"/>
+      <c r="B17" s="164"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="171"/>
+      <c r="P17" s="172"/>
+      <c r="Q17" s="173"/>
+      <c r="R17" s="174"/>
+      <c r="S17" s="174"/>
+      <c r="T17" s="174"/>
+      <c r="U17" s="174"/>
+      <c r="V17" s="174"/>
+      <c r="W17" s="174"/>
+      <c r="X17" s="174"/>
+      <c r="Y17" s="174"/>
+      <c r="Z17" s="174"/>
+      <c r="AA17" s="174"/>
+      <c r="AB17" s="174"/>
+      <c r="AC17" s="174"/>
+      <c r="AD17" s="174"/>
+      <c r="AE17" s="175"/>
+      <c r="AF17" s="170"/>
+      <c r="AG17" s="171"/>
+      <c r="AH17" s="171"/>
+      <c r="AI17" s="172"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="212"/>
-      <c r="C18" s="213"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="215"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="217"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="219"/>
-      <c r="L18" s="219"/>
-      <c r="M18" s="219"/>
-      <c r="N18" s="219"/>
-      <c r="O18" s="219"/>
-      <c r="P18" s="220"/>
-      <c r="Q18" s="221"/>
-      <c r="R18" s="222"/>
-      <c r="S18" s="222"/>
-      <c r="T18" s="222"/>
-      <c r="U18" s="222"/>
-      <c r="V18" s="222"/>
-      <c r="W18" s="222"/>
-      <c r="X18" s="222"/>
-      <c r="Y18" s="222"/>
-      <c r="Z18" s="222"/>
-      <c r="AA18" s="222"/>
-      <c r="AB18" s="222"/>
-      <c r="AC18" s="222"/>
-      <c r="AD18" s="222"/>
-      <c r="AE18" s="223"/>
-      <c r="AF18" s="218"/>
-      <c r="AG18" s="219"/>
-      <c r="AH18" s="219"/>
-      <c r="AI18" s="220"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="171"/>
+      <c r="L18" s="171"/>
+      <c r="M18" s="171"/>
+      <c r="N18" s="171"/>
+      <c r="O18" s="171"/>
+      <c r="P18" s="172"/>
+      <c r="Q18" s="173"/>
+      <c r="R18" s="174"/>
+      <c r="S18" s="174"/>
+      <c r="T18" s="174"/>
+      <c r="U18" s="174"/>
+      <c r="V18" s="174"/>
+      <c r="W18" s="174"/>
+      <c r="X18" s="174"/>
+      <c r="Y18" s="174"/>
+      <c r="Z18" s="174"/>
+      <c r="AA18" s="174"/>
+      <c r="AB18" s="174"/>
+      <c r="AC18" s="174"/>
+      <c r="AD18" s="174"/>
+      <c r="AE18" s="175"/>
+      <c r="AF18" s="170"/>
+      <c r="AG18" s="171"/>
+      <c r="AH18" s="171"/>
+      <c r="AI18" s="172"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="212"/>
-      <c r="C19" s="213"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="217"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="218"/>
-      <c r="K19" s="219"/>
-      <c r="L19" s="219"/>
-      <c r="M19" s="219"/>
-      <c r="N19" s="219"/>
-      <c r="O19" s="219"/>
-      <c r="P19" s="220"/>
-      <c r="Q19" s="221"/>
-      <c r="R19" s="222"/>
-      <c r="S19" s="222"/>
-      <c r="T19" s="222"/>
-      <c r="U19" s="222"/>
-      <c r="V19" s="222"/>
-      <c r="W19" s="222"/>
-      <c r="X19" s="222"/>
-      <c r="Y19" s="222"/>
-      <c r="Z19" s="222"/>
-      <c r="AA19" s="222"/>
-      <c r="AB19" s="222"/>
-      <c r="AC19" s="222"/>
-      <c r="AD19" s="222"/>
-      <c r="AE19" s="223"/>
-      <c r="AF19" s="218"/>
-      <c r="AG19" s="219"/>
-      <c r="AH19" s="219"/>
-      <c r="AI19" s="220"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="171"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="171"/>
+      <c r="O19" s="171"/>
+      <c r="P19" s="172"/>
+      <c r="Q19" s="173"/>
+      <c r="R19" s="174"/>
+      <c r="S19" s="174"/>
+      <c r="T19" s="174"/>
+      <c r="U19" s="174"/>
+      <c r="V19" s="174"/>
+      <c r="W19" s="174"/>
+      <c r="X19" s="174"/>
+      <c r="Y19" s="174"/>
+      <c r="Z19" s="174"/>
+      <c r="AA19" s="174"/>
+      <c r="AB19" s="174"/>
+      <c r="AC19" s="174"/>
+      <c r="AD19" s="174"/>
+      <c r="AE19" s="175"/>
+      <c r="AF19" s="170"/>
+      <c r="AG19" s="171"/>
+      <c r="AH19" s="171"/>
+      <c r="AI19" s="172"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="212"/>
-      <c r="C20" s="213"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="217"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="218"/>
-      <c r="K20" s="219"/>
-      <c r="L20" s="219"/>
-      <c r="M20" s="219"/>
-      <c r="N20" s="219"/>
-      <c r="O20" s="219"/>
-      <c r="P20" s="220"/>
-      <c r="Q20" s="221"/>
-      <c r="R20" s="222"/>
-      <c r="S20" s="222"/>
-      <c r="T20" s="222"/>
-      <c r="U20" s="222"/>
-      <c r="V20" s="222"/>
-      <c r="W20" s="222"/>
-      <c r="X20" s="222"/>
-      <c r="Y20" s="222"/>
-      <c r="Z20" s="222"/>
-      <c r="AA20" s="222"/>
-      <c r="AB20" s="222"/>
-      <c r="AC20" s="222"/>
-      <c r="AD20" s="222"/>
-      <c r="AE20" s="223"/>
-      <c r="AF20" s="218"/>
-      <c r="AG20" s="219"/>
-      <c r="AH20" s="219"/>
-      <c r="AI20" s="220"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="171"/>
+      <c r="M20" s="171"/>
+      <c r="N20" s="171"/>
+      <c r="O20" s="171"/>
+      <c r="P20" s="172"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="174"/>
+      <c r="S20" s="174"/>
+      <c r="T20" s="174"/>
+      <c r="U20" s="174"/>
+      <c r="V20" s="174"/>
+      <c r="W20" s="174"/>
+      <c r="X20" s="174"/>
+      <c r="Y20" s="174"/>
+      <c r="Z20" s="174"/>
+      <c r="AA20" s="174"/>
+      <c r="AB20" s="174"/>
+      <c r="AC20" s="174"/>
+      <c r="AD20" s="174"/>
+      <c r="AE20" s="175"/>
+      <c r="AF20" s="170"/>
+      <c r="AG20" s="171"/>
+      <c r="AH20" s="171"/>
+      <c r="AI20" s="172"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="212"/>
-      <c r="C21" s="213"/>
-      <c r="D21" s="214"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="217"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="218"/>
-      <c r="K21" s="219"/>
-      <c r="L21" s="219"/>
-      <c r="M21" s="219"/>
-      <c r="N21" s="219"/>
-      <c r="O21" s="219"/>
-      <c r="P21" s="220"/>
-      <c r="Q21" s="221"/>
-      <c r="R21" s="222"/>
-      <c r="S21" s="222"/>
-      <c r="T21" s="222"/>
-      <c r="U21" s="222"/>
-      <c r="V21" s="222"/>
-      <c r="W21" s="222"/>
-      <c r="X21" s="222"/>
-      <c r="Y21" s="222"/>
-      <c r="Z21" s="222"/>
-      <c r="AA21" s="222"/>
-      <c r="AB21" s="222"/>
-      <c r="AC21" s="222"/>
-      <c r="AD21" s="222"/>
-      <c r="AE21" s="223"/>
-      <c r="AF21" s="218"/>
-      <c r="AG21" s="219"/>
-      <c r="AH21" s="219"/>
-      <c r="AI21" s="220"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="171"/>
+      <c r="N21" s="171"/>
+      <c r="O21" s="171"/>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="174"/>
+      <c r="S21" s="174"/>
+      <c r="T21" s="174"/>
+      <c r="U21" s="174"/>
+      <c r="V21" s="174"/>
+      <c r="W21" s="174"/>
+      <c r="X21" s="174"/>
+      <c r="Y21" s="174"/>
+      <c r="Z21" s="174"/>
+      <c r="AA21" s="174"/>
+      <c r="AB21" s="174"/>
+      <c r="AC21" s="174"/>
+      <c r="AD21" s="174"/>
+      <c r="AE21" s="175"/>
+      <c r="AF21" s="170"/>
+      <c r="AG21" s="171"/>
+      <c r="AH21" s="171"/>
+      <c r="AI21" s="172"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="212"/>
-      <c r="C22" s="213"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="216"/>
-      <c r="G22" s="212"/>
-      <c r="H22" s="217"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="218"/>
-      <c r="K22" s="219"/>
-      <c r="L22" s="219"/>
-      <c r="M22" s="219"/>
-      <c r="N22" s="219"/>
-      <c r="O22" s="219"/>
-      <c r="P22" s="220"/>
-      <c r="Q22" s="221"/>
-      <c r="R22" s="222"/>
-      <c r="S22" s="222"/>
-      <c r="T22" s="222"/>
-      <c r="U22" s="222"/>
-      <c r="V22" s="222"/>
-      <c r="W22" s="222"/>
-      <c r="X22" s="222"/>
-      <c r="Y22" s="222"/>
-      <c r="Z22" s="222"/>
-      <c r="AA22" s="222"/>
-      <c r="AB22" s="222"/>
-      <c r="AC22" s="222"/>
-      <c r="AD22" s="222"/>
-      <c r="AE22" s="223"/>
-      <c r="AF22" s="218"/>
-      <c r="AG22" s="219"/>
-      <c r="AH22" s="219"/>
-      <c r="AI22" s="220"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="171"/>
+      <c r="L22" s="171"/>
+      <c r="M22" s="171"/>
+      <c r="N22" s="171"/>
+      <c r="O22" s="171"/>
+      <c r="P22" s="172"/>
+      <c r="Q22" s="173"/>
+      <c r="R22" s="174"/>
+      <c r="S22" s="174"/>
+      <c r="T22" s="174"/>
+      <c r="U22" s="174"/>
+      <c r="V22" s="174"/>
+      <c r="W22" s="174"/>
+      <c r="X22" s="174"/>
+      <c r="Y22" s="174"/>
+      <c r="Z22" s="174"/>
+      <c r="AA22" s="174"/>
+      <c r="AB22" s="174"/>
+      <c r="AC22" s="174"/>
+      <c r="AD22" s="174"/>
+      <c r="AE22" s="175"/>
+      <c r="AF22" s="170"/>
+      <c r="AG22" s="171"/>
+      <c r="AH22" s="171"/>
+      <c r="AI22" s="172"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="212"/>
-      <c r="C23" s="213"/>
-      <c r="D23" s="214"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="216"/>
-      <c r="G23" s="212"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="218"/>
-      <c r="K23" s="219"/>
-      <c r="L23" s="219"/>
-      <c r="M23" s="219"/>
-      <c r="N23" s="219"/>
-      <c r="O23" s="219"/>
-      <c r="P23" s="220"/>
-      <c r="Q23" s="221"/>
-      <c r="R23" s="222"/>
-      <c r="S23" s="222"/>
-      <c r="T23" s="222"/>
-      <c r="U23" s="222"/>
-      <c r="V23" s="222"/>
-      <c r="W23" s="222"/>
-      <c r="X23" s="222"/>
-      <c r="Y23" s="222"/>
-      <c r="Z23" s="222"/>
-      <c r="AA23" s="222"/>
-      <c r="AB23" s="222"/>
-      <c r="AC23" s="222"/>
-      <c r="AD23" s="222"/>
-      <c r="AE23" s="223"/>
-      <c r="AF23" s="218"/>
-      <c r="AG23" s="219"/>
-      <c r="AH23" s="219"/>
-      <c r="AI23" s="220"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="171"/>
+      <c r="N23" s="171"/>
+      <c r="O23" s="171"/>
+      <c r="P23" s="172"/>
+      <c r="Q23" s="173"/>
+      <c r="R23" s="174"/>
+      <c r="S23" s="174"/>
+      <c r="T23" s="174"/>
+      <c r="U23" s="174"/>
+      <c r="V23" s="174"/>
+      <c r="W23" s="174"/>
+      <c r="X23" s="174"/>
+      <c r="Y23" s="174"/>
+      <c r="Z23" s="174"/>
+      <c r="AA23" s="174"/>
+      <c r="AB23" s="174"/>
+      <c r="AC23" s="174"/>
+      <c r="AD23" s="174"/>
+      <c r="AE23" s="175"/>
+      <c r="AF23" s="170"/>
+      <c r="AG23" s="171"/>
+      <c r="AH23" s="171"/>
+      <c r="AI23" s="172"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="212"/>
-      <c r="C24" s="213"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="216"/>
-      <c r="G24" s="212"/>
-      <c r="H24" s="217"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="218"/>
-      <c r="K24" s="219"/>
-      <c r="L24" s="219"/>
-      <c r="M24" s="219"/>
-      <c r="N24" s="219"/>
-      <c r="O24" s="219"/>
-      <c r="P24" s="220"/>
-      <c r="Q24" s="221"/>
-      <c r="R24" s="222"/>
-      <c r="S24" s="222"/>
-      <c r="T24" s="222"/>
-      <c r="U24" s="222"/>
-      <c r="V24" s="222"/>
-      <c r="W24" s="222"/>
-      <c r="X24" s="222"/>
-      <c r="Y24" s="222"/>
-      <c r="Z24" s="222"/>
-      <c r="AA24" s="222"/>
-      <c r="AB24" s="222"/>
-      <c r="AC24" s="222"/>
-      <c r="AD24" s="222"/>
-      <c r="AE24" s="223"/>
-      <c r="AF24" s="218"/>
-      <c r="AG24" s="219"/>
-      <c r="AH24" s="219"/>
-      <c r="AI24" s="220"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="165"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="171"/>
+      <c r="O24" s="171"/>
+      <c r="P24" s="172"/>
+      <c r="Q24" s="173"/>
+      <c r="R24" s="174"/>
+      <c r="S24" s="174"/>
+      <c r="T24" s="174"/>
+      <c r="U24" s="174"/>
+      <c r="V24" s="174"/>
+      <c r="W24" s="174"/>
+      <c r="X24" s="174"/>
+      <c r="Y24" s="174"/>
+      <c r="Z24" s="174"/>
+      <c r="AA24" s="174"/>
+      <c r="AB24" s="174"/>
+      <c r="AC24" s="174"/>
+      <c r="AD24" s="174"/>
+      <c r="AE24" s="175"/>
+      <c r="AF24" s="170"/>
+      <c r="AG24" s="171"/>
+      <c r="AH24" s="171"/>
+      <c r="AI24" s="172"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="212"/>
-      <c r="C25" s="213"/>
-      <c r="D25" s="214"/>
-      <c r="E25" s="215"/>
-      <c r="F25" s="216"/>
-      <c r="G25" s="212"/>
-      <c r="H25" s="217"/>
-      <c r="I25" s="213"/>
-      <c r="J25" s="218"/>
-      <c r="K25" s="219"/>
-      <c r="L25" s="219"/>
-      <c r="M25" s="219"/>
-      <c r="N25" s="219"/>
-      <c r="O25" s="219"/>
-      <c r="P25" s="220"/>
-      <c r="Q25" s="221"/>
-      <c r="R25" s="222"/>
-      <c r="S25" s="222"/>
-      <c r="T25" s="222"/>
-      <c r="U25" s="222"/>
-      <c r="V25" s="222"/>
-      <c r="W25" s="222"/>
-      <c r="X25" s="222"/>
-      <c r="Y25" s="222"/>
-      <c r="Z25" s="222"/>
-      <c r="AA25" s="222"/>
-      <c r="AB25" s="222"/>
-      <c r="AC25" s="222"/>
-      <c r="AD25" s="222"/>
-      <c r="AE25" s="223"/>
-      <c r="AF25" s="218"/>
-      <c r="AG25" s="219"/>
-      <c r="AH25" s="219"/>
-      <c r="AI25" s="220"/>
+      <c r="B25" s="164"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="171"/>
+      <c r="L25" s="171"/>
+      <c r="M25" s="171"/>
+      <c r="N25" s="171"/>
+      <c r="O25" s="171"/>
+      <c r="P25" s="172"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="174"/>
+      <c r="S25" s="174"/>
+      <c r="T25" s="174"/>
+      <c r="U25" s="174"/>
+      <c r="V25" s="174"/>
+      <c r="W25" s="174"/>
+      <c r="X25" s="174"/>
+      <c r="Y25" s="174"/>
+      <c r="Z25" s="174"/>
+      <c r="AA25" s="174"/>
+      <c r="AB25" s="174"/>
+      <c r="AC25" s="174"/>
+      <c r="AD25" s="174"/>
+      <c r="AE25" s="175"/>
+      <c r="AF25" s="170"/>
+      <c r="AG25" s="171"/>
+      <c r="AH25" s="171"/>
+      <c r="AI25" s="172"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="212"/>
-      <c r="C26" s="213"/>
-      <c r="D26" s="214"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="216"/>
-      <c r="G26" s="212"/>
-      <c r="H26" s="217"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="218"/>
-      <c r="K26" s="219"/>
-      <c r="L26" s="219"/>
-      <c r="M26" s="219"/>
-      <c r="N26" s="219"/>
-      <c r="O26" s="219"/>
-      <c r="P26" s="220"/>
-      <c r="Q26" s="221"/>
-      <c r="R26" s="222"/>
-      <c r="S26" s="222"/>
-      <c r="T26" s="222"/>
-      <c r="U26" s="222"/>
-      <c r="V26" s="222"/>
-      <c r="W26" s="222"/>
-      <c r="X26" s="222"/>
-      <c r="Y26" s="222"/>
-      <c r="Z26" s="222"/>
-      <c r="AA26" s="222"/>
-      <c r="AB26" s="222"/>
-      <c r="AC26" s="222"/>
-      <c r="AD26" s="222"/>
-      <c r="AE26" s="223"/>
-      <c r="AF26" s="218"/>
-      <c r="AG26" s="219"/>
-      <c r="AH26" s="219"/>
-      <c r="AI26" s="220"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="165"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="171"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="171"/>
+      <c r="O26" s="171"/>
+      <c r="P26" s="172"/>
+      <c r="Q26" s="173"/>
+      <c r="R26" s="174"/>
+      <c r="S26" s="174"/>
+      <c r="T26" s="174"/>
+      <c r="U26" s="174"/>
+      <c r="V26" s="174"/>
+      <c r="W26" s="174"/>
+      <c r="X26" s="174"/>
+      <c r="Y26" s="174"/>
+      <c r="Z26" s="174"/>
+      <c r="AA26" s="174"/>
+      <c r="AB26" s="174"/>
+      <c r="AC26" s="174"/>
+      <c r="AD26" s="174"/>
+      <c r="AE26" s="175"/>
+      <c r="AF26" s="170"/>
+      <c r="AG26" s="171"/>
+      <c r="AH26" s="171"/>
+      <c r="AI26" s="172"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="212"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="216"/>
-      <c r="G27" s="212"/>
-      <c r="H27" s="217"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="218"/>
-      <c r="K27" s="219"/>
-      <c r="L27" s="219"/>
-      <c r="M27" s="219"/>
-      <c r="N27" s="219"/>
-      <c r="O27" s="219"/>
-      <c r="P27" s="220"/>
-      <c r="Q27" s="221"/>
-      <c r="R27" s="222"/>
-      <c r="S27" s="222"/>
-      <c r="T27" s="222"/>
-      <c r="U27" s="222"/>
-      <c r="V27" s="222"/>
-      <c r="W27" s="222"/>
-      <c r="X27" s="222"/>
-      <c r="Y27" s="222"/>
-      <c r="Z27" s="222"/>
-      <c r="AA27" s="222"/>
-      <c r="AB27" s="222"/>
-      <c r="AC27" s="222"/>
-      <c r="AD27" s="222"/>
-      <c r="AE27" s="223"/>
-      <c r="AF27" s="218"/>
-      <c r="AG27" s="219"/>
-      <c r="AH27" s="219"/>
-      <c r="AI27" s="220"/>
+      <c r="B27" s="164"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="171"/>
+      <c r="L27" s="171"/>
+      <c r="M27" s="171"/>
+      <c r="N27" s="171"/>
+      <c r="O27" s="171"/>
+      <c r="P27" s="172"/>
+      <c r="Q27" s="173"/>
+      <c r="R27" s="174"/>
+      <c r="S27" s="174"/>
+      <c r="T27" s="174"/>
+      <c r="U27" s="174"/>
+      <c r="V27" s="174"/>
+      <c r="W27" s="174"/>
+      <c r="X27" s="174"/>
+      <c r="Y27" s="174"/>
+      <c r="Z27" s="174"/>
+      <c r="AA27" s="174"/>
+      <c r="AB27" s="174"/>
+      <c r="AC27" s="174"/>
+      <c r="AD27" s="174"/>
+      <c r="AE27" s="175"/>
+      <c r="AF27" s="170"/>
+      <c r="AG27" s="171"/>
+      <c r="AH27" s="171"/>
+      <c r="AI27" s="172"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="212"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="215"/>
-      <c r="F28" s="216"/>
-      <c r="G28" s="212"/>
-      <c r="H28" s="217"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="218"/>
-      <c r="K28" s="219"/>
-      <c r="L28" s="219"/>
-      <c r="M28" s="219"/>
-      <c r="N28" s="219"/>
-      <c r="O28" s="219"/>
-      <c r="P28" s="220"/>
-      <c r="Q28" s="221"/>
-      <c r="R28" s="222"/>
-      <c r="S28" s="222"/>
-      <c r="T28" s="222"/>
-      <c r="U28" s="222"/>
-      <c r="V28" s="222"/>
-      <c r="W28" s="222"/>
-      <c r="X28" s="222"/>
-      <c r="Y28" s="222"/>
-      <c r="Z28" s="222"/>
-      <c r="AA28" s="222"/>
-      <c r="AB28" s="222"/>
-      <c r="AC28" s="222"/>
-      <c r="AD28" s="222"/>
-      <c r="AE28" s="223"/>
-      <c r="AF28" s="218"/>
-      <c r="AG28" s="219"/>
-      <c r="AH28" s="219"/>
-      <c r="AI28" s="220"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="171"/>
+      <c r="L28" s="171"/>
+      <c r="M28" s="171"/>
+      <c r="N28" s="171"/>
+      <c r="O28" s="171"/>
+      <c r="P28" s="172"/>
+      <c r="Q28" s="173"/>
+      <c r="R28" s="174"/>
+      <c r="S28" s="174"/>
+      <c r="T28" s="174"/>
+      <c r="U28" s="174"/>
+      <c r="V28" s="174"/>
+      <c r="W28" s="174"/>
+      <c r="X28" s="174"/>
+      <c r="Y28" s="174"/>
+      <c r="Z28" s="174"/>
+      <c r="AA28" s="174"/>
+      <c r="AB28" s="174"/>
+      <c r="AC28" s="174"/>
+      <c r="AD28" s="174"/>
+      <c r="AE28" s="175"/>
+      <c r="AF28" s="170"/>
+      <c r="AG28" s="171"/>
+      <c r="AH28" s="171"/>
+      <c r="AI28" s="172"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="212"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="214"/>
-      <c r="E29" s="215"/>
-      <c r="F29" s="216"/>
-      <c r="G29" s="212"/>
-      <c r="H29" s="217"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="218"/>
-      <c r="K29" s="219"/>
-      <c r="L29" s="219"/>
-      <c r="M29" s="219"/>
-      <c r="N29" s="219"/>
-      <c r="O29" s="219"/>
-      <c r="P29" s="220"/>
-      <c r="Q29" s="221"/>
-      <c r="R29" s="222"/>
-      <c r="S29" s="222"/>
-      <c r="T29" s="222"/>
-      <c r="U29" s="222"/>
-      <c r="V29" s="222"/>
-      <c r="W29" s="222"/>
-      <c r="X29" s="222"/>
-      <c r="Y29" s="222"/>
-      <c r="Z29" s="222"/>
-      <c r="AA29" s="222"/>
-      <c r="AB29" s="222"/>
-      <c r="AC29" s="222"/>
-      <c r="AD29" s="222"/>
-      <c r="AE29" s="223"/>
-      <c r="AF29" s="218"/>
-      <c r="AG29" s="219"/>
-      <c r="AH29" s="219"/>
-      <c r="AI29" s="220"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="171"/>
+      <c r="M29" s="171"/>
+      <c r="N29" s="171"/>
+      <c r="O29" s="171"/>
+      <c r="P29" s="172"/>
+      <c r="Q29" s="173"/>
+      <c r="R29" s="174"/>
+      <c r="S29" s="174"/>
+      <c r="T29" s="174"/>
+      <c r="U29" s="174"/>
+      <c r="V29" s="174"/>
+      <c r="W29" s="174"/>
+      <c r="X29" s="174"/>
+      <c r="Y29" s="174"/>
+      <c r="Z29" s="174"/>
+      <c r="AA29" s="174"/>
+      <c r="AB29" s="174"/>
+      <c r="AC29" s="174"/>
+      <c r="AD29" s="174"/>
+      <c r="AE29" s="175"/>
+      <c r="AF29" s="170"/>
+      <c r="AG29" s="171"/>
+      <c r="AH29" s="171"/>
+      <c r="AI29" s="172"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="212"/>
-      <c r="C30" s="213"/>
-      <c r="D30" s="214"/>
-      <c r="E30" s="215"/>
-      <c r="F30" s="216"/>
-      <c r="G30" s="212"/>
-      <c r="H30" s="217"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="218"/>
-      <c r="K30" s="219"/>
-      <c r="L30" s="219"/>
-      <c r="M30" s="219"/>
-      <c r="N30" s="219"/>
-      <c r="O30" s="219"/>
-      <c r="P30" s="220"/>
-      <c r="Q30" s="221"/>
-      <c r="R30" s="222"/>
-      <c r="S30" s="222"/>
-      <c r="T30" s="222"/>
-      <c r="U30" s="222"/>
-      <c r="V30" s="222"/>
-      <c r="W30" s="222"/>
-      <c r="X30" s="222"/>
-      <c r="Y30" s="222"/>
-      <c r="Z30" s="222"/>
-      <c r="AA30" s="222"/>
-      <c r="AB30" s="222"/>
-      <c r="AC30" s="222"/>
-      <c r="AD30" s="222"/>
-      <c r="AE30" s="223"/>
-      <c r="AF30" s="218"/>
-      <c r="AG30" s="219"/>
-      <c r="AH30" s="219"/>
-      <c r="AI30" s="220"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="171"/>
+      <c r="L30" s="171"/>
+      <c r="M30" s="171"/>
+      <c r="N30" s="171"/>
+      <c r="O30" s="171"/>
+      <c r="P30" s="172"/>
+      <c r="Q30" s="173"/>
+      <c r="R30" s="174"/>
+      <c r="S30" s="174"/>
+      <c r="T30" s="174"/>
+      <c r="U30" s="174"/>
+      <c r="V30" s="174"/>
+      <c r="W30" s="174"/>
+      <c r="X30" s="174"/>
+      <c r="Y30" s="174"/>
+      <c r="Z30" s="174"/>
+      <c r="AA30" s="174"/>
+      <c r="AB30" s="174"/>
+      <c r="AC30" s="174"/>
+      <c r="AD30" s="174"/>
+      <c r="AE30" s="175"/>
+      <c r="AF30" s="170"/>
+      <c r="AG30" s="171"/>
+      <c r="AH30" s="171"/>
+      <c r="AI30" s="172"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="212"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="216"/>
-      <c r="G31" s="212"/>
-      <c r="H31" s="217"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="218"/>
-      <c r="K31" s="219"/>
-      <c r="L31" s="219"/>
-      <c r="M31" s="219"/>
-      <c r="N31" s="219"/>
-      <c r="O31" s="219"/>
-      <c r="P31" s="220"/>
-      <c r="Q31" s="221"/>
-      <c r="R31" s="222"/>
-      <c r="S31" s="222"/>
-      <c r="T31" s="222"/>
-      <c r="U31" s="222"/>
-      <c r="V31" s="222"/>
-      <c r="W31" s="222"/>
-      <c r="X31" s="222"/>
-      <c r="Y31" s="222"/>
-      <c r="Z31" s="222"/>
-      <c r="AA31" s="222"/>
-      <c r="AB31" s="222"/>
-      <c r="AC31" s="222"/>
-      <c r="AD31" s="222"/>
-      <c r="AE31" s="223"/>
-      <c r="AF31" s="218"/>
-      <c r="AG31" s="219"/>
-      <c r="AH31" s="219"/>
-      <c r="AI31" s="220"/>
+      <c r="B31" s="164"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="171"/>
+      <c r="L31" s="171"/>
+      <c r="M31" s="171"/>
+      <c r="N31" s="171"/>
+      <c r="O31" s="171"/>
+      <c r="P31" s="172"/>
+      <c r="Q31" s="173"/>
+      <c r="R31" s="174"/>
+      <c r="S31" s="174"/>
+      <c r="T31" s="174"/>
+      <c r="U31" s="174"/>
+      <c r="V31" s="174"/>
+      <c r="W31" s="174"/>
+      <c r="X31" s="174"/>
+      <c r="Y31" s="174"/>
+      <c r="Z31" s="174"/>
+      <c r="AA31" s="174"/>
+      <c r="AB31" s="174"/>
+      <c r="AC31" s="174"/>
+      <c r="AD31" s="174"/>
+      <c r="AE31" s="175"/>
+      <c r="AF31" s="170"/>
+      <c r="AG31" s="171"/>
+      <c r="AH31" s="171"/>
+      <c r="AI31" s="172"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="212"/>
-      <c r="C32" s="213"/>
-      <c r="D32" s="214"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="216"/>
-      <c r="G32" s="212"/>
-      <c r="H32" s="217"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="218"/>
-      <c r="K32" s="224"/>
-      <c r="L32" s="219"/>
-      <c r="M32" s="219"/>
-      <c r="N32" s="219"/>
-      <c r="O32" s="219"/>
-      <c r="P32" s="220"/>
-      <c r="Q32" s="221"/>
-      <c r="R32" s="222"/>
-      <c r="S32" s="222"/>
-      <c r="T32" s="222"/>
-      <c r="U32" s="222"/>
-      <c r="V32" s="222"/>
-      <c r="W32" s="222"/>
-      <c r="X32" s="222"/>
-      <c r="Y32" s="222"/>
-      <c r="Z32" s="222"/>
-      <c r="AA32" s="222"/>
-      <c r="AB32" s="222"/>
-      <c r="AC32" s="222"/>
-      <c r="AD32" s="222"/>
-      <c r="AE32" s="223"/>
-      <c r="AF32" s="218"/>
-      <c r="AG32" s="219"/>
-      <c r="AH32" s="219"/>
-      <c r="AI32" s="220"/>
+      <c r="B32" s="164"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="170"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="171"/>
+      <c r="M32" s="171"/>
+      <c r="N32" s="171"/>
+      <c r="O32" s="171"/>
+      <c r="P32" s="172"/>
+      <c r="Q32" s="173"/>
+      <c r="R32" s="174"/>
+      <c r="S32" s="174"/>
+      <c r="T32" s="174"/>
+      <c r="U32" s="174"/>
+      <c r="V32" s="174"/>
+      <c r="W32" s="174"/>
+      <c r="X32" s="174"/>
+      <c r="Y32" s="174"/>
+      <c r="Z32" s="174"/>
+      <c r="AA32" s="174"/>
+      <c r="AB32" s="174"/>
+      <c r="AC32" s="174"/>
+      <c r="AD32" s="174"/>
+      <c r="AE32" s="175"/>
+      <c r="AF32" s="170"/>
+      <c r="AG32" s="171"/>
+      <c r="AH32" s="171"/>
+      <c r="AI32" s="172"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="212"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="214"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="216"/>
-      <c r="G33" s="212"/>
-      <c r="H33" s="217"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="218"/>
-      <c r="K33" s="219"/>
-      <c r="L33" s="219"/>
-      <c r="M33" s="219"/>
-      <c r="N33" s="219"/>
-      <c r="O33" s="219"/>
-      <c r="P33" s="220"/>
-      <c r="Q33" s="221"/>
-      <c r="R33" s="222"/>
-      <c r="S33" s="222"/>
-      <c r="T33" s="222"/>
-      <c r="U33" s="222"/>
-      <c r="V33" s="222"/>
-      <c r="W33" s="222"/>
-      <c r="X33" s="222"/>
-      <c r="Y33" s="222"/>
-      <c r="Z33" s="222"/>
-      <c r="AA33" s="222"/>
-      <c r="AB33" s="222"/>
-      <c r="AC33" s="222"/>
-      <c r="AD33" s="222"/>
-      <c r="AE33" s="223"/>
-      <c r="AF33" s="218"/>
-      <c r="AG33" s="219"/>
-      <c r="AH33" s="219"/>
-      <c r="AI33" s="220"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="164"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="171"/>
+      <c r="L33" s="171"/>
+      <c r="M33" s="171"/>
+      <c r="N33" s="171"/>
+      <c r="O33" s="171"/>
+      <c r="P33" s="172"/>
+      <c r="Q33" s="173"/>
+      <c r="R33" s="174"/>
+      <c r="S33" s="174"/>
+      <c r="T33" s="174"/>
+      <c r="U33" s="174"/>
+      <c r="V33" s="174"/>
+      <c r="W33" s="174"/>
+      <c r="X33" s="174"/>
+      <c r="Y33" s="174"/>
+      <c r="Z33" s="174"/>
+      <c r="AA33" s="174"/>
+      <c r="AB33" s="174"/>
+      <c r="AC33" s="174"/>
+      <c r="AD33" s="174"/>
+      <c r="AE33" s="175"/>
+      <c r="AF33" s="170"/>
+      <c r="AG33" s="171"/>
+      <c r="AH33" s="171"/>
+      <c r="AI33" s="172"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -10920,167 +11071,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -11098,7 +11088,7 @@
   <dimension ref="A1:P322"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -21920,9 +21910,9 @@
   </sheetPr>
   <dimension ref="A1:P322"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G167" sqref="G167:G170"/>
+      <selection pane="bottomLeft" activeCell="G212" sqref="G212:G226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -27398,8 +27388,8 @@
       <c r="F166" s="102" t="s">
         <v>279</v>
       </c>
-      <c r="G166" s="225" t="s">
-        <v>512</v>
+      <c r="G166" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H166" s="42"/>
       <c r="I166" s="105"/>
@@ -27565,8 +27555,8 @@
       <c r="F171" s="113" t="s">
         <v>284</v>
       </c>
-      <c r="G171" s="225" t="s">
-        <v>512</v>
+      <c r="G171" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H171" s="42"/>
       <c r="I171" s="105"/>
@@ -27598,8 +27588,8 @@
       <c r="F172" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="G172" s="225" t="s">
-        <v>512</v>
+      <c r="G172" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H172" s="42"/>
       <c r="I172" s="105"/>
@@ -27631,8 +27621,8 @@
       <c r="F173" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="G173" s="225" t="s">
-        <v>512</v>
+      <c r="G173" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H173" s="42"/>
       <c r="I173" s="105"/>
@@ -27664,8 +27654,8 @@
       <c r="F174" s="113" t="s">
         <v>287</v>
       </c>
-      <c r="G174" s="225" t="s">
-        <v>512</v>
+      <c r="G174" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H174" s="42"/>
       <c r="I174" s="105"/>
@@ -27697,8 +27687,8 @@
       <c r="F175" s="113" t="s">
         <v>288</v>
       </c>
-      <c r="G175" s="225" t="s">
-        <v>512</v>
+      <c r="G175" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H175" s="42"/>
       <c r="I175" s="105"/>
@@ -27730,8 +27720,8 @@
       <c r="F176" s="113" t="s">
         <v>289</v>
       </c>
-      <c r="G176" s="225" t="s">
-        <v>512</v>
+      <c r="G176" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H176" s="42"/>
       <c r="I176" s="105"/>
@@ -27763,8 +27753,8 @@
       <c r="F177" s="113" t="s">
         <v>290</v>
       </c>
-      <c r="G177" s="225" t="s">
-        <v>512</v>
+      <c r="G177" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H177" s="42"/>
       <c r="I177" s="105"/>
@@ -27796,8 +27786,8 @@
       <c r="F178" s="113" t="s">
         <v>291</v>
       </c>
-      <c r="G178" s="225" t="s">
-        <v>512</v>
+      <c r="G178" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H178" s="42"/>
       <c r="I178" s="105"/>
@@ -27829,8 +27819,8 @@
       <c r="F179" s="113" t="s">
         <v>292</v>
       </c>
-      <c r="G179" s="225" t="s">
-        <v>512</v>
+      <c r="G179" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H179" s="42"/>
       <c r="I179" s="105"/>
@@ -27864,8 +27854,8 @@
       <c r="F180" s="113" t="s">
         <v>293</v>
       </c>
-      <c r="G180" s="225" t="s">
-        <v>512</v>
+      <c r="G180" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H180" s="42"/>
       <c r="I180" s="105"/>
@@ -28025,7 +28015,7 @@
       <c r="O184" s="99"/>
       <c r="P184" s="99"/>
     </row>
-    <row r="185" spans="1:16" s="100" customFormat="1" ht="33.75">
+    <row r="185" spans="1:16" s="100" customFormat="1" ht="22.5">
       <c r="A185" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E185),
@@ -28053,7 +28043,7 @@
       <c r="F185" s="113" t="s">
         <v>305</v>
       </c>
-      <c r="G185" s="225" t="s">
+      <c r="G185" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H185" s="42"/>
@@ -28066,7 +28056,7 @@
       <c r="O185" s="99"/>
       <c r="P185" s="99"/>
     </row>
-    <row r="186" spans="1:16" s="100" customFormat="1" ht="33.75">
+    <row r="186" spans="1:16" s="100" customFormat="1" ht="22.5">
       <c r="A186" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E186),
@@ -28088,7 +28078,7 @@
       <c r="F186" s="113" t="s">
         <v>306</v>
       </c>
-      <c r="G186" s="225" t="s">
+      <c r="G186" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H186" s="42"/>
@@ -28101,7 +28091,7 @@
       <c r="O186" s="99"/>
       <c r="P186" s="99"/>
     </row>
-    <row r="187" spans="1:16" s="100" customFormat="1" ht="33.75">
+    <row r="187" spans="1:16" s="100" customFormat="1" ht="22.5">
       <c r="A187" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E187),
@@ -28121,7 +28111,7 @@
       <c r="F187" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="G187" s="225" t="s">
+      <c r="G187" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H187" s="42"/>
@@ -28156,7 +28146,7 @@
       <c r="F188" s="113" t="s">
         <v>309</v>
       </c>
-      <c r="G188" s="225" t="s">
+      <c r="G188" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H188" s="42"/>
@@ -28189,7 +28179,7 @@
       <c r="F189" s="113" t="s">
         <v>310</v>
       </c>
-      <c r="G189" s="225" t="s">
+      <c r="G189" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H189" s="42"/>
@@ -28226,7 +28216,7 @@
       <c r="F190" s="113" t="s">
         <v>311</v>
       </c>
-      <c r="G190" s="225" t="s">
+      <c r="G190" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H190" s="42"/>
@@ -28265,8 +28255,8 @@
       <c r="F191" s="113" t="s">
         <v>315</v>
       </c>
-      <c r="G191" s="225" t="s">
-        <v>511</v>
+      <c r="G191" s="162" t="s">
+        <v>501</v>
       </c>
       <c r="H191" s="42"/>
       <c r="I191" s="105"/>
@@ -28298,8 +28288,8 @@
       <c r="F192" s="113" t="s">
         <v>316</v>
       </c>
-      <c r="G192" s="225" t="s">
-        <v>511</v>
+      <c r="G192" s="162" t="s">
+        <v>501</v>
       </c>
       <c r="H192" s="42"/>
       <c r="I192" s="105"/>
@@ -28331,8 +28321,8 @@
       <c r="F193" s="113" t="s">
         <v>317</v>
       </c>
-      <c r="G193" s="225" t="s">
-        <v>511</v>
+      <c r="G193" s="162" t="s">
+        <v>501</v>
       </c>
       <c r="H193" s="42"/>
       <c r="I193" s="105"/>
@@ -28364,8 +28354,8 @@
       <c r="F194" s="113" t="s">
         <v>318</v>
       </c>
-      <c r="G194" s="225" t="s">
-        <v>511</v>
+      <c r="G194" s="162" t="s">
+        <v>501</v>
       </c>
       <c r="H194" s="42"/>
       <c r="I194" s="105"/>
@@ -28397,8 +28387,8 @@
       <c r="F195" s="113" t="s">
         <v>319</v>
       </c>
-      <c r="G195" s="225" t="s">
-        <v>511</v>
+      <c r="G195" s="162" t="s">
+        <v>501</v>
       </c>
       <c r="H195" s="42"/>
       <c r="I195" s="105"/>
@@ -28430,8 +28420,8 @@
       <c r="F196" s="113" t="s">
         <v>320</v>
       </c>
-      <c r="G196" s="225" t="s">
-        <v>511</v>
+      <c r="G196" s="162" t="s">
+        <v>501</v>
       </c>
       <c r="H196" s="42"/>
       <c r="I196" s="105"/>
@@ -28463,8 +28453,8 @@
       <c r="F197" s="113" t="s">
         <v>321</v>
       </c>
-      <c r="G197" s="225" t="s">
-        <v>511</v>
+      <c r="G197" s="162" t="s">
+        <v>501</v>
       </c>
       <c r="H197" s="42"/>
       <c r="I197" s="105"/>
@@ -28498,8 +28488,8 @@
       <c r="F198" s="113" t="s">
         <v>323</v>
       </c>
-      <c r="G198" s="225" t="s">
-        <v>511</v>
+      <c r="G198" s="162" t="s">
+        <v>501</v>
       </c>
       <c r="H198" s="42"/>
       <c r="I198" s="105"/>
@@ -28535,8 +28525,8 @@
       <c r="F199" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="G199" s="225" t="s">
-        <v>511</v>
+      <c r="G199" s="162" t="s">
+        <v>501</v>
       </c>
       <c r="H199" s="42"/>
       <c r="I199" s="105"/>
@@ -28568,8 +28558,8 @@
       <c r="F200" s="113" t="s">
         <v>325</v>
       </c>
-      <c r="G200" s="225" t="s">
-        <v>511</v>
+      <c r="G200" s="162" t="s">
+        <v>501</v>
       </c>
       <c r="H200" s="42"/>
       <c r="I200" s="105"/>
@@ -28601,8 +28591,8 @@
       <c r="F201" s="113" t="s">
         <v>326</v>
       </c>
-      <c r="G201" s="225" t="s">
-        <v>511</v>
+      <c r="G201" s="162" t="s">
+        <v>501</v>
       </c>
       <c r="H201" s="42"/>
       <c r="I201" s="105"/>
@@ -28634,8 +28624,8 @@
       <c r="F202" s="113" t="s">
         <v>327</v>
       </c>
-      <c r="G202" s="225" t="s">
-        <v>511</v>
+      <c r="G202" s="162" t="s">
+        <v>501</v>
       </c>
       <c r="H202" s="42"/>
       <c r="I202" s="105"/>
@@ -28667,7 +28657,7 @@
       <c r="F203" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="G203" s="225" t="s">
+      <c r="G203" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H203" s="42"/>
@@ -28700,7 +28690,7 @@
       <c r="F204" s="113" t="s">
         <v>329</v>
       </c>
-      <c r="G204" s="225" t="s">
+      <c r="G204" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H204" s="42"/>
@@ -28733,7 +28723,7 @@
       <c r="F205" s="113" t="s">
         <v>330</v>
       </c>
-      <c r="G205" s="225" t="s">
+      <c r="G205" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H205" s="42"/>
@@ -28766,7 +28756,7 @@
       <c r="F206" s="113" t="s">
         <v>331</v>
       </c>
-      <c r="G206" s="225" t="s">
+      <c r="G206" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H206" s="42"/>
@@ -28799,7 +28789,7 @@
       <c r="F207" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="G207" s="225" t="s">
+      <c r="G207" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H207" s="42"/>
@@ -28812,7 +28802,7 @@
       <c r="O207" s="99"/>
       <c r="P207" s="99"/>
     </row>
-    <row r="208" spans="1:16" s="100" customFormat="1" ht="33.75">
+    <row r="208" spans="1:16" s="100" customFormat="1" ht="22.5">
       <c r="A208" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E208),
@@ -28832,7 +28822,7 @@
       <c r="F208" s="113" t="s">
         <v>333</v>
       </c>
-      <c r="G208" s="225" t="s">
+      <c r="G208" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H208" s="42"/>
@@ -28845,7 +28835,7 @@
       <c r="O208" s="99"/>
       <c r="P208" s="99"/>
     </row>
-    <row r="209" spans="1:16" s="100" customFormat="1" ht="33.75">
+    <row r="209" spans="1:16" s="100" customFormat="1" ht="22.5">
       <c r="A209" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E209),
@@ -28865,7 +28855,7 @@
       <c r="F209" s="113" t="s">
         <v>334</v>
       </c>
-      <c r="G209" s="225" t="s">
+      <c r="G209" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H209" s="42"/>
@@ -28898,7 +28888,7 @@
       <c r="F210" s="113" t="s">
         <v>335</v>
       </c>
-      <c r="G210" s="225" t="s">
+      <c r="G210" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H210" s="42"/>
@@ -28931,8 +28921,8 @@
       <c r="F211" s="113" t="s">
         <v>336</v>
       </c>
-      <c r="G211" s="225" t="s">
-        <v>511</v>
+      <c r="G211" s="162" t="s">
+        <v>501</v>
       </c>
       <c r="H211" s="42"/>
       <c r="I211" s="105"/>
@@ -28944,7 +28934,7 @@
       <c r="O211" s="99"/>
       <c r="P211" s="99"/>
     </row>
-    <row r="212" spans="1:16" s="100" customFormat="1" ht="33.75">
+    <row r="212" spans="1:16" s="100" customFormat="1" ht="22.5">
       <c r="A212" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E212),
@@ -28968,7 +28958,7 @@
       <c r="F212" s="113" t="s">
         <v>338</v>
       </c>
-      <c r="G212" s="225" t="s">
+      <c r="G212" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H212" s="42"/>
@@ -28981,7 +28971,7 @@
       <c r="O212" s="99"/>
       <c r="P212" s="99"/>
     </row>
-    <row r="213" spans="1:16" s="100" customFormat="1" ht="33.75">
+    <row r="213" spans="1:16" s="100" customFormat="1" ht="22.5">
       <c r="A213" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E213),
@@ -29001,7 +28991,7 @@
       <c r="F213" s="113" t="s">
         <v>339</v>
       </c>
-      <c r="G213" s="225" t="s">
+      <c r="G213" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H213" s="42"/>
@@ -29014,7 +29004,7 @@
       <c r="O213" s="99"/>
       <c r="P213" s="99"/>
     </row>
-    <row r="214" spans="1:16" s="100" customFormat="1" ht="33.75">
+    <row r="214" spans="1:16" s="100" customFormat="1" ht="22.5">
       <c r="A214" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E214),
@@ -29034,7 +29024,7 @@
       <c r="F214" s="113" t="s">
         <v>340</v>
       </c>
-      <c r="G214" s="225" t="s">
+      <c r="G214" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H214" s="42"/>
@@ -29047,7 +29037,7 @@
       <c r="O214" s="99"/>
       <c r="P214" s="99"/>
     </row>
-    <row r="215" spans="1:16" s="100" customFormat="1" ht="33.75">
+    <row r="215" spans="1:16" s="100" customFormat="1" ht="22.5">
       <c r="A215" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E215),
@@ -29067,7 +29057,7 @@
       <c r="F215" s="113" t="s">
         <v>326</v>
       </c>
-      <c r="G215" s="225" t="s">
+      <c r="G215" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H215" s="42"/>
@@ -29080,7 +29070,7 @@
       <c r="O215" s="99"/>
       <c r="P215" s="99"/>
     </row>
-    <row r="216" spans="1:16" s="100" customFormat="1" ht="33.75">
+    <row r="216" spans="1:16" s="100" customFormat="1" ht="22.5">
       <c r="A216" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E216),
@@ -29100,7 +29090,7 @@
       <c r="F216" s="113" t="s">
         <v>327</v>
       </c>
-      <c r="G216" s="225" t="s">
+      <c r="G216" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H216" s="42"/>
@@ -29133,7 +29123,7 @@
       <c r="F217" s="113" t="s">
         <v>341</v>
       </c>
-      <c r="G217" s="225" t="s">
+      <c r="G217" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H217" s="42"/>
@@ -29166,7 +29156,7 @@
       <c r="F218" s="113" t="s">
         <v>342</v>
       </c>
-      <c r="G218" s="225" t="s">
+      <c r="G218" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H218" s="42"/>
@@ -29199,7 +29189,7 @@
       <c r="F219" s="113" t="s">
         <v>343</v>
       </c>
-      <c r="G219" s="225" t="s">
+      <c r="G219" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H219" s="42"/>
@@ -29232,7 +29222,7 @@
       <c r="F220" s="113" t="s">
         <v>344</v>
       </c>
-      <c r="G220" s="225" t="s">
+      <c r="G220" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H220" s="42"/>
@@ -29265,7 +29255,7 @@
       <c r="F221" s="113" t="s">
         <v>345</v>
       </c>
-      <c r="G221" s="225" t="s">
+      <c r="G221" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H221" s="42"/>
@@ -29298,7 +29288,7 @@
       <c r="F222" s="113" t="s">
         <v>346</v>
       </c>
-      <c r="G222" s="225" t="s">
+      <c r="G222" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H222" s="42"/>
@@ -29311,7 +29301,7 @@
       <c r="O222" s="99"/>
       <c r="P222" s="99"/>
     </row>
-    <row r="223" spans="1:16" s="100" customFormat="1" ht="33.75">
+    <row r="223" spans="1:16" s="100" customFormat="1" ht="22.5">
       <c r="A223" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E223),
@@ -29331,7 +29321,7 @@
       <c r="F223" s="113" t="s">
         <v>347</v>
       </c>
-      <c r="G223" s="225" t="s">
+      <c r="G223" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H223" s="42"/>
@@ -29344,7 +29334,7 @@
       <c r="O223" s="99"/>
       <c r="P223" s="99"/>
     </row>
-    <row r="224" spans="1:16" s="100" customFormat="1" ht="33.75">
+    <row r="224" spans="1:16" s="100" customFormat="1" ht="22.5">
       <c r="A224" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E224),
@@ -29364,7 +29354,7 @@
       <c r="F224" s="113" t="s">
         <v>348</v>
       </c>
-      <c r="G224" s="225" t="s">
+      <c r="G224" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H224" s="42"/>
@@ -29397,7 +29387,7 @@
       <c r="F225" s="113" t="s">
         <v>349</v>
       </c>
-      <c r="G225" s="225" t="s">
+      <c r="G225" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H225" s="42"/>
@@ -29410,7 +29400,7 @@
       <c r="O225" s="99"/>
       <c r="P225" s="99"/>
     </row>
-    <row r="226" spans="1:16" s="100" customFormat="1" ht="33.75">
+    <row r="226" spans="1:16" s="100" customFormat="1" ht="22.5">
       <c r="A226" s="30" t="str" cm="1">
         <f t="array" aca="1" ref="A226" ca="1">_xlfn.LET(
 _xlpm.詳細項目数, COUNTA($E$11:E226),
@@ -29430,7 +29420,7 @@
       <c r="F226" s="113" t="s">
         <v>336</v>
       </c>
-      <c r="G226" s="225" t="s">
+      <c r="G226" s="162" t="s">
         <v>510</v>
       </c>
       <c r="H226" s="42"/>
@@ -29465,8 +29455,8 @@
       <c r="F227" s="113" t="s">
         <v>351</v>
       </c>
-      <c r="G227" s="225" t="s">
-        <v>512</v>
+      <c r="G227" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H227" s="42"/>
       <c r="I227" s="105"/>
@@ -29498,8 +29488,8 @@
       <c r="F228" s="113" t="s">
         <v>352</v>
       </c>
-      <c r="G228" s="225" t="s">
-        <v>512</v>
+      <c r="G228" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H228" s="42"/>
       <c r="I228" s="105"/>
@@ -29531,8 +29521,8 @@
       <c r="F229" s="113" t="s">
         <v>353</v>
       </c>
-      <c r="G229" s="225" t="s">
-        <v>512</v>
+      <c r="G229" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H229" s="42"/>
       <c r="I229" s="105"/>
@@ -29566,8 +29556,8 @@
       <c r="F230" s="113" t="s">
         <v>354</v>
       </c>
-      <c r="G230" s="225" t="s">
-        <v>512</v>
+      <c r="G230" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H230" s="42"/>
       <c r="I230" s="105"/>
@@ -29601,8 +29591,8 @@
       <c r="F231" s="113" t="s">
         <v>356</v>
       </c>
-      <c r="G231" s="225" t="s">
-        <v>512</v>
+      <c r="G231" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H231" s="42"/>
       <c r="I231" s="105"/>
@@ -29642,8 +29632,8 @@
       <c r="F232" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="G232" s="225" t="s">
-        <v>512</v>
+      <c r="G232" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H232" s="42"/>
       <c r="I232" s="105"/>
@@ -29677,8 +29667,8 @@
       <c r="F233" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="G233" s="225" t="s">
-        <v>512</v>
+      <c r="G233" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H233" s="42"/>
       <c r="I233" s="105"/>
@@ -29710,8 +29700,8 @@
       <c r="F234" s="113" t="s">
         <v>360</v>
       </c>
-      <c r="G234" s="225" t="s">
-        <v>512</v>
+      <c r="G234" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H234" s="42"/>
       <c r="I234" s="105"/>
@@ -29743,8 +29733,8 @@
       <c r="F235" s="113" t="s">
         <v>361</v>
       </c>
-      <c r="G235" s="225" t="s">
-        <v>512</v>
+      <c r="G235" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H235" s="42"/>
       <c r="I235" s="105"/>
@@ -29776,8 +29766,8 @@
       <c r="F236" s="113" t="s">
         <v>362</v>
       </c>
-      <c r="G236" s="225" t="s">
-        <v>512</v>
+      <c r="G236" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H236" s="42"/>
       <c r="I236" s="105"/>
@@ -29809,8 +29799,8 @@
       <c r="F237" s="113" t="s">
         <v>363</v>
       </c>
-      <c r="G237" s="225" t="s">
-        <v>512</v>
+      <c r="G237" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H237" s="42"/>
       <c r="I237" s="105"/>
@@ -29844,8 +29834,8 @@
       <c r="F238" s="113" t="s">
         <v>364</v>
       </c>
-      <c r="G238" s="225" t="s">
-        <v>512</v>
+      <c r="G238" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H238" s="42"/>
       <c r="I238" s="105"/>
@@ -29877,8 +29867,8 @@
       <c r="F239" s="113" t="s">
         <v>365</v>
       </c>
-      <c r="G239" s="225" t="s">
-        <v>512</v>
+      <c r="G239" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H239" s="42"/>
       <c r="I239" s="105"/>
@@ -29910,8 +29900,8 @@
       <c r="F240" s="113" t="s">
         <v>366</v>
       </c>
-      <c r="G240" s="225" t="s">
-        <v>512</v>
+      <c r="G240" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H240" s="42"/>
       <c r="I240" s="105"/>
@@ -29943,8 +29933,8 @@
       <c r="F241" s="113" t="s">
         <v>367</v>
       </c>
-      <c r="G241" s="225" t="s">
-        <v>512</v>
+      <c r="G241" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H241" s="42"/>
       <c r="I241" s="105"/>
@@ -29976,8 +29966,8 @@
       <c r="F242" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="G242" s="225" t="s">
-        <v>512</v>
+      <c r="G242" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H242" s="42"/>
       <c r="I242" s="105"/>
@@ -30011,8 +30001,8 @@
       <c r="F243" s="113" t="s">
         <v>370</v>
       </c>
-      <c r="G243" s="225" t="s">
-        <v>513</v>
+      <c r="G243" s="162" t="s">
+        <v>511</v>
       </c>
       <c r="H243" s="42"/>
       <c r="I243" s="105"/>
@@ -30050,8 +30040,8 @@
       <c r="F244" s="113" t="s">
         <v>371</v>
       </c>
-      <c r="G244" s="225" t="s">
-        <v>514</v>
+      <c r="G244" s="162" t="s">
+        <v>512</v>
       </c>
       <c r="H244" s="42"/>
       <c r="I244" s="105"/>
@@ -30091,8 +30081,8 @@
       <c r="F245" s="113" t="s">
         <v>374</v>
       </c>
-      <c r="G245" s="225" t="s">
-        <v>512</v>
+      <c r="G245" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H245" s="42"/>
       <c r="I245" s="105"/>
@@ -30124,8 +30114,8 @@
       <c r="F246" s="113" t="s">
         <v>375</v>
       </c>
-      <c r="G246" s="225" t="s">
-        <v>512</v>
+      <c r="G246" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H246" s="42"/>
       <c r="I246" s="105"/>
@@ -30161,8 +30151,8 @@
       <c r="F247" s="113" t="s">
         <v>376</v>
       </c>
-      <c r="G247" s="225" t="s">
-        <v>512</v>
+      <c r="G247" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H247" s="42"/>
       <c r="I247" s="105"/>
@@ -30194,8 +30184,8 @@
       <c r="F248" s="113" t="s">
         <v>377</v>
       </c>
-      <c r="G248" s="225" t="s">
-        <v>512</v>
+      <c r="G248" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H248" s="42"/>
       <c r="I248" s="105"/>
@@ -30233,8 +30223,8 @@
       <c r="F249" s="113" t="s">
         <v>379</v>
       </c>
-      <c r="G249" s="225" t="s">
-        <v>512</v>
+      <c r="G249" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H249" s="42"/>
       <c r="I249" s="105"/>
@@ -30268,8 +30258,8 @@
       <c r="F250" s="113" t="s">
         <v>380</v>
       </c>
-      <c r="G250" s="225" t="s">
-        <v>512</v>
+      <c r="G250" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H250" s="42"/>
       <c r="I250" s="105"/>
@@ -30303,8 +30293,8 @@
       <c r="F251" s="113" t="s">
         <v>381</v>
       </c>
-      <c r="G251" s="225" t="s">
-        <v>512</v>
+      <c r="G251" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H251" s="42"/>
       <c r="I251" s="105"/>
@@ -30338,8 +30328,8 @@
       <c r="F252" s="113" t="s">
         <v>383</v>
       </c>
-      <c r="G252" s="225" t="s">
-        <v>512</v>
+      <c r="G252" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H252" s="42"/>
       <c r="I252" s="105"/>
@@ -30375,8 +30365,8 @@
       <c r="F253" s="113" t="s">
         <v>384</v>
       </c>
-      <c r="G253" s="225" t="s">
-        <v>512</v>
+      <c r="G253" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H253" s="42"/>
       <c r="I253" s="105"/>
@@ -30408,8 +30398,8 @@
       <c r="F254" s="113" t="s">
         <v>385</v>
       </c>
-      <c r="G254" s="225" t="s">
-        <v>512</v>
+      <c r="G254" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H254" s="42"/>
       <c r="I254" s="105"/>
@@ -30443,8 +30433,8 @@
       <c r="F255" s="113" t="s">
         <v>386</v>
       </c>
-      <c r="G255" s="225" t="s">
-        <v>512</v>
+      <c r="G255" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H255" s="42"/>
       <c r="I255" s="105"/>
@@ -30476,8 +30466,8 @@
       <c r="F256" s="113" t="s">
         <v>387</v>
       </c>
-      <c r="G256" s="225" t="s">
-        <v>512</v>
+      <c r="G256" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H256" s="42"/>
       <c r="I256" s="105"/>
@@ -30509,8 +30499,8 @@
       <c r="F257" s="113" t="s">
         <v>388</v>
       </c>
-      <c r="G257" s="225" t="s">
-        <v>512</v>
+      <c r="G257" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H257" s="42"/>
       <c r="I257" s="105"/>
@@ -30542,8 +30532,8 @@
       <c r="F258" s="113" t="s">
         <v>389</v>
       </c>
-      <c r="G258" s="225" t="s">
-        <v>512</v>
+      <c r="G258" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H258" s="42"/>
       <c r="I258" s="105"/>
@@ -30575,8 +30565,8 @@
       <c r="F259" s="113" t="s">
         <v>390</v>
       </c>
-      <c r="G259" s="225" t="s">
-        <v>512</v>
+      <c r="G259" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H259" s="42"/>
       <c r="I259" s="105"/>
@@ -30608,8 +30598,8 @@
       <c r="F260" s="113" t="s">
         <v>391</v>
       </c>
-      <c r="G260" s="225" t="s">
-        <v>512</v>
+      <c r="G260" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H260" s="42"/>
       <c r="I260" s="105"/>
@@ -30641,8 +30631,8 @@
       <c r="F261" s="113" t="s">
         <v>392</v>
       </c>
-      <c r="G261" s="225" t="s">
-        <v>512</v>
+      <c r="G261" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H261" s="42"/>
       <c r="I261" s="105"/>
@@ -30674,8 +30664,8 @@
       <c r="F262" s="113" t="s">
         <v>393</v>
       </c>
-      <c r="G262" s="225" t="s">
-        <v>512</v>
+      <c r="G262" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H262" s="42"/>
       <c r="I262" s="105"/>
@@ -30707,8 +30697,8 @@
       <c r="F263" s="113" t="s">
         <v>394</v>
       </c>
-      <c r="G263" s="225" t="s">
-        <v>512</v>
+      <c r="G263" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H263" s="42"/>
       <c r="I263" s="105"/>
@@ -30740,8 +30730,8 @@
       <c r="F264" s="113" t="s">
         <v>395</v>
       </c>
-      <c r="G264" s="225" t="s">
-        <v>512</v>
+      <c r="G264" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H264" s="42"/>
       <c r="I264" s="105"/>
@@ -30773,8 +30763,8 @@
       <c r="F265" s="113" t="s">
         <v>396</v>
       </c>
-      <c r="G265" s="225" t="s">
-        <v>512</v>
+      <c r="G265" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H265" s="42"/>
       <c r="I265" s="105"/>
@@ -30808,8 +30798,8 @@
       <c r="F266" s="113" t="s">
         <v>397</v>
       </c>
-      <c r="G266" s="225" t="s">
-        <v>512</v>
+      <c r="G266" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H266" s="42"/>
       <c r="I266" s="105"/>
@@ -30841,8 +30831,8 @@
       <c r="F267" s="113" t="s">
         <v>398</v>
       </c>
-      <c r="G267" s="225" t="s">
-        <v>512</v>
+      <c r="G267" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H267" s="42"/>
       <c r="I267" s="105"/>
@@ -30874,8 +30864,8 @@
       <c r="F268" s="113" t="s">
         <v>399</v>
       </c>
-      <c r="G268" s="225" t="s">
-        <v>512</v>
+      <c r="G268" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H268" s="42"/>
       <c r="I268" s="105"/>
@@ -30907,8 +30897,8 @@
       <c r="F269" s="113" t="s">
         <v>400</v>
       </c>
-      <c r="G269" s="225" t="s">
-        <v>512</v>
+      <c r="G269" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H269" s="42"/>
       <c r="I269" s="105"/>
@@ -30940,8 +30930,8 @@
       <c r="F270" s="113" t="s">
         <v>401</v>
       </c>
-      <c r="G270" s="225" t="s">
-        <v>512</v>
+      <c r="G270" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H270" s="42"/>
       <c r="I270" s="105"/>
@@ -30973,8 +30963,8 @@
       <c r="F271" s="113" t="s">
         <v>402</v>
       </c>
-      <c r="G271" s="225" t="s">
-        <v>512</v>
+      <c r="G271" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H271" s="42"/>
       <c r="I271" s="105"/>
@@ -31008,8 +30998,8 @@
       <c r="F272" s="113" t="s">
         <v>403</v>
       </c>
-      <c r="G272" s="225" t="s">
-        <v>512</v>
+      <c r="G272" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H272" s="42"/>
       <c r="I272" s="105"/>
@@ -31041,8 +31031,8 @@
       <c r="F273" s="113" t="s">
         <v>404</v>
       </c>
-      <c r="G273" s="225" t="s">
-        <v>512</v>
+      <c r="G273" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H273" s="42"/>
       <c r="I273" s="105"/>
@@ -31074,8 +31064,8 @@
       <c r="F274" s="113" t="s">
         <v>405</v>
       </c>
-      <c r="G274" s="225" t="s">
-        <v>512</v>
+      <c r="G274" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H274" s="42"/>
       <c r="I274" s="105"/>
@@ -31107,8 +31097,8 @@
       <c r="F275" s="113" t="s">
         <v>406</v>
       </c>
-      <c r="G275" s="225" t="s">
-        <v>512</v>
+      <c r="G275" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H275" s="42"/>
       <c r="I275" s="105"/>
@@ -31140,8 +31130,8 @@
       <c r="F276" s="113" t="s">
         <v>407</v>
       </c>
-      <c r="G276" s="225" t="s">
-        <v>512</v>
+      <c r="G276" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H276" s="42"/>
       <c r="I276" s="105"/>
@@ -31173,8 +31163,8 @@
       <c r="F277" s="113" t="s">
         <v>408</v>
       </c>
-      <c r="G277" s="225" t="s">
-        <v>512</v>
+      <c r="G277" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H277" s="42"/>
       <c r="I277" s="105"/>
@@ -31206,8 +31196,8 @@
       <c r="F278" s="113" t="s">
         <v>409</v>
       </c>
-      <c r="G278" s="225" t="s">
-        <v>512</v>
+      <c r="G278" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H278" s="42"/>
       <c r="I278" s="105"/>
@@ -31239,8 +31229,8 @@
       <c r="F279" s="113" t="s">
         <v>410</v>
       </c>
-      <c r="G279" s="225" t="s">
-        <v>512</v>
+      <c r="G279" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H279" s="42"/>
       <c r="I279" s="105"/>
@@ -31274,8 +31264,8 @@
       <c r="F280" s="113" t="s">
         <v>411</v>
       </c>
-      <c r="G280" s="225" t="s">
-        <v>512</v>
+      <c r="G280" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H280" s="42"/>
       <c r="I280" s="105"/>
@@ -31315,8 +31305,8 @@
       <c r="F281" s="113" t="s">
         <v>414</v>
       </c>
-      <c r="G281" s="225" t="s">
-        <v>513</v>
+      <c r="G281" s="162" t="s">
+        <v>511</v>
       </c>
       <c r="H281" s="42"/>
       <c r="I281" s="42"/>
@@ -31348,8 +31338,8 @@
       <c r="F282" s="113" t="s">
         <v>415</v>
       </c>
-      <c r="G282" s="225" t="s">
-        <v>513</v>
+      <c r="G282" s="162" t="s">
+        <v>511</v>
       </c>
       <c r="H282" s="42"/>
       <c r="I282" s="42"/>
@@ -31381,8 +31371,8 @@
       <c r="F283" s="113" t="s">
         <v>416</v>
       </c>
-      <c r="G283" s="225" t="s">
-        <v>513</v>
+      <c r="G283" s="162" t="s">
+        <v>511</v>
       </c>
       <c r="H283" s="42"/>
       <c r="I283" s="42"/>
@@ -31414,8 +31404,8 @@
       <c r="F284" s="113" t="s">
         <v>417</v>
       </c>
-      <c r="G284" s="225" t="s">
-        <v>513</v>
+      <c r="G284" s="162" t="s">
+        <v>511</v>
       </c>
       <c r="H284" s="42"/>
       <c r="I284" s="42"/>
@@ -31453,8 +31443,8 @@
       <c r="F285" s="113" t="s">
         <v>419</v>
       </c>
-      <c r="G285" s="225" t="s">
-        <v>513</v>
+      <c r="G285" s="162" t="s">
+        <v>511</v>
       </c>
       <c r="H285" s="42"/>
       <c r="I285" s="42"/>
@@ -31488,8 +31478,8 @@
       <c r="F286" s="113" t="s">
         <v>420</v>
       </c>
-      <c r="G286" s="225" t="s">
-        <v>513</v>
+      <c r="G286" s="162" t="s">
+        <v>511</v>
       </c>
       <c r="H286" s="42"/>
       <c r="I286" s="42"/>
@@ -31523,8 +31513,8 @@
       <c r="F287" s="113" t="s">
         <v>421</v>
       </c>
-      <c r="G287" s="225" t="s">
-        <v>513</v>
+      <c r="G287" s="162" t="s">
+        <v>511</v>
       </c>
       <c r="H287" s="42"/>
       <c r="I287" s="42"/>
@@ -31558,8 +31548,8 @@
       <c r="F288" s="113" t="s">
         <v>422</v>
       </c>
-      <c r="G288" s="225" t="s">
-        <v>513</v>
+      <c r="G288" s="162" t="s">
+        <v>511</v>
       </c>
       <c r="H288" s="42"/>
       <c r="I288" s="42"/>
@@ -31595,8 +31585,8 @@
       <c r="F289" s="113" t="s">
         <v>424</v>
       </c>
-      <c r="G289" s="225" t="s">
-        <v>515</v>
+      <c r="G289" s="162" t="s">
+        <v>513</v>
       </c>
       <c r="H289" s="42"/>
       <c r="I289" s="105"/>
@@ -31628,8 +31618,8 @@
       <c r="F290" s="113" t="s">
         <v>425</v>
       </c>
-      <c r="G290" s="225" t="s">
-        <v>516</v>
+      <c r="G290" s="162" t="s">
+        <v>514</v>
       </c>
       <c r="H290" s="42"/>
       <c r="I290" s="105"/>
@@ -31661,8 +31651,8 @@
       <c r="F291" s="113" t="s">
         <v>426</v>
       </c>
-      <c r="G291" s="225" t="s">
-        <v>512</v>
+      <c r="G291" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H291" s="42"/>
       <c r="I291" s="105"/>
@@ -31694,8 +31684,8 @@
       <c r="F292" s="113" t="s">
         <v>427</v>
       </c>
-      <c r="G292" s="225" t="s">
-        <v>512</v>
+      <c r="G292" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H292" s="42"/>
       <c r="I292" s="105"/>
@@ -31727,8 +31717,8 @@
       <c r="F293" s="113" t="s">
         <v>428</v>
       </c>
-      <c r="G293" s="225" t="s">
-        <v>512</v>
+      <c r="G293" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H293" s="42"/>
       <c r="I293" s="105"/>
@@ -31760,8 +31750,8 @@
       <c r="F294" s="113" t="s">
         <v>429</v>
       </c>
-      <c r="G294" s="225" t="s">
-        <v>512</v>
+      <c r="G294" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H294" s="42"/>
       <c r="I294" s="105"/>
@@ -31793,8 +31783,8 @@
       <c r="F295" s="113" t="s">
         <v>430</v>
       </c>
-      <c r="G295" s="225" t="s">
-        <v>512</v>
+      <c r="G295" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H295" s="42"/>
       <c r="I295" s="105"/>
@@ -31826,8 +31816,8 @@
       <c r="F296" s="113" t="s">
         <v>431</v>
       </c>
-      <c r="G296" s="225" t="s">
-        <v>512</v>
+      <c r="G296" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H296" s="42"/>
       <c r="I296" s="105"/>
@@ -31859,8 +31849,8 @@
       <c r="F297" s="113" t="s">
         <v>432</v>
       </c>
-      <c r="G297" s="225" t="s">
-        <v>512</v>
+      <c r="G297" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H297" s="42"/>
       <c r="I297" s="105"/>
@@ -31900,8 +31890,8 @@
       <c r="F298" s="113" t="s">
         <v>435</v>
       </c>
-      <c r="G298" s="225" t="s">
-        <v>512</v>
+      <c r="G298" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H298" s="42"/>
       <c r="I298" s="105"/>
@@ -31933,8 +31923,8 @@
       <c r="F299" s="113" t="s">
         <v>436</v>
       </c>
-      <c r="G299" s="225" t="s">
-        <v>512</v>
+      <c r="G299" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H299" s="42"/>
       <c r="I299" s="105"/>
@@ -31966,8 +31956,8 @@
       <c r="F300" s="113" t="s">
         <v>437</v>
       </c>
-      <c r="G300" s="225" t="s">
-        <v>512</v>
+      <c r="G300" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H300" s="42"/>
       <c r="I300" s="105"/>
@@ -31999,8 +31989,8 @@
       <c r="F301" s="113" t="s">
         <v>438</v>
       </c>
-      <c r="G301" s="225" t="s">
-        <v>512</v>
+      <c r="G301" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H301" s="42"/>
       <c r="I301" s="105"/>
@@ -32034,8 +32024,8 @@
       <c r="F302" s="113" t="s">
         <v>440</v>
       </c>
-      <c r="G302" s="225" t="s">
-        <v>512</v>
+      <c r="G302" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H302" s="42"/>
       <c r="I302" s="105"/>
@@ -32069,8 +32059,8 @@
       <c r="F303" s="113" t="s">
         <v>442</v>
       </c>
-      <c r="G303" s="225" t="s">
-        <v>512</v>
+      <c r="G303" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H303" s="42"/>
       <c r="I303" s="105"/>
@@ -32104,8 +32094,8 @@
       <c r="F304" s="113" t="s">
         <v>444</v>
       </c>
-      <c r="G304" s="225" t="s">
-        <v>512</v>
+      <c r="G304" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H304" s="42"/>
       <c r="I304" s="105"/>
@@ -32139,8 +32129,8 @@
       <c r="F305" s="113" t="s">
         <v>446</v>
       </c>
-      <c r="G305" s="225" t="s">
-        <v>512</v>
+      <c r="G305" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H305" s="42"/>
       <c r="I305" s="105"/>
@@ -32176,8 +32166,8 @@
       <c r="F306" s="113" t="s">
         <v>448</v>
       </c>
-      <c r="G306" s="225" t="s">
-        <v>512</v>
+      <c r="G306" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H306" s="42"/>
       <c r="I306" s="105"/>
@@ -32209,8 +32199,8 @@
       <c r="F307" s="113" t="s">
         <v>449</v>
       </c>
-      <c r="G307" s="225" t="s">
-        <v>512</v>
+      <c r="G307" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H307" s="42"/>
       <c r="I307" s="105"/>
@@ -32242,8 +32232,8 @@
       <c r="F308" s="113" t="s">
         <v>450</v>
       </c>
-      <c r="G308" s="225" t="s">
-        <v>512</v>
+      <c r="G308" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H308" s="42"/>
       <c r="I308" s="105"/>
@@ -32279,8 +32269,8 @@
       <c r="F309" s="113" t="s">
         <v>452</v>
       </c>
-      <c r="G309" s="225" t="s">
-        <v>512</v>
+      <c r="G309" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H309" s="42"/>
       <c r="I309" s="42"/>
@@ -32312,8 +32302,8 @@
       <c r="F310" s="113" t="s">
         <v>453</v>
       </c>
-      <c r="G310" s="225" t="s">
-        <v>512</v>
+      <c r="G310" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H310" s="42"/>
       <c r="I310" s="42"/>
@@ -32345,8 +32335,8 @@
       <c r="F311" s="113" t="s">
         <v>454</v>
       </c>
-      <c r="G311" s="225" t="s">
-        <v>512</v>
+      <c r="G311" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H311" s="42"/>
       <c r="I311" s="42"/>
@@ -32382,8 +32372,8 @@
       <c r="F312" s="113" t="s">
         <v>455</v>
       </c>
-      <c r="G312" s="225" t="s">
-        <v>512</v>
+      <c r="G312" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H312" s="42"/>
       <c r="I312" s="105"/>
@@ -32415,8 +32405,8 @@
       <c r="F313" s="113" t="s">
         <v>456</v>
       </c>
-      <c r="G313" s="225" t="s">
-        <v>512</v>
+      <c r="G313" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H313" s="42"/>
       <c r="I313" s="105"/>
@@ -32448,8 +32438,8 @@
       <c r="F314" s="113" t="s">
         <v>457</v>
       </c>
-      <c r="G314" s="225" t="s">
-        <v>512</v>
+      <c r="G314" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H314" s="42"/>
       <c r="I314" s="105"/>
@@ -32481,8 +32471,8 @@
       <c r="F315" s="113" t="s">
         <v>458</v>
       </c>
-      <c r="G315" s="225" t="s">
-        <v>512</v>
+      <c r="G315" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H315" s="42"/>
       <c r="I315" s="105"/>
@@ -32514,8 +32504,8 @@
       <c r="F316" s="113" t="s">
         <v>459</v>
       </c>
-      <c r="G316" s="225" t="s">
-        <v>512</v>
+      <c r="G316" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H316" s="42"/>
       <c r="I316" s="105"/>
@@ -32547,8 +32537,8 @@
       <c r="F317" s="113" t="s">
         <v>460</v>
       </c>
-      <c r="G317" s="225" t="s">
-        <v>512</v>
+      <c r="G317" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H317" s="42"/>
       <c r="I317" s="105"/>
@@ -32580,8 +32570,8 @@
       <c r="F318" s="113" t="s">
         <v>461</v>
       </c>
-      <c r="G318" s="225" t="s">
-        <v>512</v>
+      <c r="G318" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H318" s="42"/>
       <c r="I318" s="105"/>
@@ -32613,8 +32603,8 @@
       <c r="F319" s="113" t="s">
         <v>462</v>
       </c>
-      <c r="G319" s="225" t="s">
-        <v>512</v>
+      <c r="G319" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H319" s="42"/>
       <c r="I319" s="105"/>
@@ -32654,8 +32644,8 @@
       <c r="F320" s="113" t="s">
         <v>463</v>
       </c>
-      <c r="G320" s="225" t="s">
-        <v>512</v>
+      <c r="G320" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H320" s="42"/>
       <c r="I320" s="105"/>
@@ -32695,8 +32685,8 @@
       <c r="F321" s="113" t="s">
         <v>464</v>
       </c>
-      <c r="G321" s="225" t="s">
-        <v>512</v>
+      <c r="G321" s="162" t="s">
+        <v>510</v>
       </c>
       <c r="H321" s="42"/>
       <c r="I321" s="105"/>
@@ -32740,7 +32730,7 @@
   </sheetPr>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(バッチ)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(バッチ)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D104D00-9CC3-428A-9502-40C13C54B73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780DA147-82F9-47EE-B202-AE496AE7A156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">取引単体!$A$10:$O$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">【バッチ処理ID】_クラス単体テスト!$A$1:$Q$295</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">【バッチ処理ID】_リクエスト単体テスト!$A$1:$R$319</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">取引単体!$A$1:$O$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">取引単体!$A$1:$O$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">【バッチ処理ID】_クラス単体テスト!$1:$10</definedName>
@@ -8048,8 +8048,131 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -8150,134 +8273,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9216,12 +9216,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="170" t="str">
+      <c r="I25" s="182" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="182"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="3"/>
@@ -9781,57 +9781,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="212" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="177" t="s">
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="218" t="s">
         <v>525</v>
       </c>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
-      <c r="M1" s="178"/>
-      <c r="N1" s="179"/>
-      <c r="O1" s="186" t="s">
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="227" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="188"/>
-      <c r="S1" s="195" t="s">
+      <c r="P1" s="228"/>
+      <c r="Q1" s="228"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="236" t="s">
         <v>524</v>
       </c>
-      <c r="T1" s="196"/>
-      <c r="U1" s="196"/>
-      <c r="V1" s="196"/>
-      <c r="W1" s="196"/>
-      <c r="X1" s="196"/>
-      <c r="Y1" s="196"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="171" t="s">
+      <c r="T1" s="237"/>
+      <c r="U1" s="237"/>
+      <c r="V1" s="237"/>
+      <c r="W1" s="237"/>
+      <c r="X1" s="237"/>
+      <c r="Y1" s="237"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="212" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="172"/>
-      <c r="AC1" s="173" t="str">
+      <c r="AB1" s="213"/>
+      <c r="AC1" s="214" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="174"/>
-      <c r="AE1" s="174"/>
-      <c r="AF1" s="175"/>
-      <c r="AG1" s="180" t="str">
+      <c r="AD1" s="215"/>
+      <c r="AE1" s="215"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="221" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="181"/>
-      <c r="AI1" s="182"/>
+      <c r="AH1" s="222"/>
+      <c r="AI1" s="223"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -9839,53 +9839,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="212" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="177" t="s">
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="213"/>
+      <c r="E2" s="218" t="s">
         <v>526</v>
       </c>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="191"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="200"/>
-      <c r="AA2" s="171" t="s">
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="230"/>
+      <c r="P2" s="231"/>
+      <c r="Q2" s="231"/>
+      <c r="R2" s="232"/>
+      <c r="S2" s="239"/>
+      <c r="T2" s="240"/>
+      <c r="U2" s="240"/>
+      <c r="V2" s="240"/>
+      <c r="W2" s="240"/>
+      <c r="X2" s="240"/>
+      <c r="Y2" s="240"/>
+      <c r="Z2" s="241"/>
+      <c r="AA2" s="212" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="183" t="str">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="224" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="184"/>
-      <c r="AE2" s="184"/>
-      <c r="AF2" s="185"/>
-      <c r="AG2" s="180" t="str">
+      <c r="AD2" s="225"/>
+      <c r="AE2" s="225"/>
+      <c r="AF2" s="226"/>
+      <c r="AG2" s="221" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="181"/>
-      <c r="AI2" s="182"/>
+      <c r="AH2" s="222"/>
+      <c r="AI2" s="223"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -9893,45 +9893,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="212" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="177" t="s">
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="213"/>
+      <c r="E3" s="218" t="s">
         <v>528</v>
       </c>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="192"/>
-      <c r="P3" s="193"/>
-      <c r="Q3" s="193"/>
-      <c r="R3" s="194"/>
-      <c r="S3" s="201"/>
-      <c r="T3" s="202"/>
-      <c r="U3" s="202"/>
-      <c r="V3" s="202"/>
-      <c r="W3" s="202"/>
-      <c r="X3" s="202"/>
-      <c r="Y3" s="202"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="173"/>
-      <c r="AD3" s="174"/>
-      <c r="AE3" s="174"/>
-      <c r="AF3" s="175"/>
-      <c r="AG3" s="180"/>
-      <c r="AH3" s="181"/>
-      <c r="AI3" s="182"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="219"/>
+      <c r="N3" s="220"/>
+      <c r="O3" s="233"/>
+      <c r="P3" s="234"/>
+      <c r="Q3" s="234"/>
+      <c r="R3" s="235"/>
+      <c r="S3" s="242"/>
+      <c r="T3" s="243"/>
+      <c r="U3" s="243"/>
+      <c r="V3" s="243"/>
+      <c r="W3" s="243"/>
+      <c r="X3" s="243"/>
+      <c r="Y3" s="243"/>
+      <c r="Z3" s="244"/>
+      <c r="AA3" s="212"/>
+      <c r="AB3" s="213"/>
+      <c r="AC3" s="214"/>
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="215"/>
+      <c r="AF3" s="216"/>
+      <c r="AG3" s="221"/>
+      <c r="AH3" s="222"/>
+      <c r="AI3" s="223"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -9968,1020 +9968,1181 @@
       <c r="A7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="204" t="s">
+      <c r="B7" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="205"/>
-      <c r="D7" s="204" t="s">
+      <c r="C7" s="197"/>
+      <c r="D7" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="206"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="204" t="s">
+      <c r="E7" s="198"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="206"/>
-      <c r="I7" s="205"/>
-      <c r="J7" s="204" t="s">
+      <c r="H7" s="198"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="206"/>
-      <c r="L7" s="206"/>
-      <c r="M7" s="206"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="206"/>
-      <c r="P7" s="205"/>
-      <c r="Q7" s="204" t="s">
+      <c r="K7" s="198"/>
+      <c r="L7" s="198"/>
+      <c r="M7" s="198"/>
+      <c r="N7" s="198"/>
+      <c r="O7" s="198"/>
+      <c r="P7" s="197"/>
+      <c r="Q7" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="206"/>
-      <c r="S7" s="206"/>
-      <c r="T7" s="206"/>
-      <c r="U7" s="206"/>
-      <c r="V7" s="206"/>
-      <c r="W7" s="206"/>
-      <c r="X7" s="206"/>
-      <c r="Y7" s="206"/>
-      <c r="Z7" s="206"/>
-      <c r="AA7" s="206"/>
-      <c r="AB7" s="206"/>
-      <c r="AC7" s="206"/>
-      <c r="AD7" s="206"/>
-      <c r="AE7" s="205"/>
-      <c r="AF7" s="204" t="s">
+      <c r="R7" s="198"/>
+      <c r="S7" s="198"/>
+      <c r="T7" s="198"/>
+      <c r="U7" s="198"/>
+      <c r="V7" s="198"/>
+      <c r="W7" s="198"/>
+      <c r="X7" s="198"/>
+      <c r="Y7" s="198"/>
+      <c r="Z7" s="198"/>
+      <c r="AA7" s="198"/>
+      <c r="AB7" s="198"/>
+      <c r="AC7" s="198"/>
+      <c r="AD7" s="198"/>
+      <c r="AE7" s="197"/>
+      <c r="AF7" s="196" t="s">
         <v>38</v>
       </c>
-      <c r="AG7" s="206"/>
-      <c r="AH7" s="206"/>
-      <c r="AI7" s="205"/>
+      <c r="AG7" s="198"/>
+      <c r="AH7" s="198"/>
+      <c r="AI7" s="197"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="207"/>
-      <c r="C8" s="208"/>
-      <c r="D8" s="209"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="214"/>
-      <c r="K8" s="215"/>
-      <c r="L8" s="215"/>
-      <c r="M8" s="215"/>
-      <c r="N8" s="215"/>
-      <c r="O8" s="215"/>
-      <c r="P8" s="216"/>
-      <c r="Q8" s="217"/>
-      <c r="R8" s="218"/>
-      <c r="S8" s="218"/>
-      <c r="T8" s="218"/>
-      <c r="U8" s="218"/>
-      <c r="V8" s="218"/>
-      <c r="W8" s="218"/>
-      <c r="X8" s="218"/>
-      <c r="Y8" s="218"/>
-      <c r="Z8" s="218"/>
-      <c r="AA8" s="218"/>
-      <c r="AB8" s="218"/>
-      <c r="AC8" s="218"/>
-      <c r="AD8" s="218"/>
-      <c r="AE8" s="219"/>
-      <c r="AF8" s="214"/>
-      <c r="AG8" s="215"/>
-      <c r="AH8" s="215"/>
-      <c r="AI8" s="216"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="205"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="206"/>
+      <c r="K8" s="207"/>
+      <c r="L8" s="207"/>
+      <c r="M8" s="207"/>
+      <c r="N8" s="207"/>
+      <c r="O8" s="207"/>
+      <c r="P8" s="208"/>
+      <c r="Q8" s="209"/>
+      <c r="R8" s="210"/>
+      <c r="S8" s="210"/>
+      <c r="T8" s="210"/>
+      <c r="U8" s="210"/>
+      <c r="V8" s="210"/>
+      <c r="W8" s="210"/>
+      <c r="X8" s="210"/>
+      <c r="Y8" s="210"/>
+      <c r="Z8" s="210"/>
+      <c r="AA8" s="210"/>
+      <c r="AB8" s="210"/>
+      <c r="AC8" s="210"/>
+      <c r="AD8" s="210"/>
+      <c r="AE8" s="211"/>
+      <c r="AF8" s="206"/>
+      <c r="AG8" s="207"/>
+      <c r="AH8" s="207"/>
+      <c r="AI8" s="208"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="220"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="222"/>
-      <c r="E9" s="223"/>
-      <c r="F9" s="224"/>
-      <c r="G9" s="222"/>
-      <c r="H9" s="225"/>
-      <c r="I9" s="221"/>
-      <c r="J9" s="226"/>
-      <c r="K9" s="227"/>
-      <c r="L9" s="227"/>
-      <c r="M9" s="227"/>
-      <c r="N9" s="227"/>
-      <c r="O9" s="227"/>
-      <c r="P9" s="228"/>
-      <c r="Q9" s="229"/>
-      <c r="R9" s="230"/>
-      <c r="S9" s="230"/>
-      <c r="T9" s="230"/>
-      <c r="U9" s="230"/>
-      <c r="V9" s="230"/>
-      <c r="W9" s="230"/>
-      <c r="X9" s="230"/>
-      <c r="Y9" s="230"/>
-      <c r="Z9" s="230"/>
-      <c r="AA9" s="230"/>
-      <c r="AB9" s="230"/>
-      <c r="AC9" s="230"/>
-      <c r="AD9" s="230"/>
-      <c r="AE9" s="231"/>
-      <c r="AF9" s="226"/>
-      <c r="AG9" s="227"/>
-      <c r="AH9" s="227"/>
-      <c r="AI9" s="228"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="190"/>
+      <c r="N9" s="190"/>
+      <c r="O9" s="190"/>
+      <c r="P9" s="191"/>
+      <c r="Q9" s="192"/>
+      <c r="R9" s="193"/>
+      <c r="S9" s="193"/>
+      <c r="T9" s="193"/>
+      <c r="U9" s="193"/>
+      <c r="V9" s="193"/>
+      <c r="W9" s="193"/>
+      <c r="X9" s="193"/>
+      <c r="Y9" s="193"/>
+      <c r="Z9" s="193"/>
+      <c r="AA9" s="193"/>
+      <c r="AB9" s="193"/>
+      <c r="AC9" s="193"/>
+      <c r="AD9" s="193"/>
+      <c r="AE9" s="194"/>
+      <c r="AF9" s="189"/>
+      <c r="AG9" s="190"/>
+      <c r="AH9" s="190"/>
+      <c r="AI9" s="191"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="220"/>
-      <c r="C10" s="221"/>
-      <c r="D10" s="222"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="224"/>
-      <c r="G10" s="220"/>
-      <c r="H10" s="225"/>
-      <c r="I10" s="221"/>
-      <c r="J10" s="226"/>
-      <c r="K10" s="227"/>
-      <c r="L10" s="227"/>
-      <c r="M10" s="227"/>
-      <c r="N10" s="227"/>
-      <c r="O10" s="227"/>
-      <c r="P10" s="228"/>
-      <c r="Q10" s="229"/>
-      <c r="R10" s="230"/>
-      <c r="S10" s="230"/>
-      <c r="T10" s="230"/>
-      <c r="U10" s="230"/>
-      <c r="V10" s="230"/>
-      <c r="W10" s="230"/>
-      <c r="X10" s="230"/>
-      <c r="Y10" s="230"/>
-      <c r="Z10" s="230"/>
-      <c r="AA10" s="230"/>
-      <c r="AB10" s="230"/>
-      <c r="AC10" s="230"/>
-      <c r="AD10" s="230"/>
-      <c r="AE10" s="231"/>
-      <c r="AF10" s="226"/>
-      <c r="AG10" s="227"/>
-      <c r="AH10" s="227"/>
-      <c r="AI10" s="228"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="190"/>
+      <c r="M10" s="190"/>
+      <c r="N10" s="190"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="191"/>
+      <c r="Q10" s="192"/>
+      <c r="R10" s="193"/>
+      <c r="S10" s="193"/>
+      <c r="T10" s="193"/>
+      <c r="U10" s="193"/>
+      <c r="V10" s="193"/>
+      <c r="W10" s="193"/>
+      <c r="X10" s="193"/>
+      <c r="Y10" s="193"/>
+      <c r="Z10" s="193"/>
+      <c r="AA10" s="193"/>
+      <c r="AB10" s="193"/>
+      <c r="AC10" s="193"/>
+      <c r="AD10" s="193"/>
+      <c r="AE10" s="194"/>
+      <c r="AF10" s="189"/>
+      <c r="AG10" s="190"/>
+      <c r="AH10" s="190"/>
+      <c r="AI10" s="191"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="220"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="222"/>
-      <c r="E11" s="223"/>
-      <c r="F11" s="224"/>
-      <c r="G11" s="220"/>
-      <c r="H11" s="225"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="226"/>
-      <c r="K11" s="227"/>
-      <c r="L11" s="227"/>
-      <c r="M11" s="227"/>
-      <c r="N11" s="227"/>
-      <c r="O11" s="227"/>
-      <c r="P11" s="228"/>
-      <c r="Q11" s="229"/>
-      <c r="R11" s="230"/>
-      <c r="S11" s="230"/>
-      <c r="T11" s="230"/>
-      <c r="U11" s="230"/>
-      <c r="V11" s="230"/>
-      <c r="W11" s="230"/>
-      <c r="X11" s="230"/>
-      <c r="Y11" s="230"/>
-      <c r="Z11" s="230"/>
-      <c r="AA11" s="230"/>
-      <c r="AB11" s="230"/>
-      <c r="AC11" s="230"/>
-      <c r="AD11" s="230"/>
-      <c r="AE11" s="231"/>
-      <c r="AF11" s="226"/>
-      <c r="AG11" s="227"/>
-      <c r="AH11" s="227"/>
-      <c r="AI11" s="228"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="190"/>
+      <c r="N11" s="190"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="191"/>
+      <c r="Q11" s="192"/>
+      <c r="R11" s="193"/>
+      <c r="S11" s="193"/>
+      <c r="T11" s="193"/>
+      <c r="U11" s="193"/>
+      <c r="V11" s="193"/>
+      <c r="W11" s="193"/>
+      <c r="X11" s="193"/>
+      <c r="Y11" s="193"/>
+      <c r="Z11" s="193"/>
+      <c r="AA11" s="193"/>
+      <c r="AB11" s="193"/>
+      <c r="AC11" s="193"/>
+      <c r="AD11" s="193"/>
+      <c r="AE11" s="194"/>
+      <c r="AF11" s="189"/>
+      <c r="AG11" s="190"/>
+      <c r="AH11" s="190"/>
+      <c r="AI11" s="191"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="220"/>
-      <c r="C12" s="221"/>
-      <c r="D12" s="222"/>
-      <c r="E12" s="223"/>
-      <c r="F12" s="224"/>
-      <c r="G12" s="220"/>
-      <c r="H12" s="225"/>
-      <c r="I12" s="221"/>
-      <c r="J12" s="226"/>
-      <c r="K12" s="227"/>
-      <c r="L12" s="227"/>
-      <c r="M12" s="227"/>
-      <c r="N12" s="227"/>
-      <c r="O12" s="227"/>
-      <c r="P12" s="228"/>
-      <c r="Q12" s="229"/>
-      <c r="R12" s="230"/>
-      <c r="S12" s="230"/>
-      <c r="T12" s="230"/>
-      <c r="U12" s="230"/>
-      <c r="V12" s="230"/>
-      <c r="W12" s="230"/>
-      <c r="X12" s="230"/>
-      <c r="Y12" s="230"/>
-      <c r="Z12" s="230"/>
-      <c r="AA12" s="230"/>
-      <c r="AB12" s="230"/>
-      <c r="AC12" s="230"/>
-      <c r="AD12" s="230"/>
-      <c r="AE12" s="231"/>
-      <c r="AF12" s="226"/>
-      <c r="AG12" s="227"/>
-      <c r="AH12" s="227"/>
-      <c r="AI12" s="228"/>
+      <c r="B12" s="183"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="190"/>
+      <c r="M12" s="190"/>
+      <c r="N12" s="190"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="191"/>
+      <c r="Q12" s="192"/>
+      <c r="R12" s="193"/>
+      <c r="S12" s="193"/>
+      <c r="T12" s="193"/>
+      <c r="U12" s="193"/>
+      <c r="V12" s="193"/>
+      <c r="W12" s="193"/>
+      <c r="X12" s="193"/>
+      <c r="Y12" s="193"/>
+      <c r="Z12" s="193"/>
+      <c r="AA12" s="193"/>
+      <c r="AB12" s="193"/>
+      <c r="AC12" s="193"/>
+      <c r="AD12" s="193"/>
+      <c r="AE12" s="194"/>
+      <c r="AF12" s="189"/>
+      <c r="AG12" s="190"/>
+      <c r="AH12" s="190"/>
+      <c r="AI12" s="191"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="220"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="222"/>
-      <c r="E13" s="223"/>
-      <c r="F13" s="224"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="225"/>
-      <c r="I13" s="221"/>
-      <c r="J13" s="226"/>
-      <c r="K13" s="227"/>
-      <c r="L13" s="227"/>
-      <c r="M13" s="227"/>
-      <c r="N13" s="227"/>
-      <c r="O13" s="227"/>
-      <c r="P13" s="228"/>
-      <c r="Q13" s="229"/>
-      <c r="R13" s="230"/>
-      <c r="S13" s="230"/>
-      <c r="T13" s="230"/>
-      <c r="U13" s="230"/>
-      <c r="V13" s="230"/>
-      <c r="W13" s="230"/>
-      <c r="X13" s="230"/>
-      <c r="Y13" s="230"/>
-      <c r="Z13" s="230"/>
-      <c r="AA13" s="230"/>
-      <c r="AB13" s="230"/>
-      <c r="AC13" s="230"/>
-      <c r="AD13" s="230"/>
-      <c r="AE13" s="231"/>
-      <c r="AF13" s="226"/>
-      <c r="AG13" s="227"/>
-      <c r="AH13" s="227"/>
-      <c r="AI13" s="228"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="187"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="184"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="190"/>
+      <c r="L13" s="190"/>
+      <c r="M13" s="190"/>
+      <c r="N13" s="190"/>
+      <c r="O13" s="190"/>
+      <c r="P13" s="191"/>
+      <c r="Q13" s="192"/>
+      <c r="R13" s="193"/>
+      <c r="S13" s="193"/>
+      <c r="T13" s="193"/>
+      <c r="U13" s="193"/>
+      <c r="V13" s="193"/>
+      <c r="W13" s="193"/>
+      <c r="X13" s="193"/>
+      <c r="Y13" s="193"/>
+      <c r="Z13" s="193"/>
+      <c r="AA13" s="193"/>
+      <c r="AB13" s="193"/>
+      <c r="AC13" s="193"/>
+      <c r="AD13" s="193"/>
+      <c r="AE13" s="194"/>
+      <c r="AF13" s="189"/>
+      <c r="AG13" s="190"/>
+      <c r="AH13" s="190"/>
+      <c r="AI13" s="191"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="220"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="222"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="220"/>
-      <c r="H14" s="225"/>
-      <c r="I14" s="221"/>
-      <c r="J14" s="226"/>
-      <c r="K14" s="227"/>
-      <c r="L14" s="227"/>
-      <c r="M14" s="227"/>
-      <c r="N14" s="227"/>
-      <c r="O14" s="227"/>
-      <c r="P14" s="228"/>
-      <c r="Q14" s="229"/>
-      <c r="R14" s="230"/>
-      <c r="S14" s="230"/>
-      <c r="T14" s="230"/>
-      <c r="U14" s="230"/>
-      <c r="V14" s="230"/>
-      <c r="W14" s="230"/>
-      <c r="X14" s="230"/>
-      <c r="Y14" s="230"/>
-      <c r="Z14" s="230"/>
-      <c r="AA14" s="230"/>
-      <c r="AB14" s="230"/>
-      <c r="AC14" s="230"/>
-      <c r="AD14" s="230"/>
-      <c r="AE14" s="231"/>
-      <c r="AF14" s="226"/>
-      <c r="AG14" s="227"/>
-      <c r="AH14" s="227"/>
-      <c r="AI14" s="228"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="190"/>
+      <c r="L14" s="190"/>
+      <c r="M14" s="190"/>
+      <c r="N14" s="190"/>
+      <c r="O14" s="190"/>
+      <c r="P14" s="191"/>
+      <c r="Q14" s="192"/>
+      <c r="R14" s="193"/>
+      <c r="S14" s="193"/>
+      <c r="T14" s="193"/>
+      <c r="U14" s="193"/>
+      <c r="V14" s="193"/>
+      <c r="W14" s="193"/>
+      <c r="X14" s="193"/>
+      <c r="Y14" s="193"/>
+      <c r="Z14" s="193"/>
+      <c r="AA14" s="193"/>
+      <c r="AB14" s="193"/>
+      <c r="AC14" s="193"/>
+      <c r="AD14" s="193"/>
+      <c r="AE14" s="194"/>
+      <c r="AF14" s="189"/>
+      <c r="AG14" s="190"/>
+      <c r="AH14" s="190"/>
+      <c r="AI14" s="191"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="220"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="222"/>
-      <c r="E15" s="223"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="225"/>
-      <c r="I15" s="221"/>
-      <c r="J15" s="226"/>
-      <c r="K15" s="227"/>
-      <c r="L15" s="227"/>
-      <c r="M15" s="227"/>
-      <c r="N15" s="227"/>
-      <c r="O15" s="227"/>
-      <c r="P15" s="228"/>
-      <c r="Q15" s="229"/>
-      <c r="R15" s="230"/>
-      <c r="S15" s="230"/>
-      <c r="T15" s="230"/>
-      <c r="U15" s="230"/>
-      <c r="V15" s="230"/>
-      <c r="W15" s="230"/>
-      <c r="X15" s="230"/>
-      <c r="Y15" s="230"/>
-      <c r="Z15" s="230"/>
-      <c r="AA15" s="230"/>
-      <c r="AB15" s="230"/>
-      <c r="AC15" s="230"/>
-      <c r="AD15" s="230"/>
-      <c r="AE15" s="231"/>
-      <c r="AF15" s="226"/>
-      <c r="AG15" s="227"/>
-      <c r="AH15" s="227"/>
-      <c r="AI15" s="228"/>
+      <c r="B15" s="183"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="190"/>
+      <c r="L15" s="190"/>
+      <c r="M15" s="190"/>
+      <c r="N15" s="190"/>
+      <c r="O15" s="190"/>
+      <c r="P15" s="191"/>
+      <c r="Q15" s="192"/>
+      <c r="R15" s="193"/>
+      <c r="S15" s="193"/>
+      <c r="T15" s="193"/>
+      <c r="U15" s="193"/>
+      <c r="V15" s="193"/>
+      <c r="W15" s="193"/>
+      <c r="X15" s="193"/>
+      <c r="Y15" s="193"/>
+      <c r="Z15" s="193"/>
+      <c r="AA15" s="193"/>
+      <c r="AB15" s="193"/>
+      <c r="AC15" s="193"/>
+      <c r="AD15" s="193"/>
+      <c r="AE15" s="194"/>
+      <c r="AF15" s="189"/>
+      <c r="AG15" s="190"/>
+      <c r="AH15" s="190"/>
+      <c r="AI15" s="191"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="220"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="222"/>
-      <c r="E16" s="223"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="220"/>
-      <c r="H16" s="225"/>
-      <c r="I16" s="221"/>
-      <c r="J16" s="226"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="227"/>
-      <c r="M16" s="227"/>
-      <c r="N16" s="227"/>
-      <c r="O16" s="227"/>
-      <c r="P16" s="228"/>
-      <c r="Q16" s="229"/>
-      <c r="R16" s="230"/>
-      <c r="S16" s="230"/>
-      <c r="T16" s="230"/>
-      <c r="U16" s="230"/>
-      <c r="V16" s="230"/>
-      <c r="W16" s="230"/>
-      <c r="X16" s="230"/>
-      <c r="Y16" s="230"/>
-      <c r="Z16" s="230"/>
-      <c r="AA16" s="230"/>
-      <c r="AB16" s="230"/>
-      <c r="AC16" s="230"/>
-      <c r="AD16" s="230"/>
-      <c r="AE16" s="231"/>
-      <c r="AF16" s="226"/>
-      <c r="AG16" s="227"/>
-      <c r="AH16" s="227"/>
-      <c r="AI16" s="228"/>
+      <c r="B16" s="183"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="190"/>
+      <c r="M16" s="190"/>
+      <c r="N16" s="190"/>
+      <c r="O16" s="190"/>
+      <c r="P16" s="191"/>
+      <c r="Q16" s="192"/>
+      <c r="R16" s="193"/>
+      <c r="S16" s="193"/>
+      <c r="T16" s="193"/>
+      <c r="U16" s="193"/>
+      <c r="V16" s="193"/>
+      <c r="W16" s="193"/>
+      <c r="X16" s="193"/>
+      <c r="Y16" s="193"/>
+      <c r="Z16" s="193"/>
+      <c r="AA16" s="193"/>
+      <c r="AB16" s="193"/>
+      <c r="AC16" s="193"/>
+      <c r="AD16" s="193"/>
+      <c r="AE16" s="194"/>
+      <c r="AF16" s="189"/>
+      <c r="AG16" s="190"/>
+      <c r="AH16" s="190"/>
+      <c r="AI16" s="191"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="220"/>
-      <c r="C17" s="221"/>
-      <c r="D17" s="222"/>
-      <c r="E17" s="223"/>
-      <c r="F17" s="224"/>
-      <c r="G17" s="220"/>
-      <c r="H17" s="225"/>
-      <c r="I17" s="221"/>
-      <c r="J17" s="226"/>
-      <c r="K17" s="227"/>
-      <c r="L17" s="227"/>
-      <c r="M17" s="227"/>
-      <c r="N17" s="227"/>
-      <c r="O17" s="227"/>
-      <c r="P17" s="228"/>
-      <c r="Q17" s="229"/>
-      <c r="R17" s="230"/>
-      <c r="S17" s="230"/>
-      <c r="T17" s="230"/>
-      <c r="U17" s="230"/>
-      <c r="V17" s="230"/>
-      <c r="W17" s="230"/>
-      <c r="X17" s="230"/>
-      <c r="Y17" s="230"/>
-      <c r="Z17" s="230"/>
-      <c r="AA17" s="230"/>
-      <c r="AB17" s="230"/>
-      <c r="AC17" s="230"/>
-      <c r="AD17" s="230"/>
-      <c r="AE17" s="231"/>
-      <c r="AF17" s="226"/>
-      <c r="AG17" s="227"/>
-      <c r="AH17" s="227"/>
-      <c r="AI17" s="228"/>
+      <c r="B17" s="183"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="185"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="188"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="189"/>
+      <c r="K17" s="190"/>
+      <c r="L17" s="190"/>
+      <c r="M17" s="190"/>
+      <c r="N17" s="190"/>
+      <c r="O17" s="190"/>
+      <c r="P17" s="191"/>
+      <c r="Q17" s="192"/>
+      <c r="R17" s="193"/>
+      <c r="S17" s="193"/>
+      <c r="T17" s="193"/>
+      <c r="U17" s="193"/>
+      <c r="V17" s="193"/>
+      <c r="W17" s="193"/>
+      <c r="X17" s="193"/>
+      <c r="Y17" s="193"/>
+      <c r="Z17" s="193"/>
+      <c r="AA17" s="193"/>
+      <c r="AB17" s="193"/>
+      <c r="AC17" s="193"/>
+      <c r="AD17" s="193"/>
+      <c r="AE17" s="194"/>
+      <c r="AF17" s="189"/>
+      <c r="AG17" s="190"/>
+      <c r="AH17" s="190"/>
+      <c r="AI17" s="191"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="220"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="222"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="225"/>
-      <c r="I18" s="221"/>
-      <c r="J18" s="226"/>
-      <c r="K18" s="227"/>
-      <c r="L18" s="227"/>
-      <c r="M18" s="227"/>
-      <c r="N18" s="227"/>
-      <c r="O18" s="227"/>
-      <c r="P18" s="228"/>
-      <c r="Q18" s="229"/>
-      <c r="R18" s="230"/>
-      <c r="S18" s="230"/>
-      <c r="T18" s="230"/>
-      <c r="U18" s="230"/>
-      <c r="V18" s="230"/>
-      <c r="W18" s="230"/>
-      <c r="X18" s="230"/>
-      <c r="Y18" s="230"/>
-      <c r="Z18" s="230"/>
-      <c r="AA18" s="230"/>
-      <c r="AB18" s="230"/>
-      <c r="AC18" s="230"/>
-      <c r="AD18" s="230"/>
-      <c r="AE18" s="231"/>
-      <c r="AF18" s="226"/>
-      <c r="AG18" s="227"/>
-      <c r="AH18" s="227"/>
-      <c r="AI18" s="228"/>
+      <c r="B18" s="183"/>
+      <c r="C18" s="184"/>
+      <c r="D18" s="185"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="188"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="190"/>
+      <c r="L18" s="190"/>
+      <c r="M18" s="190"/>
+      <c r="N18" s="190"/>
+      <c r="O18" s="190"/>
+      <c r="P18" s="191"/>
+      <c r="Q18" s="192"/>
+      <c r="R18" s="193"/>
+      <c r="S18" s="193"/>
+      <c r="T18" s="193"/>
+      <c r="U18" s="193"/>
+      <c r="V18" s="193"/>
+      <c r="W18" s="193"/>
+      <c r="X18" s="193"/>
+      <c r="Y18" s="193"/>
+      <c r="Z18" s="193"/>
+      <c r="AA18" s="193"/>
+      <c r="AB18" s="193"/>
+      <c r="AC18" s="193"/>
+      <c r="AD18" s="193"/>
+      <c r="AE18" s="194"/>
+      <c r="AF18" s="189"/>
+      <c r="AG18" s="190"/>
+      <c r="AH18" s="190"/>
+      <c r="AI18" s="191"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="220"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="222"/>
-      <c r="E19" s="223"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="220"/>
-      <c r="H19" s="225"/>
-      <c r="I19" s="221"/>
-      <c r="J19" s="226"/>
-      <c r="K19" s="227"/>
-      <c r="L19" s="227"/>
-      <c r="M19" s="227"/>
-      <c r="N19" s="227"/>
-      <c r="O19" s="227"/>
-      <c r="P19" s="228"/>
-      <c r="Q19" s="229"/>
-      <c r="R19" s="230"/>
-      <c r="S19" s="230"/>
-      <c r="T19" s="230"/>
-      <c r="U19" s="230"/>
-      <c r="V19" s="230"/>
-      <c r="W19" s="230"/>
-      <c r="X19" s="230"/>
-      <c r="Y19" s="230"/>
-      <c r="Z19" s="230"/>
-      <c r="AA19" s="230"/>
-      <c r="AB19" s="230"/>
-      <c r="AC19" s="230"/>
-      <c r="AD19" s="230"/>
-      <c r="AE19" s="231"/>
-      <c r="AF19" s="226"/>
-      <c r="AG19" s="227"/>
-      <c r="AH19" s="227"/>
-      <c r="AI19" s="228"/>
+      <c r="B19" s="183"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="188"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="189"/>
+      <c r="K19" s="190"/>
+      <c r="L19" s="190"/>
+      <c r="M19" s="190"/>
+      <c r="N19" s="190"/>
+      <c r="O19" s="190"/>
+      <c r="P19" s="191"/>
+      <c r="Q19" s="192"/>
+      <c r="R19" s="193"/>
+      <c r="S19" s="193"/>
+      <c r="T19" s="193"/>
+      <c r="U19" s="193"/>
+      <c r="V19" s="193"/>
+      <c r="W19" s="193"/>
+      <c r="X19" s="193"/>
+      <c r="Y19" s="193"/>
+      <c r="Z19" s="193"/>
+      <c r="AA19" s="193"/>
+      <c r="AB19" s="193"/>
+      <c r="AC19" s="193"/>
+      <c r="AD19" s="193"/>
+      <c r="AE19" s="194"/>
+      <c r="AF19" s="189"/>
+      <c r="AG19" s="190"/>
+      <c r="AH19" s="190"/>
+      <c r="AI19" s="191"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="220"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="222"/>
-      <c r="E20" s="223"/>
-      <c r="F20" s="224"/>
-      <c r="G20" s="220"/>
-      <c r="H20" s="225"/>
-      <c r="I20" s="221"/>
-      <c r="J20" s="226"/>
-      <c r="K20" s="227"/>
-      <c r="L20" s="227"/>
-      <c r="M20" s="227"/>
-      <c r="N20" s="227"/>
-      <c r="O20" s="227"/>
-      <c r="P20" s="228"/>
-      <c r="Q20" s="229"/>
-      <c r="R20" s="230"/>
-      <c r="S20" s="230"/>
-      <c r="T20" s="230"/>
-      <c r="U20" s="230"/>
-      <c r="V20" s="230"/>
-      <c r="W20" s="230"/>
-      <c r="X20" s="230"/>
-      <c r="Y20" s="230"/>
-      <c r="Z20" s="230"/>
-      <c r="AA20" s="230"/>
-      <c r="AB20" s="230"/>
-      <c r="AC20" s="230"/>
-      <c r="AD20" s="230"/>
-      <c r="AE20" s="231"/>
-      <c r="AF20" s="226"/>
-      <c r="AG20" s="227"/>
-      <c r="AH20" s="227"/>
-      <c r="AI20" s="228"/>
+      <c r="B20" s="183"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="188"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="189"/>
+      <c r="K20" s="190"/>
+      <c r="L20" s="190"/>
+      <c r="M20" s="190"/>
+      <c r="N20" s="190"/>
+      <c r="O20" s="190"/>
+      <c r="P20" s="191"/>
+      <c r="Q20" s="192"/>
+      <c r="R20" s="193"/>
+      <c r="S20" s="193"/>
+      <c r="T20" s="193"/>
+      <c r="U20" s="193"/>
+      <c r="V20" s="193"/>
+      <c r="W20" s="193"/>
+      <c r="X20" s="193"/>
+      <c r="Y20" s="193"/>
+      <c r="Z20" s="193"/>
+      <c r="AA20" s="193"/>
+      <c r="AB20" s="193"/>
+      <c r="AC20" s="193"/>
+      <c r="AD20" s="193"/>
+      <c r="AE20" s="194"/>
+      <c r="AF20" s="189"/>
+      <c r="AG20" s="190"/>
+      <c r="AH20" s="190"/>
+      <c r="AI20" s="191"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="220"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="222"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="224"/>
-      <c r="G21" s="220"/>
-      <c r="H21" s="225"/>
-      <c r="I21" s="221"/>
-      <c r="J21" s="226"/>
-      <c r="K21" s="227"/>
-      <c r="L21" s="227"/>
-      <c r="M21" s="227"/>
-      <c r="N21" s="227"/>
-      <c r="O21" s="227"/>
-      <c r="P21" s="228"/>
-      <c r="Q21" s="229"/>
-      <c r="R21" s="230"/>
-      <c r="S21" s="230"/>
-      <c r="T21" s="230"/>
-      <c r="U21" s="230"/>
-      <c r="V21" s="230"/>
-      <c r="W21" s="230"/>
-      <c r="X21" s="230"/>
-      <c r="Y21" s="230"/>
-      <c r="Z21" s="230"/>
-      <c r="AA21" s="230"/>
-      <c r="AB21" s="230"/>
-      <c r="AC21" s="230"/>
-      <c r="AD21" s="230"/>
-      <c r="AE21" s="231"/>
-      <c r="AF21" s="226"/>
-      <c r="AG21" s="227"/>
-      <c r="AH21" s="227"/>
-      <c r="AI21" s="228"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="187"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="190"/>
+      <c r="L21" s="190"/>
+      <c r="M21" s="190"/>
+      <c r="N21" s="190"/>
+      <c r="O21" s="190"/>
+      <c r="P21" s="191"/>
+      <c r="Q21" s="192"/>
+      <c r="R21" s="193"/>
+      <c r="S21" s="193"/>
+      <c r="T21" s="193"/>
+      <c r="U21" s="193"/>
+      <c r="V21" s="193"/>
+      <c r="W21" s="193"/>
+      <c r="X21" s="193"/>
+      <c r="Y21" s="193"/>
+      <c r="Z21" s="193"/>
+      <c r="AA21" s="193"/>
+      <c r="AB21" s="193"/>
+      <c r="AC21" s="193"/>
+      <c r="AD21" s="193"/>
+      <c r="AE21" s="194"/>
+      <c r="AF21" s="189"/>
+      <c r="AG21" s="190"/>
+      <c r="AH21" s="190"/>
+      <c r="AI21" s="191"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="220"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="222"/>
-      <c r="E22" s="223"/>
-      <c r="F22" s="224"/>
-      <c r="G22" s="220"/>
-      <c r="H22" s="225"/>
-      <c r="I22" s="221"/>
-      <c r="J22" s="226"/>
-      <c r="K22" s="227"/>
-      <c r="L22" s="227"/>
-      <c r="M22" s="227"/>
-      <c r="N22" s="227"/>
-      <c r="O22" s="227"/>
-      <c r="P22" s="228"/>
-      <c r="Q22" s="229"/>
-      <c r="R22" s="230"/>
-      <c r="S22" s="230"/>
-      <c r="T22" s="230"/>
-      <c r="U22" s="230"/>
-      <c r="V22" s="230"/>
-      <c r="W22" s="230"/>
-      <c r="X22" s="230"/>
-      <c r="Y22" s="230"/>
-      <c r="Z22" s="230"/>
-      <c r="AA22" s="230"/>
-      <c r="AB22" s="230"/>
-      <c r="AC22" s="230"/>
-      <c r="AD22" s="230"/>
-      <c r="AE22" s="231"/>
-      <c r="AF22" s="226"/>
-      <c r="AG22" s="227"/>
-      <c r="AH22" s="227"/>
-      <c r="AI22" s="228"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="190"/>
+      <c r="L22" s="190"/>
+      <c r="M22" s="190"/>
+      <c r="N22" s="190"/>
+      <c r="O22" s="190"/>
+      <c r="P22" s="191"/>
+      <c r="Q22" s="192"/>
+      <c r="R22" s="193"/>
+      <c r="S22" s="193"/>
+      <c r="T22" s="193"/>
+      <c r="U22" s="193"/>
+      <c r="V22" s="193"/>
+      <c r="W22" s="193"/>
+      <c r="X22" s="193"/>
+      <c r="Y22" s="193"/>
+      <c r="Z22" s="193"/>
+      <c r="AA22" s="193"/>
+      <c r="AB22" s="193"/>
+      <c r="AC22" s="193"/>
+      <c r="AD22" s="193"/>
+      <c r="AE22" s="194"/>
+      <c r="AF22" s="189"/>
+      <c r="AG22" s="190"/>
+      <c r="AH22" s="190"/>
+      <c r="AI22" s="191"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="220"/>
-      <c r="C23" s="221"/>
-      <c r="D23" s="222"/>
-      <c r="E23" s="223"/>
-      <c r="F23" s="224"/>
-      <c r="G23" s="220"/>
-      <c r="H23" s="225"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="226"/>
-      <c r="K23" s="227"/>
-      <c r="L23" s="227"/>
-      <c r="M23" s="227"/>
-      <c r="N23" s="227"/>
-      <c r="O23" s="227"/>
-      <c r="P23" s="228"/>
-      <c r="Q23" s="229"/>
-      <c r="R23" s="230"/>
-      <c r="S23" s="230"/>
-      <c r="T23" s="230"/>
-      <c r="U23" s="230"/>
-      <c r="V23" s="230"/>
-      <c r="W23" s="230"/>
-      <c r="X23" s="230"/>
-      <c r="Y23" s="230"/>
-      <c r="Z23" s="230"/>
-      <c r="AA23" s="230"/>
-      <c r="AB23" s="230"/>
-      <c r="AC23" s="230"/>
-      <c r="AD23" s="230"/>
-      <c r="AE23" s="231"/>
-      <c r="AF23" s="226"/>
-      <c r="AG23" s="227"/>
-      <c r="AH23" s="227"/>
-      <c r="AI23" s="228"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="185"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="189"/>
+      <c r="K23" s="190"/>
+      <c r="L23" s="190"/>
+      <c r="M23" s="190"/>
+      <c r="N23" s="190"/>
+      <c r="O23" s="190"/>
+      <c r="P23" s="191"/>
+      <c r="Q23" s="192"/>
+      <c r="R23" s="193"/>
+      <c r="S23" s="193"/>
+      <c r="T23" s="193"/>
+      <c r="U23" s="193"/>
+      <c r="V23" s="193"/>
+      <c r="W23" s="193"/>
+      <c r="X23" s="193"/>
+      <c r="Y23" s="193"/>
+      <c r="Z23" s="193"/>
+      <c r="AA23" s="193"/>
+      <c r="AB23" s="193"/>
+      <c r="AC23" s="193"/>
+      <c r="AD23" s="193"/>
+      <c r="AE23" s="194"/>
+      <c r="AF23" s="189"/>
+      <c r="AG23" s="190"/>
+      <c r="AH23" s="190"/>
+      <c r="AI23" s="191"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="220"/>
-      <c r="C24" s="221"/>
-      <c r="D24" s="222"/>
-      <c r="E24" s="223"/>
-      <c r="F24" s="224"/>
-      <c r="G24" s="220"/>
-      <c r="H24" s="225"/>
-      <c r="I24" s="221"/>
-      <c r="J24" s="226"/>
-      <c r="K24" s="227"/>
-      <c r="L24" s="227"/>
-      <c r="M24" s="227"/>
-      <c r="N24" s="227"/>
-      <c r="O24" s="227"/>
-      <c r="P24" s="228"/>
-      <c r="Q24" s="229"/>
-      <c r="R24" s="230"/>
-      <c r="S24" s="230"/>
-      <c r="T24" s="230"/>
-      <c r="U24" s="230"/>
-      <c r="V24" s="230"/>
-      <c r="W24" s="230"/>
-      <c r="X24" s="230"/>
-      <c r="Y24" s="230"/>
-      <c r="Z24" s="230"/>
-      <c r="AA24" s="230"/>
-      <c r="AB24" s="230"/>
-      <c r="AC24" s="230"/>
-      <c r="AD24" s="230"/>
-      <c r="AE24" s="231"/>
-      <c r="AF24" s="226"/>
-      <c r="AG24" s="227"/>
-      <c r="AH24" s="227"/>
-      <c r="AI24" s="228"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="184"/>
+      <c r="D24" s="185"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="187"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="188"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="190"/>
+      <c r="L24" s="190"/>
+      <c r="M24" s="190"/>
+      <c r="N24" s="190"/>
+      <c r="O24" s="190"/>
+      <c r="P24" s="191"/>
+      <c r="Q24" s="192"/>
+      <c r="R24" s="193"/>
+      <c r="S24" s="193"/>
+      <c r="T24" s="193"/>
+      <c r="U24" s="193"/>
+      <c r="V24" s="193"/>
+      <c r="W24" s="193"/>
+      <c r="X24" s="193"/>
+      <c r="Y24" s="193"/>
+      <c r="Z24" s="193"/>
+      <c r="AA24" s="193"/>
+      <c r="AB24" s="193"/>
+      <c r="AC24" s="193"/>
+      <c r="AD24" s="193"/>
+      <c r="AE24" s="194"/>
+      <c r="AF24" s="189"/>
+      <c r="AG24" s="190"/>
+      <c r="AH24" s="190"/>
+      <c r="AI24" s="191"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="220"/>
-      <c r="C25" s="221"/>
-      <c r="D25" s="222"/>
-      <c r="E25" s="223"/>
-      <c r="F25" s="224"/>
-      <c r="G25" s="220"/>
-      <c r="H25" s="225"/>
-      <c r="I25" s="221"/>
-      <c r="J25" s="226"/>
-      <c r="K25" s="227"/>
-      <c r="L25" s="227"/>
-      <c r="M25" s="227"/>
-      <c r="N25" s="227"/>
-      <c r="O25" s="227"/>
-      <c r="P25" s="228"/>
-      <c r="Q25" s="229"/>
-      <c r="R25" s="230"/>
-      <c r="S25" s="230"/>
-      <c r="T25" s="230"/>
-      <c r="U25" s="230"/>
-      <c r="V25" s="230"/>
-      <c r="W25" s="230"/>
-      <c r="X25" s="230"/>
-      <c r="Y25" s="230"/>
-      <c r="Z25" s="230"/>
-      <c r="AA25" s="230"/>
-      <c r="AB25" s="230"/>
-      <c r="AC25" s="230"/>
-      <c r="AD25" s="230"/>
-      <c r="AE25" s="231"/>
-      <c r="AF25" s="226"/>
-      <c r="AG25" s="227"/>
-      <c r="AH25" s="227"/>
-      <c r="AI25" s="228"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="184"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="188"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="190"/>
+      <c r="L25" s="190"/>
+      <c r="M25" s="190"/>
+      <c r="N25" s="190"/>
+      <c r="O25" s="190"/>
+      <c r="P25" s="191"/>
+      <c r="Q25" s="192"/>
+      <c r="R25" s="193"/>
+      <c r="S25" s="193"/>
+      <c r="T25" s="193"/>
+      <c r="U25" s="193"/>
+      <c r="V25" s="193"/>
+      <c r="W25" s="193"/>
+      <c r="X25" s="193"/>
+      <c r="Y25" s="193"/>
+      <c r="Z25" s="193"/>
+      <c r="AA25" s="193"/>
+      <c r="AB25" s="193"/>
+      <c r="AC25" s="193"/>
+      <c r="AD25" s="193"/>
+      <c r="AE25" s="194"/>
+      <c r="AF25" s="189"/>
+      <c r="AG25" s="190"/>
+      <c r="AH25" s="190"/>
+      <c r="AI25" s="191"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="220"/>
-      <c r="C26" s="221"/>
-      <c r="D26" s="222"/>
-      <c r="E26" s="223"/>
-      <c r="F26" s="224"/>
-      <c r="G26" s="220"/>
-      <c r="H26" s="225"/>
-      <c r="I26" s="221"/>
-      <c r="J26" s="226"/>
-      <c r="K26" s="227"/>
-      <c r="L26" s="227"/>
-      <c r="M26" s="227"/>
-      <c r="N26" s="227"/>
-      <c r="O26" s="227"/>
-      <c r="P26" s="228"/>
-      <c r="Q26" s="229"/>
-      <c r="R26" s="230"/>
-      <c r="S26" s="230"/>
-      <c r="T26" s="230"/>
-      <c r="U26" s="230"/>
-      <c r="V26" s="230"/>
-      <c r="W26" s="230"/>
-      <c r="X26" s="230"/>
-      <c r="Y26" s="230"/>
-      <c r="Z26" s="230"/>
-      <c r="AA26" s="230"/>
-      <c r="AB26" s="230"/>
-      <c r="AC26" s="230"/>
-      <c r="AD26" s="230"/>
-      <c r="AE26" s="231"/>
-      <c r="AF26" s="226"/>
-      <c r="AG26" s="227"/>
-      <c r="AH26" s="227"/>
-      <c r="AI26" s="228"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="184"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="188"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="189"/>
+      <c r="K26" s="190"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="190"/>
+      <c r="N26" s="190"/>
+      <c r="O26" s="190"/>
+      <c r="P26" s="191"/>
+      <c r="Q26" s="192"/>
+      <c r="R26" s="193"/>
+      <c r="S26" s="193"/>
+      <c r="T26" s="193"/>
+      <c r="U26" s="193"/>
+      <c r="V26" s="193"/>
+      <c r="W26" s="193"/>
+      <c r="X26" s="193"/>
+      <c r="Y26" s="193"/>
+      <c r="Z26" s="193"/>
+      <c r="AA26" s="193"/>
+      <c r="AB26" s="193"/>
+      <c r="AC26" s="193"/>
+      <c r="AD26" s="193"/>
+      <c r="AE26" s="194"/>
+      <c r="AF26" s="189"/>
+      <c r="AG26" s="190"/>
+      <c r="AH26" s="190"/>
+      <c r="AI26" s="191"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="220"/>
-      <c r="C27" s="221"/>
-      <c r="D27" s="222"/>
-      <c r="E27" s="223"/>
-      <c r="F27" s="224"/>
-      <c r="G27" s="220"/>
-      <c r="H27" s="225"/>
-      <c r="I27" s="221"/>
-      <c r="J27" s="226"/>
-      <c r="K27" s="227"/>
-      <c r="L27" s="227"/>
-      <c r="M27" s="227"/>
-      <c r="N27" s="227"/>
-      <c r="O27" s="227"/>
-      <c r="P27" s="228"/>
-      <c r="Q27" s="229"/>
-      <c r="R27" s="230"/>
-      <c r="S27" s="230"/>
-      <c r="T27" s="230"/>
-      <c r="U27" s="230"/>
-      <c r="V27" s="230"/>
-      <c r="W27" s="230"/>
-      <c r="X27" s="230"/>
-      <c r="Y27" s="230"/>
-      <c r="Z27" s="230"/>
-      <c r="AA27" s="230"/>
-      <c r="AB27" s="230"/>
-      <c r="AC27" s="230"/>
-      <c r="AD27" s="230"/>
-      <c r="AE27" s="231"/>
-      <c r="AF27" s="226"/>
-      <c r="AG27" s="227"/>
-      <c r="AH27" s="227"/>
-      <c r="AI27" s="228"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="185"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="188"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="190"/>
+      <c r="L27" s="190"/>
+      <c r="M27" s="190"/>
+      <c r="N27" s="190"/>
+      <c r="O27" s="190"/>
+      <c r="P27" s="191"/>
+      <c r="Q27" s="192"/>
+      <c r="R27" s="193"/>
+      <c r="S27" s="193"/>
+      <c r="T27" s="193"/>
+      <c r="U27" s="193"/>
+      <c r="V27" s="193"/>
+      <c r="W27" s="193"/>
+      <c r="X27" s="193"/>
+      <c r="Y27" s="193"/>
+      <c r="Z27" s="193"/>
+      <c r="AA27" s="193"/>
+      <c r="AB27" s="193"/>
+      <c r="AC27" s="193"/>
+      <c r="AD27" s="193"/>
+      <c r="AE27" s="194"/>
+      <c r="AF27" s="189"/>
+      <c r="AG27" s="190"/>
+      <c r="AH27" s="190"/>
+      <c r="AI27" s="191"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="220"/>
-      <c r="C28" s="221"/>
-      <c r="D28" s="222"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="224"/>
-      <c r="G28" s="220"/>
-      <c r="H28" s="225"/>
-      <c r="I28" s="221"/>
-      <c r="J28" s="226"/>
-      <c r="K28" s="227"/>
-      <c r="L28" s="227"/>
-      <c r="M28" s="227"/>
-      <c r="N28" s="227"/>
-      <c r="O28" s="227"/>
-      <c r="P28" s="228"/>
-      <c r="Q28" s="229"/>
-      <c r="R28" s="230"/>
-      <c r="S28" s="230"/>
-      <c r="T28" s="230"/>
-      <c r="U28" s="230"/>
-      <c r="V28" s="230"/>
-      <c r="W28" s="230"/>
-      <c r="X28" s="230"/>
-      <c r="Y28" s="230"/>
-      <c r="Z28" s="230"/>
-      <c r="AA28" s="230"/>
-      <c r="AB28" s="230"/>
-      <c r="AC28" s="230"/>
-      <c r="AD28" s="230"/>
-      <c r="AE28" s="231"/>
-      <c r="AF28" s="226"/>
-      <c r="AG28" s="227"/>
-      <c r="AH28" s="227"/>
-      <c r="AI28" s="228"/>
+      <c r="B28" s="183"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="188"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="189"/>
+      <c r="K28" s="190"/>
+      <c r="L28" s="190"/>
+      <c r="M28" s="190"/>
+      <c r="N28" s="190"/>
+      <c r="O28" s="190"/>
+      <c r="P28" s="191"/>
+      <c r="Q28" s="192"/>
+      <c r="R28" s="193"/>
+      <c r="S28" s="193"/>
+      <c r="T28" s="193"/>
+      <c r="U28" s="193"/>
+      <c r="V28" s="193"/>
+      <c r="W28" s="193"/>
+      <c r="X28" s="193"/>
+      <c r="Y28" s="193"/>
+      <c r="Z28" s="193"/>
+      <c r="AA28" s="193"/>
+      <c r="AB28" s="193"/>
+      <c r="AC28" s="193"/>
+      <c r="AD28" s="193"/>
+      <c r="AE28" s="194"/>
+      <c r="AF28" s="189"/>
+      <c r="AG28" s="190"/>
+      <c r="AH28" s="190"/>
+      <c r="AI28" s="191"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="220"/>
-      <c r="C29" s="221"/>
-      <c r="D29" s="222"/>
-      <c r="E29" s="223"/>
-      <c r="F29" s="224"/>
-      <c r="G29" s="220"/>
-      <c r="H29" s="225"/>
-      <c r="I29" s="221"/>
-      <c r="J29" s="226"/>
-      <c r="K29" s="227"/>
-      <c r="L29" s="227"/>
-      <c r="M29" s="227"/>
-      <c r="N29" s="227"/>
-      <c r="O29" s="227"/>
-      <c r="P29" s="228"/>
-      <c r="Q29" s="229"/>
-      <c r="R29" s="230"/>
-      <c r="S29" s="230"/>
-      <c r="T29" s="230"/>
-      <c r="U29" s="230"/>
-      <c r="V29" s="230"/>
-      <c r="W29" s="230"/>
-      <c r="X29" s="230"/>
-      <c r="Y29" s="230"/>
-      <c r="Z29" s="230"/>
-      <c r="AA29" s="230"/>
-      <c r="AB29" s="230"/>
-      <c r="AC29" s="230"/>
-      <c r="AD29" s="230"/>
-      <c r="AE29" s="231"/>
-      <c r="AF29" s="226"/>
-      <c r="AG29" s="227"/>
-      <c r="AH29" s="227"/>
-      <c r="AI29" s="228"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="187"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="188"/>
+      <c r="I29" s="184"/>
+      <c r="J29" s="189"/>
+      <c r="K29" s="190"/>
+      <c r="L29" s="190"/>
+      <c r="M29" s="190"/>
+      <c r="N29" s="190"/>
+      <c r="O29" s="190"/>
+      <c r="P29" s="191"/>
+      <c r="Q29" s="192"/>
+      <c r="R29" s="193"/>
+      <c r="S29" s="193"/>
+      <c r="T29" s="193"/>
+      <c r="U29" s="193"/>
+      <c r="V29" s="193"/>
+      <c r="W29" s="193"/>
+      <c r="X29" s="193"/>
+      <c r="Y29" s="193"/>
+      <c r="Z29" s="193"/>
+      <c r="AA29" s="193"/>
+      <c r="AB29" s="193"/>
+      <c r="AC29" s="193"/>
+      <c r="AD29" s="193"/>
+      <c r="AE29" s="194"/>
+      <c r="AF29" s="189"/>
+      <c r="AG29" s="190"/>
+      <c r="AH29" s="190"/>
+      <c r="AI29" s="191"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="220"/>
-      <c r="C30" s="221"/>
-      <c r="D30" s="222"/>
-      <c r="E30" s="223"/>
-      <c r="F30" s="224"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="225"/>
-      <c r="I30" s="221"/>
-      <c r="J30" s="226"/>
-      <c r="K30" s="227"/>
-      <c r="L30" s="227"/>
-      <c r="M30" s="227"/>
-      <c r="N30" s="227"/>
-      <c r="O30" s="227"/>
-      <c r="P30" s="228"/>
-      <c r="Q30" s="229"/>
-      <c r="R30" s="230"/>
-      <c r="S30" s="230"/>
-      <c r="T30" s="230"/>
-      <c r="U30" s="230"/>
-      <c r="V30" s="230"/>
-      <c r="W30" s="230"/>
-      <c r="X30" s="230"/>
-      <c r="Y30" s="230"/>
-      <c r="Z30" s="230"/>
-      <c r="AA30" s="230"/>
-      <c r="AB30" s="230"/>
-      <c r="AC30" s="230"/>
-      <c r="AD30" s="230"/>
-      <c r="AE30" s="231"/>
-      <c r="AF30" s="226"/>
-      <c r="AG30" s="227"/>
-      <c r="AH30" s="227"/>
-      <c r="AI30" s="228"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="188"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="189"/>
+      <c r="K30" s="190"/>
+      <c r="L30" s="190"/>
+      <c r="M30" s="190"/>
+      <c r="N30" s="190"/>
+      <c r="O30" s="190"/>
+      <c r="P30" s="191"/>
+      <c r="Q30" s="192"/>
+      <c r="R30" s="193"/>
+      <c r="S30" s="193"/>
+      <c r="T30" s="193"/>
+      <c r="U30" s="193"/>
+      <c r="V30" s="193"/>
+      <c r="W30" s="193"/>
+      <c r="X30" s="193"/>
+      <c r="Y30" s="193"/>
+      <c r="Z30" s="193"/>
+      <c r="AA30" s="193"/>
+      <c r="AB30" s="193"/>
+      <c r="AC30" s="193"/>
+      <c r="AD30" s="193"/>
+      <c r="AE30" s="194"/>
+      <c r="AF30" s="189"/>
+      <c r="AG30" s="190"/>
+      <c r="AH30" s="190"/>
+      <c r="AI30" s="191"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="220"/>
-      <c r="C31" s="221"/>
-      <c r="D31" s="222"/>
-      <c r="E31" s="223"/>
-      <c r="F31" s="224"/>
-      <c r="G31" s="220"/>
-      <c r="H31" s="225"/>
-      <c r="I31" s="221"/>
-      <c r="J31" s="226"/>
-      <c r="K31" s="227"/>
-      <c r="L31" s="227"/>
-      <c r="M31" s="227"/>
-      <c r="N31" s="227"/>
-      <c r="O31" s="227"/>
-      <c r="P31" s="228"/>
-      <c r="Q31" s="229"/>
-      <c r="R31" s="230"/>
-      <c r="S31" s="230"/>
-      <c r="T31" s="230"/>
-      <c r="U31" s="230"/>
-      <c r="V31" s="230"/>
-      <c r="W31" s="230"/>
-      <c r="X31" s="230"/>
-      <c r="Y31" s="230"/>
-      <c r="Z31" s="230"/>
-      <c r="AA31" s="230"/>
-      <c r="AB31" s="230"/>
-      <c r="AC31" s="230"/>
-      <c r="AD31" s="230"/>
-      <c r="AE31" s="231"/>
-      <c r="AF31" s="226"/>
-      <c r="AG31" s="227"/>
-      <c r="AH31" s="227"/>
-      <c r="AI31" s="228"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="184"/>
+      <c r="D31" s="185"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="189"/>
+      <c r="K31" s="190"/>
+      <c r="L31" s="190"/>
+      <c r="M31" s="190"/>
+      <c r="N31" s="190"/>
+      <c r="O31" s="190"/>
+      <c r="P31" s="191"/>
+      <c r="Q31" s="192"/>
+      <c r="R31" s="193"/>
+      <c r="S31" s="193"/>
+      <c r="T31" s="193"/>
+      <c r="U31" s="193"/>
+      <c r="V31" s="193"/>
+      <c r="W31" s="193"/>
+      <c r="X31" s="193"/>
+      <c r="Y31" s="193"/>
+      <c r="Z31" s="193"/>
+      <c r="AA31" s="193"/>
+      <c r="AB31" s="193"/>
+      <c r="AC31" s="193"/>
+      <c r="AD31" s="193"/>
+      <c r="AE31" s="194"/>
+      <c r="AF31" s="189"/>
+      <c r="AG31" s="190"/>
+      <c r="AH31" s="190"/>
+      <c r="AI31" s="191"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="220"/>
-      <c r="C32" s="221"/>
-      <c r="D32" s="222"/>
-      <c r="E32" s="223"/>
-      <c r="F32" s="224"/>
-      <c r="G32" s="220"/>
-      <c r="H32" s="225"/>
-      <c r="I32" s="221"/>
-      <c r="J32" s="226"/>
-      <c r="K32" s="232"/>
-      <c r="L32" s="227"/>
-      <c r="M32" s="227"/>
-      <c r="N32" s="227"/>
-      <c r="O32" s="227"/>
-      <c r="P32" s="228"/>
-      <c r="Q32" s="229"/>
-      <c r="R32" s="230"/>
-      <c r="S32" s="230"/>
-      <c r="T32" s="230"/>
-      <c r="U32" s="230"/>
-      <c r="V32" s="230"/>
-      <c r="W32" s="230"/>
-      <c r="X32" s="230"/>
-      <c r="Y32" s="230"/>
-      <c r="Z32" s="230"/>
-      <c r="AA32" s="230"/>
-      <c r="AB32" s="230"/>
-      <c r="AC32" s="230"/>
-      <c r="AD32" s="230"/>
-      <c r="AE32" s="231"/>
-      <c r="AF32" s="226"/>
-      <c r="AG32" s="227"/>
-      <c r="AH32" s="227"/>
-      <c r="AI32" s="228"/>
+      <c r="B32" s="183"/>
+      <c r="C32" s="184"/>
+      <c r="D32" s="185"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="189"/>
+      <c r="K32" s="195"/>
+      <c r="L32" s="190"/>
+      <c r="M32" s="190"/>
+      <c r="N32" s="190"/>
+      <c r="O32" s="190"/>
+      <c r="P32" s="191"/>
+      <c r="Q32" s="192"/>
+      <c r="R32" s="193"/>
+      <c r="S32" s="193"/>
+      <c r="T32" s="193"/>
+      <c r="U32" s="193"/>
+      <c r="V32" s="193"/>
+      <c r="W32" s="193"/>
+      <c r="X32" s="193"/>
+      <c r="Y32" s="193"/>
+      <c r="Z32" s="193"/>
+      <c r="AA32" s="193"/>
+      <c r="AB32" s="193"/>
+      <c r="AC32" s="193"/>
+      <c r="AD32" s="193"/>
+      <c r="AE32" s="194"/>
+      <c r="AF32" s="189"/>
+      <c r="AG32" s="190"/>
+      <c r="AH32" s="190"/>
+      <c r="AI32" s="191"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="220"/>
-      <c r="C33" s="221"/>
-      <c r="D33" s="222"/>
-      <c r="E33" s="223"/>
-      <c r="F33" s="224"/>
-      <c r="G33" s="220"/>
-      <c r="H33" s="225"/>
-      <c r="I33" s="221"/>
-      <c r="J33" s="226"/>
-      <c r="K33" s="227"/>
-      <c r="L33" s="227"/>
-      <c r="M33" s="227"/>
-      <c r="N33" s="227"/>
-      <c r="O33" s="227"/>
-      <c r="P33" s="228"/>
-      <c r="Q33" s="229"/>
-      <c r="R33" s="230"/>
-      <c r="S33" s="230"/>
-      <c r="T33" s="230"/>
-      <c r="U33" s="230"/>
-      <c r="V33" s="230"/>
-      <c r="W33" s="230"/>
-      <c r="X33" s="230"/>
-      <c r="Y33" s="230"/>
-      <c r="Z33" s="230"/>
-      <c r="AA33" s="230"/>
-      <c r="AB33" s="230"/>
-      <c r="AC33" s="230"/>
-      <c r="AD33" s="230"/>
-      <c r="AE33" s="231"/>
-      <c r="AF33" s="226"/>
-      <c r="AG33" s="227"/>
-      <c r="AH33" s="227"/>
-      <c r="AI33" s="228"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="184"/>
+      <c r="D33" s="185"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="189"/>
+      <c r="K33" s="190"/>
+      <c r="L33" s="190"/>
+      <c r="M33" s="190"/>
+      <c r="N33" s="190"/>
+      <c r="O33" s="190"/>
+      <c r="P33" s="191"/>
+      <c r="Q33" s="192"/>
+      <c r="R33" s="193"/>
+      <c r="S33" s="193"/>
+      <c r="T33" s="193"/>
+      <c r="U33" s="193"/>
+      <c r="V33" s="193"/>
+      <c r="W33" s="193"/>
+      <c r="X33" s="193"/>
+      <c r="Y33" s="193"/>
+      <c r="Z33" s="193"/>
+      <c r="AA33" s="193"/>
+      <c r="AB33" s="193"/>
+      <c r="AC33" s="193"/>
+      <c r="AD33" s="193"/>
+      <c r="AE33" s="194"/>
+      <c r="AF33" s="189"/>
+      <c r="AG33" s="190"/>
+      <c r="AH33" s="190"/>
+      <c r="AI33" s="191"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -11000,167 +11161,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -14906,7 +14906,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="233" t="s">
+      <c r="B112" s="245" t="s">
         <v>227</v>
       </c>
       <c r="C112" s="59"/>
@@ -14942,7 +14942,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="233"/>
+      <c r="B113" s="245"/>
       <c r="C113" s="59"/>
       <c r="D113" s="46"/>
       <c r="E113" s="96"/>
@@ -15614,7 +15614,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="233" t="s">
+      <c r="B132" s="245" t="s">
         <v>257</v>
       </c>
       <c r="C132" s="59"/>
@@ -15650,7 +15650,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="233"/>
+      <c r="B133" s="245"/>
       <c r="C133" s="59"/>
       <c r="D133" s="46"/>
       <c r="E133" s="46"/>
@@ -25040,7 +25040,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="234" t="s">
+      <c r="B112" s="246" t="s">
         <v>499</v>
       </c>
       <c r="C112" s="139"/>
@@ -25075,7 +25075,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="234"/>
+      <c r="B113" s="246"/>
       <c r="C113" s="139"/>
       <c r="D113" s="134"/>
       <c r="E113" s="146"/>
@@ -25736,7 +25736,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="234" t="s">
+      <c r="B132" s="246" t="s">
         <v>257</v>
       </c>
       <c r="C132" s="139"/>
@@ -25773,7 +25773,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="234"/>
+      <c r="B133" s="246"/>
       <c r="C133" s="139"/>
       <c r="D133" s="134"/>
       <c r="E133" s="139"/>
@@ -32535,68 +32535,68 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="29" customFormat="1">
-      <c r="A11" s="241" t="s">
+      <c r="A11" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="242" t="s">
+      <c r="B11" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="242" t="s">
+      <c r="C11" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="243" t="s">
+      <c r="D11" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="243" t="s">
+      <c r="E11" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="243" t="s">
+      <c r="F11" s="178" t="s">
         <v>1</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="244"/>
-      <c r="J11" s="244"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="244"/>
-      <c r="M11" s="244"/>
-      <c r="N11" s="244"/>
-      <c r="O11" s="244"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="179"/>
+      <c r="N11" s="179"/>
+      <c r="O11" s="179"/>
     </row>
     <row r="12" spans="1:15" s="29" customFormat="1">
-      <c r="A12" s="241" t="s">
+      <c r="A12" s="176" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="246"/>
-      <c r="C12" s="245"/>
+      <c r="B12" s="181"/>
+      <c r="C12" s="180"/>
       <c r="D12" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="243" t="s">
+      <c r="E12" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="243" t="s">
+      <c r="F12" s="178" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
-      <c r="I12" s="244"/>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="244"/>
-      <c r="M12" s="244"/>
-      <c r="N12" s="244"/>
-      <c r="O12" s="244"/>
+      <c r="I12" s="179"/>
+      <c r="J12" s="179"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="179"/>
+      <c r="N12" s="179"/>
+      <c r="O12" s="179"/>
     </row>
     <row r="13" spans="1:15" s="29" customFormat="1" ht="33.75">
-      <c r="A13" s="241" t="s">
+      <c r="A13" s="176" t="s">
         <v>535</v>
       </c>
-      <c r="B13" s="239"/>
-      <c r="C13" s="235" t="s">
+      <c r="B13" s="174"/>
+      <c r="C13" s="170" t="s">
         <v>537</v>
       </c>
-      <c r="D13" s="237" t="s">
+      <c r="D13" s="172" t="s">
         <v>529</v>
       </c>
       <c r="E13" s="76" t="s">
@@ -32607,21 +32607,21 @@
       </c>
       <c r="G13" s="76"/>
       <c r="H13" s="76"/>
-      <c r="I13" s="236"/>
-      <c r="J13" s="236"/>
-      <c r="K13" s="236"/>
-      <c r="L13" s="236"/>
-      <c r="M13" s="236"/>
-      <c r="N13" s="236"/>
-      <c r="O13" s="236"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="171"/>
+      <c r="O13" s="171"/>
     </row>
     <row r="14" spans="1:15" s="29" customFormat="1" ht="56.25">
-      <c r="A14" s="241" t="s">
+      <c r="A14" s="176" t="s">
         <v>536</v>
       </c>
-      <c r="B14" s="240"/>
-      <c r="C14" s="238"/>
-      <c r="D14" s="237" t="s">
+      <c r="B14" s="175"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="172" t="s">
         <v>532</v>
       </c>
       <c r="E14" s="76" t="s">
@@ -32632,13 +32632,13 @@
       </c>
       <c r="G14" s="76"/>
       <c r="H14" s="76"/>
-      <c r="I14" s="236"/>
-      <c r="J14" s="236"/>
-      <c r="K14" s="236"/>
-      <c r="L14" s="236"/>
-      <c r="M14" s="236"/>
-      <c r="N14" s="236"/>
-      <c r="O14" s="236"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="171"/>
     </row>
     <row r="15" spans="1:15" s="29" customFormat="1">
       <c r="D15" s="32"/>
@@ -32727,6 +32727,11 @@
   </sheetData>
   <autoFilter ref="A10:O10" xr:uid="{21763B81-E996-4A96-8209-FB791813E5DE}"/>
   <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11:M14" xr:uid="{5EF2E0A3-17A2-451F-A487-E88E9F1E6F8B}">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(バッチ)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(バッチ)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780DA147-82F9-47EE-B202-AE496AE7A156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2B9C0B-D825-47B6-A530-7940D100BF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="537">
   <si>
     <t>正常取引</t>
     <rPh sb="0" eb="2">
@@ -3311,25 +3311,6 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サンプルプロジェクトにはファイルシステム上へのファイル出力機能は無いため対象外</t>
-    <rPh sb="20" eb="21">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>タイショウガイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -7571,7 +7552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -8087,93 +8068,6 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -8273,11 +8167,101 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9781,57 +9765,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="218" t="s">
-        <v>525</v>
-      </c>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
-      <c r="K1" s="219"/>
-      <c r="L1" s="219"/>
-      <c r="M1" s="219"/>
-      <c r="N1" s="220"/>
-      <c r="O1" s="227" t="s">
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="189" t="s">
+        <v>524</v>
+      </c>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="236" t="s">
-        <v>524</v>
-      </c>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="212" t="s">
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="207" t="s">
+        <v>523</v>
+      </c>
+      <c r="T1" s="208"/>
+      <c r="U1" s="208"/>
+      <c r="V1" s="208"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="209"/>
+      <c r="AA1" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="213"/>
-      <c r="AC1" s="214" t="str">
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="185" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="215"/>
-      <c r="AE1" s="215"/>
-      <c r="AF1" s="216"/>
-      <c r="AG1" s="221" t="str">
+      <c r="AD1" s="186"/>
+      <c r="AE1" s="186"/>
+      <c r="AF1" s="187"/>
+      <c r="AG1" s="192" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="222"/>
-      <c r="AI1" s="223"/>
+      <c r="AH1" s="193"/>
+      <c r="AI1" s="194"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -9839,53 +9823,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="183" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="213"/>
-      <c r="E2" s="218" t="s">
-        <v>526</v>
-      </c>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
-      <c r="L2" s="219"/>
-      <c r="M2" s="219"/>
-      <c r="N2" s="220"/>
-      <c r="O2" s="230"/>
-      <c r="P2" s="231"/>
-      <c r="Q2" s="231"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="240"/>
-      <c r="U2" s="240"/>
-      <c r="V2" s="240"/>
-      <c r="W2" s="240"/>
-      <c r="X2" s="240"/>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="241"/>
-      <c r="AA2" s="212" t="s">
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="189" t="s">
+        <v>525</v>
+      </c>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="202"/>
+      <c r="Q2" s="202"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="210"/>
+      <c r="T2" s="211"/>
+      <c r="U2" s="211"/>
+      <c r="V2" s="211"/>
+      <c r="W2" s="211"/>
+      <c r="X2" s="211"/>
+      <c r="Y2" s="211"/>
+      <c r="Z2" s="212"/>
+      <c r="AA2" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="224" t="str">
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="195" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="225"/>
-      <c r="AE2" s="225"/>
-      <c r="AF2" s="226"/>
-      <c r="AG2" s="221" t="str">
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="192" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="222"/>
-      <c r="AI2" s="223"/>
+      <c r="AH2" s="193"/>
+      <c r="AI2" s="194"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -9893,45 +9877,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="218" t="s">
-        <v>528</v>
-      </c>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="219"/>
-      <c r="K3" s="219"/>
-      <c r="L3" s="219"/>
-      <c r="M3" s="219"/>
-      <c r="N3" s="220"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="234"/>
-      <c r="Q3" s="234"/>
-      <c r="R3" s="235"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="243"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="243"/>
-      <c r="W3" s="243"/>
-      <c r="X3" s="243"/>
-      <c r="Y3" s="243"/>
-      <c r="Z3" s="244"/>
-      <c r="AA3" s="212"/>
-      <c r="AB3" s="213"/>
-      <c r="AC3" s="214"/>
-      <c r="AD3" s="215"/>
-      <c r="AE3" s="215"/>
-      <c r="AF3" s="216"/>
-      <c r="AG3" s="221"/>
-      <c r="AH3" s="222"/>
-      <c r="AI3" s="223"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="189" t="s">
+        <v>527</v>
+      </c>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="204"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="206"/>
+      <c r="S3" s="213"/>
+      <c r="T3" s="214"/>
+      <c r="U3" s="214"/>
+      <c r="V3" s="214"/>
+      <c r="W3" s="214"/>
+      <c r="X3" s="214"/>
+      <c r="Y3" s="214"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="185"/>
+      <c r="AD3" s="186"/>
+      <c r="AE3" s="186"/>
+      <c r="AF3" s="187"/>
+      <c r="AG3" s="192"/>
+      <c r="AH3" s="193"/>
+      <c r="AI3" s="194"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -9968,1181 +9952,1020 @@
       <c r="A7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="216" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="197"/>
-      <c r="D7" s="196" t="s">
+      <c r="C7" s="217"/>
+      <c r="D7" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="198"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="196" t="s">
+      <c r="E7" s="218"/>
+      <c r="F7" s="217"/>
+      <c r="G7" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="198"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="196" t="s">
+      <c r="H7" s="218"/>
+      <c r="I7" s="217"/>
+      <c r="J7" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="198"/>
-      <c r="L7" s="198"/>
-      <c r="M7" s="198"/>
-      <c r="N7" s="198"/>
-      <c r="O7" s="198"/>
-      <c r="P7" s="197"/>
-      <c r="Q7" s="196" t="s">
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="217"/>
+      <c r="Q7" s="216" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="198"/>
-      <c r="S7" s="198"/>
-      <c r="T7" s="198"/>
-      <c r="U7" s="198"/>
-      <c r="V7" s="198"/>
-      <c r="W7" s="198"/>
-      <c r="X7" s="198"/>
-      <c r="Y7" s="198"/>
-      <c r="Z7" s="198"/>
-      <c r="AA7" s="198"/>
-      <c r="AB7" s="198"/>
-      <c r="AC7" s="198"/>
-      <c r="AD7" s="198"/>
-      <c r="AE7" s="197"/>
-      <c r="AF7" s="196" t="s">
+      <c r="R7" s="218"/>
+      <c r="S7" s="218"/>
+      <c r="T7" s="218"/>
+      <c r="U7" s="218"/>
+      <c r="V7" s="218"/>
+      <c r="W7" s="218"/>
+      <c r="X7" s="218"/>
+      <c r="Y7" s="218"/>
+      <c r="Z7" s="218"/>
+      <c r="AA7" s="218"/>
+      <c r="AB7" s="218"/>
+      <c r="AC7" s="218"/>
+      <c r="AD7" s="218"/>
+      <c r="AE7" s="217"/>
+      <c r="AF7" s="216" t="s">
         <v>38</v>
       </c>
-      <c r="AG7" s="198"/>
-      <c r="AH7" s="198"/>
-      <c r="AI7" s="197"/>
+      <c r="AG7" s="218"/>
+      <c r="AH7" s="218"/>
+      <c r="AI7" s="217"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="201"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="205"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="206"/>
-      <c r="K8" s="207"/>
-      <c r="L8" s="207"/>
-      <c r="M8" s="207"/>
-      <c r="N8" s="207"/>
-      <c r="O8" s="207"/>
-      <c r="P8" s="208"/>
-      <c r="Q8" s="209"/>
-      <c r="R8" s="210"/>
-      <c r="S8" s="210"/>
-      <c r="T8" s="210"/>
-      <c r="U8" s="210"/>
-      <c r="V8" s="210"/>
-      <c r="W8" s="210"/>
-      <c r="X8" s="210"/>
-      <c r="Y8" s="210"/>
-      <c r="Z8" s="210"/>
-      <c r="AA8" s="210"/>
-      <c r="AB8" s="210"/>
-      <c r="AC8" s="210"/>
-      <c r="AD8" s="210"/>
-      <c r="AE8" s="211"/>
-      <c r="AF8" s="206"/>
-      <c r="AG8" s="207"/>
-      <c r="AH8" s="207"/>
-      <c r="AI8" s="208"/>
+      <c r="B8" s="219"/>
+      <c r="C8" s="220"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="225"/>
+      <c r="I8" s="220"/>
+      <c r="J8" s="226"/>
+      <c r="K8" s="227"/>
+      <c r="L8" s="227"/>
+      <c r="M8" s="227"/>
+      <c r="N8" s="227"/>
+      <c r="O8" s="227"/>
+      <c r="P8" s="228"/>
+      <c r="Q8" s="229"/>
+      <c r="R8" s="230"/>
+      <c r="S8" s="230"/>
+      <c r="T8" s="230"/>
+      <c r="U8" s="230"/>
+      <c r="V8" s="230"/>
+      <c r="W8" s="230"/>
+      <c r="X8" s="230"/>
+      <c r="Y8" s="230"/>
+      <c r="Z8" s="230"/>
+      <c r="AA8" s="230"/>
+      <c r="AB8" s="230"/>
+      <c r="AC8" s="230"/>
+      <c r="AD8" s="230"/>
+      <c r="AE8" s="231"/>
+      <c r="AF8" s="226"/>
+      <c r="AG8" s="227"/>
+      <c r="AH8" s="227"/>
+      <c r="AI8" s="228"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="188"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="190"/>
-      <c r="N9" s="190"/>
-      <c r="O9" s="190"/>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="192"/>
-      <c r="R9" s="193"/>
-      <c r="S9" s="193"/>
-      <c r="T9" s="193"/>
-      <c r="U9" s="193"/>
-      <c r="V9" s="193"/>
-      <c r="W9" s="193"/>
-      <c r="X9" s="193"/>
-      <c r="Y9" s="193"/>
-      <c r="Z9" s="193"/>
-      <c r="AA9" s="193"/>
-      <c r="AB9" s="193"/>
-      <c r="AC9" s="193"/>
-      <c r="AD9" s="193"/>
-      <c r="AE9" s="194"/>
-      <c r="AF9" s="189"/>
-      <c r="AG9" s="190"/>
-      <c r="AH9" s="190"/>
-      <c r="AI9" s="191"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="236"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="237"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="238"/>
+      <c r="K9" s="239"/>
+      <c r="L9" s="239"/>
+      <c r="M9" s="239"/>
+      <c r="N9" s="239"/>
+      <c r="O9" s="239"/>
+      <c r="P9" s="240"/>
+      <c r="Q9" s="241"/>
+      <c r="R9" s="242"/>
+      <c r="S9" s="242"/>
+      <c r="T9" s="242"/>
+      <c r="U9" s="242"/>
+      <c r="V9" s="242"/>
+      <c r="W9" s="242"/>
+      <c r="X9" s="242"/>
+      <c r="Y9" s="242"/>
+      <c r="Z9" s="242"/>
+      <c r="AA9" s="242"/>
+      <c r="AB9" s="242"/>
+      <c r="AC9" s="242"/>
+      <c r="AD9" s="242"/>
+      <c r="AE9" s="243"/>
+      <c r="AF9" s="238"/>
+      <c r="AG9" s="239"/>
+      <c r="AH9" s="239"/>
+      <c r="AI9" s="240"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="183"/>
-      <c r="C10" s="184"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="183"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="189"/>
-      <c r="K10" s="190"/>
-      <c r="L10" s="190"/>
-      <c r="M10" s="190"/>
-      <c r="N10" s="190"/>
-      <c r="O10" s="190"/>
-      <c r="P10" s="191"/>
-      <c r="Q10" s="192"/>
-      <c r="R10" s="193"/>
-      <c r="S10" s="193"/>
-      <c r="T10" s="193"/>
-      <c r="U10" s="193"/>
-      <c r="V10" s="193"/>
-      <c r="W10" s="193"/>
-      <c r="X10" s="193"/>
-      <c r="Y10" s="193"/>
-      <c r="Z10" s="193"/>
-      <c r="AA10" s="193"/>
-      <c r="AB10" s="193"/>
-      <c r="AC10" s="193"/>
-      <c r="AD10" s="193"/>
-      <c r="AE10" s="194"/>
-      <c r="AF10" s="189"/>
-      <c r="AG10" s="190"/>
-      <c r="AH10" s="190"/>
-      <c r="AI10" s="191"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="235"/>
+      <c r="F10" s="236"/>
+      <c r="G10" s="232"/>
+      <c r="H10" s="237"/>
+      <c r="I10" s="233"/>
+      <c r="J10" s="238"/>
+      <c r="K10" s="239"/>
+      <c r="L10" s="239"/>
+      <c r="M10" s="239"/>
+      <c r="N10" s="239"/>
+      <c r="O10" s="239"/>
+      <c r="P10" s="240"/>
+      <c r="Q10" s="241"/>
+      <c r="R10" s="242"/>
+      <c r="S10" s="242"/>
+      <c r="T10" s="242"/>
+      <c r="U10" s="242"/>
+      <c r="V10" s="242"/>
+      <c r="W10" s="242"/>
+      <c r="X10" s="242"/>
+      <c r="Y10" s="242"/>
+      <c r="Z10" s="242"/>
+      <c r="AA10" s="242"/>
+      <c r="AB10" s="242"/>
+      <c r="AC10" s="242"/>
+      <c r="AD10" s="242"/>
+      <c r="AE10" s="243"/>
+      <c r="AF10" s="238"/>
+      <c r="AG10" s="239"/>
+      <c r="AH10" s="239"/>
+      <c r="AI10" s="240"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="183"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="190"/>
-      <c r="L11" s="190"/>
-      <c r="M11" s="190"/>
-      <c r="N11" s="190"/>
-      <c r="O11" s="190"/>
-      <c r="P11" s="191"/>
-      <c r="Q11" s="192"/>
-      <c r="R11" s="193"/>
-      <c r="S11" s="193"/>
-      <c r="T11" s="193"/>
-      <c r="U11" s="193"/>
-      <c r="V11" s="193"/>
-      <c r="W11" s="193"/>
-      <c r="X11" s="193"/>
-      <c r="Y11" s="193"/>
-      <c r="Z11" s="193"/>
-      <c r="AA11" s="193"/>
-      <c r="AB11" s="193"/>
-      <c r="AC11" s="193"/>
-      <c r="AD11" s="193"/>
-      <c r="AE11" s="194"/>
-      <c r="AF11" s="189"/>
-      <c r="AG11" s="190"/>
-      <c r="AH11" s="190"/>
-      <c r="AI11" s="191"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="232"/>
+      <c r="H11" s="237"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="238"/>
+      <c r="K11" s="239"/>
+      <c r="L11" s="239"/>
+      <c r="M11" s="239"/>
+      <c r="N11" s="239"/>
+      <c r="O11" s="239"/>
+      <c r="P11" s="240"/>
+      <c r="Q11" s="241"/>
+      <c r="R11" s="242"/>
+      <c r="S11" s="242"/>
+      <c r="T11" s="242"/>
+      <c r="U11" s="242"/>
+      <c r="V11" s="242"/>
+      <c r="W11" s="242"/>
+      <c r="X11" s="242"/>
+      <c r="Y11" s="242"/>
+      <c r="Z11" s="242"/>
+      <c r="AA11" s="242"/>
+      <c r="AB11" s="242"/>
+      <c r="AC11" s="242"/>
+      <c r="AD11" s="242"/>
+      <c r="AE11" s="243"/>
+      <c r="AF11" s="238"/>
+      <c r="AG11" s="239"/>
+      <c r="AH11" s="239"/>
+      <c r="AI11" s="240"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="183"/>
-      <c r="C12" s="184"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="184"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="190"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="190"/>
-      <c r="P12" s="191"/>
-      <c r="Q12" s="192"/>
-      <c r="R12" s="193"/>
-      <c r="S12" s="193"/>
-      <c r="T12" s="193"/>
-      <c r="U12" s="193"/>
-      <c r="V12" s="193"/>
-      <c r="W12" s="193"/>
-      <c r="X12" s="193"/>
-      <c r="Y12" s="193"/>
-      <c r="Z12" s="193"/>
-      <c r="AA12" s="193"/>
-      <c r="AB12" s="193"/>
-      <c r="AC12" s="193"/>
-      <c r="AD12" s="193"/>
-      <c r="AE12" s="194"/>
-      <c r="AF12" s="189"/>
-      <c r="AG12" s="190"/>
-      <c r="AH12" s="190"/>
-      <c r="AI12" s="191"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="233"/>
+      <c r="D12" s="234"/>
+      <c r="E12" s="235"/>
+      <c r="F12" s="236"/>
+      <c r="G12" s="232"/>
+      <c r="H12" s="237"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="238"/>
+      <c r="K12" s="239"/>
+      <c r="L12" s="239"/>
+      <c r="M12" s="239"/>
+      <c r="N12" s="239"/>
+      <c r="O12" s="239"/>
+      <c r="P12" s="240"/>
+      <c r="Q12" s="241"/>
+      <c r="R12" s="242"/>
+      <c r="S12" s="242"/>
+      <c r="T12" s="242"/>
+      <c r="U12" s="242"/>
+      <c r="V12" s="242"/>
+      <c r="W12" s="242"/>
+      <c r="X12" s="242"/>
+      <c r="Y12" s="242"/>
+      <c r="Z12" s="242"/>
+      <c r="AA12" s="242"/>
+      <c r="AB12" s="242"/>
+      <c r="AC12" s="242"/>
+      <c r="AD12" s="242"/>
+      <c r="AE12" s="243"/>
+      <c r="AF12" s="238"/>
+      <c r="AG12" s="239"/>
+      <c r="AH12" s="239"/>
+      <c r="AI12" s="240"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="183"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="185"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="183"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="184"/>
-      <c r="J13" s="189"/>
-      <c r="K13" s="190"/>
-      <c r="L13" s="190"/>
-      <c r="M13" s="190"/>
-      <c r="N13" s="190"/>
-      <c r="O13" s="190"/>
-      <c r="P13" s="191"/>
-      <c r="Q13" s="192"/>
-      <c r="R13" s="193"/>
-      <c r="S13" s="193"/>
-      <c r="T13" s="193"/>
-      <c r="U13" s="193"/>
-      <c r="V13" s="193"/>
-      <c r="W13" s="193"/>
-      <c r="X13" s="193"/>
-      <c r="Y13" s="193"/>
-      <c r="Z13" s="193"/>
-      <c r="AA13" s="193"/>
-      <c r="AB13" s="193"/>
-      <c r="AC13" s="193"/>
-      <c r="AD13" s="193"/>
-      <c r="AE13" s="194"/>
-      <c r="AF13" s="189"/>
-      <c r="AG13" s="190"/>
-      <c r="AH13" s="190"/>
-      <c r="AI13" s="191"/>
+      <c r="B13" s="232"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="234"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="236"/>
+      <c r="G13" s="232"/>
+      <c r="H13" s="237"/>
+      <c r="I13" s="233"/>
+      <c r="J13" s="238"/>
+      <c r="K13" s="239"/>
+      <c r="L13" s="239"/>
+      <c r="M13" s="239"/>
+      <c r="N13" s="239"/>
+      <c r="O13" s="239"/>
+      <c r="P13" s="240"/>
+      <c r="Q13" s="241"/>
+      <c r="R13" s="242"/>
+      <c r="S13" s="242"/>
+      <c r="T13" s="242"/>
+      <c r="U13" s="242"/>
+      <c r="V13" s="242"/>
+      <c r="W13" s="242"/>
+      <c r="X13" s="242"/>
+      <c r="Y13" s="242"/>
+      <c r="Z13" s="242"/>
+      <c r="AA13" s="242"/>
+      <c r="AB13" s="242"/>
+      <c r="AC13" s="242"/>
+      <c r="AD13" s="242"/>
+      <c r="AE13" s="243"/>
+      <c r="AF13" s="238"/>
+      <c r="AG13" s="239"/>
+      <c r="AH13" s="239"/>
+      <c r="AI13" s="240"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="183"/>
-      <c r="C14" s="184"/>
-      <c r="D14" s="185"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="184"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="190"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="190"/>
-      <c r="O14" s="190"/>
-      <c r="P14" s="191"/>
-      <c r="Q14" s="192"/>
-      <c r="R14" s="193"/>
-      <c r="S14" s="193"/>
-      <c r="T14" s="193"/>
-      <c r="U14" s="193"/>
-      <c r="V14" s="193"/>
-      <c r="W14" s="193"/>
-      <c r="X14" s="193"/>
-      <c r="Y14" s="193"/>
-      <c r="Z14" s="193"/>
-      <c r="AA14" s="193"/>
-      <c r="AB14" s="193"/>
-      <c r="AC14" s="193"/>
-      <c r="AD14" s="193"/>
-      <c r="AE14" s="194"/>
-      <c r="AF14" s="189"/>
-      <c r="AG14" s="190"/>
-      <c r="AH14" s="190"/>
-      <c r="AI14" s="191"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="233"/>
+      <c r="D14" s="234"/>
+      <c r="E14" s="235"/>
+      <c r="F14" s="236"/>
+      <c r="G14" s="232"/>
+      <c r="H14" s="237"/>
+      <c r="I14" s="233"/>
+      <c r="J14" s="238"/>
+      <c r="K14" s="239"/>
+      <c r="L14" s="239"/>
+      <c r="M14" s="239"/>
+      <c r="N14" s="239"/>
+      <c r="O14" s="239"/>
+      <c r="P14" s="240"/>
+      <c r="Q14" s="241"/>
+      <c r="R14" s="242"/>
+      <c r="S14" s="242"/>
+      <c r="T14" s="242"/>
+      <c r="U14" s="242"/>
+      <c r="V14" s="242"/>
+      <c r="W14" s="242"/>
+      <c r="X14" s="242"/>
+      <c r="Y14" s="242"/>
+      <c r="Z14" s="242"/>
+      <c r="AA14" s="242"/>
+      <c r="AB14" s="242"/>
+      <c r="AC14" s="242"/>
+      <c r="AD14" s="242"/>
+      <c r="AE14" s="243"/>
+      <c r="AF14" s="238"/>
+      <c r="AG14" s="239"/>
+      <c r="AH14" s="239"/>
+      <c r="AI14" s="240"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="183"/>
-      <c r="C15" s="184"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="183"/>
-      <c r="H15" s="188"/>
-      <c r="I15" s="184"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="190"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="190"/>
-      <c r="N15" s="190"/>
-      <c r="O15" s="190"/>
-      <c r="P15" s="191"/>
-      <c r="Q15" s="192"/>
-      <c r="R15" s="193"/>
-      <c r="S15" s="193"/>
-      <c r="T15" s="193"/>
-      <c r="U15" s="193"/>
-      <c r="V15" s="193"/>
-      <c r="W15" s="193"/>
-      <c r="X15" s="193"/>
-      <c r="Y15" s="193"/>
-      <c r="Z15" s="193"/>
-      <c r="AA15" s="193"/>
-      <c r="AB15" s="193"/>
-      <c r="AC15" s="193"/>
-      <c r="AD15" s="193"/>
-      <c r="AE15" s="194"/>
-      <c r="AF15" s="189"/>
-      <c r="AG15" s="190"/>
-      <c r="AH15" s="190"/>
-      <c r="AI15" s="191"/>
+      <c r="B15" s="232"/>
+      <c r="C15" s="233"/>
+      <c r="D15" s="234"/>
+      <c r="E15" s="235"/>
+      <c r="F15" s="236"/>
+      <c r="G15" s="232"/>
+      <c r="H15" s="237"/>
+      <c r="I15" s="233"/>
+      <c r="J15" s="238"/>
+      <c r="K15" s="239"/>
+      <c r="L15" s="239"/>
+      <c r="M15" s="239"/>
+      <c r="N15" s="239"/>
+      <c r="O15" s="239"/>
+      <c r="P15" s="240"/>
+      <c r="Q15" s="241"/>
+      <c r="R15" s="242"/>
+      <c r="S15" s="242"/>
+      <c r="T15" s="242"/>
+      <c r="U15" s="242"/>
+      <c r="V15" s="242"/>
+      <c r="W15" s="242"/>
+      <c r="X15" s="242"/>
+      <c r="Y15" s="242"/>
+      <c r="Z15" s="242"/>
+      <c r="AA15" s="242"/>
+      <c r="AB15" s="242"/>
+      <c r="AC15" s="242"/>
+      <c r="AD15" s="242"/>
+      <c r="AE15" s="243"/>
+      <c r="AF15" s="238"/>
+      <c r="AG15" s="239"/>
+      <c r="AH15" s="239"/>
+      <c r="AI15" s="240"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="183"/>
-      <c r="C16" s="184"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="183"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="190"/>
-      <c r="M16" s="190"/>
-      <c r="N16" s="190"/>
-      <c r="O16" s="190"/>
-      <c r="P16" s="191"/>
-      <c r="Q16" s="192"/>
-      <c r="R16" s="193"/>
-      <c r="S16" s="193"/>
-      <c r="T16" s="193"/>
-      <c r="U16" s="193"/>
-      <c r="V16" s="193"/>
-      <c r="W16" s="193"/>
-      <c r="X16" s="193"/>
-      <c r="Y16" s="193"/>
-      <c r="Z16" s="193"/>
-      <c r="AA16" s="193"/>
-      <c r="AB16" s="193"/>
-      <c r="AC16" s="193"/>
-      <c r="AD16" s="193"/>
-      <c r="AE16" s="194"/>
-      <c r="AF16" s="189"/>
-      <c r="AG16" s="190"/>
-      <c r="AH16" s="190"/>
-      <c r="AI16" s="191"/>
+      <c r="B16" s="232"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="234"/>
+      <c r="E16" s="235"/>
+      <c r="F16" s="236"/>
+      <c r="G16" s="232"/>
+      <c r="H16" s="237"/>
+      <c r="I16" s="233"/>
+      <c r="J16" s="238"/>
+      <c r="K16" s="239"/>
+      <c r="L16" s="239"/>
+      <c r="M16" s="239"/>
+      <c r="N16" s="239"/>
+      <c r="O16" s="239"/>
+      <c r="P16" s="240"/>
+      <c r="Q16" s="241"/>
+      <c r="R16" s="242"/>
+      <c r="S16" s="242"/>
+      <c r="T16" s="242"/>
+      <c r="U16" s="242"/>
+      <c r="V16" s="242"/>
+      <c r="W16" s="242"/>
+      <c r="X16" s="242"/>
+      <c r="Y16" s="242"/>
+      <c r="Z16" s="242"/>
+      <c r="AA16" s="242"/>
+      <c r="AB16" s="242"/>
+      <c r="AC16" s="242"/>
+      <c r="AD16" s="242"/>
+      <c r="AE16" s="243"/>
+      <c r="AF16" s="238"/>
+      <c r="AG16" s="239"/>
+      <c r="AH16" s="239"/>
+      <c r="AI16" s="240"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="183"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="184"/>
-      <c r="J17" s="189"/>
-      <c r="K17" s="190"/>
-      <c r="L17" s="190"/>
-      <c r="M17" s="190"/>
-      <c r="N17" s="190"/>
-      <c r="O17" s="190"/>
-      <c r="P17" s="191"/>
-      <c r="Q17" s="192"/>
-      <c r="R17" s="193"/>
-      <c r="S17" s="193"/>
-      <c r="T17" s="193"/>
-      <c r="U17" s="193"/>
-      <c r="V17" s="193"/>
-      <c r="W17" s="193"/>
-      <c r="X17" s="193"/>
-      <c r="Y17" s="193"/>
-      <c r="Z17" s="193"/>
-      <c r="AA17" s="193"/>
-      <c r="AB17" s="193"/>
-      <c r="AC17" s="193"/>
-      <c r="AD17" s="193"/>
-      <c r="AE17" s="194"/>
-      <c r="AF17" s="189"/>
-      <c r="AG17" s="190"/>
-      <c r="AH17" s="190"/>
-      <c r="AI17" s="191"/>
+      <c r="B17" s="232"/>
+      <c r="C17" s="233"/>
+      <c r="D17" s="234"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="236"/>
+      <c r="G17" s="232"/>
+      <c r="H17" s="237"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="238"/>
+      <c r="K17" s="239"/>
+      <c r="L17" s="239"/>
+      <c r="M17" s="239"/>
+      <c r="N17" s="239"/>
+      <c r="O17" s="239"/>
+      <c r="P17" s="240"/>
+      <c r="Q17" s="241"/>
+      <c r="R17" s="242"/>
+      <c r="S17" s="242"/>
+      <c r="T17" s="242"/>
+      <c r="U17" s="242"/>
+      <c r="V17" s="242"/>
+      <c r="W17" s="242"/>
+      <c r="X17" s="242"/>
+      <c r="Y17" s="242"/>
+      <c r="Z17" s="242"/>
+      <c r="AA17" s="242"/>
+      <c r="AB17" s="242"/>
+      <c r="AC17" s="242"/>
+      <c r="AD17" s="242"/>
+      <c r="AE17" s="243"/>
+      <c r="AF17" s="238"/>
+      <c r="AG17" s="239"/>
+      <c r="AH17" s="239"/>
+      <c r="AI17" s="240"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="183"/>
-      <c r="C18" s="184"/>
-      <c r="D18" s="185"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="189"/>
-      <c r="K18" s="190"/>
-      <c r="L18" s="190"/>
-      <c r="M18" s="190"/>
-      <c r="N18" s="190"/>
-      <c r="O18" s="190"/>
-      <c r="P18" s="191"/>
-      <c r="Q18" s="192"/>
-      <c r="R18" s="193"/>
-      <c r="S18" s="193"/>
-      <c r="T18" s="193"/>
-      <c r="U18" s="193"/>
-      <c r="V18" s="193"/>
-      <c r="W18" s="193"/>
-      <c r="X18" s="193"/>
-      <c r="Y18" s="193"/>
-      <c r="Z18" s="193"/>
-      <c r="AA18" s="193"/>
-      <c r="AB18" s="193"/>
-      <c r="AC18" s="193"/>
-      <c r="AD18" s="193"/>
-      <c r="AE18" s="194"/>
-      <c r="AF18" s="189"/>
-      <c r="AG18" s="190"/>
-      <c r="AH18" s="190"/>
-      <c r="AI18" s="191"/>
+      <c r="B18" s="232"/>
+      <c r="C18" s="233"/>
+      <c r="D18" s="234"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="236"/>
+      <c r="G18" s="232"/>
+      <c r="H18" s="237"/>
+      <c r="I18" s="233"/>
+      <c r="J18" s="238"/>
+      <c r="K18" s="239"/>
+      <c r="L18" s="239"/>
+      <c r="M18" s="239"/>
+      <c r="N18" s="239"/>
+      <c r="O18" s="239"/>
+      <c r="P18" s="240"/>
+      <c r="Q18" s="241"/>
+      <c r="R18" s="242"/>
+      <c r="S18" s="242"/>
+      <c r="T18" s="242"/>
+      <c r="U18" s="242"/>
+      <c r="V18" s="242"/>
+      <c r="W18" s="242"/>
+      <c r="X18" s="242"/>
+      <c r="Y18" s="242"/>
+      <c r="Z18" s="242"/>
+      <c r="AA18" s="242"/>
+      <c r="AB18" s="242"/>
+      <c r="AC18" s="242"/>
+      <c r="AD18" s="242"/>
+      <c r="AE18" s="243"/>
+      <c r="AF18" s="238"/>
+      <c r="AG18" s="239"/>
+      <c r="AH18" s="239"/>
+      <c r="AI18" s="240"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="183"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="184"/>
-      <c r="J19" s="189"/>
-      <c r="K19" s="190"/>
-      <c r="L19" s="190"/>
-      <c r="M19" s="190"/>
-      <c r="N19" s="190"/>
-      <c r="O19" s="190"/>
-      <c r="P19" s="191"/>
-      <c r="Q19" s="192"/>
-      <c r="R19" s="193"/>
-      <c r="S19" s="193"/>
-      <c r="T19" s="193"/>
-      <c r="U19" s="193"/>
-      <c r="V19" s="193"/>
-      <c r="W19" s="193"/>
-      <c r="X19" s="193"/>
-      <c r="Y19" s="193"/>
-      <c r="Z19" s="193"/>
-      <c r="AA19" s="193"/>
-      <c r="AB19" s="193"/>
-      <c r="AC19" s="193"/>
-      <c r="AD19" s="193"/>
-      <c r="AE19" s="194"/>
-      <c r="AF19" s="189"/>
-      <c r="AG19" s="190"/>
-      <c r="AH19" s="190"/>
-      <c r="AI19" s="191"/>
+      <c r="B19" s="232"/>
+      <c r="C19" s="233"/>
+      <c r="D19" s="234"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="236"/>
+      <c r="G19" s="232"/>
+      <c r="H19" s="237"/>
+      <c r="I19" s="233"/>
+      <c r="J19" s="238"/>
+      <c r="K19" s="239"/>
+      <c r="L19" s="239"/>
+      <c r="M19" s="239"/>
+      <c r="N19" s="239"/>
+      <c r="O19" s="239"/>
+      <c r="P19" s="240"/>
+      <c r="Q19" s="241"/>
+      <c r="R19" s="242"/>
+      <c r="S19" s="242"/>
+      <c r="T19" s="242"/>
+      <c r="U19" s="242"/>
+      <c r="V19" s="242"/>
+      <c r="W19" s="242"/>
+      <c r="X19" s="242"/>
+      <c r="Y19" s="242"/>
+      <c r="Z19" s="242"/>
+      <c r="AA19" s="242"/>
+      <c r="AB19" s="242"/>
+      <c r="AC19" s="242"/>
+      <c r="AD19" s="242"/>
+      <c r="AE19" s="243"/>
+      <c r="AF19" s="238"/>
+      <c r="AG19" s="239"/>
+      <c r="AH19" s="239"/>
+      <c r="AI19" s="240"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="183"/>
-      <c r="C20" s="184"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="184"/>
-      <c r="J20" s="189"/>
-      <c r="K20" s="190"/>
-      <c r="L20" s="190"/>
-      <c r="M20" s="190"/>
-      <c r="N20" s="190"/>
-      <c r="O20" s="190"/>
-      <c r="P20" s="191"/>
-      <c r="Q20" s="192"/>
-      <c r="R20" s="193"/>
-      <c r="S20" s="193"/>
-      <c r="T20" s="193"/>
-      <c r="U20" s="193"/>
-      <c r="V20" s="193"/>
-      <c r="W20" s="193"/>
-      <c r="X20" s="193"/>
-      <c r="Y20" s="193"/>
-      <c r="Z20" s="193"/>
-      <c r="AA20" s="193"/>
-      <c r="AB20" s="193"/>
-      <c r="AC20" s="193"/>
-      <c r="AD20" s="193"/>
-      <c r="AE20" s="194"/>
-      <c r="AF20" s="189"/>
-      <c r="AG20" s="190"/>
-      <c r="AH20" s="190"/>
-      <c r="AI20" s="191"/>
+      <c r="B20" s="232"/>
+      <c r="C20" s="233"/>
+      <c r="D20" s="234"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="236"/>
+      <c r="G20" s="232"/>
+      <c r="H20" s="237"/>
+      <c r="I20" s="233"/>
+      <c r="J20" s="238"/>
+      <c r="K20" s="239"/>
+      <c r="L20" s="239"/>
+      <c r="M20" s="239"/>
+      <c r="N20" s="239"/>
+      <c r="O20" s="239"/>
+      <c r="P20" s="240"/>
+      <c r="Q20" s="241"/>
+      <c r="R20" s="242"/>
+      <c r="S20" s="242"/>
+      <c r="T20" s="242"/>
+      <c r="U20" s="242"/>
+      <c r="V20" s="242"/>
+      <c r="W20" s="242"/>
+      <c r="X20" s="242"/>
+      <c r="Y20" s="242"/>
+      <c r="Z20" s="242"/>
+      <c r="AA20" s="242"/>
+      <c r="AB20" s="242"/>
+      <c r="AC20" s="242"/>
+      <c r="AD20" s="242"/>
+      <c r="AE20" s="243"/>
+      <c r="AF20" s="238"/>
+      <c r="AG20" s="239"/>
+      <c r="AH20" s="239"/>
+      <c r="AI20" s="240"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="183"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="184"/>
-      <c r="J21" s="189"/>
-      <c r="K21" s="190"/>
-      <c r="L21" s="190"/>
-      <c r="M21" s="190"/>
-      <c r="N21" s="190"/>
-      <c r="O21" s="190"/>
-      <c r="P21" s="191"/>
-      <c r="Q21" s="192"/>
-      <c r="R21" s="193"/>
-      <c r="S21" s="193"/>
-      <c r="T21" s="193"/>
-      <c r="U21" s="193"/>
-      <c r="V21" s="193"/>
-      <c r="W21" s="193"/>
-      <c r="X21" s="193"/>
-      <c r="Y21" s="193"/>
-      <c r="Z21" s="193"/>
-      <c r="AA21" s="193"/>
-      <c r="AB21" s="193"/>
-      <c r="AC21" s="193"/>
-      <c r="AD21" s="193"/>
-      <c r="AE21" s="194"/>
-      <c r="AF21" s="189"/>
-      <c r="AG21" s="190"/>
-      <c r="AH21" s="190"/>
-      <c r="AI21" s="191"/>
+      <c r="B21" s="232"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="234"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="236"/>
+      <c r="G21" s="232"/>
+      <c r="H21" s="237"/>
+      <c r="I21" s="233"/>
+      <c r="J21" s="238"/>
+      <c r="K21" s="239"/>
+      <c r="L21" s="239"/>
+      <c r="M21" s="239"/>
+      <c r="N21" s="239"/>
+      <c r="O21" s="239"/>
+      <c r="P21" s="240"/>
+      <c r="Q21" s="241"/>
+      <c r="R21" s="242"/>
+      <c r="S21" s="242"/>
+      <c r="T21" s="242"/>
+      <c r="U21" s="242"/>
+      <c r="V21" s="242"/>
+      <c r="W21" s="242"/>
+      <c r="X21" s="242"/>
+      <c r="Y21" s="242"/>
+      <c r="Z21" s="242"/>
+      <c r="AA21" s="242"/>
+      <c r="AB21" s="242"/>
+      <c r="AC21" s="242"/>
+      <c r="AD21" s="242"/>
+      <c r="AE21" s="243"/>
+      <c r="AF21" s="238"/>
+      <c r="AG21" s="239"/>
+      <c r="AH21" s="239"/>
+      <c r="AI21" s="240"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="183"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="183"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="189"/>
-      <c r="K22" s="190"/>
-      <c r="L22" s="190"/>
-      <c r="M22" s="190"/>
-      <c r="N22" s="190"/>
-      <c r="O22" s="190"/>
-      <c r="P22" s="191"/>
-      <c r="Q22" s="192"/>
-      <c r="R22" s="193"/>
-      <c r="S22" s="193"/>
-      <c r="T22" s="193"/>
-      <c r="U22" s="193"/>
-      <c r="V22" s="193"/>
-      <c r="W22" s="193"/>
-      <c r="X22" s="193"/>
-      <c r="Y22" s="193"/>
-      <c r="Z22" s="193"/>
-      <c r="AA22" s="193"/>
-      <c r="AB22" s="193"/>
-      <c r="AC22" s="193"/>
-      <c r="AD22" s="193"/>
-      <c r="AE22" s="194"/>
-      <c r="AF22" s="189"/>
-      <c r="AG22" s="190"/>
-      <c r="AH22" s="190"/>
-      <c r="AI22" s="191"/>
+      <c r="B22" s="232"/>
+      <c r="C22" s="233"/>
+      <c r="D22" s="234"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="236"/>
+      <c r="G22" s="232"/>
+      <c r="H22" s="237"/>
+      <c r="I22" s="233"/>
+      <c r="J22" s="238"/>
+      <c r="K22" s="239"/>
+      <c r="L22" s="239"/>
+      <c r="M22" s="239"/>
+      <c r="N22" s="239"/>
+      <c r="O22" s="239"/>
+      <c r="P22" s="240"/>
+      <c r="Q22" s="241"/>
+      <c r="R22" s="242"/>
+      <c r="S22" s="242"/>
+      <c r="T22" s="242"/>
+      <c r="U22" s="242"/>
+      <c r="V22" s="242"/>
+      <c r="W22" s="242"/>
+      <c r="X22" s="242"/>
+      <c r="Y22" s="242"/>
+      <c r="Z22" s="242"/>
+      <c r="AA22" s="242"/>
+      <c r="AB22" s="242"/>
+      <c r="AC22" s="242"/>
+      <c r="AD22" s="242"/>
+      <c r="AE22" s="243"/>
+      <c r="AF22" s="238"/>
+      <c r="AG22" s="239"/>
+      <c r="AH22" s="239"/>
+      <c r="AI22" s="240"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="183"/>
-      <c r="C23" s="184"/>
-      <c r="D23" s="185"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="184"/>
-      <c r="J23" s="189"/>
-      <c r="K23" s="190"/>
-      <c r="L23" s="190"/>
-      <c r="M23" s="190"/>
-      <c r="N23" s="190"/>
-      <c r="O23" s="190"/>
-      <c r="P23" s="191"/>
-      <c r="Q23" s="192"/>
-      <c r="R23" s="193"/>
-      <c r="S23" s="193"/>
-      <c r="T23" s="193"/>
-      <c r="U23" s="193"/>
-      <c r="V23" s="193"/>
-      <c r="W23" s="193"/>
-      <c r="X23" s="193"/>
-      <c r="Y23" s="193"/>
-      <c r="Z23" s="193"/>
-      <c r="AA23" s="193"/>
-      <c r="AB23" s="193"/>
-      <c r="AC23" s="193"/>
-      <c r="AD23" s="193"/>
-      <c r="AE23" s="194"/>
-      <c r="AF23" s="189"/>
-      <c r="AG23" s="190"/>
-      <c r="AH23" s="190"/>
-      <c r="AI23" s="191"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="233"/>
+      <c r="D23" s="234"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="236"/>
+      <c r="G23" s="232"/>
+      <c r="H23" s="237"/>
+      <c r="I23" s="233"/>
+      <c r="J23" s="238"/>
+      <c r="K23" s="239"/>
+      <c r="L23" s="239"/>
+      <c r="M23" s="239"/>
+      <c r="N23" s="239"/>
+      <c r="O23" s="239"/>
+      <c r="P23" s="240"/>
+      <c r="Q23" s="241"/>
+      <c r="R23" s="242"/>
+      <c r="S23" s="242"/>
+      <c r="T23" s="242"/>
+      <c r="U23" s="242"/>
+      <c r="V23" s="242"/>
+      <c r="W23" s="242"/>
+      <c r="X23" s="242"/>
+      <c r="Y23" s="242"/>
+      <c r="Z23" s="242"/>
+      <c r="AA23" s="242"/>
+      <c r="AB23" s="242"/>
+      <c r="AC23" s="242"/>
+      <c r="AD23" s="242"/>
+      <c r="AE23" s="243"/>
+      <c r="AF23" s="238"/>
+      <c r="AG23" s="239"/>
+      <c r="AH23" s="239"/>
+      <c r="AI23" s="240"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="183"/>
-      <c r="C24" s="184"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="189"/>
-      <c r="K24" s="190"/>
-      <c r="L24" s="190"/>
-      <c r="M24" s="190"/>
-      <c r="N24" s="190"/>
-      <c r="O24" s="190"/>
-      <c r="P24" s="191"/>
-      <c r="Q24" s="192"/>
-      <c r="R24" s="193"/>
-      <c r="S24" s="193"/>
-      <c r="T24" s="193"/>
-      <c r="U24" s="193"/>
-      <c r="V24" s="193"/>
-      <c r="W24" s="193"/>
-      <c r="X24" s="193"/>
-      <c r="Y24" s="193"/>
-      <c r="Z24" s="193"/>
-      <c r="AA24" s="193"/>
-      <c r="AB24" s="193"/>
-      <c r="AC24" s="193"/>
-      <c r="AD24" s="193"/>
-      <c r="AE24" s="194"/>
-      <c r="AF24" s="189"/>
-      <c r="AG24" s="190"/>
-      <c r="AH24" s="190"/>
-      <c r="AI24" s="191"/>
+      <c r="B24" s="232"/>
+      <c r="C24" s="233"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="235"/>
+      <c r="F24" s="236"/>
+      <c r="G24" s="232"/>
+      <c r="H24" s="237"/>
+      <c r="I24" s="233"/>
+      <c r="J24" s="238"/>
+      <c r="K24" s="239"/>
+      <c r="L24" s="239"/>
+      <c r="M24" s="239"/>
+      <c r="N24" s="239"/>
+      <c r="O24" s="239"/>
+      <c r="P24" s="240"/>
+      <c r="Q24" s="241"/>
+      <c r="R24" s="242"/>
+      <c r="S24" s="242"/>
+      <c r="T24" s="242"/>
+      <c r="U24" s="242"/>
+      <c r="V24" s="242"/>
+      <c r="W24" s="242"/>
+      <c r="X24" s="242"/>
+      <c r="Y24" s="242"/>
+      <c r="Z24" s="242"/>
+      <c r="AA24" s="242"/>
+      <c r="AB24" s="242"/>
+      <c r="AC24" s="242"/>
+      <c r="AD24" s="242"/>
+      <c r="AE24" s="243"/>
+      <c r="AF24" s="238"/>
+      <c r="AG24" s="239"/>
+      <c r="AH24" s="239"/>
+      <c r="AI24" s="240"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="183"/>
-      <c r="C25" s="184"/>
-      <c r="D25" s="185"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="189"/>
-      <c r="K25" s="190"/>
-      <c r="L25" s="190"/>
-      <c r="M25" s="190"/>
-      <c r="N25" s="190"/>
-      <c r="O25" s="190"/>
-      <c r="P25" s="191"/>
-      <c r="Q25" s="192"/>
-      <c r="R25" s="193"/>
-      <c r="S25" s="193"/>
-      <c r="T25" s="193"/>
-      <c r="U25" s="193"/>
-      <c r="V25" s="193"/>
-      <c r="W25" s="193"/>
-      <c r="X25" s="193"/>
-      <c r="Y25" s="193"/>
-      <c r="Z25" s="193"/>
-      <c r="AA25" s="193"/>
-      <c r="AB25" s="193"/>
-      <c r="AC25" s="193"/>
-      <c r="AD25" s="193"/>
-      <c r="AE25" s="194"/>
-      <c r="AF25" s="189"/>
-      <c r="AG25" s="190"/>
-      <c r="AH25" s="190"/>
-      <c r="AI25" s="191"/>
+      <c r="B25" s="232"/>
+      <c r="C25" s="233"/>
+      <c r="D25" s="234"/>
+      <c r="E25" s="235"/>
+      <c r="F25" s="236"/>
+      <c r="G25" s="232"/>
+      <c r="H25" s="237"/>
+      <c r="I25" s="233"/>
+      <c r="J25" s="238"/>
+      <c r="K25" s="239"/>
+      <c r="L25" s="239"/>
+      <c r="M25" s="239"/>
+      <c r="N25" s="239"/>
+      <c r="O25" s="239"/>
+      <c r="P25" s="240"/>
+      <c r="Q25" s="241"/>
+      <c r="R25" s="242"/>
+      <c r="S25" s="242"/>
+      <c r="T25" s="242"/>
+      <c r="U25" s="242"/>
+      <c r="V25" s="242"/>
+      <c r="W25" s="242"/>
+      <c r="X25" s="242"/>
+      <c r="Y25" s="242"/>
+      <c r="Z25" s="242"/>
+      <c r="AA25" s="242"/>
+      <c r="AB25" s="242"/>
+      <c r="AC25" s="242"/>
+      <c r="AD25" s="242"/>
+      <c r="AE25" s="243"/>
+      <c r="AF25" s="238"/>
+      <c r="AG25" s="239"/>
+      <c r="AH25" s="239"/>
+      <c r="AI25" s="240"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="183"/>
-      <c r="C26" s="184"/>
-      <c r="D26" s="185"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="189"/>
-      <c r="K26" s="190"/>
-      <c r="L26" s="190"/>
-      <c r="M26" s="190"/>
-      <c r="N26" s="190"/>
-      <c r="O26" s="190"/>
-      <c r="P26" s="191"/>
-      <c r="Q26" s="192"/>
-      <c r="R26" s="193"/>
-      <c r="S26" s="193"/>
-      <c r="T26" s="193"/>
-      <c r="U26" s="193"/>
-      <c r="V26" s="193"/>
-      <c r="W26" s="193"/>
-      <c r="X26" s="193"/>
-      <c r="Y26" s="193"/>
-      <c r="Z26" s="193"/>
-      <c r="AA26" s="193"/>
-      <c r="AB26" s="193"/>
-      <c r="AC26" s="193"/>
-      <c r="AD26" s="193"/>
-      <c r="AE26" s="194"/>
-      <c r="AF26" s="189"/>
-      <c r="AG26" s="190"/>
-      <c r="AH26" s="190"/>
-      <c r="AI26" s="191"/>
+      <c r="B26" s="232"/>
+      <c r="C26" s="233"/>
+      <c r="D26" s="234"/>
+      <c r="E26" s="235"/>
+      <c r="F26" s="236"/>
+      <c r="G26" s="232"/>
+      <c r="H26" s="237"/>
+      <c r="I26" s="233"/>
+      <c r="J26" s="238"/>
+      <c r="K26" s="239"/>
+      <c r="L26" s="239"/>
+      <c r="M26" s="239"/>
+      <c r="N26" s="239"/>
+      <c r="O26" s="239"/>
+      <c r="P26" s="240"/>
+      <c r="Q26" s="241"/>
+      <c r="R26" s="242"/>
+      <c r="S26" s="242"/>
+      <c r="T26" s="242"/>
+      <c r="U26" s="242"/>
+      <c r="V26" s="242"/>
+      <c r="W26" s="242"/>
+      <c r="X26" s="242"/>
+      <c r="Y26" s="242"/>
+      <c r="Z26" s="242"/>
+      <c r="AA26" s="242"/>
+      <c r="AB26" s="242"/>
+      <c r="AC26" s="242"/>
+      <c r="AD26" s="242"/>
+      <c r="AE26" s="243"/>
+      <c r="AF26" s="238"/>
+      <c r="AG26" s="239"/>
+      <c r="AH26" s="239"/>
+      <c r="AI26" s="240"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="183"/>
-      <c r="C27" s="184"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="187"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="189"/>
-      <c r="K27" s="190"/>
-      <c r="L27" s="190"/>
-      <c r="M27" s="190"/>
-      <c r="N27" s="190"/>
-      <c r="O27" s="190"/>
-      <c r="P27" s="191"/>
-      <c r="Q27" s="192"/>
-      <c r="R27" s="193"/>
-      <c r="S27" s="193"/>
-      <c r="T27" s="193"/>
-      <c r="U27" s="193"/>
-      <c r="V27" s="193"/>
-      <c r="W27" s="193"/>
-      <c r="X27" s="193"/>
-      <c r="Y27" s="193"/>
-      <c r="Z27" s="193"/>
-      <c r="AA27" s="193"/>
-      <c r="AB27" s="193"/>
-      <c r="AC27" s="193"/>
-      <c r="AD27" s="193"/>
-      <c r="AE27" s="194"/>
-      <c r="AF27" s="189"/>
-      <c r="AG27" s="190"/>
-      <c r="AH27" s="190"/>
-      <c r="AI27" s="191"/>
+      <c r="B27" s="232"/>
+      <c r="C27" s="233"/>
+      <c r="D27" s="234"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="236"/>
+      <c r="G27" s="232"/>
+      <c r="H27" s="237"/>
+      <c r="I27" s="233"/>
+      <c r="J27" s="238"/>
+      <c r="K27" s="239"/>
+      <c r="L27" s="239"/>
+      <c r="M27" s="239"/>
+      <c r="N27" s="239"/>
+      <c r="O27" s="239"/>
+      <c r="P27" s="240"/>
+      <c r="Q27" s="241"/>
+      <c r="R27" s="242"/>
+      <c r="S27" s="242"/>
+      <c r="T27" s="242"/>
+      <c r="U27" s="242"/>
+      <c r="V27" s="242"/>
+      <c r="W27" s="242"/>
+      <c r="X27" s="242"/>
+      <c r="Y27" s="242"/>
+      <c r="Z27" s="242"/>
+      <c r="AA27" s="242"/>
+      <c r="AB27" s="242"/>
+      <c r="AC27" s="242"/>
+      <c r="AD27" s="242"/>
+      <c r="AE27" s="243"/>
+      <c r="AF27" s="238"/>
+      <c r="AG27" s="239"/>
+      <c r="AH27" s="239"/>
+      <c r="AI27" s="240"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="183"/>
-      <c r="C28" s="184"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="188"/>
-      <c r="I28" s="184"/>
-      <c r="J28" s="189"/>
-      <c r="K28" s="190"/>
-      <c r="L28" s="190"/>
-      <c r="M28" s="190"/>
-      <c r="N28" s="190"/>
-      <c r="O28" s="190"/>
-      <c r="P28" s="191"/>
-      <c r="Q28" s="192"/>
-      <c r="R28" s="193"/>
-      <c r="S28" s="193"/>
-      <c r="T28" s="193"/>
-      <c r="U28" s="193"/>
-      <c r="V28" s="193"/>
-      <c r="W28" s="193"/>
-      <c r="X28" s="193"/>
-      <c r="Y28" s="193"/>
-      <c r="Z28" s="193"/>
-      <c r="AA28" s="193"/>
-      <c r="AB28" s="193"/>
-      <c r="AC28" s="193"/>
-      <c r="AD28" s="193"/>
-      <c r="AE28" s="194"/>
-      <c r="AF28" s="189"/>
-      <c r="AG28" s="190"/>
-      <c r="AH28" s="190"/>
-      <c r="AI28" s="191"/>
+      <c r="B28" s="232"/>
+      <c r="C28" s="233"/>
+      <c r="D28" s="234"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="236"/>
+      <c r="G28" s="232"/>
+      <c r="H28" s="237"/>
+      <c r="I28" s="233"/>
+      <c r="J28" s="238"/>
+      <c r="K28" s="239"/>
+      <c r="L28" s="239"/>
+      <c r="M28" s="239"/>
+      <c r="N28" s="239"/>
+      <c r="O28" s="239"/>
+      <c r="P28" s="240"/>
+      <c r="Q28" s="241"/>
+      <c r="R28" s="242"/>
+      <c r="S28" s="242"/>
+      <c r="T28" s="242"/>
+      <c r="U28" s="242"/>
+      <c r="V28" s="242"/>
+      <c r="W28" s="242"/>
+      <c r="X28" s="242"/>
+      <c r="Y28" s="242"/>
+      <c r="Z28" s="242"/>
+      <c r="AA28" s="242"/>
+      <c r="AB28" s="242"/>
+      <c r="AC28" s="242"/>
+      <c r="AD28" s="242"/>
+      <c r="AE28" s="243"/>
+      <c r="AF28" s="238"/>
+      <c r="AG28" s="239"/>
+      <c r="AH28" s="239"/>
+      <c r="AI28" s="240"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="183"/>
-      <c r="C29" s="184"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="188"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="189"/>
-      <c r="K29" s="190"/>
-      <c r="L29" s="190"/>
-      <c r="M29" s="190"/>
-      <c r="N29" s="190"/>
-      <c r="O29" s="190"/>
-      <c r="P29" s="191"/>
-      <c r="Q29" s="192"/>
-      <c r="R29" s="193"/>
-      <c r="S29" s="193"/>
-      <c r="T29" s="193"/>
-      <c r="U29" s="193"/>
-      <c r="V29" s="193"/>
-      <c r="W29" s="193"/>
-      <c r="X29" s="193"/>
-      <c r="Y29" s="193"/>
-      <c r="Z29" s="193"/>
-      <c r="AA29" s="193"/>
-      <c r="AB29" s="193"/>
-      <c r="AC29" s="193"/>
-      <c r="AD29" s="193"/>
-      <c r="AE29" s="194"/>
-      <c r="AF29" s="189"/>
-      <c r="AG29" s="190"/>
-      <c r="AH29" s="190"/>
-      <c r="AI29" s="191"/>
+      <c r="B29" s="232"/>
+      <c r="C29" s="233"/>
+      <c r="D29" s="234"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="236"/>
+      <c r="G29" s="232"/>
+      <c r="H29" s="237"/>
+      <c r="I29" s="233"/>
+      <c r="J29" s="238"/>
+      <c r="K29" s="239"/>
+      <c r="L29" s="239"/>
+      <c r="M29" s="239"/>
+      <c r="N29" s="239"/>
+      <c r="O29" s="239"/>
+      <c r="P29" s="240"/>
+      <c r="Q29" s="241"/>
+      <c r="R29" s="242"/>
+      <c r="S29" s="242"/>
+      <c r="T29" s="242"/>
+      <c r="U29" s="242"/>
+      <c r="V29" s="242"/>
+      <c r="W29" s="242"/>
+      <c r="X29" s="242"/>
+      <c r="Y29" s="242"/>
+      <c r="Z29" s="242"/>
+      <c r="AA29" s="242"/>
+      <c r="AB29" s="242"/>
+      <c r="AC29" s="242"/>
+      <c r="AD29" s="242"/>
+      <c r="AE29" s="243"/>
+      <c r="AF29" s="238"/>
+      <c r="AG29" s="239"/>
+      <c r="AH29" s="239"/>
+      <c r="AI29" s="240"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="183"/>
-      <c r="C30" s="184"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="188"/>
-      <c r="I30" s="184"/>
-      <c r="J30" s="189"/>
-      <c r="K30" s="190"/>
-      <c r="L30" s="190"/>
-      <c r="M30" s="190"/>
-      <c r="N30" s="190"/>
-      <c r="O30" s="190"/>
-      <c r="P30" s="191"/>
-      <c r="Q30" s="192"/>
-      <c r="R30" s="193"/>
-      <c r="S30" s="193"/>
-      <c r="T30" s="193"/>
-      <c r="U30" s="193"/>
-      <c r="V30" s="193"/>
-      <c r="W30" s="193"/>
-      <c r="X30" s="193"/>
-      <c r="Y30" s="193"/>
-      <c r="Z30" s="193"/>
-      <c r="AA30" s="193"/>
-      <c r="AB30" s="193"/>
-      <c r="AC30" s="193"/>
-      <c r="AD30" s="193"/>
-      <c r="AE30" s="194"/>
-      <c r="AF30" s="189"/>
-      <c r="AG30" s="190"/>
-      <c r="AH30" s="190"/>
-      <c r="AI30" s="191"/>
+      <c r="B30" s="232"/>
+      <c r="C30" s="233"/>
+      <c r="D30" s="234"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="236"/>
+      <c r="G30" s="232"/>
+      <c r="H30" s="237"/>
+      <c r="I30" s="233"/>
+      <c r="J30" s="238"/>
+      <c r="K30" s="239"/>
+      <c r="L30" s="239"/>
+      <c r="M30" s="239"/>
+      <c r="N30" s="239"/>
+      <c r="O30" s="239"/>
+      <c r="P30" s="240"/>
+      <c r="Q30" s="241"/>
+      <c r="R30" s="242"/>
+      <c r="S30" s="242"/>
+      <c r="T30" s="242"/>
+      <c r="U30" s="242"/>
+      <c r="V30" s="242"/>
+      <c r="W30" s="242"/>
+      <c r="X30" s="242"/>
+      <c r="Y30" s="242"/>
+      <c r="Z30" s="242"/>
+      <c r="AA30" s="242"/>
+      <c r="AB30" s="242"/>
+      <c r="AC30" s="242"/>
+      <c r="AD30" s="242"/>
+      <c r="AE30" s="243"/>
+      <c r="AF30" s="238"/>
+      <c r="AG30" s="239"/>
+      <c r="AH30" s="239"/>
+      <c r="AI30" s="240"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="183"/>
-      <c r="C31" s="184"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="187"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="189"/>
-      <c r="K31" s="190"/>
-      <c r="L31" s="190"/>
-      <c r="M31" s="190"/>
-      <c r="N31" s="190"/>
-      <c r="O31" s="190"/>
-      <c r="P31" s="191"/>
-      <c r="Q31" s="192"/>
-      <c r="R31" s="193"/>
-      <c r="S31" s="193"/>
-      <c r="T31" s="193"/>
-      <c r="U31" s="193"/>
-      <c r="V31" s="193"/>
-      <c r="W31" s="193"/>
-      <c r="X31" s="193"/>
-      <c r="Y31" s="193"/>
-      <c r="Z31" s="193"/>
-      <c r="AA31" s="193"/>
-      <c r="AB31" s="193"/>
-      <c r="AC31" s="193"/>
-      <c r="AD31" s="193"/>
-      <c r="AE31" s="194"/>
-      <c r="AF31" s="189"/>
-      <c r="AG31" s="190"/>
-      <c r="AH31" s="190"/>
-      <c r="AI31" s="191"/>
+      <c r="B31" s="232"/>
+      <c r="C31" s="233"/>
+      <c r="D31" s="234"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="236"/>
+      <c r="G31" s="232"/>
+      <c r="H31" s="237"/>
+      <c r="I31" s="233"/>
+      <c r="J31" s="238"/>
+      <c r="K31" s="239"/>
+      <c r="L31" s="239"/>
+      <c r="M31" s="239"/>
+      <c r="N31" s="239"/>
+      <c r="O31" s="239"/>
+      <c r="P31" s="240"/>
+      <c r="Q31" s="241"/>
+      <c r="R31" s="242"/>
+      <c r="S31" s="242"/>
+      <c r="T31" s="242"/>
+      <c r="U31" s="242"/>
+      <c r="V31" s="242"/>
+      <c r="W31" s="242"/>
+      <c r="X31" s="242"/>
+      <c r="Y31" s="242"/>
+      <c r="Z31" s="242"/>
+      <c r="AA31" s="242"/>
+      <c r="AB31" s="242"/>
+      <c r="AC31" s="242"/>
+      <c r="AD31" s="242"/>
+      <c r="AE31" s="243"/>
+      <c r="AF31" s="238"/>
+      <c r="AG31" s="239"/>
+      <c r="AH31" s="239"/>
+      <c r="AI31" s="240"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="183"/>
-      <c r="C32" s="184"/>
-      <c r="D32" s="185"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="189"/>
-      <c r="K32" s="195"/>
-      <c r="L32" s="190"/>
-      <c r="M32" s="190"/>
-      <c r="N32" s="190"/>
-      <c r="O32" s="190"/>
-      <c r="P32" s="191"/>
-      <c r="Q32" s="192"/>
-      <c r="R32" s="193"/>
-      <c r="S32" s="193"/>
-      <c r="T32" s="193"/>
-      <c r="U32" s="193"/>
-      <c r="V32" s="193"/>
-      <c r="W32" s="193"/>
-      <c r="X32" s="193"/>
-      <c r="Y32" s="193"/>
-      <c r="Z32" s="193"/>
-      <c r="AA32" s="193"/>
-      <c r="AB32" s="193"/>
-      <c r="AC32" s="193"/>
-      <c r="AD32" s="193"/>
-      <c r="AE32" s="194"/>
-      <c r="AF32" s="189"/>
-      <c r="AG32" s="190"/>
-      <c r="AH32" s="190"/>
-      <c r="AI32" s="191"/>
+      <c r="B32" s="232"/>
+      <c r="C32" s="233"/>
+      <c r="D32" s="234"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="236"/>
+      <c r="G32" s="232"/>
+      <c r="H32" s="237"/>
+      <c r="I32" s="233"/>
+      <c r="J32" s="238"/>
+      <c r="K32" s="244"/>
+      <c r="L32" s="239"/>
+      <c r="M32" s="239"/>
+      <c r="N32" s="239"/>
+      <c r="O32" s="239"/>
+      <c r="P32" s="240"/>
+      <c r="Q32" s="241"/>
+      <c r="R32" s="242"/>
+      <c r="S32" s="242"/>
+      <c r="T32" s="242"/>
+      <c r="U32" s="242"/>
+      <c r="V32" s="242"/>
+      <c r="W32" s="242"/>
+      <c r="X32" s="242"/>
+      <c r="Y32" s="242"/>
+      <c r="Z32" s="242"/>
+      <c r="AA32" s="242"/>
+      <c r="AB32" s="242"/>
+      <c r="AC32" s="242"/>
+      <c r="AD32" s="242"/>
+      <c r="AE32" s="243"/>
+      <c r="AF32" s="238"/>
+      <c r="AG32" s="239"/>
+      <c r="AH32" s="239"/>
+      <c r="AI32" s="240"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="183"/>
-      <c r="C33" s="184"/>
-      <c r="D33" s="185"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="189"/>
-      <c r="K33" s="190"/>
-      <c r="L33" s="190"/>
-      <c r="M33" s="190"/>
-      <c r="N33" s="190"/>
-      <c r="O33" s="190"/>
-      <c r="P33" s="191"/>
-      <c r="Q33" s="192"/>
-      <c r="R33" s="193"/>
-      <c r="S33" s="193"/>
-      <c r="T33" s="193"/>
-      <c r="U33" s="193"/>
-      <c r="V33" s="193"/>
-      <c r="W33" s="193"/>
-      <c r="X33" s="193"/>
-      <c r="Y33" s="193"/>
-      <c r="Z33" s="193"/>
-      <c r="AA33" s="193"/>
-      <c r="AB33" s="193"/>
-      <c r="AC33" s="193"/>
-      <c r="AD33" s="193"/>
-      <c r="AE33" s="194"/>
-      <c r="AF33" s="189"/>
-      <c r="AG33" s="190"/>
-      <c r="AH33" s="190"/>
-      <c r="AI33" s="191"/>
+      <c r="B33" s="232"/>
+      <c r="C33" s="233"/>
+      <c r="D33" s="234"/>
+      <c r="E33" s="235"/>
+      <c r="F33" s="236"/>
+      <c r="G33" s="232"/>
+      <c r="H33" s="237"/>
+      <c r="I33" s="233"/>
+      <c r="J33" s="238"/>
+      <c r="K33" s="239"/>
+      <c r="L33" s="239"/>
+      <c r="M33" s="239"/>
+      <c r="N33" s="239"/>
+      <c r="O33" s="239"/>
+      <c r="P33" s="240"/>
+      <c r="Q33" s="241"/>
+      <c r="R33" s="242"/>
+      <c r="S33" s="242"/>
+      <c r="T33" s="242"/>
+      <c r="U33" s="242"/>
+      <c r="V33" s="242"/>
+      <c r="W33" s="242"/>
+      <c r="X33" s="242"/>
+      <c r="Y33" s="242"/>
+      <c r="Z33" s="242"/>
+      <c r="AA33" s="242"/>
+      <c r="AB33" s="242"/>
+      <c r="AC33" s="242"/>
+      <c r="AD33" s="242"/>
+      <c r="AE33" s="243"/>
+      <c r="AF33" s="238"/>
+      <c r="AG33" s="239"/>
+      <c r="AH33" s="239"/>
+      <c r="AI33" s="240"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -11161,6 +10984,167 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -11200,7 +11184,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -11210,7 +11194,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -11295,7 +11279,7 @@
         <v>5</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M10" s="40" t="s">
         <v>7</v>
@@ -12356,7 +12340,7 @@
         <v>58</v>
       </c>
       <c r="G40" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H40" s="54"/>
       <c r="I40" s="54"/>
@@ -12390,7 +12374,7 @@
         <v>59</v>
       </c>
       <c r="G41" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H41" s="54"/>
       <c r="I41" s="54"/>
@@ -12432,7 +12416,7 @@
         <v>73</v>
       </c>
       <c r="G42" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H42" s="55"/>
       <c r="I42" s="55"/>
@@ -12466,7 +12450,7 @@
         <v>74</v>
       </c>
       <c r="G43" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H43" s="55"/>
       <c r="I43" s="55"/>
@@ -12500,7 +12484,7 @@
         <v>75</v>
       </c>
       <c r="G44" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H44" s="55"/>
       <c r="I44" s="55"/>
@@ -12536,7 +12520,7 @@
         <v>77</v>
       </c>
       <c r="G45" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H45" s="55"/>
       <c r="I45" s="55"/>
@@ -12570,7 +12554,7 @@
         <v>78</v>
       </c>
       <c r="G46" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H46" s="55"/>
       <c r="I46" s="55"/>
@@ -12604,7 +12588,7 @@
         <v>75</v>
       </c>
       <c r="G47" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H47" s="55"/>
       <c r="I47" s="55"/>
@@ -12640,7 +12624,7 @@
         <v>80</v>
       </c>
       <c r="G48" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H48" s="55"/>
       <c r="I48" s="55"/>
@@ -12674,7 +12658,7 @@
         <v>81</v>
       </c>
       <c r="G49" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H49" s="55"/>
       <c r="I49" s="55"/>
@@ -12710,7 +12694,7 @@
         <v>83</v>
       </c>
       <c r="G50" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H50" s="55"/>
       <c r="I50" s="55"/>
@@ -12744,7 +12728,7 @@
         <v>84</v>
       </c>
       <c r="G51" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H51" s="55"/>
       <c r="I51" s="55"/>
@@ -12778,7 +12762,7 @@
         <v>85</v>
       </c>
       <c r="G52" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H52" s="55"/>
       <c r="I52" s="55"/>
@@ -12812,7 +12796,7 @@
         <v>86</v>
       </c>
       <c r="G53" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H53" s="55"/>
       <c r="I53" s="55"/>
@@ -12846,7 +12830,7 @@
         <v>87</v>
       </c>
       <c r="G54" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H54" s="55"/>
       <c r="I54" s="55"/>
@@ -12880,7 +12864,7 @@
         <v>88</v>
       </c>
       <c r="G55" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H55" s="55"/>
       <c r="I55" s="55"/>
@@ -12916,7 +12900,7 @@
         <v>90</v>
       </c>
       <c r="G56" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H56" s="55"/>
       <c r="I56" s="55"/>
@@ -12952,7 +12936,7 @@
         <v>92</v>
       </c>
       <c r="G57" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H57" s="55"/>
       <c r="I57" s="55"/>
@@ -12988,7 +12972,7 @@
         <v>94</v>
       </c>
       <c r="G58" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H58" s="55"/>
       <c r="I58" s="55"/>
@@ -13026,7 +13010,7 @@
         <v>172</v>
       </c>
       <c r="G59" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H59" s="55"/>
       <c r="I59" s="55"/>
@@ -13060,7 +13044,7 @@
         <v>173</v>
       </c>
       <c r="G60" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H60" s="55"/>
       <c r="I60" s="55"/>
@@ -13094,7 +13078,7 @@
         <v>174</v>
       </c>
       <c r="G61" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H61" s="55"/>
       <c r="I61" s="55"/>
@@ -13128,7 +13112,7 @@
         <v>175</v>
       </c>
       <c r="G62" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H62" s="55"/>
       <c r="I62" s="55"/>
@@ -13162,7 +13146,7 @@
         <v>101</v>
       </c>
       <c r="G63" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H63" s="55"/>
       <c r="I63" s="55"/>
@@ -13198,7 +13182,7 @@
         <v>103</v>
       </c>
       <c r="G64" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H64" s="55"/>
       <c r="I64" s="55"/>
@@ -13232,7 +13216,7 @@
         <v>104</v>
       </c>
       <c r="G65" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H65" s="55"/>
       <c r="I65" s="55"/>
@@ -13266,7 +13250,7 @@
         <v>105</v>
       </c>
       <c r="G66" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H66" s="55"/>
       <c r="I66" s="55"/>
@@ -13300,7 +13284,7 @@
         <v>106</v>
       </c>
       <c r="G67" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H67" s="55"/>
       <c r="I67" s="55"/>
@@ -13334,7 +13318,7 @@
         <v>107</v>
       </c>
       <c r="G68" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H68" s="55"/>
       <c r="I68" s="55"/>
@@ -13368,7 +13352,7 @@
         <v>108</v>
       </c>
       <c r="G69" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H69" s="55"/>
       <c r="I69" s="55"/>
@@ -13402,7 +13386,7 @@
         <v>109</v>
       </c>
       <c r="G70" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H70" s="55"/>
       <c r="I70" s="55"/>
@@ -13436,7 +13420,7 @@
         <v>110</v>
       </c>
       <c r="G71" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H71" s="55"/>
       <c r="I71" s="55"/>
@@ -13472,7 +13456,7 @@
         <v>112</v>
       </c>
       <c r="G72" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H72" s="55"/>
       <c r="I72" s="55"/>
@@ -13508,7 +13492,7 @@
         <v>114</v>
       </c>
       <c r="G73" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H73" s="55"/>
       <c r="I73" s="55"/>
@@ -13542,7 +13526,7 @@
         <v>115</v>
       </c>
       <c r="G74" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H74" s="55"/>
       <c r="I74" s="55"/>
@@ -13576,7 +13560,7 @@
         <v>116</v>
       </c>
       <c r="G75" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H75" s="55"/>
       <c r="I75" s="55"/>
@@ -13610,7 +13594,7 @@
         <v>117</v>
       </c>
       <c r="G76" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H76" s="55"/>
       <c r="I76" s="55"/>
@@ -13644,7 +13628,7 @@
         <v>118</v>
       </c>
       <c r="G77" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H77" s="55"/>
       <c r="I77" s="55"/>
@@ -13684,7 +13668,7 @@
         <v>123</v>
       </c>
       <c r="G78" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H78" s="55"/>
       <c r="I78" s="55"/>
@@ -13718,7 +13702,7 @@
         <v>124</v>
       </c>
       <c r="G79" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H79" s="55"/>
       <c r="I79" s="55"/>
@@ -13754,7 +13738,7 @@
         <v>126</v>
       </c>
       <c r="G80" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H80" s="55"/>
       <c r="I80" s="55"/>
@@ -13790,7 +13774,7 @@
         <v>128</v>
       </c>
       <c r="G81" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H81" s="55"/>
       <c r="I81" s="55"/>
@@ -13824,7 +13808,7 @@
         <v>129</v>
       </c>
       <c r="G82" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H82" s="55"/>
       <c r="I82" s="55"/>
@@ -13860,7 +13844,7 @@
         <v>131</v>
       </c>
       <c r="G83" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H83" s="55"/>
       <c r="I83" s="55"/>
@@ -13896,7 +13880,7 @@
         <v>133</v>
       </c>
       <c r="G84" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H84" s="55"/>
       <c r="I84" s="55"/>
@@ -13936,7 +13920,7 @@
         <v>135</v>
       </c>
       <c r="G85" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H85" s="55"/>
       <c r="I85" s="55"/>
@@ -13972,7 +13956,7 @@
         <v>136</v>
       </c>
       <c r="G86" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H86" s="55"/>
       <c r="I86" s="55"/>
@@ -14008,7 +13992,7 @@
         <v>138</v>
       </c>
       <c r="G87" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H87" s="55"/>
       <c r="I87" s="55"/>
@@ -14048,7 +14032,7 @@
         <v>140</v>
       </c>
       <c r="G88" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H88" s="55"/>
       <c r="I88" s="55"/>
@@ -14082,7 +14066,7 @@
         <v>141</v>
       </c>
       <c r="G89" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H89" s="55"/>
       <c r="I89" s="55"/>
@@ -14118,7 +14102,7 @@
         <v>142</v>
       </c>
       <c r="G90" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H90" s="55"/>
       <c r="I90" s="55"/>
@@ -14154,7 +14138,7 @@
         <v>143</v>
       </c>
       <c r="G91" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H91" s="55"/>
       <c r="I91" s="55"/>
@@ -14188,7 +14172,7 @@
         <v>144</v>
       </c>
       <c r="G92" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H92" s="55"/>
       <c r="I92" s="55"/>
@@ -14224,7 +14208,7 @@
         <v>145</v>
       </c>
       <c r="G93" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H93" s="55"/>
       <c r="I93" s="55"/>
@@ -14264,7 +14248,7 @@
         <v>148</v>
       </c>
       <c r="G94" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H94" s="55"/>
       <c r="I94" s="55"/>
@@ -14298,7 +14282,7 @@
         <v>149</v>
       </c>
       <c r="G95" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H95" s="55"/>
       <c r="I95" s="55"/>
@@ -14332,7 +14316,7 @@
         <v>150</v>
       </c>
       <c r="G96" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H96" s="55"/>
       <c r="I96" s="55"/>
@@ -14366,7 +14350,7 @@
         <v>151</v>
       </c>
       <c r="G97" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H97" s="55"/>
       <c r="I97" s="55"/>
@@ -14400,7 +14384,7 @@
         <v>152</v>
       </c>
       <c r="G98" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H98" s="55"/>
       <c r="I98" s="55"/>
@@ -14436,7 +14420,7 @@
         <v>154</v>
       </c>
       <c r="G99" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H99" s="55"/>
       <c r="I99" s="55"/>
@@ -14470,7 +14454,7 @@
         <v>155</v>
       </c>
       <c r="G100" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H100" s="55"/>
       <c r="I100" s="55"/>
@@ -14504,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="G101" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H101" s="55"/>
       <c r="I101" s="55"/>
@@ -14538,7 +14522,7 @@
         <v>157</v>
       </c>
       <c r="G102" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H102" s="55"/>
       <c r="I102" s="55"/>
@@ -14572,7 +14556,7 @@
         <v>158</v>
       </c>
       <c r="G103" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H103" s="55"/>
       <c r="I103" s="55"/>
@@ -14608,7 +14592,7 @@
         <v>159</v>
       </c>
       <c r="G104" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H104" s="55"/>
       <c r="I104" s="55"/>
@@ -14650,7 +14634,7 @@
         <v>162</v>
       </c>
       <c r="G105" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H105" s="55"/>
       <c r="I105" s="55"/>
@@ -14690,7 +14674,7 @@
         <v>164</v>
       </c>
       <c r="G106" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H106" s="55"/>
       <c r="I106" s="55"/>
@@ -14724,7 +14708,7 @@
         <v>165</v>
       </c>
       <c r="G107" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H107" s="55"/>
       <c r="I107" s="55"/>
@@ -14764,7 +14748,7 @@
         <v>167</v>
       </c>
       <c r="G108" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H108" s="55"/>
       <c r="I108" s="55"/>
@@ -14804,7 +14788,7 @@
         <v>169</v>
       </c>
       <c r="G109" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H109" s="55"/>
       <c r="I109" s="55"/>
@@ -14838,7 +14822,7 @@
         <v>170</v>
       </c>
       <c r="G110" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H110" s="55"/>
       <c r="I110" s="55"/>
@@ -14880,7 +14864,7 @@
         <v>226</v>
       </c>
       <c r="G111" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H111" s="54"/>
       <c r="I111" s="54"/>
@@ -14916,7 +14900,7 @@
         <v>228</v>
       </c>
       <c r="G112" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H112" s="54"/>
       <c r="I112" s="54"/>
@@ -14950,7 +14934,7 @@
         <v>229</v>
       </c>
       <c r="G113" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H113" s="54"/>
       <c r="I113" s="54"/>
@@ -14984,7 +14968,7 @@
         <v>230</v>
       </c>
       <c r="G114" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H114" s="54"/>
       <c r="I114" s="54"/>
@@ -15020,7 +15004,7 @@
         <v>231</v>
       </c>
       <c r="G115" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H115" s="54"/>
       <c r="I115" s="54"/>
@@ -15054,7 +15038,7 @@
         <v>232</v>
       </c>
       <c r="G116" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H116" s="54"/>
       <c r="I116" s="54"/>
@@ -15088,7 +15072,7 @@
         <v>233</v>
       </c>
       <c r="G117" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H117" s="54"/>
       <c r="I117" s="54"/>
@@ -15122,7 +15106,7 @@
         <v>234</v>
       </c>
       <c r="G118" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H118" s="54"/>
       <c r="I118" s="54"/>
@@ -15192,7 +15176,7 @@
         <v>238</v>
       </c>
       <c r="G120" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H120" s="54"/>
       <c r="I120" s="54"/>
@@ -15226,7 +15210,7 @@
         <v>239</v>
       </c>
       <c r="G121" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H121" s="54"/>
       <c r="I121" s="54"/>
@@ -15364,7 +15348,7 @@
         <v>245</v>
       </c>
       <c r="G125" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H125" s="54"/>
       <c r="I125" s="54"/>
@@ -15402,7 +15386,7 @@
         <v>246</v>
       </c>
       <c r="G126" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H126" s="54"/>
       <c r="I126" s="54"/>
@@ -15478,7 +15462,7 @@
         <v>251</v>
       </c>
       <c r="G128" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H128" s="54"/>
       <c r="I128" s="54"/>
@@ -15512,7 +15496,7 @@
         <v>252</v>
       </c>
       <c r="G129" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H129" s="54"/>
       <c r="I129" s="54"/>
@@ -15546,7 +15530,7 @@
         <v>253</v>
       </c>
       <c r="G130" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H130" s="54"/>
       <c r="I130" s="54"/>
@@ -15588,7 +15572,7 @@
         <v>255</v>
       </c>
       <c r="G131" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H131" s="54"/>
       <c r="I131" s="54"/>
@@ -15615,16 +15599,16 @@
         <v>50-2-1</v>
       </c>
       <c r="B132" s="245" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C132" s="59"/>
       <c r="D132" s="46"/>
       <c r="E132" s="46"/>
       <c r="F132" s="54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G132" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H132" s="54"/>
       <c r="I132" s="54"/>
@@ -15655,10 +15639,10 @@
       <c r="D133" s="46"/>
       <c r="E133" s="46"/>
       <c r="F133" s="54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G133" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H133" s="54"/>
       <c r="I133" s="54"/>
@@ -15689,10 +15673,10 @@
       <c r="D134" s="46"/>
       <c r="E134" s="57"/>
       <c r="F134" s="54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G134" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H134" s="54"/>
       <c r="I134" s="54"/>
@@ -15722,13 +15706,13 @@
       <c r="C135" s="59"/>
       <c r="D135" s="46"/>
       <c r="E135" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="F135" s="54" t="s">
         <v>261</v>
       </c>
-      <c r="F135" s="54" t="s">
-        <v>262</v>
-      </c>
       <c r="G135" s="54" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H135" s="54"/>
       <c r="I135" s="54"/>
@@ -15759,10 +15743,10 @@
       <c r="D136" s="57"/>
       <c r="E136" s="57"/>
       <c r="F136" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G136" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H136" s="54"/>
       <c r="I136" s="54"/>
@@ -15797,10 +15781,10 @@
         <v>55</v>
       </c>
       <c r="F137" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G137" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H137" s="54"/>
       <c r="I137" s="54"/>
@@ -15828,19 +15812,19 @@
       </c>
       <c r="B138" s="96"/>
       <c r="C138" s="59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D138" s="46" t="s">
         <v>247</v>
       </c>
       <c r="E138" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="F138" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="F138" s="54" t="s">
-        <v>267</v>
-      </c>
       <c r="G138" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H138" s="54"/>
       <c r="I138" s="54"/>
@@ -15870,13 +15854,13 @@
       <c r="C139" s="59"/>
       <c r="D139" s="46"/>
       <c r="E139" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="F139" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="F139" s="54" t="s">
-        <v>269</v>
-      </c>
       <c r="G139" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H139" s="54"/>
       <c r="I139" s="54"/>
@@ -15906,13 +15890,13 @@
       <c r="C140" s="59"/>
       <c r="D140" s="46"/>
       <c r="E140" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="F140" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="F140" s="54" t="s">
-        <v>271</v>
-      </c>
       <c r="G140" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H140" s="54"/>
       <c r="I140" s="54"/>
@@ -15945,10 +15929,10 @@
         <v>248</v>
       </c>
       <c r="F141" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="G141" s="54" t="s">
         <v>272</v>
-      </c>
-      <c r="G141" s="54" t="s">
-        <v>273</v>
       </c>
       <c r="H141" s="54"/>
       <c r="I141" s="54"/>
@@ -15978,13 +15962,13 @@
       <c r="C142" s="59"/>
       <c r="D142" s="46"/>
       <c r="E142" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="F142" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="F142" s="54" t="s">
-        <v>275</v>
-      </c>
       <c r="G142" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H142" s="54"/>
       <c r="I142" s="54"/>
@@ -16014,13 +15998,13 @@
       <c r="C143" s="59"/>
       <c r="D143" s="46"/>
       <c r="E143" s="96" t="s">
+        <v>275</v>
+      </c>
+      <c r="F143" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="F143" s="54" t="s">
+      <c r="G143" s="54" t="s">
         <v>277</v>
-      </c>
-      <c r="G143" s="54" t="s">
-        <v>278</v>
       </c>
       <c r="H143" s="54"/>
       <c r="I143" s="54"/>
@@ -16051,10 +16035,10 @@
       <c r="D144" s="46"/>
       <c r="E144" s="96"/>
       <c r="F144" s="54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G144" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H144" s="54"/>
       <c r="I144" s="54"/>
@@ -16085,10 +16069,10 @@
       <c r="D145" s="46"/>
       <c r="E145" s="96"/>
       <c r="F145" s="54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G145" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H145" s="54"/>
       <c r="I145" s="54"/>
@@ -16119,10 +16103,10 @@
       <c r="D146" s="46"/>
       <c r="E146" s="96"/>
       <c r="F146" s="54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G146" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H146" s="54"/>
       <c r="I146" s="54"/>
@@ -16153,10 +16137,10 @@
       <c r="D147" s="46"/>
       <c r="E147" s="96"/>
       <c r="F147" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G147" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H147" s="54"/>
       <c r="I147" s="54"/>
@@ -16187,10 +16171,10 @@
       <c r="D148" s="57"/>
       <c r="E148" s="97"/>
       <c r="F148" s="54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H148" s="54"/>
       <c r="I148" s="54"/>
@@ -16219,16 +16203,16 @@
       <c r="B149" s="96"/>
       <c r="C149" s="59"/>
       <c r="D149" s="46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E149" s="96" t="s">
         <v>55</v>
       </c>
       <c r="F149" s="54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G149" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H149" s="54"/>
       <c r="I149" s="54"/>
@@ -16259,10 +16243,10 @@
       <c r="D150" s="46"/>
       <c r="E150" s="57"/>
       <c r="F150" s="54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G150" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H150" s="54"/>
       <c r="I150" s="54"/>
@@ -16295,10 +16279,10 @@
         <v>102</v>
       </c>
       <c r="F151" s="54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G151" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H151" s="54"/>
       <c r="I151" s="54"/>
@@ -16329,10 +16313,10 @@
       <c r="D152" s="46"/>
       <c r="E152" s="96"/>
       <c r="F152" s="54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G152" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H152" s="54"/>
       <c r="I152" s="54"/>
@@ -16363,10 +16347,10 @@
       <c r="D153" s="46"/>
       <c r="E153" s="96"/>
       <c r="F153" s="54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G153" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H153" s="54"/>
       <c r="I153" s="54"/>
@@ -16397,10 +16381,10 @@
       <c r="D154" s="46"/>
       <c r="E154" s="96"/>
       <c r="F154" s="54" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G154" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H154" s="54"/>
       <c r="I154" s="54"/>
@@ -16431,10 +16415,10 @@
       <c r="D155" s="46"/>
       <c r="E155" s="96"/>
       <c r="F155" s="54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G155" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H155" s="54"/>
       <c r="I155" s="54"/>
@@ -16465,10 +16449,10 @@
       <c r="D156" s="46"/>
       <c r="E156" s="96"/>
       <c r="F156" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G156" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H156" s="54"/>
       <c r="I156" s="54"/>
@@ -16499,10 +16483,10 @@
       <c r="D157" s="46"/>
       <c r="E157" s="96"/>
       <c r="F157" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G157" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H157" s="54"/>
       <c r="I157" s="54"/>
@@ -16533,10 +16517,10 @@
       <c r="D158" s="46"/>
       <c r="E158" s="96"/>
       <c r="F158" s="54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G158" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H158" s="54"/>
       <c r="I158" s="54"/>
@@ -16567,10 +16551,10 @@
       <c r="D159" s="46"/>
       <c r="E159" s="96"/>
       <c r="F159" s="54" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G159" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H159" s="54"/>
       <c r="I159" s="54"/>
@@ -16601,10 +16585,10 @@
       <c r="D160" s="46"/>
       <c r="E160" s="96"/>
       <c r="F160" s="54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G160" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H160" s="54"/>
       <c r="I160" s="54"/>
@@ -16635,10 +16619,10 @@
       <c r="D161" s="46"/>
       <c r="E161" s="57"/>
       <c r="F161" s="54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G161" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H161" s="54"/>
       <c r="I161" s="54"/>
@@ -16671,10 +16655,10 @@
         <v>192</v>
       </c>
       <c r="F162" s="54" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G162" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H162" s="54"/>
       <c r="I162" s="54"/>
@@ -16705,10 +16689,10 @@
       <c r="D163" s="46"/>
       <c r="E163" s="46"/>
       <c r="F163" s="54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G163" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H163" s="54"/>
       <c r="I163" s="54"/>
@@ -16739,10 +16723,10 @@
       <c r="D164" s="46"/>
       <c r="E164" s="46"/>
       <c r="F164" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G164" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H164" s="54"/>
       <c r="I164" s="54"/>
@@ -16773,10 +16757,10 @@
       <c r="D165" s="46"/>
       <c r="E165" s="46"/>
       <c r="F165" s="54" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G165" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H165" s="54"/>
       <c r="I165" s="54"/>
@@ -16807,10 +16791,10 @@
       <c r="D166" s="46"/>
       <c r="E166" s="46"/>
       <c r="F166" s="54" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G166" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H166" s="54"/>
       <c r="I166" s="54"/>
@@ -16841,7 +16825,7 @@
       <c r="D167" s="46"/>
       <c r="E167" s="46"/>
       <c r="F167" s="54" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G167" s="54" t="s">
         <v>236</v>
@@ -16875,10 +16859,10 @@
       <c r="D168" s="46"/>
       <c r="E168" s="57"/>
       <c r="F168" s="54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G168" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H168" s="54"/>
       <c r="I168" s="54"/>
@@ -16911,10 +16895,10 @@
         <v>237</v>
       </c>
       <c r="F169" s="54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G169" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H169" s="54"/>
       <c r="I169" s="54"/>
@@ -16945,10 +16929,10 @@
       <c r="D170" s="46"/>
       <c r="E170" s="46"/>
       <c r="F170" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G170" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H170" s="54"/>
       <c r="I170" s="54"/>
@@ -16979,10 +16963,10 @@
       <c r="D171" s="46"/>
       <c r="E171" s="46"/>
       <c r="F171" s="54" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G171" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H171" s="54"/>
       <c r="I171" s="54"/>
@@ -17013,10 +16997,10 @@
       <c r="D172" s="46"/>
       <c r="E172" s="46"/>
       <c r="F172" s="54" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G172" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H172" s="54"/>
       <c r="I172" s="54"/>
@@ -17047,10 +17031,10 @@
       <c r="D173" s="46"/>
       <c r="E173" s="46"/>
       <c r="F173" s="54" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G173" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H173" s="54"/>
       <c r="I173" s="54"/>
@@ -17081,10 +17065,10 @@
       <c r="D174" s="46"/>
       <c r="E174" s="46"/>
       <c r="F174" s="54" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G174" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H174" s="54"/>
       <c r="I174" s="54"/>
@@ -17115,10 +17099,10 @@
       <c r="D175" s="46"/>
       <c r="E175" s="46"/>
       <c r="F175" s="54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G175" s="54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H175" s="54"/>
       <c r="I175" s="54"/>
@@ -17149,10 +17133,10 @@
       <c r="D176" s="46"/>
       <c r="E176" s="46"/>
       <c r="F176" s="54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G176" s="54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H176" s="54"/>
       <c r="I176" s="54"/>
@@ -17183,10 +17167,10 @@
       <c r="D177" s="46"/>
       <c r="E177" s="57"/>
       <c r="F177" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G177" s="54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H177" s="54"/>
       <c r="I177" s="54"/>
@@ -17216,13 +17200,13 @@
       <c r="C178" s="59"/>
       <c r="D178" s="46"/>
       <c r="E178" s="54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F178" s="54" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G178" s="54" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H178" s="54"/>
       <c r="I178" s="54"/>
@@ -17252,13 +17236,13 @@
       <c r="C179" s="56"/>
       <c r="D179" s="57"/>
       <c r="E179" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="F179" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="F179" s="54" t="s">
+      <c r="G179" s="54" t="s">
         <v>316</v>
-      </c>
-      <c r="G179" s="54" t="s">
-        <v>317</v>
       </c>
       <c r="H179" s="54"/>
       <c r="I179" s="54"/>
@@ -17285,22 +17269,22 @@
         <v>65-1-1</v>
       </c>
       <c r="B180" s="84" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C180" s="84" t="s">
         <v>225</v>
       </c>
       <c r="D180" s="98" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E180" s="55" t="s">
         <v>55</v>
       </c>
       <c r="F180" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="G180" s="55" t="s">
         <v>320</v>
-      </c>
-      <c r="G180" s="55" t="s">
-        <v>321</v>
       </c>
       <c r="H180" s="55"/>
       <c r="I180" s="55"/>
@@ -17329,16 +17313,16 @@
       <c r="B181" s="83"/>
       <c r="C181" s="91"/>
       <c r="D181" s="98" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E181" s="55" t="s">
         <v>55</v>
       </c>
       <c r="F181" s="55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G181" s="55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H181" s="55"/>
       <c r="I181" s="55"/>
@@ -17367,16 +17351,16 @@
       <c r="B182" s="85"/>
       <c r="C182" s="99"/>
       <c r="D182" s="99" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E182" s="99" t="s">
         <v>55</v>
       </c>
       <c r="F182" s="55" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G182" s="55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H182" s="55"/>
       <c r="I182" s="55"/>
@@ -17403,7 +17387,7 @@
         <v>68-1-1</v>
       </c>
       <c r="B183" s="84" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C183" s="84" t="s">
         <v>225</v>
@@ -17412,13 +17396,13 @@
         <v>55</v>
       </c>
       <c r="E183" s="55" t="s">
+        <v>326</v>
+      </c>
+      <c r="F183" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="F183" s="55" t="s">
+      <c r="G183" s="55" t="s">
         <v>328</v>
-      </c>
-      <c r="G183" s="55" t="s">
-        <v>329</v>
       </c>
       <c r="H183" s="55"/>
       <c r="I183" s="55"/>
@@ -17451,10 +17435,10 @@
         <v>192</v>
       </c>
       <c r="F184" s="55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G184" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H184" s="55"/>
       <c r="I184" s="55"/>
@@ -17485,10 +17469,10 @@
       <c r="D185" s="83"/>
       <c r="E185" s="85"/>
       <c r="F185" s="55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G185" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H185" s="55"/>
       <c r="I185" s="55"/>
@@ -17518,13 +17502,13 @@
       <c r="C186" s="91"/>
       <c r="D186" s="83"/>
       <c r="E186" s="83" t="s">
+        <v>331</v>
+      </c>
+      <c r="F186" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="F186" s="55" t="s">
-        <v>333</v>
-      </c>
       <c r="G186" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H186" s="55"/>
       <c r="I186" s="55"/>
@@ -17555,10 +17539,10 @@
       <c r="D187" s="101"/>
       <c r="E187" s="85"/>
       <c r="F187" s="55" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G187" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H187" s="55"/>
       <c r="I187" s="55"/>
@@ -17593,10 +17577,10 @@
         <v>55</v>
       </c>
       <c r="F188" s="55" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G188" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H188" s="55"/>
       <c r="I188" s="55"/>
@@ -17624,19 +17608,19 @@
       </c>
       <c r="B189" s="78"/>
       <c r="C189" s="91" t="s">
+        <v>335</v>
+      </c>
+      <c r="D189" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D189" s="83" t="s">
+      <c r="E189" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="E189" s="83" t="s">
+      <c r="F189" s="55" t="s">
         <v>338</v>
       </c>
-      <c r="F189" s="55" t="s">
-        <v>339</v>
-      </c>
       <c r="G189" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H189" s="55"/>
       <c r="I189" s="55"/>
@@ -17667,10 +17651,10 @@
       <c r="D190" s="83"/>
       <c r="E190" s="83"/>
       <c r="F190" s="55" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G190" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H190" s="55"/>
       <c r="I190" s="55"/>
@@ -17701,10 +17685,10 @@
       <c r="D191" s="83"/>
       <c r="E191" s="83"/>
       <c r="F191" s="55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G191" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H191" s="55"/>
       <c r="I191" s="55"/>
@@ -17735,10 +17719,10 @@
       <c r="D192" s="83"/>
       <c r="E192" s="83"/>
       <c r="F192" s="55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G192" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H192" s="55"/>
       <c r="I192" s="55"/>
@@ -17769,10 +17753,10 @@
       <c r="D193" s="83"/>
       <c r="E193" s="83"/>
       <c r="F193" s="55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G193" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H193" s="55"/>
       <c r="I193" s="55"/>
@@ -17803,10 +17787,10 @@
       <c r="D194" s="83"/>
       <c r="E194" s="83"/>
       <c r="F194" s="55" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G194" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H194" s="55"/>
       <c r="I194" s="55"/>
@@ -17837,10 +17821,10 @@
       <c r="D195" s="83"/>
       <c r="E195" s="85"/>
       <c r="F195" s="55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G195" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H195" s="55"/>
       <c r="I195" s="55"/>
@@ -17870,13 +17854,13 @@
       <c r="C196" s="78"/>
       <c r="D196" s="85"/>
       <c r="E196" s="85" t="s">
+        <v>345</v>
+      </c>
+      <c r="F196" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="F196" s="55" t="s">
-        <v>347</v>
-      </c>
       <c r="G196" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H196" s="55"/>
       <c r="I196" s="55"/>
@@ -17905,16 +17889,16 @@
       <c r="B197" s="78"/>
       <c r="C197" s="78"/>
       <c r="D197" s="83" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E197" s="83" t="s">
         <v>102</v>
       </c>
       <c r="F197" s="55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G197" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H197" s="55"/>
       <c r="I197" s="55"/>
@@ -17945,10 +17929,10 @@
       <c r="D198" s="83"/>
       <c r="E198" s="83"/>
       <c r="F198" s="55" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G198" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H198" s="55"/>
       <c r="I198" s="55"/>
@@ -17979,10 +17963,10 @@
       <c r="D199" s="83"/>
       <c r="E199" s="83"/>
       <c r="F199" s="55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G199" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H199" s="55"/>
       <c r="I199" s="55"/>
@@ -18013,10 +17997,10 @@
       <c r="D200" s="83"/>
       <c r="E200" s="83"/>
       <c r="F200" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G200" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H200" s="55"/>
       <c r="I200" s="55"/>
@@ -18047,10 +18031,10 @@
       <c r="D201" s="83"/>
       <c r="E201" s="83"/>
       <c r="F201" s="55" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G201" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H201" s="55"/>
       <c r="I201" s="55"/>
@@ -18081,10 +18065,10 @@
       <c r="D202" s="83"/>
       <c r="E202" s="83"/>
       <c r="F202" s="55" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G202" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H202" s="55"/>
       <c r="I202" s="55"/>
@@ -18115,10 +18099,10 @@
       <c r="D203" s="83"/>
       <c r="E203" s="83"/>
       <c r="F203" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G203" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H203" s="55"/>
       <c r="I203" s="55"/>
@@ -18149,10 +18133,10 @@
       <c r="D204" s="83"/>
       <c r="E204" s="83"/>
       <c r="F204" s="55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G204" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H204" s="55"/>
       <c r="I204" s="55"/>
@@ -18183,10 +18167,10 @@
       <c r="D205" s="83"/>
       <c r="E205" s="83"/>
       <c r="F205" s="55" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G205" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H205" s="55"/>
       <c r="I205" s="55"/>
@@ -18217,10 +18201,10 @@
       <c r="D206" s="83"/>
       <c r="E206" s="83"/>
       <c r="F206" s="55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G206" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H206" s="55"/>
       <c r="I206" s="55"/>
@@ -18251,10 +18235,10 @@
       <c r="D207" s="83"/>
       <c r="E207" s="83"/>
       <c r="F207" s="55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G207" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H207" s="55"/>
       <c r="I207" s="55"/>
@@ -18285,10 +18269,10 @@
       <c r="D208" s="83"/>
       <c r="E208" s="83"/>
       <c r="F208" s="55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G208" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H208" s="55"/>
       <c r="I208" s="55"/>
@@ -18319,10 +18303,10 @@
       <c r="D209" s="85"/>
       <c r="E209" s="85"/>
       <c r="F209" s="55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G209" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H209" s="55"/>
       <c r="I209" s="55"/>
@@ -18351,16 +18335,16 @@
       <c r="B210" s="83"/>
       <c r="C210" s="78"/>
       <c r="D210" s="84" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E210" s="84" t="s">
         <v>102</v>
       </c>
       <c r="F210" s="55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G210" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H210" s="55"/>
       <c r="I210" s="55"/>
@@ -18391,10 +18375,10 @@
       <c r="D211" s="83"/>
       <c r="E211" s="83"/>
       <c r="F211" s="55" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G211" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H211" s="55"/>
       <c r="I211" s="55"/>
@@ -18425,10 +18409,10 @@
       <c r="D212" s="83"/>
       <c r="E212" s="83"/>
       <c r="F212" s="55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G212" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H212" s="55"/>
       <c r="I212" s="55"/>
@@ -18459,10 +18443,10 @@
       <c r="D213" s="83"/>
       <c r="E213" s="83"/>
       <c r="F213" s="55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G213" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H213" s="55"/>
       <c r="I213" s="55"/>
@@ -18493,10 +18477,10 @@
       <c r="D214" s="83"/>
       <c r="E214" s="83"/>
       <c r="F214" s="55" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G214" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H214" s="55"/>
       <c r="I214" s="55"/>
@@ -18527,10 +18511,10 @@
       <c r="D215" s="83"/>
       <c r="E215" s="83"/>
       <c r="F215" s="55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G215" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H215" s="55"/>
       <c r="I215" s="55"/>
@@ -18561,10 +18545,10 @@
       <c r="D216" s="83"/>
       <c r="E216" s="83"/>
       <c r="F216" s="55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G216" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H216" s="55"/>
       <c r="I216" s="55"/>
@@ -18595,10 +18579,10 @@
       <c r="D217" s="83"/>
       <c r="E217" s="83"/>
       <c r="F217" s="55" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G217" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H217" s="55"/>
       <c r="I217" s="55"/>
@@ -18629,10 +18613,10 @@
       <c r="D218" s="83"/>
       <c r="E218" s="83"/>
       <c r="F218" s="55" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G218" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H218" s="55"/>
       <c r="I218" s="55"/>
@@ -18663,10 +18647,10 @@
       <c r="D219" s="83"/>
       <c r="E219" s="83"/>
       <c r="F219" s="55" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G219" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H219" s="55"/>
       <c r="I219" s="55"/>
@@ -18697,10 +18681,10 @@
       <c r="D220" s="83"/>
       <c r="E220" s="83"/>
       <c r="F220" s="55" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G220" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H220" s="55"/>
       <c r="I220" s="55"/>
@@ -18731,10 +18715,10 @@
       <c r="D221" s="83"/>
       <c r="E221" s="83"/>
       <c r="F221" s="55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G221" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H221" s="55"/>
       <c r="I221" s="55"/>
@@ -18765,10 +18749,10 @@
       <c r="D222" s="83"/>
       <c r="E222" s="83"/>
       <c r="F222" s="55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G222" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H222" s="55"/>
       <c r="I222" s="55"/>
@@ -18799,10 +18783,10 @@
       <c r="D223" s="83"/>
       <c r="E223" s="83"/>
       <c r="F223" s="55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G223" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H223" s="55"/>
       <c r="I223" s="55"/>
@@ -18833,10 +18817,10 @@
       <c r="D224" s="83"/>
       <c r="E224" s="85"/>
       <c r="F224" s="55" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G224" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H224" s="55"/>
       <c r="I224" s="55"/>
@@ -18866,13 +18850,13 @@
       <c r="C225" s="78"/>
       <c r="D225" s="83"/>
       <c r="E225" s="83" t="s">
+        <v>374</v>
+      </c>
+      <c r="F225" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="F225" s="55" t="s">
-        <v>376</v>
-      </c>
       <c r="G225" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H225" s="55"/>
       <c r="I225" s="55"/>
@@ -18903,10 +18887,10 @@
       <c r="D226" s="83"/>
       <c r="E226" s="83"/>
       <c r="F226" s="55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G226" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H226" s="55"/>
       <c r="I226" s="55"/>
@@ -18937,10 +18921,10 @@
       <c r="D227" s="83"/>
       <c r="E227" s="85"/>
       <c r="F227" s="55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G227" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H227" s="55"/>
       <c r="I227" s="55"/>
@@ -18973,10 +18957,10 @@
         <v>130</v>
       </c>
       <c r="F228" s="55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G228" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H228" s="55"/>
       <c r="I228" s="55"/>
@@ -19006,13 +18990,13 @@
       <c r="C229" s="85"/>
       <c r="D229" s="85"/>
       <c r="E229" s="102" t="s">
+        <v>379</v>
+      </c>
+      <c r="F229" s="55" t="s">
         <v>380</v>
       </c>
-      <c r="F229" s="55" t="s">
-        <v>381</v>
-      </c>
       <c r="G229" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H229" s="55"/>
       <c r="I229" s="55"/>
@@ -19039,7 +19023,7 @@
         <v>79-1-1</v>
       </c>
       <c r="B230" s="84" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C230" s="84" t="s">
         <v>225</v>
@@ -19051,10 +19035,10 @@
         <v>55</v>
       </c>
       <c r="F230" s="55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G230" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H230" s="55"/>
       <c r="I230" s="55"/>
@@ -19087,10 +19071,10 @@
         <v>113</v>
       </c>
       <c r="F231" s="55" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G231" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H231" s="55"/>
       <c r="I231" s="55"/>
@@ -19121,10 +19105,10 @@
       <c r="D232" s="83"/>
       <c r="E232" s="83"/>
       <c r="F232" s="55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G232" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H232" s="55"/>
       <c r="I232" s="55"/>
@@ -19155,10 +19139,10 @@
       <c r="D233" s="83"/>
       <c r="E233" s="83"/>
       <c r="F233" s="55" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G233" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H233" s="55"/>
       <c r="I233" s="55"/>
@@ -19189,10 +19173,10 @@
       <c r="D234" s="83"/>
       <c r="E234" s="83"/>
       <c r="F234" s="55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G234" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H234" s="55"/>
       <c r="I234" s="55"/>
@@ -19223,10 +19207,10 @@
       <c r="D235" s="83"/>
       <c r="E235" s="85"/>
       <c r="F235" s="55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G235" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H235" s="55"/>
       <c r="I235" s="55"/>
@@ -19259,10 +19243,10 @@
         <v>237</v>
       </c>
       <c r="F236" s="55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G236" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H236" s="55"/>
       <c r="I236" s="55"/>
@@ -19293,10 +19277,10 @@
       <c r="D237" s="83"/>
       <c r="E237" s="83"/>
       <c r="F237" s="55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G237" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H237" s="55"/>
       <c r="I237" s="55"/>
@@ -19327,10 +19311,10 @@
       <c r="D238" s="83"/>
       <c r="E238" s="83"/>
       <c r="F238" s="55" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G238" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H238" s="55"/>
       <c r="I238" s="55"/>
@@ -19361,10 +19345,10 @@
       <c r="D239" s="83"/>
       <c r="E239" s="83"/>
       <c r="F239" s="55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G239" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H239" s="55"/>
       <c r="I239" s="55"/>
@@ -19395,10 +19379,10 @@
       <c r="D240" s="83"/>
       <c r="E240" s="85"/>
       <c r="F240" s="55" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G240" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H240" s="55"/>
       <c r="I240" s="55"/>
@@ -19431,10 +19415,10 @@
         <v>244</v>
       </c>
       <c r="F241" s="55" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G241" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H241" s="55"/>
       <c r="I241" s="55"/>
@@ -19471,10 +19455,10 @@
         <v>248</v>
       </c>
       <c r="F242" s="55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G242" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H242" s="55"/>
       <c r="I242" s="55"/>
@@ -19501,10 +19485,10 @@
         <v>84-1-1</v>
       </c>
       <c r="B243" s="84" t="s">
+        <v>396</v>
+      </c>
+      <c r="C243" s="84" t="s">
         <v>397</v>
-      </c>
-      <c r="C243" s="84" t="s">
-        <v>398</v>
       </c>
       <c r="D243" s="84" t="s">
         <v>55</v>
@@ -19513,10 +19497,10 @@
         <v>55</v>
       </c>
       <c r="F243" s="55" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G243" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H243" s="55"/>
       <c r="I243" s="55"/>
@@ -19547,10 +19531,10 @@
       <c r="D244" s="85"/>
       <c r="E244" s="85"/>
       <c r="F244" s="55" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G244" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H244" s="55"/>
       <c r="I244" s="55"/>
@@ -19585,10 +19569,10 @@
         <v>55</v>
       </c>
       <c r="F245" s="55" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G245" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H245" s="55"/>
       <c r="I245" s="55"/>
@@ -19619,10 +19603,10 @@
       <c r="D246" s="85"/>
       <c r="E246" s="85"/>
       <c r="F246" s="55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G246" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H246" s="55"/>
       <c r="I246" s="55"/>
@@ -19650,19 +19634,19 @@
       </c>
       <c r="B247" s="78"/>
       <c r="C247" s="91" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D247" s="83" t="s">
         <v>247</v>
       </c>
       <c r="E247" s="55" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F247" s="55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G247" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H247" s="55"/>
       <c r="I247" s="55"/>
@@ -19692,13 +19676,13 @@
       <c r="C248" s="91"/>
       <c r="D248" s="83"/>
       <c r="E248" s="55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F248" s="55" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G248" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H248" s="55"/>
       <c r="I248" s="55"/>
@@ -19731,10 +19715,10 @@
         <v>248</v>
       </c>
       <c r="F249" s="55" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G249" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H249" s="55"/>
       <c r="I249" s="55"/>
@@ -19764,13 +19748,13 @@
       <c r="C250" s="91"/>
       <c r="D250" s="85"/>
       <c r="E250" s="55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F250" s="55" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G250" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H250" s="55"/>
       <c r="I250" s="55"/>
@@ -19799,16 +19783,16 @@
       <c r="B251" s="78"/>
       <c r="C251" s="78"/>
       <c r="D251" s="83" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E251" s="78" t="s">
         <v>55</v>
       </c>
       <c r="F251" s="55" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G251" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H251" s="55"/>
       <c r="I251" s="55"/>
@@ -19839,10 +19823,10 @@
       <c r="D252" s="91"/>
       <c r="E252" s="85"/>
       <c r="F252" s="55" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G252" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H252" s="55"/>
       <c r="I252" s="55"/>
@@ -19875,10 +19859,10 @@
         <v>102</v>
       </c>
       <c r="F253" s="55" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G253" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H253" s="55"/>
       <c r="I253" s="55"/>
@@ -19909,10 +19893,10 @@
       <c r="D254" s="91"/>
       <c r="E254" s="83"/>
       <c r="F254" s="55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G254" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H254" s="55"/>
       <c r="I254" s="55"/>
@@ -19943,10 +19927,10 @@
       <c r="D255" s="91"/>
       <c r="E255" s="83"/>
       <c r="F255" s="55" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G255" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H255" s="55"/>
       <c r="I255" s="55"/>
@@ -19977,10 +19961,10 @@
       <c r="D256" s="91"/>
       <c r="E256" s="83"/>
       <c r="F256" s="55" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G256" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H256" s="55"/>
       <c r="I256" s="55"/>
@@ -20011,10 +19995,10 @@
       <c r="D257" s="83"/>
       <c r="E257" s="78"/>
       <c r="F257" s="55" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G257" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H257" s="55"/>
       <c r="I257" s="55"/>
@@ -20045,10 +20029,10 @@
       <c r="D258" s="83"/>
       <c r="E258" s="78"/>
       <c r="F258" s="55" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G258" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H258" s="55"/>
       <c r="I258" s="55"/>
@@ -20079,10 +20063,10 @@
       <c r="D259" s="83"/>
       <c r="E259" s="78"/>
       <c r="F259" s="55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G259" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H259" s="55"/>
       <c r="I259" s="55"/>
@@ -20113,10 +20097,10 @@
       <c r="D260" s="83"/>
       <c r="E260" s="78"/>
       <c r="F260" s="55" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G260" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H260" s="55"/>
       <c r="I260" s="55"/>
@@ -20147,10 +20131,10 @@
       <c r="D261" s="83"/>
       <c r="E261" s="78"/>
       <c r="F261" s="55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G261" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H261" s="55"/>
       <c r="I261" s="55"/>
@@ -20181,10 +20165,10 @@
       <c r="D262" s="83"/>
       <c r="E262" s="83"/>
       <c r="F262" s="55" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G262" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H262" s="55"/>
       <c r="I262" s="55"/>
@@ -20215,10 +20199,10 @@
       <c r="D263" s="83"/>
       <c r="E263" s="85"/>
       <c r="F263" s="55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G263" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H263" s="55"/>
       <c r="I263" s="55"/>
@@ -20251,10 +20235,10 @@
         <v>192</v>
       </c>
       <c r="F264" s="55" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G264" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H264" s="55"/>
       <c r="I264" s="55"/>
@@ -20285,10 +20269,10 @@
       <c r="D265" s="83"/>
       <c r="E265" s="83"/>
       <c r="F265" s="55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G265" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H265" s="55"/>
       <c r="I265" s="55"/>
@@ -20319,10 +20303,10 @@
       <c r="D266" s="83"/>
       <c r="E266" s="83"/>
       <c r="F266" s="55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G266" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H266" s="55"/>
       <c r="I266" s="55"/>
@@ -20353,10 +20337,10 @@
       <c r="D267" s="91"/>
       <c r="E267" s="83"/>
       <c r="F267" s="55" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G267" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H267" s="55"/>
       <c r="I267" s="55"/>
@@ -20387,10 +20371,10 @@
       <c r="D268" s="91"/>
       <c r="E268" s="83"/>
       <c r="F268" s="55" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G268" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H268" s="55"/>
       <c r="I268" s="55"/>
@@ -20421,10 +20405,10 @@
       <c r="D269" s="91"/>
       <c r="E269" s="85"/>
       <c r="F269" s="55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G269" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H269" s="55"/>
       <c r="I269" s="55"/>
@@ -20457,10 +20441,10 @@
         <v>237</v>
       </c>
       <c r="F270" s="55" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G270" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H270" s="55"/>
       <c r="I270" s="55"/>
@@ -20491,10 +20475,10 @@
       <c r="D271" s="91"/>
       <c r="E271" s="83"/>
       <c r="F271" s="55" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G271" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H271" s="55"/>
       <c r="I271" s="55"/>
@@ -20525,10 +20509,10 @@
       <c r="D272" s="91"/>
       <c r="E272" s="83"/>
       <c r="F272" s="55" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G272" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H272" s="55"/>
       <c r="I272" s="55"/>
@@ -20559,10 +20543,10 @@
       <c r="D273" s="91"/>
       <c r="E273" s="83"/>
       <c r="F273" s="55" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G273" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H273" s="55"/>
       <c r="I273" s="55"/>
@@ -20593,10 +20577,10 @@
       <c r="D274" s="91"/>
       <c r="E274" s="83"/>
       <c r="F274" s="55" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G274" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H274" s="55"/>
       <c r="I274" s="55"/>
@@ -20627,10 +20611,10 @@
       <c r="D275" s="91"/>
       <c r="E275" s="83"/>
       <c r="F275" s="55" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G275" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H275" s="55"/>
       <c r="I275" s="55"/>
@@ -20661,10 +20645,10 @@
       <c r="D276" s="91"/>
       <c r="E276" s="83"/>
       <c r="F276" s="55" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G276" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H276" s="55"/>
       <c r="I276" s="55"/>
@@ -20695,10 +20679,10 @@
       <c r="D277" s="91"/>
       <c r="E277" s="85"/>
       <c r="F277" s="55" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G277" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H277" s="55"/>
       <c r="I277" s="55"/>
@@ -20728,13 +20712,13 @@
       <c r="C278" s="102"/>
       <c r="D278" s="99"/>
       <c r="E278" s="85" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F278" s="55" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G278" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H278" s="55"/>
       <c r="I278" s="55"/>
@@ -20761,10 +20745,10 @@
         <v>95-1-1</v>
       </c>
       <c r="B279" s="44" t="s">
+        <v>435</v>
+      </c>
+      <c r="C279" s="63" t="s">
         <v>436</v>
-      </c>
-      <c r="C279" s="63" t="s">
-        <v>437</v>
       </c>
       <c r="D279" s="63" t="s">
         <v>55</v>
@@ -20773,7 +20757,7 @@
         <v>55</v>
       </c>
       <c r="F279" s="64" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G279" s="64"/>
       <c r="H279" s="64"/>
@@ -20805,7 +20789,7 @@
       <c r="D280" s="70"/>
       <c r="E280" s="70"/>
       <c r="F280" s="64" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G280" s="64"/>
       <c r="H280" s="64"/>
@@ -20837,7 +20821,7 @@
       <c r="D281" s="70"/>
       <c r="E281" s="70"/>
       <c r="F281" s="64" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G281" s="64"/>
       <c r="H281" s="64"/>
@@ -20869,7 +20853,7 @@
       <c r="D282" s="73"/>
       <c r="E282" s="73"/>
       <c r="F282" s="64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G282" s="64"/>
       <c r="H282" s="64"/>
@@ -20898,16 +20882,16 @@
       </c>
       <c r="B283" s="52"/>
       <c r="C283" s="70" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D283" s="70" t="s">
         <v>247</v>
       </c>
       <c r="E283" s="64" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F283" s="64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G283" s="64"/>
       <c r="H283" s="64"/>
@@ -20938,10 +20922,10 @@
       <c r="C284" s="103"/>
       <c r="D284" s="70"/>
       <c r="E284" s="73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F284" s="64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G284" s="64"/>
       <c r="H284" s="64"/>
@@ -20972,10 +20956,10 @@
       <c r="C285" s="103"/>
       <c r="D285" s="70"/>
       <c r="E285" s="64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F285" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G285" s="64"/>
       <c r="H285" s="64"/>
@@ -21009,7 +20993,7 @@
         <v>130</v>
       </c>
       <c r="F286" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G286" s="64"/>
       <c r="H286" s="64"/>
@@ -21039,13 +21023,13 @@
       <c r="B287" s="52"/>
       <c r="C287" s="52"/>
       <c r="D287" s="70" t="s">
+        <v>446</v>
+      </c>
+      <c r="E287" s="70" t="s">
         <v>447</v>
       </c>
-      <c r="E287" s="70" t="s">
+      <c r="F287" s="64" t="s">
         <v>448</v>
-      </c>
-      <c r="F287" s="64" t="s">
-        <v>449</v>
       </c>
       <c r="G287" s="64"/>
       <c r="H287" s="64"/>
@@ -21077,7 +21061,7 @@
       <c r="D288" s="69"/>
       <c r="E288" s="70"/>
       <c r="F288" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G288" s="64"/>
       <c r="H288" s="64"/>
@@ -21109,7 +21093,7 @@
       <c r="D289" s="69"/>
       <c r="E289" s="70"/>
       <c r="F289" s="64" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G289" s="64"/>
       <c r="H289" s="64"/>
@@ -21141,7 +21125,7 @@
       <c r="D290" s="69"/>
       <c r="E290" s="70"/>
       <c r="F290" s="64" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G290" s="64"/>
       <c r="H290" s="64"/>
@@ -21173,7 +21157,7 @@
       <c r="D291" s="69"/>
       <c r="E291" s="70"/>
       <c r="F291" s="64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G291" s="64"/>
       <c r="H291" s="64"/>
@@ -21205,7 +21189,7 @@
       <c r="D292" s="69"/>
       <c r="E292" s="70"/>
       <c r="F292" s="64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G292" s="64"/>
       <c r="H292" s="64"/>
@@ -21237,7 +21221,7 @@
       <c r="D293" s="69"/>
       <c r="E293" s="70"/>
       <c r="F293" s="64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G293" s="64"/>
       <c r="H293" s="64"/>
@@ -21269,7 +21253,7 @@
       <c r="D294" s="69"/>
       <c r="E294" s="70"/>
       <c r="F294" s="64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G294" s="64"/>
       <c r="H294" s="64"/>
@@ -21301,7 +21285,7 @@
       <c r="D295" s="72"/>
       <c r="E295" s="73"/>
       <c r="F295" s="64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G295" s="64"/>
       <c r="H295" s="64"/>
@@ -21370,7 +21354,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -21380,7 +21364,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -21503,7 +21487,7 @@
         <v>1-1-1</v>
       </c>
       <c r="B11" s="157" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C11" s="118" t="s">
         <v>179</v>
@@ -21518,7 +21502,7 @@
         <v>181</v>
       </c>
       <c r="G11" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H11" s="94"/>
       <c r="I11" s="94"/>
@@ -21555,7 +21539,7 @@
         <v>184</v>
       </c>
       <c r="G12" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H12" s="94"/>
       <c r="I12" s="94"/>
@@ -21594,7 +21578,7 @@
         <v>186</v>
       </c>
       <c r="G13" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H13" s="94"/>
       <c r="I13" s="94"/>
@@ -21629,7 +21613,7 @@
         <v>187</v>
       </c>
       <c r="G14" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H14" s="94"/>
       <c r="I14" s="94"/>
@@ -21664,7 +21648,7 @@
         <v>188</v>
       </c>
       <c r="G15" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H15" s="94"/>
       <c r="I15" s="94"/>
@@ -21699,7 +21683,7 @@
         <v>189</v>
       </c>
       <c r="G16" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H16" s="94"/>
       <c r="I16" s="94"/>
@@ -21734,7 +21718,7 @@
         <v>190</v>
       </c>
       <c r="G17" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H17" s="94"/>
       <c r="I17" s="94"/>
@@ -21773,7 +21757,7 @@
         <v>193</v>
       </c>
       <c r="G18" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
@@ -21808,7 +21792,7 @@
         <v>194</v>
       </c>
       <c r="G19" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H19" s="94"/>
       <c r="I19" s="94"/>
@@ -21843,7 +21827,7 @@
         <v>195</v>
       </c>
       <c r="G20" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H20" s="94"/>
       <c r="I20" s="94"/>
@@ -21880,7 +21864,7 @@
         <v>197</v>
       </c>
       <c r="G21" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H21" s="94"/>
       <c r="I21" s="94"/>
@@ -21915,7 +21899,7 @@
         <v>198</v>
       </c>
       <c r="G22" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H22" s="94"/>
       <c r="I22" s="94"/>
@@ -21947,10 +21931,10 @@
       <c r="D23" s="124"/>
       <c r="E23" s="124"/>
       <c r="F23" s="120" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G23" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H23" s="94"/>
       <c r="I23" s="94"/>
@@ -21982,10 +21966,10 @@
       <c r="D24" s="125"/>
       <c r="E24" s="123"/>
       <c r="F24" s="120" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G24" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H24" s="94"/>
       <c r="I24" s="94"/>
@@ -22024,7 +22008,7 @@
         <v>202</v>
       </c>
       <c r="G25" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H25" s="94"/>
       <c r="I25" s="94"/>
@@ -22059,7 +22043,7 @@
         <v>203</v>
       </c>
       <c r="G26" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H26" s="94"/>
       <c r="I26" s="94"/>
@@ -22098,7 +22082,7 @@
         <v>206</v>
       </c>
       <c r="G27" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H27" s="94"/>
       <c r="I27" s="94"/>
@@ -22133,7 +22117,7 @@
         <v>207</v>
       </c>
       <c r="G28" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H28" s="94"/>
       <c r="I28" s="94"/>
@@ -22170,7 +22154,7 @@
         <v>209</v>
       </c>
       <c r="G29" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H29" s="94"/>
       <c r="I29" s="94"/>
@@ -22205,7 +22189,7 @@
         <v>210</v>
       </c>
       <c r="G30" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H30" s="94"/>
       <c r="I30" s="94"/>
@@ -22240,7 +22224,7 @@
         <v>211</v>
       </c>
       <c r="G31" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H31" s="94"/>
       <c r="I31" s="94"/>
@@ -22275,7 +22259,7 @@
         <v>212</v>
       </c>
       <c r="G32" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H32" s="94"/>
       <c r="I32" s="94"/>
@@ -22306,13 +22290,13 @@
       <c r="C33" s="122"/>
       <c r="D33" s="124"/>
       <c r="E33" s="124" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F33" s="120" t="s">
         <v>213</v>
       </c>
       <c r="G33" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H33" s="94"/>
       <c r="I33" s="94"/>
@@ -22347,7 +22331,7 @@
         <v>214</v>
       </c>
       <c r="G34" s="115" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H34" s="94"/>
       <c r="I34" s="94"/>
@@ -22381,10 +22365,10 @@
         <v>215</v>
       </c>
       <c r="F35" s="120" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G35" s="115" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H35" s="54"/>
       <c r="I35" s="54"/>
@@ -22455,7 +22439,7 @@
       <c r="D37" s="162"/>
       <c r="E37" s="161"/>
       <c r="F37" s="31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G37" s="159"/>
       <c r="H37" s="112"/>
@@ -22558,7 +22542,7 @@
         <v>55</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G40" s="159"/>
       <c r="H40" s="112"/>
@@ -22591,7 +22575,7 @@
       <c r="D41" s="163"/>
       <c r="E41" s="158"/>
       <c r="F41" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G41" s="159"/>
       <c r="H41" s="112"/>
@@ -25041,7 +25025,7 @@
         <v>43-2-1</v>
       </c>
       <c r="B112" s="246" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C112" s="139"/>
       <c r="D112" s="134"/>
@@ -25485,7 +25469,7 @@
       <c r="C125" s="139"/>
       <c r="D125" s="140"/>
       <c r="E125" s="158" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F125" s="31" t="s">
         <v>245</v>
@@ -25555,7 +25539,7 @@
       </c>
       <c r="B127" s="134"/>
       <c r="C127" s="161" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D127" s="161" t="s">
         <v>247</v>
@@ -25598,7 +25582,7 @@
       <c r="C128" s="161"/>
       <c r="D128" s="161"/>
       <c r="E128" s="162" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F128" s="31" t="s">
         <v>251</v>
@@ -25737,28 +25721,26 @@
         <v>50-2-1</v>
       </c>
       <c r="B132" s="246" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C132" s="139"/>
       <c r="D132" s="134"/>
       <c r="E132" s="139"/>
-      <c r="F132" s="120" t="s">
-        <v>258</v>
-      </c>
-      <c r="G132" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="H132" s="94"/>
-      <c r="I132" s="94"/>
-      <c r="J132" s="115"/>
-      <c r="K132" s="115"/>
-      <c r="L132" s="94"/>
-      <c r="M132" s="94"/>
-      <c r="N132" s="94"/>
-      <c r="O132" s="94"/>
-      <c r="P132" s="94"/>
-      <c r="Q132" s="121"/>
-      <c r="R132" s="115"/>
+      <c r="F132" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="G132" s="247"/>
+      <c r="H132" s="112"/>
+      <c r="I132" s="112"/>
+      <c r="J132" s="159"/>
+      <c r="K132" s="159"/>
+      <c r="L132" s="112"/>
+      <c r="M132" s="112"/>
+      <c r="N132" s="112"/>
+      <c r="O132" s="112"/>
+      <c r="P132" s="112"/>
+      <c r="Q132" s="160"/>
+      <c r="R132" s="159"/>
     </row>
     <row r="133" spans="1:18" ht="33.75">
       <c r="A133" s="43" t="str" cm="1">
@@ -25777,23 +25759,21 @@
       <c r="C133" s="139"/>
       <c r="D133" s="134"/>
       <c r="E133" s="139"/>
-      <c r="F133" s="120" t="s">
-        <v>259</v>
-      </c>
-      <c r="G133" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="H133" s="94"/>
-      <c r="I133" s="94"/>
-      <c r="J133" s="115"/>
-      <c r="K133" s="115"/>
-      <c r="L133" s="94"/>
-      <c r="M133" s="94"/>
-      <c r="N133" s="94"/>
-      <c r="O133" s="94"/>
-      <c r="P133" s="94"/>
-      <c r="Q133" s="121"/>
-      <c r="R133" s="115"/>
+      <c r="F133" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="G133" s="247"/>
+      <c r="H133" s="112"/>
+      <c r="I133" s="112"/>
+      <c r="J133" s="159"/>
+      <c r="K133" s="159"/>
+      <c r="L133" s="112"/>
+      <c r="M133" s="112"/>
+      <c r="N133" s="112"/>
+      <c r="O133" s="112"/>
+      <c r="P133" s="112"/>
+      <c r="Q133" s="160"/>
+      <c r="R133" s="159"/>
     </row>
     <row r="134" spans="1:18" ht="22.5">
       <c r="A134" s="43" t="str" cm="1">
@@ -25812,23 +25792,21 @@
       <c r="C134" s="139"/>
       <c r="D134" s="134"/>
       <c r="E134" s="140"/>
-      <c r="F134" s="120" t="s">
-        <v>260</v>
-      </c>
-      <c r="G134" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="H134" s="94"/>
-      <c r="I134" s="94"/>
-      <c r="J134" s="115"/>
-      <c r="K134" s="115"/>
-      <c r="L134" s="94"/>
-      <c r="M134" s="94"/>
-      <c r="N134" s="94"/>
-      <c r="O134" s="94"/>
-      <c r="P134" s="94"/>
-      <c r="Q134" s="121"/>
-      <c r="R134" s="115"/>
+      <c r="F134" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G134" s="247"/>
+      <c r="H134" s="112"/>
+      <c r="I134" s="112"/>
+      <c r="J134" s="159"/>
+      <c r="K134" s="159"/>
+      <c r="L134" s="112"/>
+      <c r="M134" s="112"/>
+      <c r="N134" s="112"/>
+      <c r="O134" s="112"/>
+      <c r="P134" s="112"/>
+      <c r="Q134" s="160"/>
+      <c r="R134" s="159"/>
     </row>
     <row r="135" spans="1:18" ht="22.5">
       <c r="A135" s="43" t="str" cm="1">
@@ -25847,10 +25825,10 @@
       <c r="C135" s="139"/>
       <c r="D135" s="134"/>
       <c r="E135" s="139" t="s">
+        <v>260</v>
+      </c>
+      <c r="F135" s="137" t="s">
         <v>261</v>
-      </c>
-      <c r="F135" s="137" t="s">
-        <v>262</v>
       </c>
       <c r="G135" s="64"/>
       <c r="H135" s="68"/>
@@ -25883,7 +25861,7 @@
       <c r="D136" s="140"/>
       <c r="E136" s="140"/>
       <c r="F136" s="137" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G136" s="64"/>
       <c r="H136" s="68"/>
@@ -25920,7 +25898,7 @@
         <v>96</v>
       </c>
       <c r="F137" s="137" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G137" s="67"/>
       <c r="H137" s="68"/>
@@ -25950,16 +25928,16 @@
       </c>
       <c r="B138" s="134"/>
       <c r="C138" s="139" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D138" s="134" t="s">
         <v>247</v>
       </c>
       <c r="E138" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="F138" s="31" t="s">
         <v>266</v>
-      </c>
-      <c r="F138" s="31" t="s">
-        <v>267</v>
       </c>
       <c r="G138" s="159"/>
       <c r="H138" s="112"/>
@@ -25991,10 +25969,10 @@
       <c r="C139" s="139"/>
       <c r="D139" s="134"/>
       <c r="E139" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="F139" s="31" t="s">
         <v>268</v>
-      </c>
-      <c r="F139" s="31" t="s">
-        <v>269</v>
       </c>
       <c r="G139" s="159"/>
       <c r="H139" s="112"/>
@@ -26026,10 +26004,10 @@
       <c r="C140" s="139"/>
       <c r="D140" s="134"/>
       <c r="E140" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="F140" s="31" t="s">
         <v>270</v>
-      </c>
-      <c r="F140" s="31" t="s">
-        <v>271</v>
       </c>
       <c r="G140" s="159"/>
       <c r="H140" s="112"/>
@@ -26064,10 +26042,10 @@
         <v>248</v>
       </c>
       <c r="F141" s="120" t="s">
+        <v>271</v>
+      </c>
+      <c r="G141" s="54" t="s">
         <v>272</v>
-      </c>
-      <c r="G141" s="54" t="s">
-        <v>273</v>
       </c>
       <c r="H141" s="94"/>
       <c r="I141" s="94"/>
@@ -26098,10 +26076,10 @@
       <c r="C142" s="139"/>
       <c r="D142" s="134"/>
       <c r="E142" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F142" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G142" s="159"/>
       <c r="H142" s="112"/>
@@ -26133,13 +26111,13 @@
       <c r="C143" s="139"/>
       <c r="D143" s="134"/>
       <c r="E143" s="150" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F143" s="120" t="s">
+        <v>276</v>
+      </c>
+      <c r="G143" s="54" t="s">
         <v>277</v>
-      </c>
-      <c r="G143" s="54" t="s">
-        <v>278</v>
       </c>
       <c r="H143" s="94"/>
       <c r="I143" s="94"/>
@@ -26171,10 +26149,10 @@
       <c r="D144" s="134"/>
       <c r="E144" s="150"/>
       <c r="F144" s="120" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G144" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H144" s="94"/>
       <c r="I144" s="94"/>
@@ -26206,10 +26184,10 @@
       <c r="D145" s="134"/>
       <c r="E145" s="150"/>
       <c r="F145" s="120" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G145" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H145" s="94"/>
       <c r="I145" s="94"/>
@@ -26241,10 +26219,10 @@
       <c r="D146" s="134"/>
       <c r="E146" s="150"/>
       <c r="F146" s="120" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G146" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H146" s="94"/>
       <c r="I146" s="94"/>
@@ -26276,10 +26254,10 @@
       <c r="D147" s="134"/>
       <c r="E147" s="150"/>
       <c r="F147" s="120" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G147" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H147" s="94"/>
       <c r="I147" s="94"/>
@@ -26311,10 +26289,10 @@
       <c r="D148" s="140"/>
       <c r="E148" s="123"/>
       <c r="F148" s="120" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H148" s="94"/>
       <c r="I148" s="94"/>
@@ -26344,13 +26322,13 @@
       <c r="B149" s="134"/>
       <c r="C149" s="139"/>
       <c r="D149" s="161" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E149" s="157" t="s">
         <v>96</v>
       </c>
       <c r="F149" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G149" s="159"/>
       <c r="H149" s="112"/>
@@ -26383,7 +26361,7 @@
       <c r="D150" s="161"/>
       <c r="E150" s="158"/>
       <c r="F150" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G150" s="159"/>
       <c r="H150" s="112"/>
@@ -26418,7 +26396,7 @@
         <v>102</v>
       </c>
       <c r="F151" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G151" s="159"/>
       <c r="H151" s="112"/>
@@ -26451,7 +26429,7 @@
       <c r="D152" s="161"/>
       <c r="E152" s="164"/>
       <c r="F152" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G152" s="159"/>
       <c r="H152" s="112"/>
@@ -26484,7 +26462,7 @@
       <c r="D153" s="161"/>
       <c r="E153" s="164"/>
       <c r="F153" s="31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G153" s="159"/>
       <c r="H153" s="112"/>
@@ -26517,7 +26495,7 @@
       <c r="D154" s="161"/>
       <c r="E154" s="164"/>
       <c r="F154" s="31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G154" s="159"/>
       <c r="H154" s="112"/>
@@ -26550,7 +26528,7 @@
       <c r="D155" s="161"/>
       <c r="E155" s="164"/>
       <c r="F155" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G155" s="159"/>
       <c r="H155" s="112"/>
@@ -26583,7 +26561,7 @@
       <c r="D156" s="161"/>
       <c r="E156" s="164"/>
       <c r="F156" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G156" s="159"/>
       <c r="H156" s="112"/>
@@ -26616,7 +26594,7 @@
       <c r="D157" s="161"/>
       <c r="E157" s="164"/>
       <c r="F157" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G157" s="159"/>
       <c r="H157" s="112"/>
@@ -26649,7 +26627,7 @@
       <c r="D158" s="161"/>
       <c r="E158" s="164"/>
       <c r="F158" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G158" s="159"/>
       <c r="H158" s="112"/>
@@ -26682,7 +26660,7 @@
       <c r="D159" s="161"/>
       <c r="E159" s="164"/>
       <c r="F159" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G159" s="159"/>
       <c r="H159" s="112"/>
@@ -26715,7 +26693,7 @@
       <c r="D160" s="161"/>
       <c r="E160" s="164"/>
       <c r="F160" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G160" s="159"/>
       <c r="H160" s="112"/>
@@ -26748,7 +26726,7 @@
       <c r="D161" s="161"/>
       <c r="E161" s="158"/>
       <c r="F161" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G161" s="159"/>
       <c r="H161" s="112"/>
@@ -26783,7 +26761,7 @@
         <v>192</v>
       </c>
       <c r="F162" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G162" s="159"/>
       <c r="H162" s="112"/>
@@ -26816,7 +26794,7 @@
       <c r="D163" s="161"/>
       <c r="E163" s="162"/>
       <c r="F163" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G163" s="159"/>
       <c r="H163" s="112"/>
@@ -26849,7 +26827,7 @@
       <c r="D164" s="161"/>
       <c r="E164" s="162"/>
       <c r="F164" s="31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G164" s="159"/>
       <c r="H164" s="112"/>
@@ -26882,7 +26860,7 @@
       <c r="D165" s="161"/>
       <c r="E165" s="162"/>
       <c r="F165" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G165" s="159"/>
       <c r="H165" s="112"/>
@@ -26915,7 +26893,7 @@
       <c r="D166" s="161"/>
       <c r="E166" s="162"/>
       <c r="F166" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G166" s="159"/>
       <c r="H166" s="112"/>
@@ -26948,7 +26926,7 @@
       <c r="D167" s="161"/>
       <c r="E167" s="162"/>
       <c r="F167" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G167" s="159"/>
       <c r="H167" s="112"/>
@@ -26981,10 +26959,10 @@
       <c r="D168" s="158"/>
       <c r="E168" s="163"/>
       <c r="F168" s="120" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G168" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H168" s="94"/>
       <c r="I168" s="94"/>
@@ -27018,7 +26996,7 @@
         <v>237</v>
       </c>
       <c r="F169" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G169" s="159"/>
       <c r="H169" s="112"/>
@@ -27051,7 +27029,7 @@
       <c r="D170" s="134"/>
       <c r="E170" s="139"/>
       <c r="F170" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G170" s="159"/>
       <c r="H170" s="112"/>
@@ -27084,7 +27062,7 @@
       <c r="D171" s="134"/>
       <c r="E171" s="139"/>
       <c r="F171" s="31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G171" s="159"/>
       <c r="H171" s="112"/>
@@ -27117,7 +27095,7 @@
       <c r="D172" s="134"/>
       <c r="E172" s="139"/>
       <c r="F172" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G172" s="159"/>
       <c r="H172" s="112"/>
@@ -27150,7 +27128,7 @@
       <c r="D173" s="134"/>
       <c r="E173" s="139"/>
       <c r="F173" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G173" s="159"/>
       <c r="H173" s="112"/>
@@ -27183,7 +27161,7 @@
       <c r="D174" s="134"/>
       <c r="E174" s="139"/>
       <c r="F174" s="137" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G174" s="67"/>
       <c r="H174" s="68"/>
@@ -27216,10 +27194,10 @@
       <c r="D175" s="134"/>
       <c r="E175" s="139"/>
       <c r="F175" s="120" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G175" s="54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H175" s="94"/>
       <c r="I175" s="94"/>
@@ -27251,10 +27229,10 @@
       <c r="D176" s="134"/>
       <c r="E176" s="139"/>
       <c r="F176" s="120" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G176" s="54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H176" s="94"/>
       <c r="I176" s="94"/>
@@ -27286,10 +27264,10 @@
       <c r="D177" s="134"/>
       <c r="E177" s="140"/>
       <c r="F177" s="120" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G177" s="54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H177" s="94"/>
       <c r="I177" s="94"/>
@@ -27320,10 +27298,10 @@
       <c r="C178" s="139"/>
       <c r="D178" s="134"/>
       <c r="E178" s="158" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F178" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G178" s="159"/>
       <c r="H178" s="112"/>
@@ -27355,13 +27333,13 @@
       <c r="C179" s="147"/>
       <c r="D179" s="140"/>
       <c r="E179" s="125" t="s">
+        <v>314</v>
+      </c>
+      <c r="F179" s="120" t="s">
         <v>315</v>
       </c>
-      <c r="F179" s="120" t="s">
+      <c r="G179" s="54" t="s">
         <v>316</v>
-      </c>
-      <c r="G179" s="54" t="s">
-        <v>317</v>
       </c>
       <c r="H179" s="94"/>
       <c r="I179" s="94"/>
@@ -27389,22 +27367,22 @@
         <v>65-1-1</v>
       </c>
       <c r="B180" s="118" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C180" s="118" t="s">
         <v>225</v>
       </c>
       <c r="D180" s="120" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E180" s="120" t="s">
         <v>122</v>
       </c>
       <c r="F180" s="120" t="s">
+        <v>319</v>
+      </c>
+      <c r="G180" s="54" t="s">
         <v>320</v>
-      </c>
-      <c r="G180" s="54" t="s">
-        <v>321</v>
       </c>
       <c r="H180" s="94"/>
       <c r="I180" s="94"/>
@@ -27434,16 +27412,16 @@
       <c r="B181" s="119"/>
       <c r="C181" s="124"/>
       <c r="D181" s="120" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E181" s="123" t="s">
         <v>55</v>
       </c>
       <c r="F181" s="120" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G181" s="54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H181" s="94"/>
       <c r="I181" s="94"/>
@@ -27473,16 +27451,16 @@
       <c r="B182" s="123"/>
       <c r="C182" s="125"/>
       <c r="D182" s="125" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E182" s="125" t="s">
         <v>55</v>
       </c>
       <c r="F182" s="120" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G182" s="54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H182" s="94"/>
       <c r="I182" s="94"/>
@@ -27510,7 +27488,7 @@
         <v>68-1-1</v>
       </c>
       <c r="B183" s="127" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C183" s="127" t="s">
         <v>225</v>
@@ -27519,13 +27497,13 @@
         <v>96</v>
       </c>
       <c r="E183" s="132" t="s">
+        <v>326</v>
+      </c>
+      <c r="F183" s="132" t="s">
         <v>327</v>
       </c>
-      <c r="F183" s="132" t="s">
-        <v>328</v>
-      </c>
       <c r="G183" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H183" s="51"/>
       <c r="I183" s="51"/>
@@ -27559,10 +27537,10 @@
         <v>192</v>
       </c>
       <c r="F184" s="132" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G184" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H184" s="51"/>
       <c r="I184" s="51"/>
@@ -27594,10 +27572,10 @@
       <c r="D185" s="130"/>
       <c r="E185" s="128"/>
       <c r="F185" s="132" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G185" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H185" s="51"/>
       <c r="I185" s="51"/>
@@ -27628,13 +27606,13 @@
       <c r="C186" s="131"/>
       <c r="D186" s="130"/>
       <c r="E186" s="131" t="s">
+        <v>331</v>
+      </c>
+      <c r="F186" s="132" t="s">
         <v>332</v>
       </c>
-      <c r="F186" s="132" t="s">
-        <v>333</v>
-      </c>
       <c r="G186" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H186" s="51"/>
       <c r="I186" s="51"/>
@@ -27666,10 +27644,10 @@
       <c r="D187" s="153"/>
       <c r="E187" s="128"/>
       <c r="F187" s="132" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G187" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H187" s="51"/>
       <c r="I187" s="51"/>
@@ -27705,10 +27683,10 @@
         <v>96</v>
       </c>
       <c r="F188" s="132" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G188" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H188" s="51"/>
       <c r="I188" s="51"/>
@@ -27737,19 +27715,19 @@
       </c>
       <c r="B189" s="130"/>
       <c r="C189" s="131" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D189" s="130" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E189" s="131" t="s">
+        <v>337</v>
+      </c>
+      <c r="F189" s="132" t="s">
         <v>338</v>
       </c>
-      <c r="F189" s="132" t="s">
-        <v>339</v>
-      </c>
       <c r="G189" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H189" s="51"/>
       <c r="I189" s="51"/>
@@ -27781,10 +27759,10 @@
       <c r="D190" s="130"/>
       <c r="E190" s="131"/>
       <c r="F190" s="132" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G190" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H190" s="51"/>
       <c r="I190" s="51"/>
@@ -27816,10 +27794,10 @@
       <c r="D191" s="130"/>
       <c r="E191" s="131"/>
       <c r="F191" s="132" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G191" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H191" s="51"/>
       <c r="I191" s="51"/>
@@ -27851,10 +27829,10 @@
       <c r="D192" s="130"/>
       <c r="E192" s="131"/>
       <c r="F192" s="132" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G192" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H192" s="51"/>
       <c r="I192" s="51"/>
@@ -27886,10 +27864,10 @@
       <c r="D193" s="130"/>
       <c r="E193" s="131"/>
       <c r="F193" s="132" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G193" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H193" s="51"/>
       <c r="I193" s="51"/>
@@ -27921,10 +27899,10 @@
       <c r="D194" s="130"/>
       <c r="E194" s="131"/>
       <c r="F194" s="132" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G194" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H194" s="51"/>
       <c r="I194" s="51"/>
@@ -27956,10 +27934,10 @@
       <c r="D195" s="130"/>
       <c r="E195" s="128"/>
       <c r="F195" s="132" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G195" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H195" s="51"/>
       <c r="I195" s="51"/>
@@ -27990,13 +27968,13 @@
       <c r="C196" s="151"/>
       <c r="D196" s="128"/>
       <c r="E196" s="132" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F196" s="132" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G196" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H196" s="51"/>
       <c r="I196" s="51"/>
@@ -28026,16 +28004,16 @@
       <c r="B197" s="130"/>
       <c r="C197" s="151"/>
       <c r="D197" s="130" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E197" s="131" t="s">
         <v>102</v>
       </c>
       <c r="F197" s="132" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G197" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H197" s="51"/>
       <c r="I197" s="51"/>
@@ -28067,10 +28045,10 @@
       <c r="D198" s="130"/>
       <c r="E198" s="131"/>
       <c r="F198" s="132" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G198" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H198" s="51"/>
       <c r="I198" s="51"/>
@@ -28102,10 +28080,10 @@
       <c r="D199" s="130"/>
       <c r="E199" s="131"/>
       <c r="F199" s="132" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G199" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H199" s="51"/>
       <c r="I199" s="51"/>
@@ -28137,10 +28115,10 @@
       <c r="D200" s="130"/>
       <c r="E200" s="131"/>
       <c r="F200" s="132" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G200" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H200" s="51"/>
       <c r="I200" s="51"/>
@@ -28172,10 +28150,10 @@
       <c r="D201" s="130"/>
       <c r="E201" s="131"/>
       <c r="F201" s="132" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G201" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H201" s="51"/>
       <c r="I201" s="51"/>
@@ -28207,10 +28185,10 @@
       <c r="D202" s="130"/>
       <c r="E202" s="131"/>
       <c r="F202" s="132" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G202" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H202" s="51"/>
       <c r="I202" s="51"/>
@@ -28242,10 +28220,10 @@
       <c r="D203" s="130"/>
       <c r="E203" s="131"/>
       <c r="F203" s="132" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G203" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H203" s="51"/>
       <c r="I203" s="51"/>
@@ -28277,10 +28255,10 @@
       <c r="D204" s="130"/>
       <c r="E204" s="131"/>
       <c r="F204" s="132" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G204" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H204" s="51"/>
       <c r="I204" s="51"/>
@@ -28312,10 +28290,10 @@
       <c r="D205" s="130"/>
       <c r="E205" s="131"/>
       <c r="F205" s="132" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G205" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H205" s="51"/>
       <c r="I205" s="51"/>
@@ -28347,10 +28325,10 @@
       <c r="D206" s="130"/>
       <c r="E206" s="131"/>
       <c r="F206" s="132" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G206" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H206" s="51"/>
       <c r="I206" s="51"/>
@@ -28382,10 +28360,10 @@
       <c r="D207" s="130"/>
       <c r="E207" s="131"/>
       <c r="F207" s="132" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G207" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H207" s="51"/>
       <c r="I207" s="51"/>
@@ -28417,10 +28395,10 @@
       <c r="D208" s="130"/>
       <c r="E208" s="131"/>
       <c r="F208" s="132" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G208" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H208" s="51"/>
       <c r="I208" s="51"/>
@@ -28452,10 +28430,10 @@
       <c r="D209" s="128"/>
       <c r="E209" s="133"/>
       <c r="F209" s="132" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G209" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H209" s="51"/>
       <c r="I209" s="51"/>
@@ -28485,16 +28463,16 @@
       <c r="B210" s="130"/>
       <c r="C210" s="151"/>
       <c r="D210" s="127" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E210" s="126" t="s">
         <v>102</v>
       </c>
       <c r="F210" s="132" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G210" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H210" s="51"/>
       <c r="I210" s="51"/>
@@ -28526,10 +28504,10 @@
       <c r="D211" s="130"/>
       <c r="E211" s="131"/>
       <c r="F211" s="132" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G211" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H211" s="51"/>
       <c r="I211" s="51"/>
@@ -28561,10 +28539,10 @@
       <c r="D212" s="130"/>
       <c r="E212" s="131"/>
       <c r="F212" s="132" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G212" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H212" s="51"/>
       <c r="I212" s="51"/>
@@ -28596,10 +28574,10 @@
       <c r="D213" s="130"/>
       <c r="E213" s="131"/>
       <c r="F213" s="132" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G213" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H213" s="51"/>
       <c r="I213" s="51"/>
@@ -28631,10 +28609,10 @@
       <c r="D214" s="130"/>
       <c r="E214" s="131"/>
       <c r="F214" s="132" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G214" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H214" s="51"/>
       <c r="I214" s="51"/>
@@ -28666,10 +28644,10 @@
       <c r="D215" s="130"/>
       <c r="E215" s="131"/>
       <c r="F215" s="132" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G215" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H215" s="51"/>
       <c r="I215" s="51"/>
@@ -28701,10 +28679,10 @@
       <c r="D216" s="130"/>
       <c r="E216" s="131"/>
       <c r="F216" s="132" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G216" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H216" s="51"/>
       <c r="I216" s="51"/>
@@ -28736,10 +28714,10 @@
       <c r="D217" s="130"/>
       <c r="E217" s="131"/>
       <c r="F217" s="132" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G217" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H217" s="51"/>
       <c r="I217" s="51"/>
@@ -28771,10 +28749,10 @@
       <c r="D218" s="130"/>
       <c r="E218" s="131"/>
       <c r="F218" s="132" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G218" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H218" s="51"/>
       <c r="I218" s="51"/>
@@ -28806,10 +28784,10 @@
       <c r="D219" s="130"/>
       <c r="E219" s="131"/>
       <c r="F219" s="132" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G219" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H219" s="51"/>
       <c r="I219" s="51"/>
@@ -28841,10 +28819,10 @@
       <c r="D220" s="130"/>
       <c r="E220" s="131"/>
       <c r="F220" s="132" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G220" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H220" s="51"/>
       <c r="I220" s="51"/>
@@ -28876,10 +28854,10 @@
       <c r="D221" s="130"/>
       <c r="E221" s="131"/>
       <c r="F221" s="132" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G221" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H221" s="51"/>
       <c r="I221" s="51"/>
@@ -28911,10 +28889,10 @@
       <c r="D222" s="130"/>
       <c r="E222" s="131"/>
       <c r="F222" s="132" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G222" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H222" s="51"/>
       <c r="I222" s="51"/>
@@ -28946,10 +28924,10 @@
       <c r="D223" s="130"/>
       <c r="E223" s="131"/>
       <c r="F223" s="132" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G223" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H223" s="51"/>
       <c r="I223" s="51"/>
@@ -28981,10 +28959,10 @@
       <c r="D224" s="130"/>
       <c r="E224" s="128"/>
       <c r="F224" s="132" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G224" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H224" s="51"/>
       <c r="I224" s="51"/>
@@ -29015,13 +28993,13 @@
       <c r="C225" s="151"/>
       <c r="D225" s="130"/>
       <c r="E225" s="131" t="s">
+        <v>374</v>
+      </c>
+      <c r="F225" s="132" t="s">
         <v>375</v>
       </c>
-      <c r="F225" s="132" t="s">
-        <v>376</v>
-      </c>
       <c r="G225" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H225" s="51"/>
       <c r="I225" s="51"/>
@@ -29053,10 +29031,10 @@
       <c r="D226" s="130"/>
       <c r="E226" s="131"/>
       <c r="F226" s="132" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G226" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H226" s="51"/>
       <c r="I226" s="51"/>
@@ -29088,10 +29066,10 @@
       <c r="D227" s="130"/>
       <c r="E227" s="128"/>
       <c r="F227" s="132" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G227" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H227" s="51"/>
       <c r="I227" s="51"/>
@@ -29125,10 +29103,10 @@
         <v>130</v>
       </c>
       <c r="F228" s="132" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G228" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H228" s="51"/>
       <c r="I228" s="51"/>
@@ -29159,13 +29137,13 @@
       <c r="C229" s="128"/>
       <c r="D229" s="128"/>
       <c r="E229" s="154" t="s">
+        <v>379</v>
+      </c>
+      <c r="F229" s="132" t="s">
         <v>380</v>
       </c>
-      <c r="F229" s="132" t="s">
-        <v>381</v>
-      </c>
       <c r="G229" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H229" s="51"/>
       <c r="I229" s="51"/>
@@ -29193,7 +29171,7 @@
         <v>79-1-1</v>
       </c>
       <c r="B230" s="118" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C230" s="118" t="s">
         <v>225</v>
@@ -29205,10 +29183,10 @@
         <v>96</v>
       </c>
       <c r="F230" s="120" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G230" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H230" s="94"/>
       <c r="I230" s="94"/>
@@ -29242,10 +29220,10 @@
         <v>113</v>
       </c>
       <c r="F231" s="120" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G231" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H231" s="94"/>
       <c r="I231" s="94"/>
@@ -29277,10 +29255,10 @@
       <c r="D232" s="119"/>
       <c r="E232" s="124"/>
       <c r="F232" s="120" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G232" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H232" s="94"/>
       <c r="I232" s="94"/>
@@ -29312,10 +29290,10 @@
       <c r="D233" s="119"/>
       <c r="E233" s="124"/>
       <c r="F233" s="120" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G233" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H233" s="94"/>
       <c r="I233" s="94"/>
@@ -29347,10 +29325,10 @@
       <c r="D234" s="119"/>
       <c r="E234" s="124"/>
       <c r="F234" s="120" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G234" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H234" s="94"/>
       <c r="I234" s="94"/>
@@ -29382,10 +29360,10 @@
       <c r="D235" s="119"/>
       <c r="E235" s="123"/>
       <c r="F235" s="120" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G235" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H235" s="94"/>
       <c r="I235" s="94"/>
@@ -29419,10 +29397,10 @@
         <v>237</v>
       </c>
       <c r="F236" s="120" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G236" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H236" s="94"/>
       <c r="I236" s="94"/>
@@ -29454,10 +29432,10 @@
       <c r="D237" s="119"/>
       <c r="E237" s="124"/>
       <c r="F237" s="120" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G237" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H237" s="94"/>
       <c r="I237" s="94"/>
@@ -29489,10 +29467,10 @@
       <c r="D238" s="119"/>
       <c r="E238" s="124"/>
       <c r="F238" s="120" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G238" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H238" s="94"/>
       <c r="I238" s="94"/>
@@ -29524,10 +29502,10 @@
       <c r="D239" s="119"/>
       <c r="E239" s="124"/>
       <c r="F239" s="120" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G239" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H239" s="94"/>
       <c r="I239" s="94"/>
@@ -29559,10 +29537,10 @@
       <c r="D240" s="119"/>
       <c r="E240" s="123"/>
       <c r="F240" s="120" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G240" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H240" s="94"/>
       <c r="I240" s="94"/>
@@ -29593,13 +29571,13 @@
       <c r="C241" s="123"/>
       <c r="D241" s="123"/>
       <c r="E241" s="123" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F241" s="120" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G241" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H241" s="94"/>
       <c r="I241" s="94"/>
@@ -29628,7 +29606,7 @@
       </c>
       <c r="B242" s="123"/>
       <c r="C242" s="123" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D242" s="123" t="s">
         <v>247</v>
@@ -29637,10 +29615,10 @@
         <v>248</v>
       </c>
       <c r="F242" s="120" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G242" s="115" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H242" s="94"/>
       <c r="I242" s="94"/>
@@ -29668,10 +29646,10 @@
         <v>84-1-1</v>
       </c>
       <c r="B243" s="118" t="s">
+        <v>396</v>
+      </c>
+      <c r="C243" s="118" t="s">
         <v>397</v>
-      </c>
-      <c r="C243" s="118" t="s">
-        <v>398</v>
       </c>
       <c r="D243" s="118" t="s">
         <v>96</v>
@@ -29680,10 +29658,10 @@
         <v>96</v>
       </c>
       <c r="F243" s="120" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G243" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H243" s="94"/>
       <c r="I243" s="94"/>
@@ -29715,10 +29693,10 @@
       <c r="D244" s="123"/>
       <c r="E244" s="123"/>
       <c r="F244" s="120" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G244" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H244" s="94"/>
       <c r="I244" s="94"/>
@@ -29754,10 +29732,10 @@
         <v>96</v>
       </c>
       <c r="F245" s="120" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G245" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H245" s="94"/>
       <c r="I245" s="94"/>
@@ -29789,10 +29767,10 @@
       <c r="D246" s="123"/>
       <c r="E246" s="123"/>
       <c r="F246" s="120" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G246" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H246" s="94"/>
       <c r="I246" s="94"/>
@@ -29821,19 +29799,19 @@
       </c>
       <c r="B247" s="119"/>
       <c r="C247" s="124" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D247" s="119" t="s">
         <v>247</v>
       </c>
       <c r="E247" s="123" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F247" s="120" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G247" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H247" s="94"/>
       <c r="I247" s="94"/>
@@ -29864,13 +29842,13 @@
       <c r="C248" s="124"/>
       <c r="D248" s="119"/>
       <c r="E248" s="123" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F248" s="120" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G248" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H248" s="94"/>
       <c r="I248" s="94"/>
@@ -29904,10 +29882,10 @@
         <v>248</v>
       </c>
       <c r="F249" s="120" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G249" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H249" s="94"/>
       <c r="I249" s="94"/>
@@ -29938,13 +29916,13 @@
       <c r="C250" s="124"/>
       <c r="D250" s="123"/>
       <c r="E250" s="123" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F250" s="120" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G250" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H250" s="94"/>
       <c r="I250" s="94"/>
@@ -29974,16 +29952,16 @@
       <c r="B251" s="119"/>
       <c r="C251" s="122"/>
       <c r="D251" s="119" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E251" s="150" t="s">
         <v>96</v>
       </c>
       <c r="F251" s="120" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G251" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H251" s="94"/>
       <c r="I251" s="94"/>
@@ -30015,10 +29993,10 @@
       <c r="D252" s="124"/>
       <c r="E252" s="123"/>
       <c r="F252" s="120" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G252" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H252" s="94"/>
       <c r="I252" s="94"/>
@@ -30052,10 +30030,10 @@
         <v>102</v>
       </c>
       <c r="F253" s="120" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G253" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H253" s="94"/>
       <c r="I253" s="94"/>
@@ -30087,10 +30065,10 @@
       <c r="D254" s="124"/>
       <c r="E254" s="124"/>
       <c r="F254" s="120" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G254" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H254" s="94"/>
       <c r="I254" s="94"/>
@@ -30122,10 +30100,10 @@
       <c r="D255" s="124"/>
       <c r="E255" s="124"/>
       <c r="F255" s="120" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G255" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H255" s="94"/>
       <c r="I255" s="94"/>
@@ -30157,10 +30135,10 @@
       <c r="D256" s="124"/>
       <c r="E256" s="124"/>
       <c r="F256" s="120" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G256" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H256" s="94"/>
       <c r="I256" s="94"/>
@@ -30192,10 +30170,10 @@
       <c r="D257" s="119"/>
       <c r="E257" s="150"/>
       <c r="F257" s="120" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G257" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H257" s="94"/>
       <c r="I257" s="94"/>
@@ -30227,10 +30205,10 @@
       <c r="D258" s="119"/>
       <c r="E258" s="150"/>
       <c r="F258" s="120" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G258" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H258" s="94"/>
       <c r="I258" s="94"/>
@@ -30262,10 +30240,10 @@
       <c r="D259" s="119"/>
       <c r="E259" s="150"/>
       <c r="F259" s="120" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G259" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H259" s="94"/>
       <c r="I259" s="94"/>
@@ -30297,10 +30275,10 @@
       <c r="D260" s="119"/>
       <c r="E260" s="150"/>
       <c r="F260" s="120" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G260" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H260" s="94"/>
       <c r="I260" s="94"/>
@@ -30332,10 +30310,10 @@
       <c r="D261" s="119"/>
       <c r="E261" s="150"/>
       <c r="F261" s="120" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G261" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H261" s="94"/>
       <c r="I261" s="94"/>
@@ -30367,10 +30345,10 @@
       <c r="D262" s="119"/>
       <c r="E262" s="124"/>
       <c r="F262" s="120" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G262" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H262" s="94"/>
       <c r="I262" s="94"/>
@@ -30402,10 +30380,10 @@
       <c r="D263" s="119"/>
       <c r="E263" s="123"/>
       <c r="F263" s="120" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G263" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H263" s="94"/>
       <c r="I263" s="94"/>
@@ -30439,10 +30417,10 @@
         <v>192</v>
       </c>
       <c r="F264" s="120" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G264" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H264" s="94"/>
       <c r="I264" s="94"/>
@@ -30474,10 +30452,10 @@
       <c r="D265" s="119"/>
       <c r="E265" s="124"/>
       <c r="F265" s="120" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G265" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H265" s="94"/>
       <c r="I265" s="94"/>
@@ -30509,10 +30487,10 @@
       <c r="D266" s="119"/>
       <c r="E266" s="124"/>
       <c r="F266" s="120" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G266" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H266" s="94"/>
       <c r="I266" s="94"/>
@@ -30544,10 +30522,10 @@
       <c r="D267" s="124"/>
       <c r="E267" s="124"/>
       <c r="F267" s="120" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G267" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H267" s="94"/>
       <c r="I267" s="94"/>
@@ -30579,10 +30557,10 @@
       <c r="D268" s="124"/>
       <c r="E268" s="124"/>
       <c r="F268" s="120" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G268" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H268" s="94"/>
       <c r="I268" s="94"/>
@@ -30614,10 +30592,10 @@
       <c r="D269" s="124"/>
       <c r="E269" s="123"/>
       <c r="F269" s="120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G269" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H269" s="94"/>
       <c r="I269" s="94"/>
@@ -30651,10 +30629,10 @@
         <v>237</v>
       </c>
       <c r="F270" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G270" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H270" s="94"/>
       <c r="I270" s="94"/>
@@ -30686,10 +30664,10 @@
       <c r="D271" s="124"/>
       <c r="E271" s="124"/>
       <c r="F271" s="120" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G271" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H271" s="94"/>
       <c r="I271" s="94"/>
@@ -30721,10 +30699,10 @@
       <c r="D272" s="124"/>
       <c r="E272" s="124"/>
       <c r="F272" s="120" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G272" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H272" s="94"/>
       <c r="I272" s="94"/>
@@ -30756,10 +30734,10 @@
       <c r="D273" s="124"/>
       <c r="E273" s="124"/>
       <c r="F273" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G273" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H273" s="94"/>
       <c r="I273" s="94"/>
@@ -30791,10 +30769,10 @@
       <c r="D274" s="124"/>
       <c r="E274" s="124"/>
       <c r="F274" s="120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G274" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H274" s="94"/>
       <c r="I274" s="94"/>
@@ -30826,10 +30804,10 @@
       <c r="D275" s="124"/>
       <c r="E275" s="124"/>
       <c r="F275" s="120" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G275" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H275" s="94"/>
       <c r="I275" s="94"/>
@@ -30861,10 +30839,10 @@
       <c r="D276" s="124"/>
       <c r="E276" s="124"/>
       <c r="F276" s="120" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G276" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H276" s="94"/>
       <c r="I276" s="94"/>
@@ -30896,10 +30874,10 @@
       <c r="D277" s="124"/>
       <c r="E277" s="123"/>
       <c r="F277" s="120" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G277" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H277" s="94"/>
       <c r="I277" s="94"/>
@@ -30930,13 +30908,13 @@
       <c r="C278" s="166"/>
       <c r="D278" s="125"/>
       <c r="E278" s="125" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F278" s="120" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G278" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H278" s="94"/>
       <c r="I278" s="94"/>
@@ -30964,10 +30942,10 @@
         <v>95-1-1</v>
       </c>
       <c r="B279" s="142" t="s">
+        <v>435</v>
+      </c>
+      <c r="C279" s="142" t="s">
         <v>436</v>
-      </c>
-      <c r="C279" s="142" t="s">
-        <v>437</v>
       </c>
       <c r="D279" s="142" t="s">
         <v>96</v>
@@ -30976,7 +30954,7 @@
         <v>96</v>
       </c>
       <c r="F279" s="137" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G279" s="67"/>
       <c r="H279" s="68"/>
@@ -31009,7 +30987,7 @@
       <c r="D280" s="134"/>
       <c r="E280" s="139"/>
       <c r="F280" s="137" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G280" s="67"/>
       <c r="H280" s="68"/>
@@ -31042,7 +31020,7 @@
       <c r="D281" s="134"/>
       <c r="E281" s="139"/>
       <c r="F281" s="137" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G281" s="67"/>
       <c r="H281" s="68"/>
@@ -31075,7 +31053,7 @@
       <c r="D282" s="140"/>
       <c r="E282" s="140"/>
       <c r="F282" s="137" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G282" s="67"/>
       <c r="H282" s="68"/>
@@ -31105,16 +31083,16 @@
       </c>
       <c r="B283" s="134"/>
       <c r="C283" s="134" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D283" s="134" t="s">
         <v>247</v>
       </c>
       <c r="E283" s="140" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F283" s="137" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G283" s="67"/>
       <c r="H283" s="68"/>
@@ -31146,10 +31124,10 @@
       <c r="C284" s="134"/>
       <c r="D284" s="134"/>
       <c r="E284" s="140" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F284" s="137" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G284" s="67"/>
       <c r="H284" s="68"/>
@@ -31181,10 +31159,10 @@
       <c r="C285" s="134"/>
       <c r="D285" s="134"/>
       <c r="E285" s="140" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F285" s="137" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G285" s="67"/>
       <c r="H285" s="68"/>
@@ -31219,7 +31197,7 @@
         <v>130</v>
       </c>
       <c r="F286" s="137" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G286" s="67"/>
       <c r="H286" s="68"/>
@@ -31250,13 +31228,13 @@
       <c r="B287" s="134"/>
       <c r="C287" s="143"/>
       <c r="D287" s="134" t="s">
+        <v>446</v>
+      </c>
+      <c r="E287" s="139" t="s">
         <v>447</v>
       </c>
-      <c r="E287" s="139" t="s">
+      <c r="F287" s="137" t="s">
         <v>448</v>
-      </c>
-      <c r="F287" s="137" t="s">
-        <v>449</v>
       </c>
       <c r="G287" s="67"/>
       <c r="H287" s="68"/>
@@ -31289,7 +31267,7 @@
       <c r="D288" s="139"/>
       <c r="E288" s="139"/>
       <c r="F288" s="137" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G288" s="67"/>
       <c r="H288" s="68"/>
@@ -31322,7 +31300,7 @@
       <c r="D289" s="139"/>
       <c r="E289" s="139"/>
       <c r="F289" s="137" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G289" s="67"/>
       <c r="H289" s="68"/>
@@ -31355,7 +31333,7 @@
       <c r="D290" s="139"/>
       <c r="E290" s="139"/>
       <c r="F290" s="137" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G290" s="67"/>
       <c r="H290" s="68"/>
@@ -31388,7 +31366,7 @@
       <c r="D291" s="139"/>
       <c r="E291" s="139"/>
       <c r="F291" s="137" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G291" s="67"/>
       <c r="H291" s="68"/>
@@ -31421,7 +31399,7 @@
       <c r="D292" s="139"/>
       <c r="E292" s="139"/>
       <c r="F292" s="137" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G292" s="67"/>
       <c r="H292" s="68"/>
@@ -31454,7 +31432,7 @@
       <c r="D293" s="139"/>
       <c r="E293" s="139"/>
       <c r="F293" s="137" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G293" s="67"/>
       <c r="H293" s="68"/>
@@ -31487,7 +31465,7 @@
       <c r="D294" s="139"/>
       <c r="E294" s="139"/>
       <c r="F294" s="137" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G294" s="67"/>
       <c r="H294" s="68"/>
@@ -31520,7 +31498,7 @@
       <c r="D295" s="147"/>
       <c r="E295" s="147"/>
       <c r="F295" s="137" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G295" s="67"/>
       <c r="H295" s="68"/>
@@ -31549,7 +31527,7 @@
         <v>1-1-1</v>
       </c>
       <c r="B296" s="106" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C296" s="106" t="s">
         <v>223</v>
@@ -31558,10 +31536,10 @@
         <v>55</v>
       </c>
       <c r="E296" s="109" t="s">
+        <v>455</v>
+      </c>
+      <c r="F296" s="67" t="s">
         <v>456</v>
-      </c>
-      <c r="F296" s="67" t="s">
-        <v>457</v>
       </c>
       <c r="G296" s="67"/>
       <c r="H296" s="30"/>
@@ -31594,7 +31572,7 @@
       <c r="D297" s="110"/>
       <c r="E297" s="110"/>
       <c r="F297" s="67" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G297" s="67"/>
       <c r="H297" s="30"/>
@@ -31627,7 +31605,7 @@
       <c r="D298" s="110"/>
       <c r="E298" s="110"/>
       <c r="F298" s="67" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G298" s="67"/>
       <c r="H298" s="30"/>
@@ -31660,7 +31638,7 @@
       <c r="D299" s="110"/>
       <c r="E299" s="111"/>
       <c r="F299" s="67" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G299" s="67"/>
       <c r="H299" s="30"/>
@@ -31692,10 +31670,10 @@
       <c r="C300" s="107"/>
       <c r="D300" s="110"/>
       <c r="E300" s="67" t="s">
+        <v>460</v>
+      </c>
+      <c r="F300" s="67" t="s">
         <v>461</v>
-      </c>
-      <c r="F300" s="67" t="s">
-        <v>462</v>
       </c>
       <c r="G300" s="67"/>
       <c r="H300" s="30"/>
@@ -31727,10 +31705,10 @@
       <c r="C301" s="107"/>
       <c r="D301" s="110"/>
       <c r="E301" s="67" t="s">
+        <v>462</v>
+      </c>
+      <c r="F301" s="67" t="s">
         <v>463</v>
-      </c>
-      <c r="F301" s="67" t="s">
-        <v>464</v>
       </c>
       <c r="G301" s="67"/>
       <c r="H301" s="30"/>
@@ -31762,13 +31740,13 @@
       <c r="C302" s="107"/>
       <c r="D302" s="110"/>
       <c r="E302" s="115" t="s">
+        <v>464</v>
+      </c>
+      <c r="F302" s="115" t="s">
         <v>465</v>
       </c>
-      <c r="F302" s="115" t="s">
-        <v>466</v>
-      </c>
       <c r="G302" s="115" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H302" s="169"/>
       <c r="I302" s="169"/>
@@ -31799,13 +31777,13 @@
       <c r="C303" s="107"/>
       <c r="D303" s="111"/>
       <c r="E303" s="115" t="s">
+        <v>466</v>
+      </c>
+      <c r="F303" s="115" t="s">
         <v>467</v>
       </c>
-      <c r="F303" s="115" t="s">
-        <v>468</v>
-      </c>
       <c r="G303" s="115" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H303" s="169"/>
       <c r="I303" s="169"/>
@@ -31835,13 +31813,13 @@
       <c r="B304" s="107"/>
       <c r="C304" s="107"/>
       <c r="D304" s="109" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E304" s="109" t="s">
         <v>55</v>
       </c>
       <c r="F304" s="67" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G304" s="67"/>
       <c r="H304" s="30"/>
@@ -31874,7 +31852,7 @@
       <c r="D305" s="110"/>
       <c r="E305" s="110"/>
       <c r="F305" s="67" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G305" s="67"/>
       <c r="H305" s="30"/>
@@ -31907,7 +31885,7 @@
       <c r="D306" s="111"/>
       <c r="E306" s="111"/>
       <c r="F306" s="67" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G306" s="67"/>
       <c r="H306" s="30"/>
@@ -31938,13 +31916,13 @@
       <c r="B307" s="107"/>
       <c r="C307" s="107"/>
       <c r="D307" s="109" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E307" s="109" t="s">
         <v>55</v>
       </c>
       <c r="F307" s="67" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G307" s="67"/>
       <c r="H307" s="30"/>
@@ -31977,7 +31955,7 @@
       <c r="D308" s="110"/>
       <c r="E308" s="110"/>
       <c r="F308" s="67" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G308" s="67"/>
       <c r="H308" s="30"/>
@@ -32010,7 +31988,7 @@
       <c r="D309" s="111"/>
       <c r="E309" s="111"/>
       <c r="F309" s="67" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G309" s="67"/>
       <c r="H309" s="30"/>
@@ -32047,7 +32025,7 @@
         <v>55</v>
       </c>
       <c r="F310" s="67" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G310" s="67"/>
       <c r="H310" s="30"/>
@@ -32080,7 +32058,7 @@
       <c r="D311" s="110"/>
       <c r="E311" s="110"/>
       <c r="F311" s="67" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G311" s="67"/>
       <c r="H311" s="30"/>
@@ -32113,7 +32091,7 @@
       <c r="D312" s="110"/>
       <c r="E312" s="110"/>
       <c r="F312" s="67" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G312" s="67"/>
       <c r="H312" s="30"/>
@@ -32146,7 +32124,7 @@
       <c r="D313" s="110"/>
       <c r="E313" s="110"/>
       <c r="F313" s="67" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G313" s="67"/>
       <c r="H313" s="30"/>
@@ -32179,7 +32157,7 @@
       <c r="D314" s="110"/>
       <c r="E314" s="110"/>
       <c r="F314" s="67" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G314" s="67"/>
       <c r="H314" s="30"/>
@@ -32212,7 +32190,7 @@
       <c r="D315" s="110"/>
       <c r="E315" s="110"/>
       <c r="F315" s="67" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G315" s="67"/>
       <c r="H315" s="30"/>
@@ -32245,7 +32223,7 @@
       <c r="D316" s="110"/>
       <c r="E316" s="110"/>
       <c r="F316" s="67" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G316" s="67"/>
       <c r="H316" s="30"/>
@@ -32278,7 +32256,7 @@
       <c r="D317" s="111"/>
       <c r="E317" s="111"/>
       <c r="F317" s="67" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G317" s="67"/>
       <c r="H317" s="30"/>
@@ -32307,7 +32285,7 @@
         <v>9-1-1</v>
       </c>
       <c r="B318" s="68" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C318" s="68" t="s">
         <v>120</v>
@@ -32319,7 +32297,7 @@
         <v>55</v>
       </c>
       <c r="F318" s="67" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G318" s="67"/>
       <c r="H318" s="30"/>
@@ -32348,7 +32326,7 @@
         <v>10-1-1</v>
       </c>
       <c r="B319" s="68" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C319" s="68" t="s">
         <v>120</v>
@@ -32360,7 +32338,7 @@
         <v>55</v>
       </c>
       <c r="F319" s="67" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G319" s="67"/>
       <c r="H319" s="30"/>
@@ -32429,7 +32407,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -32439,7 +32417,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -32590,20 +32568,20 @@
     </row>
     <row r="13" spans="1:15" s="29" customFormat="1" ht="33.75">
       <c r="A13" s="176" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B13" s="174"/>
       <c r="C13" s="170" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D13" s="172" t="s">
+        <v>528</v>
+      </c>
+      <c r="E13" s="76" t="s">
         <v>529</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="F13" s="76" t="s">
         <v>530</v>
-      </c>
-      <c r="F13" s="76" t="s">
-        <v>531</v>
       </c>
       <c r="G13" s="76"/>
       <c r="H13" s="76"/>
@@ -32617,18 +32595,18 @@
     </row>
     <row r="14" spans="1:15" s="29" customFormat="1" ht="56.25">
       <c r="A14" s="176" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B14" s="175"/>
       <c r="C14" s="173"/>
       <c r="D14" s="172" t="s">
+        <v>531</v>
+      </c>
+      <c r="E14" s="76" t="s">
         <v>532</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="F14" s="76" t="s">
         <v>533</v>
-      </c>
-      <c r="F14" s="76" t="s">
-        <v>534</v>
       </c>
       <c r="G14" s="76"/>
       <c r="H14" s="76"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(バッチ)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(バッチ)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2B9C0B-D825-47B6-A530-7940D100BF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7D2A62-3788-40FF-AE28-5A6AF96A09ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="537">
   <si>
     <t>正常取引</t>
     <rPh sb="0" eb="2">
@@ -8065,8 +8065,98 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -8167,101 +8257,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -9200,12 +9200,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="182" t="str">
+      <c r="I25" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="182"/>
-      <c r="K25" s="182"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1">
       <c r="F26" s="3"/>
@@ -9765,57 +9765,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="189" t="s">
+      <c r="B1" s="218"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="219" t="s">
         <v>524</v>
       </c>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="198" t="s">
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="221"/>
+      <c r="O1" s="228" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="200"/>
-      <c r="S1" s="207" t="s">
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="230"/>
+      <c r="S1" s="237" t="s">
         <v>523</v>
       </c>
-      <c r="T1" s="208"/>
-      <c r="U1" s="208"/>
-      <c r="V1" s="208"/>
-      <c r="W1" s="208"/>
-      <c r="X1" s="208"/>
-      <c r="Y1" s="208"/>
-      <c r="Z1" s="209"/>
-      <c r="AA1" s="183" t="s">
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="185" t="str">
+      <c r="AB1" s="214"/>
+      <c r="AC1" s="215" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="186"/>
-      <c r="AE1" s="186"/>
-      <c r="AF1" s="187"/>
-      <c r="AG1" s="192" t="str">
+      <c r="AD1" s="216"/>
+      <c r="AE1" s="216"/>
+      <c r="AF1" s="217"/>
+      <c r="AG1" s="222" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="193"/>
-      <c r="AI1" s="194"/>
+      <c r="AH1" s="223"/>
+      <c r="AI1" s="224"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -9823,53 +9823,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="189" t="s">
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="219" t="s">
         <v>525</v>
       </c>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="201"/>
-      <c r="P2" s="202"/>
-      <c r="Q2" s="202"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="210"/>
-      <c r="T2" s="211"/>
-      <c r="U2" s="211"/>
-      <c r="V2" s="211"/>
-      <c r="W2" s="211"/>
-      <c r="X2" s="211"/>
-      <c r="Y2" s="211"/>
-      <c r="Z2" s="212"/>
-      <c r="AA2" s="183" t="s">
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="221"/>
+      <c r="O2" s="231"/>
+      <c r="P2" s="232"/>
+      <c r="Q2" s="232"/>
+      <c r="R2" s="233"/>
+      <c r="S2" s="240"/>
+      <c r="T2" s="241"/>
+      <c r="U2" s="241"/>
+      <c r="V2" s="241"/>
+      <c r="W2" s="241"/>
+      <c r="X2" s="241"/>
+      <c r="Y2" s="241"/>
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="184"/>
-      <c r="AC2" s="195" t="str">
+      <c r="AB2" s="214"/>
+      <c r="AC2" s="225" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="192" t="str">
+      <c r="AD2" s="226"/>
+      <c r="AE2" s="226"/>
+      <c r="AF2" s="227"/>
+      <c r="AG2" s="222" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="193"/>
-      <c r="AI2" s="194"/>
+      <c r="AH2" s="223"/>
+      <c r="AI2" s="224"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -9877,45 +9877,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="189" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="219" t="s">
         <v>527</v>
       </c>
-      <c r="F3" s="190"/>
-      <c r="G3" s="190"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="205"/>
-      <c r="Q3" s="205"/>
-      <c r="R3" s="206"/>
-      <c r="S3" s="213"/>
-      <c r="T3" s="214"/>
-      <c r="U3" s="214"/>
-      <c r="V3" s="214"/>
-      <c r="W3" s="214"/>
-      <c r="X3" s="214"/>
-      <c r="Y3" s="214"/>
-      <c r="Z3" s="215"/>
-      <c r="AA3" s="183"/>
-      <c r="AB3" s="184"/>
-      <c r="AC3" s="185"/>
-      <c r="AD3" s="186"/>
-      <c r="AE3" s="186"/>
-      <c r="AF3" s="187"/>
-      <c r="AG3" s="192"/>
-      <c r="AH3" s="193"/>
-      <c r="AI3" s="194"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="221"/>
+      <c r="O3" s="234"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="235"/>
+      <c r="R3" s="236"/>
+      <c r="S3" s="243"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="245"/>
+      <c r="AA3" s="213"/>
+      <c r="AB3" s="214"/>
+      <c r="AC3" s="215"/>
+      <c r="AD3" s="216"/>
+      <c r="AE3" s="216"/>
+      <c r="AF3" s="217"/>
+      <c r="AG3" s="222"/>
+      <c r="AH3" s="223"/>
+      <c r="AI3" s="224"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -9952,1020 +9952,1181 @@
       <c r="A7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="217"/>
-      <c r="D7" s="216" t="s">
+      <c r="C7" s="198"/>
+      <c r="D7" s="197" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="218"/>
-      <c r="F7" s="217"/>
-      <c r="G7" s="216" t="s">
+      <c r="E7" s="199"/>
+      <c r="F7" s="198"/>
+      <c r="G7" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="218"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="216" t="s">
+      <c r="H7" s="199"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="197" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="217"/>
-      <c r="Q7" s="216" t="s">
+      <c r="K7" s="199"/>
+      <c r="L7" s="199"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="199"/>
+      <c r="O7" s="199"/>
+      <c r="P7" s="198"/>
+      <c r="Q7" s="197" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="218"/>
-      <c r="S7" s="218"/>
-      <c r="T7" s="218"/>
-      <c r="U7" s="218"/>
-      <c r="V7" s="218"/>
-      <c r="W7" s="218"/>
-      <c r="X7" s="218"/>
-      <c r="Y7" s="218"/>
-      <c r="Z7" s="218"/>
-      <c r="AA7" s="218"/>
-      <c r="AB7" s="218"/>
-      <c r="AC7" s="218"/>
-      <c r="AD7" s="218"/>
-      <c r="AE7" s="217"/>
-      <c r="AF7" s="216" t="s">
+      <c r="R7" s="199"/>
+      <c r="S7" s="199"/>
+      <c r="T7" s="199"/>
+      <c r="U7" s="199"/>
+      <c r="V7" s="199"/>
+      <c r="W7" s="199"/>
+      <c r="X7" s="199"/>
+      <c r="Y7" s="199"/>
+      <c r="Z7" s="199"/>
+      <c r="AA7" s="199"/>
+      <c r="AB7" s="199"/>
+      <c r="AC7" s="199"/>
+      <c r="AD7" s="199"/>
+      <c r="AE7" s="198"/>
+      <c r="AF7" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="AG7" s="218"/>
-      <c r="AH7" s="218"/>
-      <c r="AI7" s="217"/>
+      <c r="AG7" s="199"/>
+      <c r="AH7" s="199"/>
+      <c r="AI7" s="198"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="219"/>
-      <c r="C8" s="220"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="222"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="225"/>
-      <c r="I8" s="220"/>
-      <c r="J8" s="226"/>
-      <c r="K8" s="227"/>
-      <c r="L8" s="227"/>
-      <c r="M8" s="227"/>
-      <c r="N8" s="227"/>
-      <c r="O8" s="227"/>
-      <c r="P8" s="228"/>
-      <c r="Q8" s="229"/>
-      <c r="R8" s="230"/>
-      <c r="S8" s="230"/>
-      <c r="T8" s="230"/>
-      <c r="U8" s="230"/>
-      <c r="V8" s="230"/>
-      <c r="W8" s="230"/>
-      <c r="X8" s="230"/>
-      <c r="Y8" s="230"/>
-      <c r="Z8" s="230"/>
-      <c r="AA8" s="230"/>
-      <c r="AB8" s="230"/>
-      <c r="AC8" s="230"/>
-      <c r="AD8" s="230"/>
-      <c r="AE8" s="231"/>
-      <c r="AF8" s="226"/>
-      <c r="AG8" s="227"/>
-      <c r="AH8" s="227"/>
-      <c r="AI8" s="228"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="206"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="207"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="208"/>
+      <c r="N8" s="208"/>
+      <c r="O8" s="208"/>
+      <c r="P8" s="209"/>
+      <c r="Q8" s="210"/>
+      <c r="R8" s="211"/>
+      <c r="S8" s="211"/>
+      <c r="T8" s="211"/>
+      <c r="U8" s="211"/>
+      <c r="V8" s="211"/>
+      <c r="W8" s="211"/>
+      <c r="X8" s="211"/>
+      <c r="Y8" s="211"/>
+      <c r="Z8" s="211"/>
+      <c r="AA8" s="211"/>
+      <c r="AB8" s="211"/>
+      <c r="AC8" s="211"/>
+      <c r="AD8" s="211"/>
+      <c r="AE8" s="212"/>
+      <c r="AF8" s="207"/>
+      <c r="AG8" s="208"/>
+      <c r="AH8" s="208"/>
+      <c r="AI8" s="209"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="232"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="235"/>
-      <c r="F9" s="236"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="237"/>
-      <c r="I9" s="233"/>
-      <c r="J9" s="238"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="239"/>
-      <c r="M9" s="239"/>
-      <c r="N9" s="239"/>
-      <c r="O9" s="239"/>
-      <c r="P9" s="240"/>
-      <c r="Q9" s="241"/>
-      <c r="R9" s="242"/>
-      <c r="S9" s="242"/>
-      <c r="T9" s="242"/>
-      <c r="U9" s="242"/>
-      <c r="V9" s="242"/>
-      <c r="W9" s="242"/>
-      <c r="X9" s="242"/>
-      <c r="Y9" s="242"/>
-      <c r="Z9" s="242"/>
-      <c r="AA9" s="242"/>
-      <c r="AB9" s="242"/>
-      <c r="AC9" s="242"/>
-      <c r="AD9" s="242"/>
-      <c r="AE9" s="243"/>
-      <c r="AF9" s="238"/>
-      <c r="AG9" s="239"/>
-      <c r="AH9" s="239"/>
-      <c r="AI9" s="240"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="191"/>
+      <c r="O9" s="191"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="193"/>
+      <c r="R9" s="194"/>
+      <c r="S9" s="194"/>
+      <c r="T9" s="194"/>
+      <c r="U9" s="194"/>
+      <c r="V9" s="194"/>
+      <c r="W9" s="194"/>
+      <c r="X9" s="194"/>
+      <c r="Y9" s="194"/>
+      <c r="Z9" s="194"/>
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="194"/>
+      <c r="AC9" s="194"/>
+      <c r="AD9" s="194"/>
+      <c r="AE9" s="195"/>
+      <c r="AF9" s="190"/>
+      <c r="AG9" s="191"/>
+      <c r="AH9" s="191"/>
+      <c r="AI9" s="192"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="232"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="234"/>
-      <c r="E10" s="235"/>
-      <c r="F10" s="236"/>
-      <c r="G10" s="232"/>
-      <c r="H10" s="237"/>
-      <c r="I10" s="233"/>
-      <c r="J10" s="238"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="239"/>
-      <c r="M10" s="239"/>
-      <c r="N10" s="239"/>
-      <c r="O10" s="239"/>
-      <c r="P10" s="240"/>
-      <c r="Q10" s="241"/>
-      <c r="R10" s="242"/>
-      <c r="S10" s="242"/>
-      <c r="T10" s="242"/>
-      <c r="U10" s="242"/>
-      <c r="V10" s="242"/>
-      <c r="W10" s="242"/>
-      <c r="X10" s="242"/>
-      <c r="Y10" s="242"/>
-      <c r="Z10" s="242"/>
-      <c r="AA10" s="242"/>
-      <c r="AB10" s="242"/>
-      <c r="AC10" s="242"/>
-      <c r="AD10" s="242"/>
-      <c r="AE10" s="243"/>
-      <c r="AF10" s="238"/>
-      <c r="AG10" s="239"/>
-      <c r="AH10" s="239"/>
-      <c r="AI10" s="240"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="191"/>
+      <c r="P10" s="192"/>
+      <c r="Q10" s="193"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="194"/>
+      <c r="T10" s="194"/>
+      <c r="U10" s="194"/>
+      <c r="V10" s="194"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="194"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="194"/>
+      <c r="AD10" s="194"/>
+      <c r="AE10" s="195"/>
+      <c r="AF10" s="190"/>
+      <c r="AG10" s="191"/>
+      <c r="AH10" s="191"/>
+      <c r="AI10" s="192"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="232"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="234"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="236"/>
-      <c r="G11" s="232"/>
-      <c r="H11" s="237"/>
-      <c r="I11" s="233"/>
-      <c r="J11" s="238"/>
-      <c r="K11" s="239"/>
-      <c r="L11" s="239"/>
-      <c r="M11" s="239"/>
-      <c r="N11" s="239"/>
-      <c r="O11" s="239"/>
-      <c r="P11" s="240"/>
-      <c r="Q11" s="241"/>
-      <c r="R11" s="242"/>
-      <c r="S11" s="242"/>
-      <c r="T11" s="242"/>
-      <c r="U11" s="242"/>
-      <c r="V11" s="242"/>
-      <c r="W11" s="242"/>
-      <c r="X11" s="242"/>
-      <c r="Y11" s="242"/>
-      <c r="Z11" s="242"/>
-      <c r="AA11" s="242"/>
-      <c r="AB11" s="242"/>
-      <c r="AC11" s="242"/>
-      <c r="AD11" s="242"/>
-      <c r="AE11" s="243"/>
-      <c r="AF11" s="238"/>
-      <c r="AG11" s="239"/>
-      <c r="AH11" s="239"/>
-      <c r="AI11" s="240"/>
+      <c r="B11" s="184"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="191"/>
+      <c r="O11" s="191"/>
+      <c r="P11" s="192"/>
+      <c r="Q11" s="193"/>
+      <c r="R11" s="194"/>
+      <c r="S11" s="194"/>
+      <c r="T11" s="194"/>
+      <c r="U11" s="194"/>
+      <c r="V11" s="194"/>
+      <c r="W11" s="194"/>
+      <c r="X11" s="194"/>
+      <c r="Y11" s="194"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="194"/>
+      <c r="AD11" s="194"/>
+      <c r="AE11" s="195"/>
+      <c r="AF11" s="190"/>
+      <c r="AG11" s="191"/>
+      <c r="AH11" s="191"/>
+      <c r="AI11" s="192"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="232"/>
-      <c r="C12" s="233"/>
-      <c r="D12" s="234"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="236"/>
-      <c r="G12" s="232"/>
-      <c r="H12" s="237"/>
-      <c r="I12" s="233"/>
-      <c r="J12" s="238"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="239"/>
-      <c r="M12" s="239"/>
-      <c r="N12" s="239"/>
-      <c r="O12" s="239"/>
-      <c r="P12" s="240"/>
-      <c r="Q12" s="241"/>
-      <c r="R12" s="242"/>
-      <c r="S12" s="242"/>
-      <c r="T12" s="242"/>
-      <c r="U12" s="242"/>
-      <c r="V12" s="242"/>
-      <c r="W12" s="242"/>
-      <c r="X12" s="242"/>
-      <c r="Y12" s="242"/>
-      <c r="Z12" s="242"/>
-      <c r="AA12" s="242"/>
-      <c r="AB12" s="242"/>
-      <c r="AC12" s="242"/>
-      <c r="AD12" s="242"/>
-      <c r="AE12" s="243"/>
-      <c r="AF12" s="238"/>
-      <c r="AG12" s="239"/>
-      <c r="AH12" s="239"/>
-      <c r="AI12" s="240"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="191"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="192"/>
+      <c r="Q12" s="193"/>
+      <c r="R12" s="194"/>
+      <c r="S12" s="194"/>
+      <c r="T12" s="194"/>
+      <c r="U12" s="194"/>
+      <c r="V12" s="194"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="194"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="195"/>
+      <c r="AF12" s="190"/>
+      <c r="AG12" s="191"/>
+      <c r="AH12" s="191"/>
+      <c r="AI12" s="192"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="232"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="234"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="236"/>
-      <c r="G13" s="232"/>
-      <c r="H13" s="237"/>
-      <c r="I13" s="233"/>
-      <c r="J13" s="238"/>
-      <c r="K13" s="239"/>
-      <c r="L13" s="239"/>
-      <c r="M13" s="239"/>
-      <c r="N13" s="239"/>
-      <c r="O13" s="239"/>
-      <c r="P13" s="240"/>
-      <c r="Q13" s="241"/>
-      <c r="R13" s="242"/>
-      <c r="S13" s="242"/>
-      <c r="T13" s="242"/>
-      <c r="U13" s="242"/>
-      <c r="V13" s="242"/>
-      <c r="W13" s="242"/>
-      <c r="X13" s="242"/>
-      <c r="Y13" s="242"/>
-      <c r="Z13" s="242"/>
-      <c r="AA13" s="242"/>
-      <c r="AB13" s="242"/>
-      <c r="AC13" s="242"/>
-      <c r="AD13" s="242"/>
-      <c r="AE13" s="243"/>
-      <c r="AF13" s="238"/>
-      <c r="AG13" s="239"/>
-      <c r="AH13" s="239"/>
-      <c r="AI13" s="240"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="185"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="191"/>
+      <c r="N13" s="191"/>
+      <c r="O13" s="191"/>
+      <c r="P13" s="192"/>
+      <c r="Q13" s="193"/>
+      <c r="R13" s="194"/>
+      <c r="S13" s="194"/>
+      <c r="T13" s="194"/>
+      <c r="U13" s="194"/>
+      <c r="V13" s="194"/>
+      <c r="W13" s="194"/>
+      <c r="X13" s="194"/>
+      <c r="Y13" s="194"/>
+      <c r="Z13" s="194"/>
+      <c r="AA13" s="194"/>
+      <c r="AB13" s="194"/>
+      <c r="AC13" s="194"/>
+      <c r="AD13" s="194"/>
+      <c r="AE13" s="195"/>
+      <c r="AF13" s="190"/>
+      <c r="AG13" s="191"/>
+      <c r="AH13" s="191"/>
+      <c r="AI13" s="192"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="232"/>
-      <c r="C14" s="233"/>
-      <c r="D14" s="234"/>
-      <c r="E14" s="235"/>
-      <c r="F14" s="236"/>
-      <c r="G14" s="232"/>
-      <c r="H14" s="237"/>
-      <c r="I14" s="233"/>
-      <c r="J14" s="238"/>
-      <c r="K14" s="239"/>
-      <c r="L14" s="239"/>
-      <c r="M14" s="239"/>
-      <c r="N14" s="239"/>
-      <c r="O14" s="239"/>
-      <c r="P14" s="240"/>
-      <c r="Q14" s="241"/>
-      <c r="R14" s="242"/>
-      <c r="S14" s="242"/>
-      <c r="T14" s="242"/>
-      <c r="U14" s="242"/>
-      <c r="V14" s="242"/>
-      <c r="W14" s="242"/>
-      <c r="X14" s="242"/>
-      <c r="Y14" s="242"/>
-      <c r="Z14" s="242"/>
-      <c r="AA14" s="242"/>
-      <c r="AB14" s="242"/>
-      <c r="AC14" s="242"/>
-      <c r="AD14" s="242"/>
-      <c r="AE14" s="243"/>
-      <c r="AF14" s="238"/>
-      <c r="AG14" s="239"/>
-      <c r="AH14" s="239"/>
-      <c r="AI14" s="240"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="191"/>
+      <c r="M14" s="191"/>
+      <c r="N14" s="191"/>
+      <c r="O14" s="191"/>
+      <c r="P14" s="192"/>
+      <c r="Q14" s="193"/>
+      <c r="R14" s="194"/>
+      <c r="S14" s="194"/>
+      <c r="T14" s="194"/>
+      <c r="U14" s="194"/>
+      <c r="V14" s="194"/>
+      <c r="W14" s="194"/>
+      <c r="X14" s="194"/>
+      <c r="Y14" s="194"/>
+      <c r="Z14" s="194"/>
+      <c r="AA14" s="194"/>
+      <c r="AB14" s="194"/>
+      <c r="AC14" s="194"/>
+      <c r="AD14" s="194"/>
+      <c r="AE14" s="195"/>
+      <c r="AF14" s="190"/>
+      <c r="AG14" s="191"/>
+      <c r="AH14" s="191"/>
+      <c r="AI14" s="192"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="232"/>
-      <c r="C15" s="233"/>
-      <c r="D15" s="234"/>
-      <c r="E15" s="235"/>
-      <c r="F15" s="236"/>
-      <c r="G15" s="232"/>
-      <c r="H15" s="237"/>
-      <c r="I15" s="233"/>
-      <c r="J15" s="238"/>
-      <c r="K15" s="239"/>
-      <c r="L15" s="239"/>
-      <c r="M15" s="239"/>
-      <c r="N15" s="239"/>
-      <c r="O15" s="239"/>
-      <c r="P15" s="240"/>
-      <c r="Q15" s="241"/>
-      <c r="R15" s="242"/>
-      <c r="S15" s="242"/>
-      <c r="T15" s="242"/>
-      <c r="U15" s="242"/>
-      <c r="V15" s="242"/>
-      <c r="W15" s="242"/>
-      <c r="X15" s="242"/>
-      <c r="Y15" s="242"/>
-      <c r="Z15" s="242"/>
-      <c r="AA15" s="242"/>
-      <c r="AB15" s="242"/>
-      <c r="AC15" s="242"/>
-      <c r="AD15" s="242"/>
-      <c r="AE15" s="243"/>
-      <c r="AF15" s="238"/>
-      <c r="AG15" s="239"/>
-      <c r="AH15" s="239"/>
-      <c r="AI15" s="240"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="191"/>
+      <c r="M15" s="191"/>
+      <c r="N15" s="191"/>
+      <c r="O15" s="191"/>
+      <c r="P15" s="192"/>
+      <c r="Q15" s="193"/>
+      <c r="R15" s="194"/>
+      <c r="S15" s="194"/>
+      <c r="T15" s="194"/>
+      <c r="U15" s="194"/>
+      <c r="V15" s="194"/>
+      <c r="W15" s="194"/>
+      <c r="X15" s="194"/>
+      <c r="Y15" s="194"/>
+      <c r="Z15" s="194"/>
+      <c r="AA15" s="194"/>
+      <c r="AB15" s="194"/>
+      <c r="AC15" s="194"/>
+      <c r="AD15" s="194"/>
+      <c r="AE15" s="195"/>
+      <c r="AF15" s="190"/>
+      <c r="AG15" s="191"/>
+      <c r="AH15" s="191"/>
+      <c r="AI15" s="192"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="232"/>
-      <c r="C16" s="233"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="235"/>
-      <c r="F16" s="236"/>
-      <c r="G16" s="232"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="238"/>
-      <c r="K16" s="239"/>
-      <c r="L16" s="239"/>
-      <c r="M16" s="239"/>
-      <c r="N16" s="239"/>
-      <c r="O16" s="239"/>
-      <c r="P16" s="240"/>
-      <c r="Q16" s="241"/>
-      <c r="R16" s="242"/>
-      <c r="S16" s="242"/>
-      <c r="T16" s="242"/>
-      <c r="U16" s="242"/>
-      <c r="V16" s="242"/>
-      <c r="W16" s="242"/>
-      <c r="X16" s="242"/>
-      <c r="Y16" s="242"/>
-      <c r="Z16" s="242"/>
-      <c r="AA16" s="242"/>
-      <c r="AB16" s="242"/>
-      <c r="AC16" s="242"/>
-      <c r="AD16" s="242"/>
-      <c r="AE16" s="243"/>
-      <c r="AF16" s="238"/>
-      <c r="AG16" s="239"/>
-      <c r="AH16" s="239"/>
-      <c r="AI16" s="240"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="185"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="185"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="191"/>
+      <c r="M16" s="191"/>
+      <c r="N16" s="191"/>
+      <c r="O16" s="191"/>
+      <c r="P16" s="192"/>
+      <c r="Q16" s="193"/>
+      <c r="R16" s="194"/>
+      <c r="S16" s="194"/>
+      <c r="T16" s="194"/>
+      <c r="U16" s="194"/>
+      <c r="V16" s="194"/>
+      <c r="W16" s="194"/>
+      <c r="X16" s="194"/>
+      <c r="Y16" s="194"/>
+      <c r="Z16" s="194"/>
+      <c r="AA16" s="194"/>
+      <c r="AB16" s="194"/>
+      <c r="AC16" s="194"/>
+      <c r="AD16" s="194"/>
+      <c r="AE16" s="195"/>
+      <c r="AF16" s="190"/>
+      <c r="AG16" s="191"/>
+      <c r="AH16" s="191"/>
+      <c r="AI16" s="192"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="232"/>
-      <c r="C17" s="233"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="235"/>
-      <c r="F17" s="236"/>
-      <c r="G17" s="232"/>
-      <c r="H17" s="237"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="238"/>
-      <c r="K17" s="239"/>
-      <c r="L17" s="239"/>
-      <c r="M17" s="239"/>
-      <c r="N17" s="239"/>
-      <c r="O17" s="239"/>
-      <c r="P17" s="240"/>
-      <c r="Q17" s="241"/>
-      <c r="R17" s="242"/>
-      <c r="S17" s="242"/>
-      <c r="T17" s="242"/>
-      <c r="U17" s="242"/>
-      <c r="V17" s="242"/>
-      <c r="W17" s="242"/>
-      <c r="X17" s="242"/>
-      <c r="Y17" s="242"/>
-      <c r="Z17" s="242"/>
-      <c r="AA17" s="242"/>
-      <c r="AB17" s="242"/>
-      <c r="AC17" s="242"/>
-      <c r="AD17" s="242"/>
-      <c r="AE17" s="243"/>
-      <c r="AF17" s="238"/>
-      <c r="AG17" s="239"/>
-      <c r="AH17" s="239"/>
-      <c r="AI17" s="240"/>
+      <c r="B17" s="184"/>
+      <c r="C17" s="185"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="191"/>
+      <c r="M17" s="191"/>
+      <c r="N17" s="191"/>
+      <c r="O17" s="191"/>
+      <c r="P17" s="192"/>
+      <c r="Q17" s="193"/>
+      <c r="R17" s="194"/>
+      <c r="S17" s="194"/>
+      <c r="T17" s="194"/>
+      <c r="U17" s="194"/>
+      <c r="V17" s="194"/>
+      <c r="W17" s="194"/>
+      <c r="X17" s="194"/>
+      <c r="Y17" s="194"/>
+      <c r="Z17" s="194"/>
+      <c r="AA17" s="194"/>
+      <c r="AB17" s="194"/>
+      <c r="AC17" s="194"/>
+      <c r="AD17" s="194"/>
+      <c r="AE17" s="195"/>
+      <c r="AF17" s="190"/>
+      <c r="AG17" s="191"/>
+      <c r="AH17" s="191"/>
+      <c r="AI17" s="192"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="232"/>
-      <c r="C18" s="233"/>
-      <c r="D18" s="234"/>
-      <c r="E18" s="235"/>
-      <c r="F18" s="236"/>
-      <c r="G18" s="232"/>
-      <c r="H18" s="237"/>
-      <c r="I18" s="233"/>
-      <c r="J18" s="238"/>
-      <c r="K18" s="239"/>
-      <c r="L18" s="239"/>
-      <c r="M18" s="239"/>
-      <c r="N18" s="239"/>
-      <c r="O18" s="239"/>
-      <c r="P18" s="240"/>
-      <c r="Q18" s="241"/>
-      <c r="R18" s="242"/>
-      <c r="S18" s="242"/>
-      <c r="T18" s="242"/>
-      <c r="U18" s="242"/>
-      <c r="V18" s="242"/>
-      <c r="W18" s="242"/>
-      <c r="X18" s="242"/>
-      <c r="Y18" s="242"/>
-      <c r="Z18" s="242"/>
-      <c r="AA18" s="242"/>
-      <c r="AB18" s="242"/>
-      <c r="AC18" s="242"/>
-      <c r="AD18" s="242"/>
-      <c r="AE18" s="243"/>
-      <c r="AF18" s="238"/>
-      <c r="AG18" s="239"/>
-      <c r="AH18" s="239"/>
-      <c r="AI18" s="240"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="185"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="188"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="190"/>
+      <c r="K18" s="191"/>
+      <c r="L18" s="191"/>
+      <c r="M18" s="191"/>
+      <c r="N18" s="191"/>
+      <c r="O18" s="191"/>
+      <c r="P18" s="192"/>
+      <c r="Q18" s="193"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="194"/>
+      <c r="T18" s="194"/>
+      <c r="U18" s="194"/>
+      <c r="V18" s="194"/>
+      <c r="W18" s="194"/>
+      <c r="X18" s="194"/>
+      <c r="Y18" s="194"/>
+      <c r="Z18" s="194"/>
+      <c r="AA18" s="194"/>
+      <c r="AB18" s="194"/>
+      <c r="AC18" s="194"/>
+      <c r="AD18" s="194"/>
+      <c r="AE18" s="195"/>
+      <c r="AF18" s="190"/>
+      <c r="AG18" s="191"/>
+      <c r="AH18" s="191"/>
+      <c r="AI18" s="192"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="232"/>
-      <c r="C19" s="233"/>
-      <c r="D19" s="234"/>
-      <c r="E19" s="235"/>
-      <c r="F19" s="236"/>
-      <c r="G19" s="232"/>
-      <c r="H19" s="237"/>
-      <c r="I19" s="233"/>
-      <c r="J19" s="238"/>
-      <c r="K19" s="239"/>
-      <c r="L19" s="239"/>
-      <c r="M19" s="239"/>
-      <c r="N19" s="239"/>
-      <c r="O19" s="239"/>
-      <c r="P19" s="240"/>
-      <c r="Q19" s="241"/>
-      <c r="R19" s="242"/>
-      <c r="S19" s="242"/>
-      <c r="T19" s="242"/>
-      <c r="U19" s="242"/>
-      <c r="V19" s="242"/>
-      <c r="W19" s="242"/>
-      <c r="X19" s="242"/>
-      <c r="Y19" s="242"/>
-      <c r="Z19" s="242"/>
-      <c r="AA19" s="242"/>
-      <c r="AB19" s="242"/>
-      <c r="AC19" s="242"/>
-      <c r="AD19" s="242"/>
-      <c r="AE19" s="243"/>
-      <c r="AF19" s="238"/>
-      <c r="AG19" s="239"/>
-      <c r="AH19" s="239"/>
-      <c r="AI19" s="240"/>
+      <c r="B19" s="184"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="190"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="191"/>
+      <c r="M19" s="191"/>
+      <c r="N19" s="191"/>
+      <c r="O19" s="191"/>
+      <c r="P19" s="192"/>
+      <c r="Q19" s="193"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="194"/>
+      <c r="T19" s="194"/>
+      <c r="U19" s="194"/>
+      <c r="V19" s="194"/>
+      <c r="W19" s="194"/>
+      <c r="X19" s="194"/>
+      <c r="Y19" s="194"/>
+      <c r="Z19" s="194"/>
+      <c r="AA19" s="194"/>
+      <c r="AB19" s="194"/>
+      <c r="AC19" s="194"/>
+      <c r="AD19" s="194"/>
+      <c r="AE19" s="195"/>
+      <c r="AF19" s="190"/>
+      <c r="AG19" s="191"/>
+      <c r="AH19" s="191"/>
+      <c r="AI19" s="192"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="232"/>
-      <c r="C20" s="233"/>
-      <c r="D20" s="234"/>
-      <c r="E20" s="235"/>
-      <c r="F20" s="236"/>
-      <c r="G20" s="232"/>
-      <c r="H20" s="237"/>
-      <c r="I20" s="233"/>
-      <c r="J20" s="238"/>
-      <c r="K20" s="239"/>
-      <c r="L20" s="239"/>
-      <c r="M20" s="239"/>
-      <c r="N20" s="239"/>
-      <c r="O20" s="239"/>
-      <c r="P20" s="240"/>
-      <c r="Q20" s="241"/>
-      <c r="R20" s="242"/>
-      <c r="S20" s="242"/>
-      <c r="T20" s="242"/>
-      <c r="U20" s="242"/>
-      <c r="V20" s="242"/>
-      <c r="W20" s="242"/>
-      <c r="X20" s="242"/>
-      <c r="Y20" s="242"/>
-      <c r="Z20" s="242"/>
-      <c r="AA20" s="242"/>
-      <c r="AB20" s="242"/>
-      <c r="AC20" s="242"/>
-      <c r="AD20" s="242"/>
-      <c r="AE20" s="243"/>
-      <c r="AF20" s="238"/>
-      <c r="AG20" s="239"/>
-      <c r="AH20" s="239"/>
-      <c r="AI20" s="240"/>
+      <c r="B20" s="184"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="189"/>
+      <c r="I20" s="185"/>
+      <c r="J20" s="190"/>
+      <c r="K20" s="191"/>
+      <c r="L20" s="191"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="191"/>
+      <c r="P20" s="192"/>
+      <c r="Q20" s="193"/>
+      <c r="R20" s="194"/>
+      <c r="S20" s="194"/>
+      <c r="T20" s="194"/>
+      <c r="U20" s="194"/>
+      <c r="V20" s="194"/>
+      <c r="W20" s="194"/>
+      <c r="X20" s="194"/>
+      <c r="Y20" s="194"/>
+      <c r="Z20" s="194"/>
+      <c r="AA20" s="194"/>
+      <c r="AB20" s="194"/>
+      <c r="AC20" s="194"/>
+      <c r="AD20" s="194"/>
+      <c r="AE20" s="195"/>
+      <c r="AF20" s="190"/>
+      <c r="AG20" s="191"/>
+      <c r="AH20" s="191"/>
+      <c r="AI20" s="192"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="232"/>
-      <c r="C21" s="233"/>
-      <c r="D21" s="234"/>
-      <c r="E21" s="235"/>
-      <c r="F21" s="236"/>
-      <c r="G21" s="232"/>
-      <c r="H21" s="237"/>
-      <c r="I21" s="233"/>
-      <c r="J21" s="238"/>
-      <c r="K21" s="239"/>
-      <c r="L21" s="239"/>
-      <c r="M21" s="239"/>
-      <c r="N21" s="239"/>
-      <c r="O21" s="239"/>
-      <c r="P21" s="240"/>
-      <c r="Q21" s="241"/>
-      <c r="R21" s="242"/>
-      <c r="S21" s="242"/>
-      <c r="T21" s="242"/>
-      <c r="U21" s="242"/>
-      <c r="V21" s="242"/>
-      <c r="W21" s="242"/>
-      <c r="X21" s="242"/>
-      <c r="Y21" s="242"/>
-      <c r="Z21" s="242"/>
-      <c r="AA21" s="242"/>
-      <c r="AB21" s="242"/>
-      <c r="AC21" s="242"/>
-      <c r="AD21" s="242"/>
-      <c r="AE21" s="243"/>
-      <c r="AF21" s="238"/>
-      <c r="AG21" s="239"/>
-      <c r="AH21" s="239"/>
-      <c r="AI21" s="240"/>
+      <c r="B21" s="184"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="189"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="190"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="191"/>
+      <c r="N21" s="191"/>
+      <c r="O21" s="191"/>
+      <c r="P21" s="192"/>
+      <c r="Q21" s="193"/>
+      <c r="R21" s="194"/>
+      <c r="S21" s="194"/>
+      <c r="T21" s="194"/>
+      <c r="U21" s="194"/>
+      <c r="V21" s="194"/>
+      <c r="W21" s="194"/>
+      <c r="X21" s="194"/>
+      <c r="Y21" s="194"/>
+      <c r="Z21" s="194"/>
+      <c r="AA21" s="194"/>
+      <c r="AB21" s="194"/>
+      <c r="AC21" s="194"/>
+      <c r="AD21" s="194"/>
+      <c r="AE21" s="195"/>
+      <c r="AF21" s="190"/>
+      <c r="AG21" s="191"/>
+      <c r="AH21" s="191"/>
+      <c r="AI21" s="192"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="232"/>
-      <c r="C22" s="233"/>
-      <c r="D22" s="234"/>
-      <c r="E22" s="235"/>
-      <c r="F22" s="236"/>
-      <c r="G22" s="232"/>
-      <c r="H22" s="237"/>
-      <c r="I22" s="233"/>
-      <c r="J22" s="238"/>
-      <c r="K22" s="239"/>
-      <c r="L22" s="239"/>
-      <c r="M22" s="239"/>
-      <c r="N22" s="239"/>
-      <c r="O22" s="239"/>
-      <c r="P22" s="240"/>
-      <c r="Q22" s="241"/>
-      <c r="R22" s="242"/>
-      <c r="S22" s="242"/>
-      <c r="T22" s="242"/>
-      <c r="U22" s="242"/>
-      <c r="V22" s="242"/>
-      <c r="W22" s="242"/>
-      <c r="X22" s="242"/>
-      <c r="Y22" s="242"/>
-      <c r="Z22" s="242"/>
-      <c r="AA22" s="242"/>
-      <c r="AB22" s="242"/>
-      <c r="AC22" s="242"/>
-      <c r="AD22" s="242"/>
-      <c r="AE22" s="243"/>
-      <c r="AF22" s="238"/>
-      <c r="AG22" s="239"/>
-      <c r="AH22" s="239"/>
-      <c r="AI22" s="240"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="185"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="190"/>
+      <c r="K22" s="191"/>
+      <c r="L22" s="191"/>
+      <c r="M22" s="191"/>
+      <c r="N22" s="191"/>
+      <c r="O22" s="191"/>
+      <c r="P22" s="192"/>
+      <c r="Q22" s="193"/>
+      <c r="R22" s="194"/>
+      <c r="S22" s="194"/>
+      <c r="T22" s="194"/>
+      <c r="U22" s="194"/>
+      <c r="V22" s="194"/>
+      <c r="W22" s="194"/>
+      <c r="X22" s="194"/>
+      <c r="Y22" s="194"/>
+      <c r="Z22" s="194"/>
+      <c r="AA22" s="194"/>
+      <c r="AB22" s="194"/>
+      <c r="AC22" s="194"/>
+      <c r="AD22" s="194"/>
+      <c r="AE22" s="195"/>
+      <c r="AF22" s="190"/>
+      <c r="AG22" s="191"/>
+      <c r="AH22" s="191"/>
+      <c r="AI22" s="192"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="232"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="234"/>
-      <c r="E23" s="235"/>
-      <c r="F23" s="236"/>
-      <c r="G23" s="232"/>
-      <c r="H23" s="237"/>
-      <c r="I23" s="233"/>
-      <c r="J23" s="238"/>
-      <c r="K23" s="239"/>
-      <c r="L23" s="239"/>
-      <c r="M23" s="239"/>
-      <c r="N23" s="239"/>
-      <c r="O23" s="239"/>
-      <c r="P23" s="240"/>
-      <c r="Q23" s="241"/>
-      <c r="R23" s="242"/>
-      <c r="S23" s="242"/>
-      <c r="T23" s="242"/>
-      <c r="U23" s="242"/>
-      <c r="V23" s="242"/>
-      <c r="W23" s="242"/>
-      <c r="X23" s="242"/>
-      <c r="Y23" s="242"/>
-      <c r="Z23" s="242"/>
-      <c r="AA23" s="242"/>
-      <c r="AB23" s="242"/>
-      <c r="AC23" s="242"/>
-      <c r="AD23" s="242"/>
-      <c r="AE23" s="243"/>
-      <c r="AF23" s="238"/>
-      <c r="AG23" s="239"/>
-      <c r="AH23" s="239"/>
-      <c r="AI23" s="240"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="192"/>
+      <c r="Q23" s="193"/>
+      <c r="R23" s="194"/>
+      <c r="S23" s="194"/>
+      <c r="T23" s="194"/>
+      <c r="U23" s="194"/>
+      <c r="V23" s="194"/>
+      <c r="W23" s="194"/>
+      <c r="X23" s="194"/>
+      <c r="Y23" s="194"/>
+      <c r="Z23" s="194"/>
+      <c r="AA23" s="194"/>
+      <c r="AB23" s="194"/>
+      <c r="AC23" s="194"/>
+      <c r="AD23" s="194"/>
+      <c r="AE23" s="195"/>
+      <c r="AF23" s="190"/>
+      <c r="AG23" s="191"/>
+      <c r="AH23" s="191"/>
+      <c r="AI23" s="192"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="232"/>
-      <c r="C24" s="233"/>
-      <c r="D24" s="234"/>
-      <c r="E24" s="235"/>
-      <c r="F24" s="236"/>
-      <c r="G24" s="232"/>
-      <c r="H24" s="237"/>
-      <c r="I24" s="233"/>
-      <c r="J24" s="238"/>
-      <c r="K24" s="239"/>
-      <c r="L24" s="239"/>
-      <c r="M24" s="239"/>
-      <c r="N24" s="239"/>
-      <c r="O24" s="239"/>
-      <c r="P24" s="240"/>
-      <c r="Q24" s="241"/>
-      <c r="R24" s="242"/>
-      <c r="S24" s="242"/>
-      <c r="T24" s="242"/>
-      <c r="U24" s="242"/>
-      <c r="V24" s="242"/>
-      <c r="W24" s="242"/>
-      <c r="X24" s="242"/>
-      <c r="Y24" s="242"/>
-      <c r="Z24" s="242"/>
-      <c r="AA24" s="242"/>
-      <c r="AB24" s="242"/>
-      <c r="AC24" s="242"/>
-      <c r="AD24" s="242"/>
-      <c r="AE24" s="243"/>
-      <c r="AF24" s="238"/>
-      <c r="AG24" s="239"/>
-      <c r="AH24" s="239"/>
-      <c r="AI24" s="240"/>
+      <c r="B24" s="184"/>
+      <c r="C24" s="185"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="187"/>
+      <c r="F24" s="188"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="189"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="190"/>
+      <c r="K24" s="191"/>
+      <c r="L24" s="191"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="191"/>
+      <c r="O24" s="191"/>
+      <c r="P24" s="192"/>
+      <c r="Q24" s="193"/>
+      <c r="R24" s="194"/>
+      <c r="S24" s="194"/>
+      <c r="T24" s="194"/>
+      <c r="U24" s="194"/>
+      <c r="V24" s="194"/>
+      <c r="W24" s="194"/>
+      <c r="X24" s="194"/>
+      <c r="Y24" s="194"/>
+      <c r="Z24" s="194"/>
+      <c r="AA24" s="194"/>
+      <c r="AB24" s="194"/>
+      <c r="AC24" s="194"/>
+      <c r="AD24" s="194"/>
+      <c r="AE24" s="195"/>
+      <c r="AF24" s="190"/>
+      <c r="AG24" s="191"/>
+      <c r="AH24" s="191"/>
+      <c r="AI24" s="192"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="232"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="234"/>
-      <c r="E25" s="235"/>
-      <c r="F25" s="236"/>
-      <c r="G25" s="232"/>
-      <c r="H25" s="237"/>
-      <c r="I25" s="233"/>
-      <c r="J25" s="238"/>
-      <c r="K25" s="239"/>
-      <c r="L25" s="239"/>
-      <c r="M25" s="239"/>
-      <c r="N25" s="239"/>
-      <c r="O25" s="239"/>
-      <c r="P25" s="240"/>
-      <c r="Q25" s="241"/>
-      <c r="R25" s="242"/>
-      <c r="S25" s="242"/>
-      <c r="T25" s="242"/>
-      <c r="U25" s="242"/>
-      <c r="V25" s="242"/>
-      <c r="W25" s="242"/>
-      <c r="X25" s="242"/>
-      <c r="Y25" s="242"/>
-      <c r="Z25" s="242"/>
-      <c r="AA25" s="242"/>
-      <c r="AB25" s="242"/>
-      <c r="AC25" s="242"/>
-      <c r="AD25" s="242"/>
-      <c r="AE25" s="243"/>
-      <c r="AF25" s="238"/>
-      <c r="AG25" s="239"/>
-      <c r="AH25" s="239"/>
-      <c r="AI25" s="240"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="185"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="190"/>
+      <c r="K25" s="191"/>
+      <c r="L25" s="191"/>
+      <c r="M25" s="191"/>
+      <c r="N25" s="191"/>
+      <c r="O25" s="191"/>
+      <c r="P25" s="192"/>
+      <c r="Q25" s="193"/>
+      <c r="R25" s="194"/>
+      <c r="S25" s="194"/>
+      <c r="T25" s="194"/>
+      <c r="U25" s="194"/>
+      <c r="V25" s="194"/>
+      <c r="W25" s="194"/>
+      <c r="X25" s="194"/>
+      <c r="Y25" s="194"/>
+      <c r="Z25" s="194"/>
+      <c r="AA25" s="194"/>
+      <c r="AB25" s="194"/>
+      <c r="AC25" s="194"/>
+      <c r="AD25" s="194"/>
+      <c r="AE25" s="195"/>
+      <c r="AF25" s="190"/>
+      <c r="AG25" s="191"/>
+      <c r="AH25" s="191"/>
+      <c r="AI25" s="192"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="232"/>
-      <c r="C26" s="233"/>
-      <c r="D26" s="234"/>
-      <c r="E26" s="235"/>
-      <c r="F26" s="236"/>
-      <c r="G26" s="232"/>
-      <c r="H26" s="237"/>
-      <c r="I26" s="233"/>
-      <c r="J26" s="238"/>
-      <c r="K26" s="239"/>
-      <c r="L26" s="239"/>
-      <c r="M26" s="239"/>
-      <c r="N26" s="239"/>
-      <c r="O26" s="239"/>
-      <c r="P26" s="240"/>
-      <c r="Q26" s="241"/>
-      <c r="R26" s="242"/>
-      <c r="S26" s="242"/>
-      <c r="T26" s="242"/>
-      <c r="U26" s="242"/>
-      <c r="V26" s="242"/>
-      <c r="W26" s="242"/>
-      <c r="X26" s="242"/>
-      <c r="Y26" s="242"/>
-      <c r="Z26" s="242"/>
-      <c r="AA26" s="242"/>
-      <c r="AB26" s="242"/>
-      <c r="AC26" s="242"/>
-      <c r="AD26" s="242"/>
-      <c r="AE26" s="243"/>
-      <c r="AF26" s="238"/>
-      <c r="AG26" s="239"/>
-      <c r="AH26" s="239"/>
-      <c r="AI26" s="240"/>
+      <c r="B26" s="184"/>
+      <c r="C26" s="185"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="189"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="191"/>
+      <c r="M26" s="191"/>
+      <c r="N26" s="191"/>
+      <c r="O26" s="191"/>
+      <c r="P26" s="192"/>
+      <c r="Q26" s="193"/>
+      <c r="R26" s="194"/>
+      <c r="S26" s="194"/>
+      <c r="T26" s="194"/>
+      <c r="U26" s="194"/>
+      <c r="V26" s="194"/>
+      <c r="W26" s="194"/>
+      <c r="X26" s="194"/>
+      <c r="Y26" s="194"/>
+      <c r="Z26" s="194"/>
+      <c r="AA26" s="194"/>
+      <c r="AB26" s="194"/>
+      <c r="AC26" s="194"/>
+      <c r="AD26" s="194"/>
+      <c r="AE26" s="195"/>
+      <c r="AF26" s="190"/>
+      <c r="AG26" s="191"/>
+      <c r="AH26" s="191"/>
+      <c r="AI26" s="192"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="232"/>
-      <c r="C27" s="233"/>
-      <c r="D27" s="234"/>
-      <c r="E27" s="235"/>
-      <c r="F27" s="236"/>
-      <c r="G27" s="232"/>
-      <c r="H27" s="237"/>
-      <c r="I27" s="233"/>
-      <c r="J27" s="238"/>
-      <c r="K27" s="239"/>
-      <c r="L27" s="239"/>
-      <c r="M27" s="239"/>
-      <c r="N27" s="239"/>
-      <c r="O27" s="239"/>
-      <c r="P27" s="240"/>
-      <c r="Q27" s="241"/>
-      <c r="R27" s="242"/>
-      <c r="S27" s="242"/>
-      <c r="T27" s="242"/>
-      <c r="U27" s="242"/>
-      <c r="V27" s="242"/>
-      <c r="W27" s="242"/>
-      <c r="X27" s="242"/>
-      <c r="Y27" s="242"/>
-      <c r="Z27" s="242"/>
-      <c r="AA27" s="242"/>
-      <c r="AB27" s="242"/>
-      <c r="AC27" s="242"/>
-      <c r="AD27" s="242"/>
-      <c r="AE27" s="243"/>
-      <c r="AF27" s="238"/>
-      <c r="AG27" s="239"/>
-      <c r="AH27" s="239"/>
-      <c r="AI27" s="240"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="185"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="190"/>
+      <c r="K27" s="191"/>
+      <c r="L27" s="191"/>
+      <c r="M27" s="191"/>
+      <c r="N27" s="191"/>
+      <c r="O27" s="191"/>
+      <c r="P27" s="192"/>
+      <c r="Q27" s="193"/>
+      <c r="R27" s="194"/>
+      <c r="S27" s="194"/>
+      <c r="T27" s="194"/>
+      <c r="U27" s="194"/>
+      <c r="V27" s="194"/>
+      <c r="W27" s="194"/>
+      <c r="X27" s="194"/>
+      <c r="Y27" s="194"/>
+      <c r="Z27" s="194"/>
+      <c r="AA27" s="194"/>
+      <c r="AB27" s="194"/>
+      <c r="AC27" s="194"/>
+      <c r="AD27" s="194"/>
+      <c r="AE27" s="195"/>
+      <c r="AF27" s="190"/>
+      <c r="AG27" s="191"/>
+      <c r="AH27" s="191"/>
+      <c r="AI27" s="192"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="232"/>
-      <c r="C28" s="233"/>
-      <c r="D28" s="234"/>
-      <c r="E28" s="235"/>
-      <c r="F28" s="236"/>
-      <c r="G28" s="232"/>
-      <c r="H28" s="237"/>
-      <c r="I28" s="233"/>
-      <c r="J28" s="238"/>
-      <c r="K28" s="239"/>
-      <c r="L28" s="239"/>
-      <c r="M28" s="239"/>
-      <c r="N28" s="239"/>
-      <c r="O28" s="239"/>
-      <c r="P28" s="240"/>
-      <c r="Q28" s="241"/>
-      <c r="R28" s="242"/>
-      <c r="S28" s="242"/>
-      <c r="T28" s="242"/>
-      <c r="U28" s="242"/>
-      <c r="V28" s="242"/>
-      <c r="W28" s="242"/>
-      <c r="X28" s="242"/>
-      <c r="Y28" s="242"/>
-      <c r="Z28" s="242"/>
-      <c r="AA28" s="242"/>
-      <c r="AB28" s="242"/>
-      <c r="AC28" s="242"/>
-      <c r="AD28" s="242"/>
-      <c r="AE28" s="243"/>
-      <c r="AF28" s="238"/>
-      <c r="AG28" s="239"/>
-      <c r="AH28" s="239"/>
-      <c r="AI28" s="240"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="189"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="191"/>
+      <c r="L28" s="191"/>
+      <c r="M28" s="191"/>
+      <c r="N28" s="191"/>
+      <c r="O28" s="191"/>
+      <c r="P28" s="192"/>
+      <c r="Q28" s="193"/>
+      <c r="R28" s="194"/>
+      <c r="S28" s="194"/>
+      <c r="T28" s="194"/>
+      <c r="U28" s="194"/>
+      <c r="V28" s="194"/>
+      <c r="W28" s="194"/>
+      <c r="X28" s="194"/>
+      <c r="Y28" s="194"/>
+      <c r="Z28" s="194"/>
+      <c r="AA28" s="194"/>
+      <c r="AB28" s="194"/>
+      <c r="AC28" s="194"/>
+      <c r="AD28" s="194"/>
+      <c r="AE28" s="195"/>
+      <c r="AF28" s="190"/>
+      <c r="AG28" s="191"/>
+      <c r="AH28" s="191"/>
+      <c r="AI28" s="192"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="232"/>
-      <c r="C29" s="233"/>
-      <c r="D29" s="234"/>
-      <c r="E29" s="235"/>
-      <c r="F29" s="236"/>
-      <c r="G29" s="232"/>
-      <c r="H29" s="237"/>
-      <c r="I29" s="233"/>
-      <c r="J29" s="238"/>
-      <c r="K29" s="239"/>
-      <c r="L29" s="239"/>
-      <c r="M29" s="239"/>
-      <c r="N29" s="239"/>
-      <c r="O29" s="239"/>
-      <c r="P29" s="240"/>
-      <c r="Q29" s="241"/>
-      <c r="R29" s="242"/>
-      <c r="S29" s="242"/>
-      <c r="T29" s="242"/>
-      <c r="U29" s="242"/>
-      <c r="V29" s="242"/>
-      <c r="W29" s="242"/>
-      <c r="X29" s="242"/>
-      <c r="Y29" s="242"/>
-      <c r="Z29" s="242"/>
-      <c r="AA29" s="242"/>
-      <c r="AB29" s="242"/>
-      <c r="AC29" s="242"/>
-      <c r="AD29" s="242"/>
-      <c r="AE29" s="243"/>
-      <c r="AF29" s="238"/>
-      <c r="AG29" s="239"/>
-      <c r="AH29" s="239"/>
-      <c r="AI29" s="240"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="187"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="190"/>
+      <c r="K29" s="191"/>
+      <c r="L29" s="191"/>
+      <c r="M29" s="191"/>
+      <c r="N29" s="191"/>
+      <c r="O29" s="191"/>
+      <c r="P29" s="192"/>
+      <c r="Q29" s="193"/>
+      <c r="R29" s="194"/>
+      <c r="S29" s="194"/>
+      <c r="T29" s="194"/>
+      <c r="U29" s="194"/>
+      <c r="V29" s="194"/>
+      <c r="W29" s="194"/>
+      <c r="X29" s="194"/>
+      <c r="Y29" s="194"/>
+      <c r="Z29" s="194"/>
+      <c r="AA29" s="194"/>
+      <c r="AB29" s="194"/>
+      <c r="AC29" s="194"/>
+      <c r="AD29" s="194"/>
+      <c r="AE29" s="195"/>
+      <c r="AF29" s="190"/>
+      <c r="AG29" s="191"/>
+      <c r="AH29" s="191"/>
+      <c r="AI29" s="192"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="232"/>
-      <c r="C30" s="233"/>
-      <c r="D30" s="234"/>
-      <c r="E30" s="235"/>
-      <c r="F30" s="236"/>
-      <c r="G30" s="232"/>
-      <c r="H30" s="237"/>
-      <c r="I30" s="233"/>
-      <c r="J30" s="238"/>
-      <c r="K30" s="239"/>
-      <c r="L30" s="239"/>
-      <c r="M30" s="239"/>
-      <c r="N30" s="239"/>
-      <c r="O30" s="239"/>
-      <c r="P30" s="240"/>
-      <c r="Q30" s="241"/>
-      <c r="R30" s="242"/>
-      <c r="S30" s="242"/>
-      <c r="T30" s="242"/>
-      <c r="U30" s="242"/>
-      <c r="V30" s="242"/>
-      <c r="W30" s="242"/>
-      <c r="X30" s="242"/>
-      <c r="Y30" s="242"/>
-      <c r="Z30" s="242"/>
-      <c r="AA30" s="242"/>
-      <c r="AB30" s="242"/>
-      <c r="AC30" s="242"/>
-      <c r="AD30" s="242"/>
-      <c r="AE30" s="243"/>
-      <c r="AF30" s="238"/>
-      <c r="AG30" s="239"/>
-      <c r="AH30" s="239"/>
-      <c r="AI30" s="240"/>
+      <c r="B30" s="184"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="191"/>
+      <c r="N30" s="191"/>
+      <c r="O30" s="191"/>
+      <c r="P30" s="192"/>
+      <c r="Q30" s="193"/>
+      <c r="R30" s="194"/>
+      <c r="S30" s="194"/>
+      <c r="T30" s="194"/>
+      <c r="U30" s="194"/>
+      <c r="V30" s="194"/>
+      <c r="W30" s="194"/>
+      <c r="X30" s="194"/>
+      <c r="Y30" s="194"/>
+      <c r="Z30" s="194"/>
+      <c r="AA30" s="194"/>
+      <c r="AB30" s="194"/>
+      <c r="AC30" s="194"/>
+      <c r="AD30" s="194"/>
+      <c r="AE30" s="195"/>
+      <c r="AF30" s="190"/>
+      <c r="AG30" s="191"/>
+      <c r="AH30" s="191"/>
+      <c r="AI30" s="192"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="232"/>
-      <c r="C31" s="233"/>
-      <c r="D31" s="234"/>
-      <c r="E31" s="235"/>
-      <c r="F31" s="236"/>
-      <c r="G31" s="232"/>
-      <c r="H31" s="237"/>
-      <c r="I31" s="233"/>
-      <c r="J31" s="238"/>
-      <c r="K31" s="239"/>
-      <c r="L31" s="239"/>
-      <c r="M31" s="239"/>
-      <c r="N31" s="239"/>
-      <c r="O31" s="239"/>
-      <c r="P31" s="240"/>
-      <c r="Q31" s="241"/>
-      <c r="R31" s="242"/>
-      <c r="S31" s="242"/>
-      <c r="T31" s="242"/>
-      <c r="U31" s="242"/>
-      <c r="V31" s="242"/>
-      <c r="W31" s="242"/>
-      <c r="X31" s="242"/>
-      <c r="Y31" s="242"/>
-      <c r="Z31" s="242"/>
-      <c r="AA31" s="242"/>
-      <c r="AB31" s="242"/>
-      <c r="AC31" s="242"/>
-      <c r="AD31" s="242"/>
-      <c r="AE31" s="243"/>
-      <c r="AF31" s="238"/>
-      <c r="AG31" s="239"/>
-      <c r="AH31" s="239"/>
-      <c r="AI31" s="240"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="185"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="190"/>
+      <c r="K31" s="191"/>
+      <c r="L31" s="191"/>
+      <c r="M31" s="191"/>
+      <c r="N31" s="191"/>
+      <c r="O31" s="191"/>
+      <c r="P31" s="192"/>
+      <c r="Q31" s="193"/>
+      <c r="R31" s="194"/>
+      <c r="S31" s="194"/>
+      <c r="T31" s="194"/>
+      <c r="U31" s="194"/>
+      <c r="V31" s="194"/>
+      <c r="W31" s="194"/>
+      <c r="X31" s="194"/>
+      <c r="Y31" s="194"/>
+      <c r="Z31" s="194"/>
+      <c r="AA31" s="194"/>
+      <c r="AB31" s="194"/>
+      <c r="AC31" s="194"/>
+      <c r="AD31" s="194"/>
+      <c r="AE31" s="195"/>
+      <c r="AF31" s="190"/>
+      <c r="AG31" s="191"/>
+      <c r="AH31" s="191"/>
+      <c r="AI31" s="192"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="232"/>
-      <c r="C32" s="233"/>
-      <c r="D32" s="234"/>
-      <c r="E32" s="235"/>
-      <c r="F32" s="236"/>
-      <c r="G32" s="232"/>
-      <c r="H32" s="237"/>
-      <c r="I32" s="233"/>
-      <c r="J32" s="238"/>
-      <c r="K32" s="244"/>
-      <c r="L32" s="239"/>
-      <c r="M32" s="239"/>
-      <c r="N32" s="239"/>
-      <c r="O32" s="239"/>
-      <c r="P32" s="240"/>
-      <c r="Q32" s="241"/>
-      <c r="R32" s="242"/>
-      <c r="S32" s="242"/>
-      <c r="T32" s="242"/>
-      <c r="U32" s="242"/>
-      <c r="V32" s="242"/>
-      <c r="W32" s="242"/>
-      <c r="X32" s="242"/>
-      <c r="Y32" s="242"/>
-      <c r="Z32" s="242"/>
-      <c r="AA32" s="242"/>
-      <c r="AB32" s="242"/>
-      <c r="AC32" s="242"/>
-      <c r="AD32" s="242"/>
-      <c r="AE32" s="243"/>
-      <c r="AF32" s="238"/>
-      <c r="AG32" s="239"/>
-      <c r="AH32" s="239"/>
-      <c r="AI32" s="240"/>
+      <c r="B32" s="184"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="188"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="185"/>
+      <c r="J32" s="190"/>
+      <c r="K32" s="196"/>
+      <c r="L32" s="191"/>
+      <c r="M32" s="191"/>
+      <c r="N32" s="191"/>
+      <c r="O32" s="191"/>
+      <c r="P32" s="192"/>
+      <c r="Q32" s="193"/>
+      <c r="R32" s="194"/>
+      <c r="S32" s="194"/>
+      <c r="T32" s="194"/>
+      <c r="U32" s="194"/>
+      <c r="V32" s="194"/>
+      <c r="W32" s="194"/>
+      <c r="X32" s="194"/>
+      <c r="Y32" s="194"/>
+      <c r="Z32" s="194"/>
+      <c r="AA32" s="194"/>
+      <c r="AB32" s="194"/>
+      <c r="AC32" s="194"/>
+      <c r="AD32" s="194"/>
+      <c r="AE32" s="195"/>
+      <c r="AF32" s="190"/>
+      <c r="AG32" s="191"/>
+      <c r="AH32" s="191"/>
+      <c r="AI32" s="192"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="232"/>
-      <c r="C33" s="233"/>
-      <c r="D33" s="234"/>
-      <c r="E33" s="235"/>
-      <c r="F33" s="236"/>
-      <c r="G33" s="232"/>
-      <c r="H33" s="237"/>
-      <c r="I33" s="233"/>
-      <c r="J33" s="238"/>
-      <c r="K33" s="239"/>
-      <c r="L33" s="239"/>
-      <c r="M33" s="239"/>
-      <c r="N33" s="239"/>
-      <c r="O33" s="239"/>
-      <c r="P33" s="240"/>
-      <c r="Q33" s="241"/>
-      <c r="R33" s="242"/>
-      <c r="S33" s="242"/>
-      <c r="T33" s="242"/>
-      <c r="U33" s="242"/>
-      <c r="V33" s="242"/>
-      <c r="W33" s="242"/>
-      <c r="X33" s="242"/>
-      <c r="Y33" s="242"/>
-      <c r="Z33" s="242"/>
-      <c r="AA33" s="242"/>
-      <c r="AB33" s="242"/>
-      <c r="AC33" s="242"/>
-      <c r="AD33" s="242"/>
-      <c r="AE33" s="243"/>
-      <c r="AF33" s="238"/>
-      <c r="AG33" s="239"/>
-      <c r="AH33" s="239"/>
-      <c r="AI33" s="240"/>
+      <c r="B33" s="184"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="187"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="190"/>
+      <c r="K33" s="191"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="191"/>
+      <c r="N33" s="191"/>
+      <c r="O33" s="191"/>
+      <c r="P33" s="192"/>
+      <c r="Q33" s="193"/>
+      <c r="R33" s="194"/>
+      <c r="S33" s="194"/>
+      <c r="T33" s="194"/>
+      <c r="U33" s="194"/>
+      <c r="V33" s="194"/>
+      <c r="W33" s="194"/>
+      <c r="X33" s="194"/>
+      <c r="Y33" s="194"/>
+      <c r="Z33" s="194"/>
+      <c r="AA33" s="194"/>
+      <c r="AB33" s="194"/>
+      <c r="AC33" s="194"/>
+      <c r="AD33" s="194"/>
+      <c r="AE33" s="195"/>
+      <c r="AF33" s="190"/>
+      <c r="AG33" s="191"/>
+      <c r="AH33" s="191"/>
+      <c r="AI33" s="192"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -10984,167 +11145,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -14890,7 +14890,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="245" t="s">
+      <c r="B112" s="246" t="s">
         <v>227</v>
       </c>
       <c r="C112" s="59"/>
@@ -14926,7 +14926,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="245"/>
+      <c r="B113" s="246"/>
       <c r="C113" s="59"/>
       <c r="D113" s="46"/>
       <c r="E113" s="96"/>
@@ -15598,7 +15598,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="245" t="s">
+      <c r="B132" s="246" t="s">
         <v>256</v>
       </c>
       <c r="C132" s="59"/>
@@ -15634,7 +15634,7 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="245"/>
+      <c r="B133" s="246"/>
       <c r="C133" s="59"/>
       <c r="D133" s="46"/>
       <c r="E133" s="46"/>
@@ -25024,7 +25024,7 @@
 )</f>
         <v>43-2-1</v>
       </c>
-      <c r="B112" s="246" t="s">
+      <c r="B112" s="247" t="s">
         <v>498</v>
       </c>
       <c r="C112" s="139"/>
@@ -25059,7 +25059,7 @@
 )</f>
         <v>43-3-1</v>
       </c>
-      <c r="B113" s="246"/>
+      <c r="B113" s="247"/>
       <c r="C113" s="139"/>
       <c r="D113" s="134"/>
       <c r="E113" s="146"/>
@@ -25720,7 +25720,7 @@
 )</f>
         <v>50-2-1</v>
       </c>
-      <c r="B132" s="246" t="s">
+      <c r="B132" s="247" t="s">
         <v>256</v>
       </c>
       <c r="C132" s="139"/>
@@ -25729,7 +25729,7 @@
       <c r="F132" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="G132" s="247"/>
+      <c r="G132" s="182"/>
       <c r="H132" s="112"/>
       <c r="I132" s="112"/>
       <c r="J132" s="159"/>
@@ -25755,14 +25755,14 @@
 )</f>
         <v>50-3-1</v>
       </c>
-      <c r="B133" s="246"/>
+      <c r="B133" s="247"/>
       <c r="C133" s="139"/>
       <c r="D133" s="134"/>
       <c r="E133" s="139"/>
       <c r="F133" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="G133" s="247"/>
+      <c r="G133" s="182"/>
       <c r="H133" s="112"/>
       <c r="I133" s="112"/>
       <c r="J133" s="159"/>
@@ -25795,7 +25795,7 @@
       <c r="F134" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="G134" s="247"/>
+      <c r="G134" s="182"/>
       <c r="H134" s="112"/>
       <c r="I134" s="112"/>
       <c r="J134" s="159"/>
@@ -26925,21 +26925,23 @@
       <c r="C167" s="139"/>
       <c r="D167" s="161"/>
       <c r="E167" s="162"/>
-      <c r="F167" s="31" t="s">
+      <c r="F167" s="120" t="s">
         <v>302</v>
       </c>
-      <c r="G167" s="159"/>
-      <c r="H167" s="112"/>
-      <c r="I167" s="112"/>
-      <c r="J167" s="159"/>
-      <c r="K167" s="159"/>
-      <c r="L167" s="112"/>
-      <c r="M167" s="112"/>
-      <c r="N167" s="112"/>
-      <c r="O167" s="112"/>
-      <c r="P167" s="112"/>
-      <c r="Q167" s="160"/>
-      <c r="R167" s="159"/>
+      <c r="G167" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="H167" s="94"/>
+      <c r="I167" s="94"/>
+      <c r="J167" s="115"/>
+      <c r="K167" s="115"/>
+      <c r="L167" s="94"/>
+      <c r="M167" s="94"/>
+      <c r="N167" s="94"/>
+      <c r="O167" s="94"/>
+      <c r="P167" s="94"/>
+      <c r="Q167" s="121"/>
+      <c r="R167" s="115"/>
     </row>
     <row r="168" spans="1:18" ht="22.5">
       <c r="A168" s="43" t="str" cm="1">

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(バッチ)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(バッチ)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328E0CF0-4E4B-4801-8BC2-F3A5FFFBCC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCF1BC3-5BC3-4F61-883C-3569D4757449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8069,6 +8069,93 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -8167,93 +8254,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9763,57 +9763,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="211" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="188" t="s">
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="217" t="s">
         <v>524</v>
       </c>
-      <c r="F1" s="189"/>
-      <c r="G1" s="189"/>
-      <c r="H1" s="189"/>
-      <c r="I1" s="189"/>
-      <c r="J1" s="189"/>
-      <c r="K1" s="189"/>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="197" t="s">
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="206" t="s">
+      <c r="P1" s="227"/>
+      <c r="Q1" s="227"/>
+      <c r="R1" s="228"/>
+      <c r="S1" s="235" t="s">
         <v>523</v>
       </c>
-      <c r="T1" s="207"/>
-      <c r="U1" s="207"/>
-      <c r="V1" s="207"/>
-      <c r="W1" s="207"/>
-      <c r="X1" s="207"/>
-      <c r="Y1" s="207"/>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="182" t="s">
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="237"/>
+      <c r="AA1" s="211" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="184" t="str">
+      <c r="AB1" s="212"/>
+      <c r="AC1" s="213" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AF1" s="186"/>
-      <c r="AG1" s="191" t="str">
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="215"/>
+      <c r="AG1" s="220" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="192"/>
-      <c r="AI1" s="193"/>
+      <c r="AH1" s="221"/>
+      <c r="AI1" s="222"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -9821,53 +9821,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="211" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="188" t="s">
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="217" t="s">
         <v>525</v>
       </c>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="201"/>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="209"/>
-      <c r="T2" s="210"/>
-      <c r="U2" s="210"/>
-      <c r="V2" s="210"/>
-      <c r="W2" s="210"/>
-      <c r="X2" s="210"/>
-      <c r="Y2" s="210"/>
-      <c r="Z2" s="211"/>
-      <c r="AA2" s="182" t="s">
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="229"/>
+      <c r="P2" s="230"/>
+      <c r="Q2" s="230"/>
+      <c r="R2" s="231"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="239"/>
+      <c r="U2" s="239"/>
+      <c r="V2" s="239"/>
+      <c r="W2" s="239"/>
+      <c r="X2" s="239"/>
+      <c r="Y2" s="239"/>
+      <c r="Z2" s="240"/>
+      <c r="AA2" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="212"/>
+      <c r="AC2" s="223" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="191" t="str">
+      <c r="AD2" s="224"/>
+      <c r="AE2" s="224"/>
+      <c r="AF2" s="225"/>
+      <c r="AG2" s="220" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="192"/>
-      <c r="AI2" s="193"/>
+      <c r="AH2" s="221"/>
+      <c r="AI2" s="222"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -9875,45 +9875,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="182" t="s">
+      <c r="A3" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="188" t="s">
+      <c r="B3" s="216"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="217" t="s">
         <v>527</v>
       </c>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="205"/>
-      <c r="S3" s="212"/>
-      <c r="T3" s="213"/>
-      <c r="U3" s="213"/>
-      <c r="V3" s="213"/>
-      <c r="W3" s="213"/>
-      <c r="X3" s="213"/>
-      <c r="Y3" s="213"/>
-      <c r="Z3" s="214"/>
-      <c r="AA3" s="182"/>
-      <c r="AB3" s="183"/>
-      <c r="AC3" s="184"/>
-      <c r="AD3" s="185"/>
-      <c r="AE3" s="185"/>
-      <c r="AF3" s="186"/>
-      <c r="AG3" s="191"/>
-      <c r="AH3" s="192"/>
-      <c r="AI3" s="193"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="219"/>
+      <c r="O3" s="232"/>
+      <c r="P3" s="233"/>
+      <c r="Q3" s="233"/>
+      <c r="R3" s="234"/>
+      <c r="S3" s="241"/>
+      <c r="T3" s="242"/>
+      <c r="U3" s="242"/>
+      <c r="V3" s="242"/>
+      <c r="W3" s="242"/>
+      <c r="X3" s="242"/>
+      <c r="Y3" s="242"/>
+      <c r="Z3" s="243"/>
+      <c r="AA3" s="211"/>
+      <c r="AB3" s="212"/>
+      <c r="AC3" s="213"/>
+      <c r="AD3" s="214"/>
+      <c r="AE3" s="214"/>
+      <c r="AF3" s="215"/>
+      <c r="AG3" s="220"/>
+      <c r="AH3" s="221"/>
+      <c r="AI3" s="222"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -9950,1020 +9950,1181 @@
       <c r="A7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="215" t="s">
+      <c r="C7" s="196"/>
+      <c r="D7" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="217"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="215" t="s">
+      <c r="E7" s="197"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="217"/>
-      <c r="I7" s="216"/>
-      <c r="J7" s="215" t="s">
+      <c r="H7" s="197"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="217"/>
-      <c r="L7" s="217"/>
-      <c r="M7" s="217"/>
-      <c r="N7" s="217"/>
-      <c r="O7" s="217"/>
-      <c r="P7" s="216"/>
-      <c r="Q7" s="215" t="s">
+      <c r="K7" s="197"/>
+      <c r="L7" s="197"/>
+      <c r="M7" s="197"/>
+      <c r="N7" s="197"/>
+      <c r="O7" s="197"/>
+      <c r="P7" s="196"/>
+      <c r="Q7" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="217"/>
-      <c r="S7" s="217"/>
-      <c r="T7" s="217"/>
-      <c r="U7" s="217"/>
-      <c r="V7" s="217"/>
-      <c r="W7" s="217"/>
-      <c r="X7" s="217"/>
-      <c r="Y7" s="217"/>
-      <c r="Z7" s="217"/>
-      <c r="AA7" s="217"/>
-      <c r="AB7" s="217"/>
-      <c r="AC7" s="217"/>
-      <c r="AD7" s="217"/>
-      <c r="AE7" s="216"/>
-      <c r="AF7" s="215" t="s">
+      <c r="R7" s="197"/>
+      <c r="S7" s="197"/>
+      <c r="T7" s="197"/>
+      <c r="U7" s="197"/>
+      <c r="V7" s="197"/>
+      <c r="W7" s="197"/>
+      <c r="X7" s="197"/>
+      <c r="Y7" s="197"/>
+      <c r="Z7" s="197"/>
+      <c r="AA7" s="197"/>
+      <c r="AB7" s="197"/>
+      <c r="AC7" s="197"/>
+      <c r="AD7" s="197"/>
+      <c r="AE7" s="196"/>
+      <c r="AF7" s="195" t="s">
         <v>38</v>
       </c>
-      <c r="AG7" s="217"/>
-      <c r="AH7" s="217"/>
-      <c r="AI7" s="216"/>
+      <c r="AG7" s="197"/>
+      <c r="AH7" s="197"/>
+      <c r="AI7" s="196"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="218"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="220"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="222"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="219"/>
-      <c r="J8" s="225"/>
-      <c r="K8" s="226"/>
-      <c r="L8" s="226"/>
-      <c r="M8" s="226"/>
-      <c r="N8" s="226"/>
-      <c r="O8" s="226"/>
-      <c r="P8" s="227"/>
-      <c r="Q8" s="228"/>
-      <c r="R8" s="229"/>
-      <c r="S8" s="229"/>
-      <c r="T8" s="229"/>
-      <c r="U8" s="229"/>
-      <c r="V8" s="229"/>
-      <c r="W8" s="229"/>
-      <c r="X8" s="229"/>
-      <c r="Y8" s="229"/>
-      <c r="Z8" s="229"/>
-      <c r="AA8" s="229"/>
-      <c r="AB8" s="229"/>
-      <c r="AC8" s="229"/>
-      <c r="AD8" s="229"/>
-      <c r="AE8" s="230"/>
-      <c r="AF8" s="225"/>
-      <c r="AG8" s="226"/>
-      <c r="AH8" s="226"/>
-      <c r="AI8" s="227"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="201"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="203"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="199"/>
+      <c r="J8" s="205"/>
+      <c r="K8" s="206"/>
+      <c r="L8" s="206"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="206"/>
+      <c r="O8" s="206"/>
+      <c r="P8" s="207"/>
+      <c r="Q8" s="208"/>
+      <c r="R8" s="209"/>
+      <c r="S8" s="209"/>
+      <c r="T8" s="209"/>
+      <c r="U8" s="209"/>
+      <c r="V8" s="209"/>
+      <c r="W8" s="209"/>
+      <c r="X8" s="209"/>
+      <c r="Y8" s="209"/>
+      <c r="Z8" s="209"/>
+      <c r="AA8" s="209"/>
+      <c r="AB8" s="209"/>
+      <c r="AC8" s="209"/>
+      <c r="AD8" s="209"/>
+      <c r="AE8" s="210"/>
+      <c r="AF8" s="205"/>
+      <c r="AG8" s="206"/>
+      <c r="AH8" s="206"/>
+      <c r="AI8" s="207"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="232"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="235"/>
-      <c r="G9" s="233"/>
-      <c r="H9" s="236"/>
-      <c r="I9" s="232"/>
-      <c r="J9" s="237"/>
-      <c r="K9" s="238"/>
-      <c r="L9" s="238"/>
-      <c r="M9" s="238"/>
-      <c r="N9" s="238"/>
-      <c r="O9" s="238"/>
-      <c r="P9" s="239"/>
-      <c r="Q9" s="240"/>
-      <c r="R9" s="241"/>
-      <c r="S9" s="241"/>
-      <c r="T9" s="241"/>
-      <c r="U9" s="241"/>
-      <c r="V9" s="241"/>
-      <c r="W9" s="241"/>
-      <c r="X9" s="241"/>
-      <c r="Y9" s="241"/>
-      <c r="Z9" s="241"/>
-      <c r="AA9" s="241"/>
-      <c r="AB9" s="241"/>
-      <c r="AC9" s="241"/>
-      <c r="AD9" s="241"/>
-      <c r="AE9" s="242"/>
-      <c r="AF9" s="237"/>
-      <c r="AG9" s="238"/>
-      <c r="AH9" s="238"/>
-      <c r="AI9" s="239"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="186"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="189"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="189"/>
+      <c r="N9" s="189"/>
+      <c r="O9" s="189"/>
+      <c r="P9" s="190"/>
+      <c r="Q9" s="191"/>
+      <c r="R9" s="192"/>
+      <c r="S9" s="192"/>
+      <c r="T9" s="192"/>
+      <c r="U9" s="192"/>
+      <c r="V9" s="192"/>
+      <c r="W9" s="192"/>
+      <c r="X9" s="192"/>
+      <c r="Y9" s="192"/>
+      <c r="Z9" s="192"/>
+      <c r="AA9" s="192"/>
+      <c r="AB9" s="192"/>
+      <c r="AC9" s="192"/>
+      <c r="AD9" s="192"/>
+      <c r="AE9" s="193"/>
+      <c r="AF9" s="188"/>
+      <c r="AG9" s="189"/>
+      <c r="AH9" s="189"/>
+      <c r="AI9" s="190"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="231"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="234"/>
-      <c r="F10" s="235"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="236"/>
-      <c r="I10" s="232"/>
-      <c r="J10" s="237"/>
-      <c r="K10" s="238"/>
-      <c r="L10" s="238"/>
-      <c r="M10" s="238"/>
-      <c r="N10" s="238"/>
-      <c r="O10" s="238"/>
-      <c r="P10" s="239"/>
-      <c r="Q10" s="240"/>
-      <c r="R10" s="241"/>
-      <c r="S10" s="241"/>
-      <c r="T10" s="241"/>
-      <c r="U10" s="241"/>
-      <c r="V10" s="241"/>
-      <c r="W10" s="241"/>
-      <c r="X10" s="241"/>
-      <c r="Y10" s="241"/>
-      <c r="Z10" s="241"/>
-      <c r="AA10" s="241"/>
-      <c r="AB10" s="241"/>
-      <c r="AC10" s="241"/>
-      <c r="AD10" s="241"/>
-      <c r="AE10" s="242"/>
-      <c r="AF10" s="237"/>
-      <c r="AG10" s="238"/>
-      <c r="AH10" s="238"/>
-      <c r="AI10" s="239"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="184"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="189"/>
+      <c r="O10" s="189"/>
+      <c r="P10" s="190"/>
+      <c r="Q10" s="191"/>
+      <c r="R10" s="192"/>
+      <c r="S10" s="192"/>
+      <c r="T10" s="192"/>
+      <c r="U10" s="192"/>
+      <c r="V10" s="192"/>
+      <c r="W10" s="192"/>
+      <c r="X10" s="192"/>
+      <c r="Y10" s="192"/>
+      <c r="Z10" s="192"/>
+      <c r="AA10" s="192"/>
+      <c r="AB10" s="192"/>
+      <c r="AC10" s="192"/>
+      <c r="AD10" s="192"/>
+      <c r="AE10" s="193"/>
+      <c r="AF10" s="188"/>
+      <c r="AG10" s="189"/>
+      <c r="AH10" s="189"/>
+      <c r="AI10" s="190"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="231"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="231"/>
-      <c r="H11" s="236"/>
-      <c r="I11" s="232"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="238"/>
-      <c r="L11" s="238"/>
-      <c r="M11" s="238"/>
-      <c r="N11" s="238"/>
-      <c r="O11" s="238"/>
-      <c r="P11" s="239"/>
-      <c r="Q11" s="240"/>
-      <c r="R11" s="241"/>
-      <c r="S11" s="241"/>
-      <c r="T11" s="241"/>
-      <c r="U11" s="241"/>
-      <c r="V11" s="241"/>
-      <c r="W11" s="241"/>
-      <c r="X11" s="241"/>
-      <c r="Y11" s="241"/>
-      <c r="Z11" s="241"/>
-      <c r="AA11" s="241"/>
-      <c r="AB11" s="241"/>
-      <c r="AC11" s="241"/>
-      <c r="AD11" s="241"/>
-      <c r="AE11" s="242"/>
-      <c r="AF11" s="237"/>
-      <c r="AG11" s="238"/>
-      <c r="AH11" s="238"/>
-      <c r="AI11" s="239"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="187"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="188"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
+      <c r="M11" s="189"/>
+      <c r="N11" s="189"/>
+      <c r="O11" s="189"/>
+      <c r="P11" s="190"/>
+      <c r="Q11" s="191"/>
+      <c r="R11" s="192"/>
+      <c r="S11" s="192"/>
+      <c r="T11" s="192"/>
+      <c r="U11" s="192"/>
+      <c r="V11" s="192"/>
+      <c r="W11" s="192"/>
+      <c r="X11" s="192"/>
+      <c r="Y11" s="192"/>
+      <c r="Z11" s="192"/>
+      <c r="AA11" s="192"/>
+      <c r="AB11" s="192"/>
+      <c r="AC11" s="192"/>
+      <c r="AD11" s="192"/>
+      <c r="AE11" s="193"/>
+      <c r="AF11" s="188"/>
+      <c r="AG11" s="189"/>
+      <c r="AH11" s="189"/>
+      <c r="AI11" s="190"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="231"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="233"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="231"/>
-      <c r="H12" s="236"/>
-      <c r="I12" s="232"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="238"/>
-      <c r="L12" s="238"/>
-      <c r="M12" s="238"/>
-      <c r="N12" s="238"/>
-      <c r="O12" s="238"/>
-      <c r="P12" s="239"/>
-      <c r="Q12" s="240"/>
-      <c r="R12" s="241"/>
-      <c r="S12" s="241"/>
-      <c r="T12" s="241"/>
-      <c r="U12" s="241"/>
-      <c r="V12" s="241"/>
-      <c r="W12" s="241"/>
-      <c r="X12" s="241"/>
-      <c r="Y12" s="241"/>
-      <c r="Z12" s="241"/>
-      <c r="AA12" s="241"/>
-      <c r="AB12" s="241"/>
-      <c r="AC12" s="241"/>
-      <c r="AD12" s="241"/>
-      <c r="AE12" s="242"/>
-      <c r="AF12" s="237"/>
-      <c r="AG12" s="238"/>
-      <c r="AH12" s="238"/>
-      <c r="AI12" s="239"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="187"/>
+      <c r="I12" s="183"/>
+      <c r="J12" s="188"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="190"/>
+      <c r="Q12" s="191"/>
+      <c r="R12" s="192"/>
+      <c r="S12" s="192"/>
+      <c r="T12" s="192"/>
+      <c r="U12" s="192"/>
+      <c r="V12" s="192"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="192"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="193"/>
+      <c r="AF12" s="188"/>
+      <c r="AG12" s="189"/>
+      <c r="AH12" s="189"/>
+      <c r="AI12" s="190"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="231"/>
-      <c r="C13" s="232"/>
-      <c r="D13" s="233"/>
-      <c r="E13" s="234"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="231"/>
-      <c r="H13" s="236"/>
-      <c r="I13" s="232"/>
-      <c r="J13" s="237"/>
-      <c r="K13" s="238"/>
-      <c r="L13" s="238"/>
-      <c r="M13" s="238"/>
-      <c r="N13" s="238"/>
-      <c r="O13" s="238"/>
-      <c r="P13" s="239"/>
-      <c r="Q13" s="240"/>
-      <c r="R13" s="241"/>
-      <c r="S13" s="241"/>
-      <c r="T13" s="241"/>
-      <c r="U13" s="241"/>
-      <c r="V13" s="241"/>
-      <c r="W13" s="241"/>
-      <c r="X13" s="241"/>
-      <c r="Y13" s="241"/>
-      <c r="Z13" s="241"/>
-      <c r="AA13" s="241"/>
-      <c r="AB13" s="241"/>
-      <c r="AC13" s="241"/>
-      <c r="AD13" s="241"/>
-      <c r="AE13" s="242"/>
-      <c r="AF13" s="237"/>
-      <c r="AG13" s="238"/>
-      <c r="AH13" s="238"/>
-      <c r="AI13" s="239"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="187"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="189"/>
+      <c r="P13" s="190"/>
+      <c r="Q13" s="191"/>
+      <c r="R13" s="192"/>
+      <c r="S13" s="192"/>
+      <c r="T13" s="192"/>
+      <c r="U13" s="192"/>
+      <c r="V13" s="192"/>
+      <c r="W13" s="192"/>
+      <c r="X13" s="192"/>
+      <c r="Y13" s="192"/>
+      <c r="Z13" s="192"/>
+      <c r="AA13" s="192"/>
+      <c r="AB13" s="192"/>
+      <c r="AC13" s="192"/>
+      <c r="AD13" s="192"/>
+      <c r="AE13" s="193"/>
+      <c r="AF13" s="188"/>
+      <c r="AG13" s="189"/>
+      <c r="AH13" s="189"/>
+      <c r="AI13" s="190"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="231"/>
-      <c r="C14" s="232"/>
-      <c r="D14" s="233"/>
-      <c r="E14" s="234"/>
-      <c r="F14" s="235"/>
-      <c r="G14" s="231"/>
-      <c r="H14" s="236"/>
-      <c r="I14" s="232"/>
-      <c r="J14" s="237"/>
-      <c r="K14" s="238"/>
-      <c r="L14" s="238"/>
-      <c r="M14" s="238"/>
-      <c r="N14" s="238"/>
-      <c r="O14" s="238"/>
-      <c r="P14" s="239"/>
-      <c r="Q14" s="240"/>
-      <c r="R14" s="241"/>
-      <c r="S14" s="241"/>
-      <c r="T14" s="241"/>
-      <c r="U14" s="241"/>
-      <c r="V14" s="241"/>
-      <c r="W14" s="241"/>
-      <c r="X14" s="241"/>
-      <c r="Y14" s="241"/>
-      <c r="Z14" s="241"/>
-      <c r="AA14" s="241"/>
-      <c r="AB14" s="241"/>
-      <c r="AC14" s="241"/>
-      <c r="AD14" s="241"/>
-      <c r="AE14" s="242"/>
-      <c r="AF14" s="237"/>
-      <c r="AG14" s="238"/>
-      <c r="AH14" s="238"/>
-      <c r="AI14" s="239"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="184"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="182"/>
+      <c r="H14" s="187"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="189"/>
+      <c r="N14" s="189"/>
+      <c r="O14" s="189"/>
+      <c r="P14" s="190"/>
+      <c r="Q14" s="191"/>
+      <c r="R14" s="192"/>
+      <c r="S14" s="192"/>
+      <c r="T14" s="192"/>
+      <c r="U14" s="192"/>
+      <c r="V14" s="192"/>
+      <c r="W14" s="192"/>
+      <c r="X14" s="192"/>
+      <c r="Y14" s="192"/>
+      <c r="Z14" s="192"/>
+      <c r="AA14" s="192"/>
+      <c r="AB14" s="192"/>
+      <c r="AC14" s="192"/>
+      <c r="AD14" s="192"/>
+      <c r="AE14" s="193"/>
+      <c r="AF14" s="188"/>
+      <c r="AG14" s="189"/>
+      <c r="AH14" s="189"/>
+      <c r="AI14" s="190"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="231"/>
-      <c r="C15" s="232"/>
-      <c r="D15" s="233"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="231"/>
-      <c r="H15" s="236"/>
-      <c r="I15" s="232"/>
-      <c r="J15" s="237"/>
-      <c r="K15" s="238"/>
-      <c r="L15" s="238"/>
-      <c r="M15" s="238"/>
-      <c r="N15" s="238"/>
-      <c r="O15" s="238"/>
-      <c r="P15" s="239"/>
-      <c r="Q15" s="240"/>
-      <c r="R15" s="241"/>
-      <c r="S15" s="241"/>
-      <c r="T15" s="241"/>
-      <c r="U15" s="241"/>
-      <c r="V15" s="241"/>
-      <c r="W15" s="241"/>
-      <c r="X15" s="241"/>
-      <c r="Y15" s="241"/>
-      <c r="Z15" s="241"/>
-      <c r="AA15" s="241"/>
-      <c r="AB15" s="241"/>
-      <c r="AC15" s="241"/>
-      <c r="AD15" s="241"/>
-      <c r="AE15" s="242"/>
-      <c r="AF15" s="237"/>
-      <c r="AG15" s="238"/>
-      <c r="AH15" s="238"/>
-      <c r="AI15" s="239"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="188"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="189"/>
+      <c r="M15" s="189"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="190"/>
+      <c r="Q15" s="191"/>
+      <c r="R15" s="192"/>
+      <c r="S15" s="192"/>
+      <c r="T15" s="192"/>
+      <c r="U15" s="192"/>
+      <c r="V15" s="192"/>
+      <c r="W15" s="192"/>
+      <c r="X15" s="192"/>
+      <c r="Y15" s="192"/>
+      <c r="Z15" s="192"/>
+      <c r="AA15" s="192"/>
+      <c r="AB15" s="192"/>
+      <c r="AC15" s="192"/>
+      <c r="AD15" s="192"/>
+      <c r="AE15" s="193"/>
+      <c r="AF15" s="188"/>
+      <c r="AG15" s="189"/>
+      <c r="AH15" s="189"/>
+      <c r="AI15" s="190"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="231"/>
-      <c r="C16" s="232"/>
-      <c r="D16" s="233"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="235"/>
-      <c r="G16" s="231"/>
-      <c r="H16" s="236"/>
-      <c r="I16" s="232"/>
-      <c r="J16" s="237"/>
-      <c r="K16" s="238"/>
-      <c r="L16" s="238"/>
-      <c r="M16" s="238"/>
-      <c r="N16" s="238"/>
-      <c r="O16" s="238"/>
-      <c r="P16" s="239"/>
-      <c r="Q16" s="240"/>
-      <c r="R16" s="241"/>
-      <c r="S16" s="241"/>
-      <c r="T16" s="241"/>
-      <c r="U16" s="241"/>
-      <c r="V16" s="241"/>
-      <c r="W16" s="241"/>
-      <c r="X16" s="241"/>
-      <c r="Y16" s="241"/>
-      <c r="Z16" s="241"/>
-      <c r="AA16" s="241"/>
-      <c r="AB16" s="241"/>
-      <c r="AC16" s="241"/>
-      <c r="AD16" s="241"/>
-      <c r="AE16" s="242"/>
-      <c r="AF16" s="237"/>
-      <c r="AG16" s="238"/>
-      <c r="AH16" s="238"/>
-      <c r="AI16" s="239"/>
+      <c r="B16" s="182"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="187"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="189"/>
+      <c r="M16" s="189"/>
+      <c r="N16" s="189"/>
+      <c r="O16" s="189"/>
+      <c r="P16" s="190"/>
+      <c r="Q16" s="191"/>
+      <c r="R16" s="192"/>
+      <c r="S16" s="192"/>
+      <c r="T16" s="192"/>
+      <c r="U16" s="192"/>
+      <c r="V16" s="192"/>
+      <c r="W16" s="192"/>
+      <c r="X16" s="192"/>
+      <c r="Y16" s="192"/>
+      <c r="Z16" s="192"/>
+      <c r="AA16" s="192"/>
+      <c r="AB16" s="192"/>
+      <c r="AC16" s="192"/>
+      <c r="AD16" s="192"/>
+      <c r="AE16" s="193"/>
+      <c r="AF16" s="188"/>
+      <c r="AG16" s="189"/>
+      <c r="AH16" s="189"/>
+      <c r="AI16" s="190"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="231"/>
-      <c r="C17" s="232"/>
-      <c r="D17" s="233"/>
-      <c r="E17" s="234"/>
-      <c r="F17" s="235"/>
-      <c r="G17" s="231"/>
-      <c r="H17" s="236"/>
-      <c r="I17" s="232"/>
-      <c r="J17" s="237"/>
-      <c r="K17" s="238"/>
-      <c r="L17" s="238"/>
-      <c r="M17" s="238"/>
-      <c r="N17" s="238"/>
-      <c r="O17" s="238"/>
-      <c r="P17" s="239"/>
-      <c r="Q17" s="240"/>
-      <c r="R17" s="241"/>
-      <c r="S17" s="241"/>
-      <c r="T17" s="241"/>
-      <c r="U17" s="241"/>
-      <c r="V17" s="241"/>
-      <c r="W17" s="241"/>
-      <c r="X17" s="241"/>
-      <c r="Y17" s="241"/>
-      <c r="Z17" s="241"/>
-      <c r="AA17" s="241"/>
-      <c r="AB17" s="241"/>
-      <c r="AC17" s="241"/>
-      <c r="AD17" s="241"/>
-      <c r="AE17" s="242"/>
-      <c r="AF17" s="237"/>
-      <c r="AG17" s="238"/>
-      <c r="AH17" s="238"/>
-      <c r="AI17" s="239"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="185"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="182"/>
+      <c r="H17" s="187"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="188"/>
+      <c r="K17" s="189"/>
+      <c r="L17" s="189"/>
+      <c r="M17" s="189"/>
+      <c r="N17" s="189"/>
+      <c r="O17" s="189"/>
+      <c r="P17" s="190"/>
+      <c r="Q17" s="191"/>
+      <c r="R17" s="192"/>
+      <c r="S17" s="192"/>
+      <c r="T17" s="192"/>
+      <c r="U17" s="192"/>
+      <c r="V17" s="192"/>
+      <c r="W17" s="192"/>
+      <c r="X17" s="192"/>
+      <c r="Y17" s="192"/>
+      <c r="Z17" s="192"/>
+      <c r="AA17" s="192"/>
+      <c r="AB17" s="192"/>
+      <c r="AC17" s="192"/>
+      <c r="AD17" s="192"/>
+      <c r="AE17" s="193"/>
+      <c r="AF17" s="188"/>
+      <c r="AG17" s="189"/>
+      <c r="AH17" s="189"/>
+      <c r="AI17" s="190"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="231"/>
-      <c r="C18" s="232"/>
-      <c r="D18" s="233"/>
-      <c r="E18" s="234"/>
-      <c r="F18" s="235"/>
-      <c r="G18" s="231"/>
-      <c r="H18" s="236"/>
-      <c r="I18" s="232"/>
-      <c r="J18" s="237"/>
-      <c r="K18" s="238"/>
-      <c r="L18" s="238"/>
-      <c r="M18" s="238"/>
-      <c r="N18" s="238"/>
-      <c r="O18" s="238"/>
-      <c r="P18" s="239"/>
-      <c r="Q18" s="240"/>
-      <c r="R18" s="241"/>
-      <c r="S18" s="241"/>
-      <c r="T18" s="241"/>
-      <c r="U18" s="241"/>
-      <c r="V18" s="241"/>
-      <c r="W18" s="241"/>
-      <c r="X18" s="241"/>
-      <c r="Y18" s="241"/>
-      <c r="Z18" s="241"/>
-      <c r="AA18" s="241"/>
-      <c r="AB18" s="241"/>
-      <c r="AC18" s="241"/>
-      <c r="AD18" s="241"/>
-      <c r="AE18" s="242"/>
-      <c r="AF18" s="237"/>
-      <c r="AG18" s="238"/>
-      <c r="AH18" s="238"/>
-      <c r="AI18" s="239"/>
+      <c r="B18" s="182"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="185"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="182"/>
+      <c r="H18" s="187"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="188"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="189"/>
+      <c r="M18" s="189"/>
+      <c r="N18" s="189"/>
+      <c r="O18" s="189"/>
+      <c r="P18" s="190"/>
+      <c r="Q18" s="191"/>
+      <c r="R18" s="192"/>
+      <c r="S18" s="192"/>
+      <c r="T18" s="192"/>
+      <c r="U18" s="192"/>
+      <c r="V18" s="192"/>
+      <c r="W18" s="192"/>
+      <c r="X18" s="192"/>
+      <c r="Y18" s="192"/>
+      <c r="Z18" s="192"/>
+      <c r="AA18" s="192"/>
+      <c r="AB18" s="192"/>
+      <c r="AC18" s="192"/>
+      <c r="AD18" s="192"/>
+      <c r="AE18" s="193"/>
+      <c r="AF18" s="188"/>
+      <c r="AG18" s="189"/>
+      <c r="AH18" s="189"/>
+      <c r="AI18" s="190"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="231"/>
-      <c r="C19" s="232"/>
-      <c r="D19" s="233"/>
-      <c r="E19" s="234"/>
-      <c r="F19" s="235"/>
-      <c r="G19" s="231"/>
-      <c r="H19" s="236"/>
-      <c r="I19" s="232"/>
-      <c r="J19" s="237"/>
-      <c r="K19" s="238"/>
-      <c r="L19" s="238"/>
-      <c r="M19" s="238"/>
-      <c r="N19" s="238"/>
-      <c r="O19" s="238"/>
-      <c r="P19" s="239"/>
-      <c r="Q19" s="240"/>
-      <c r="R19" s="241"/>
-      <c r="S19" s="241"/>
-      <c r="T19" s="241"/>
-      <c r="U19" s="241"/>
-      <c r="V19" s="241"/>
-      <c r="W19" s="241"/>
-      <c r="X19" s="241"/>
-      <c r="Y19" s="241"/>
-      <c r="Z19" s="241"/>
-      <c r="AA19" s="241"/>
-      <c r="AB19" s="241"/>
-      <c r="AC19" s="241"/>
-      <c r="AD19" s="241"/>
-      <c r="AE19" s="242"/>
-      <c r="AF19" s="237"/>
-      <c r="AG19" s="238"/>
-      <c r="AH19" s="238"/>
-      <c r="AI19" s="239"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="182"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="188"/>
+      <c r="K19" s="189"/>
+      <c r="L19" s="189"/>
+      <c r="M19" s="189"/>
+      <c r="N19" s="189"/>
+      <c r="O19" s="189"/>
+      <c r="P19" s="190"/>
+      <c r="Q19" s="191"/>
+      <c r="R19" s="192"/>
+      <c r="S19" s="192"/>
+      <c r="T19" s="192"/>
+      <c r="U19" s="192"/>
+      <c r="V19" s="192"/>
+      <c r="W19" s="192"/>
+      <c r="X19" s="192"/>
+      <c r="Y19" s="192"/>
+      <c r="Z19" s="192"/>
+      <c r="AA19" s="192"/>
+      <c r="AB19" s="192"/>
+      <c r="AC19" s="192"/>
+      <c r="AD19" s="192"/>
+      <c r="AE19" s="193"/>
+      <c r="AF19" s="188"/>
+      <c r="AG19" s="189"/>
+      <c r="AH19" s="189"/>
+      <c r="AI19" s="190"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="231"/>
-      <c r="C20" s="232"/>
-      <c r="D20" s="233"/>
-      <c r="E20" s="234"/>
-      <c r="F20" s="235"/>
-      <c r="G20" s="231"/>
-      <c r="H20" s="236"/>
-      <c r="I20" s="232"/>
-      <c r="J20" s="237"/>
-      <c r="K20" s="238"/>
-      <c r="L20" s="238"/>
-      <c r="M20" s="238"/>
-      <c r="N20" s="238"/>
-      <c r="O20" s="238"/>
-      <c r="P20" s="239"/>
-      <c r="Q20" s="240"/>
-      <c r="R20" s="241"/>
-      <c r="S20" s="241"/>
-      <c r="T20" s="241"/>
-      <c r="U20" s="241"/>
-      <c r="V20" s="241"/>
-      <c r="W20" s="241"/>
-      <c r="X20" s="241"/>
-      <c r="Y20" s="241"/>
-      <c r="Z20" s="241"/>
-      <c r="AA20" s="241"/>
-      <c r="AB20" s="241"/>
-      <c r="AC20" s="241"/>
-      <c r="AD20" s="241"/>
-      <c r="AE20" s="242"/>
-      <c r="AF20" s="237"/>
-      <c r="AG20" s="238"/>
-      <c r="AH20" s="238"/>
-      <c r="AI20" s="239"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="187"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="188"/>
+      <c r="K20" s="189"/>
+      <c r="L20" s="189"/>
+      <c r="M20" s="189"/>
+      <c r="N20" s="189"/>
+      <c r="O20" s="189"/>
+      <c r="P20" s="190"/>
+      <c r="Q20" s="191"/>
+      <c r="R20" s="192"/>
+      <c r="S20" s="192"/>
+      <c r="T20" s="192"/>
+      <c r="U20" s="192"/>
+      <c r="V20" s="192"/>
+      <c r="W20" s="192"/>
+      <c r="X20" s="192"/>
+      <c r="Y20" s="192"/>
+      <c r="Z20" s="192"/>
+      <c r="AA20" s="192"/>
+      <c r="AB20" s="192"/>
+      <c r="AC20" s="192"/>
+      <c r="AD20" s="192"/>
+      <c r="AE20" s="193"/>
+      <c r="AF20" s="188"/>
+      <c r="AG20" s="189"/>
+      <c r="AH20" s="189"/>
+      <c r="AI20" s="190"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="231"/>
-      <c r="C21" s="232"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="234"/>
-      <c r="F21" s="235"/>
-      <c r="G21" s="231"/>
-      <c r="H21" s="236"/>
-      <c r="I21" s="232"/>
-      <c r="J21" s="237"/>
-      <c r="K21" s="238"/>
-      <c r="L21" s="238"/>
-      <c r="M21" s="238"/>
-      <c r="N21" s="238"/>
-      <c r="O21" s="238"/>
-      <c r="P21" s="239"/>
-      <c r="Q21" s="240"/>
-      <c r="R21" s="241"/>
-      <c r="S21" s="241"/>
-      <c r="T21" s="241"/>
-      <c r="U21" s="241"/>
-      <c r="V21" s="241"/>
-      <c r="W21" s="241"/>
-      <c r="X21" s="241"/>
-      <c r="Y21" s="241"/>
-      <c r="Z21" s="241"/>
-      <c r="AA21" s="241"/>
-      <c r="AB21" s="241"/>
-      <c r="AC21" s="241"/>
-      <c r="AD21" s="241"/>
-      <c r="AE21" s="242"/>
-      <c r="AF21" s="237"/>
-      <c r="AG21" s="238"/>
-      <c r="AH21" s="238"/>
-      <c r="AI21" s="239"/>
+      <c r="B21" s="182"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="182"/>
+      <c r="H21" s="187"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="188"/>
+      <c r="K21" s="189"/>
+      <c r="L21" s="189"/>
+      <c r="M21" s="189"/>
+      <c r="N21" s="189"/>
+      <c r="O21" s="189"/>
+      <c r="P21" s="190"/>
+      <c r="Q21" s="191"/>
+      <c r="R21" s="192"/>
+      <c r="S21" s="192"/>
+      <c r="T21" s="192"/>
+      <c r="U21" s="192"/>
+      <c r="V21" s="192"/>
+      <c r="W21" s="192"/>
+      <c r="X21" s="192"/>
+      <c r="Y21" s="192"/>
+      <c r="Z21" s="192"/>
+      <c r="AA21" s="192"/>
+      <c r="AB21" s="192"/>
+      <c r="AC21" s="192"/>
+      <c r="AD21" s="192"/>
+      <c r="AE21" s="193"/>
+      <c r="AF21" s="188"/>
+      <c r="AG21" s="189"/>
+      <c r="AH21" s="189"/>
+      <c r="AI21" s="190"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="231"/>
-      <c r="C22" s="232"/>
-      <c r="D22" s="233"/>
-      <c r="E22" s="234"/>
-      <c r="F22" s="235"/>
-      <c r="G22" s="231"/>
-      <c r="H22" s="236"/>
-      <c r="I22" s="232"/>
-      <c r="J22" s="237"/>
-      <c r="K22" s="238"/>
-      <c r="L22" s="238"/>
-      <c r="M22" s="238"/>
-      <c r="N22" s="238"/>
-      <c r="O22" s="238"/>
-      <c r="P22" s="239"/>
-      <c r="Q22" s="240"/>
-      <c r="R22" s="241"/>
-      <c r="S22" s="241"/>
-      <c r="T22" s="241"/>
-      <c r="U22" s="241"/>
-      <c r="V22" s="241"/>
-      <c r="W22" s="241"/>
-      <c r="X22" s="241"/>
-      <c r="Y22" s="241"/>
-      <c r="Z22" s="241"/>
-      <c r="AA22" s="241"/>
-      <c r="AB22" s="241"/>
-      <c r="AC22" s="241"/>
-      <c r="AD22" s="241"/>
-      <c r="AE22" s="242"/>
-      <c r="AF22" s="237"/>
-      <c r="AG22" s="238"/>
-      <c r="AH22" s="238"/>
-      <c r="AI22" s="239"/>
+      <c r="B22" s="182"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="189"/>
+      <c r="L22" s="189"/>
+      <c r="M22" s="189"/>
+      <c r="N22" s="189"/>
+      <c r="O22" s="189"/>
+      <c r="P22" s="190"/>
+      <c r="Q22" s="191"/>
+      <c r="R22" s="192"/>
+      <c r="S22" s="192"/>
+      <c r="T22" s="192"/>
+      <c r="U22" s="192"/>
+      <c r="V22" s="192"/>
+      <c r="W22" s="192"/>
+      <c r="X22" s="192"/>
+      <c r="Y22" s="192"/>
+      <c r="Z22" s="192"/>
+      <c r="AA22" s="192"/>
+      <c r="AB22" s="192"/>
+      <c r="AC22" s="192"/>
+      <c r="AD22" s="192"/>
+      <c r="AE22" s="193"/>
+      <c r="AF22" s="188"/>
+      <c r="AG22" s="189"/>
+      <c r="AH22" s="189"/>
+      <c r="AI22" s="190"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="231"/>
-      <c r="C23" s="232"/>
-      <c r="D23" s="233"/>
-      <c r="E23" s="234"/>
-      <c r="F23" s="235"/>
-      <c r="G23" s="231"/>
-      <c r="H23" s="236"/>
-      <c r="I23" s="232"/>
-      <c r="J23" s="237"/>
-      <c r="K23" s="238"/>
-      <c r="L23" s="238"/>
-      <c r="M23" s="238"/>
-      <c r="N23" s="238"/>
-      <c r="O23" s="238"/>
-      <c r="P23" s="239"/>
-      <c r="Q23" s="240"/>
-      <c r="R23" s="241"/>
-      <c r="S23" s="241"/>
-      <c r="T23" s="241"/>
-      <c r="U23" s="241"/>
-      <c r="V23" s="241"/>
-      <c r="W23" s="241"/>
-      <c r="X23" s="241"/>
-      <c r="Y23" s="241"/>
-      <c r="Z23" s="241"/>
-      <c r="AA23" s="241"/>
-      <c r="AB23" s="241"/>
-      <c r="AC23" s="241"/>
-      <c r="AD23" s="241"/>
-      <c r="AE23" s="242"/>
-      <c r="AF23" s="237"/>
-      <c r="AG23" s="238"/>
-      <c r="AH23" s="238"/>
-      <c r="AI23" s="239"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="187"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="189"/>
+      <c r="L23" s="189"/>
+      <c r="M23" s="189"/>
+      <c r="N23" s="189"/>
+      <c r="O23" s="189"/>
+      <c r="P23" s="190"/>
+      <c r="Q23" s="191"/>
+      <c r="R23" s="192"/>
+      <c r="S23" s="192"/>
+      <c r="T23" s="192"/>
+      <c r="U23" s="192"/>
+      <c r="V23" s="192"/>
+      <c r="W23" s="192"/>
+      <c r="X23" s="192"/>
+      <c r="Y23" s="192"/>
+      <c r="Z23" s="192"/>
+      <c r="AA23" s="192"/>
+      <c r="AB23" s="192"/>
+      <c r="AC23" s="192"/>
+      <c r="AD23" s="192"/>
+      <c r="AE23" s="193"/>
+      <c r="AF23" s="188"/>
+      <c r="AG23" s="189"/>
+      <c r="AH23" s="189"/>
+      <c r="AI23" s="190"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="231"/>
-      <c r="C24" s="232"/>
-      <c r="D24" s="233"/>
-      <c r="E24" s="234"/>
-      <c r="F24" s="235"/>
-      <c r="G24" s="231"/>
-      <c r="H24" s="236"/>
-      <c r="I24" s="232"/>
-      <c r="J24" s="237"/>
-      <c r="K24" s="238"/>
-      <c r="L24" s="238"/>
-      <c r="M24" s="238"/>
-      <c r="N24" s="238"/>
-      <c r="O24" s="238"/>
-      <c r="P24" s="239"/>
-      <c r="Q24" s="240"/>
-      <c r="R24" s="241"/>
-      <c r="S24" s="241"/>
-      <c r="T24" s="241"/>
-      <c r="U24" s="241"/>
-      <c r="V24" s="241"/>
-      <c r="W24" s="241"/>
-      <c r="X24" s="241"/>
-      <c r="Y24" s="241"/>
-      <c r="Z24" s="241"/>
-      <c r="AA24" s="241"/>
-      <c r="AB24" s="241"/>
-      <c r="AC24" s="241"/>
-      <c r="AD24" s="241"/>
-      <c r="AE24" s="242"/>
-      <c r="AF24" s="237"/>
-      <c r="AG24" s="238"/>
-      <c r="AH24" s="238"/>
-      <c r="AI24" s="239"/>
+      <c r="B24" s="182"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="185"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="188"/>
+      <c r="K24" s="189"/>
+      <c r="L24" s="189"/>
+      <c r="M24" s="189"/>
+      <c r="N24" s="189"/>
+      <c r="O24" s="189"/>
+      <c r="P24" s="190"/>
+      <c r="Q24" s="191"/>
+      <c r="R24" s="192"/>
+      <c r="S24" s="192"/>
+      <c r="T24" s="192"/>
+      <c r="U24" s="192"/>
+      <c r="V24" s="192"/>
+      <c r="W24" s="192"/>
+      <c r="X24" s="192"/>
+      <c r="Y24" s="192"/>
+      <c r="Z24" s="192"/>
+      <c r="AA24" s="192"/>
+      <c r="AB24" s="192"/>
+      <c r="AC24" s="192"/>
+      <c r="AD24" s="192"/>
+      <c r="AE24" s="193"/>
+      <c r="AF24" s="188"/>
+      <c r="AG24" s="189"/>
+      <c r="AH24" s="189"/>
+      <c r="AI24" s="190"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="231"/>
-      <c r="C25" s="232"/>
-      <c r="D25" s="233"/>
-      <c r="E25" s="234"/>
-      <c r="F25" s="235"/>
-      <c r="G25" s="231"/>
-      <c r="H25" s="236"/>
-      <c r="I25" s="232"/>
-      <c r="J25" s="237"/>
-      <c r="K25" s="238"/>
-      <c r="L25" s="238"/>
-      <c r="M25" s="238"/>
-      <c r="N25" s="238"/>
-      <c r="O25" s="238"/>
-      <c r="P25" s="239"/>
-      <c r="Q25" s="240"/>
-      <c r="R25" s="241"/>
-      <c r="S25" s="241"/>
-      <c r="T25" s="241"/>
-      <c r="U25" s="241"/>
-      <c r="V25" s="241"/>
-      <c r="W25" s="241"/>
-      <c r="X25" s="241"/>
-      <c r="Y25" s="241"/>
-      <c r="Z25" s="241"/>
-      <c r="AA25" s="241"/>
-      <c r="AB25" s="241"/>
-      <c r="AC25" s="241"/>
-      <c r="AD25" s="241"/>
-      <c r="AE25" s="242"/>
-      <c r="AF25" s="237"/>
-      <c r="AG25" s="238"/>
-      <c r="AH25" s="238"/>
-      <c r="AI25" s="239"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="188"/>
+      <c r="K25" s="189"/>
+      <c r="L25" s="189"/>
+      <c r="M25" s="189"/>
+      <c r="N25" s="189"/>
+      <c r="O25" s="189"/>
+      <c r="P25" s="190"/>
+      <c r="Q25" s="191"/>
+      <c r="R25" s="192"/>
+      <c r="S25" s="192"/>
+      <c r="T25" s="192"/>
+      <c r="U25" s="192"/>
+      <c r="V25" s="192"/>
+      <c r="W25" s="192"/>
+      <c r="X25" s="192"/>
+      <c r="Y25" s="192"/>
+      <c r="Z25" s="192"/>
+      <c r="AA25" s="192"/>
+      <c r="AB25" s="192"/>
+      <c r="AC25" s="192"/>
+      <c r="AD25" s="192"/>
+      <c r="AE25" s="193"/>
+      <c r="AF25" s="188"/>
+      <c r="AG25" s="189"/>
+      <c r="AH25" s="189"/>
+      <c r="AI25" s="190"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="231"/>
-      <c r="C26" s="232"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="234"/>
-      <c r="F26" s="235"/>
-      <c r="G26" s="231"/>
-      <c r="H26" s="236"/>
-      <c r="I26" s="232"/>
-      <c r="J26" s="237"/>
-      <c r="K26" s="238"/>
-      <c r="L26" s="238"/>
-      <c r="M26" s="238"/>
-      <c r="N26" s="238"/>
-      <c r="O26" s="238"/>
-      <c r="P26" s="239"/>
-      <c r="Q26" s="240"/>
-      <c r="R26" s="241"/>
-      <c r="S26" s="241"/>
-      <c r="T26" s="241"/>
-      <c r="U26" s="241"/>
-      <c r="V26" s="241"/>
-      <c r="W26" s="241"/>
-      <c r="X26" s="241"/>
-      <c r="Y26" s="241"/>
-      <c r="Z26" s="241"/>
-      <c r="AA26" s="241"/>
-      <c r="AB26" s="241"/>
-      <c r="AC26" s="241"/>
-      <c r="AD26" s="241"/>
-      <c r="AE26" s="242"/>
-      <c r="AF26" s="237"/>
-      <c r="AG26" s="238"/>
-      <c r="AH26" s="238"/>
-      <c r="AI26" s="239"/>
+      <c r="B26" s="182"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="184"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="182"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="188"/>
+      <c r="K26" s="189"/>
+      <c r="L26" s="189"/>
+      <c r="M26" s="189"/>
+      <c r="N26" s="189"/>
+      <c r="O26" s="189"/>
+      <c r="P26" s="190"/>
+      <c r="Q26" s="191"/>
+      <c r="R26" s="192"/>
+      <c r="S26" s="192"/>
+      <c r="T26" s="192"/>
+      <c r="U26" s="192"/>
+      <c r="V26" s="192"/>
+      <c r="W26" s="192"/>
+      <c r="X26" s="192"/>
+      <c r="Y26" s="192"/>
+      <c r="Z26" s="192"/>
+      <c r="AA26" s="192"/>
+      <c r="AB26" s="192"/>
+      <c r="AC26" s="192"/>
+      <c r="AD26" s="192"/>
+      <c r="AE26" s="193"/>
+      <c r="AF26" s="188"/>
+      <c r="AG26" s="189"/>
+      <c r="AH26" s="189"/>
+      <c r="AI26" s="190"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="231"/>
-      <c r="C27" s="232"/>
-      <c r="D27" s="233"/>
-      <c r="E27" s="234"/>
-      <c r="F27" s="235"/>
-      <c r="G27" s="231"/>
-      <c r="H27" s="236"/>
-      <c r="I27" s="232"/>
-      <c r="J27" s="237"/>
-      <c r="K27" s="238"/>
-      <c r="L27" s="238"/>
-      <c r="M27" s="238"/>
-      <c r="N27" s="238"/>
-      <c r="O27" s="238"/>
-      <c r="P27" s="239"/>
-      <c r="Q27" s="240"/>
-      <c r="R27" s="241"/>
-      <c r="S27" s="241"/>
-      <c r="T27" s="241"/>
-      <c r="U27" s="241"/>
-      <c r="V27" s="241"/>
-      <c r="W27" s="241"/>
-      <c r="X27" s="241"/>
-      <c r="Y27" s="241"/>
-      <c r="Z27" s="241"/>
-      <c r="AA27" s="241"/>
-      <c r="AB27" s="241"/>
-      <c r="AC27" s="241"/>
-      <c r="AD27" s="241"/>
-      <c r="AE27" s="242"/>
-      <c r="AF27" s="237"/>
-      <c r="AG27" s="238"/>
-      <c r="AH27" s="238"/>
-      <c r="AI27" s="239"/>
+      <c r="B27" s="182"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="185"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="187"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="188"/>
+      <c r="K27" s="189"/>
+      <c r="L27" s="189"/>
+      <c r="M27" s="189"/>
+      <c r="N27" s="189"/>
+      <c r="O27" s="189"/>
+      <c r="P27" s="190"/>
+      <c r="Q27" s="191"/>
+      <c r="R27" s="192"/>
+      <c r="S27" s="192"/>
+      <c r="T27" s="192"/>
+      <c r="U27" s="192"/>
+      <c r="V27" s="192"/>
+      <c r="W27" s="192"/>
+      <c r="X27" s="192"/>
+      <c r="Y27" s="192"/>
+      <c r="Z27" s="192"/>
+      <c r="AA27" s="192"/>
+      <c r="AB27" s="192"/>
+      <c r="AC27" s="192"/>
+      <c r="AD27" s="192"/>
+      <c r="AE27" s="193"/>
+      <c r="AF27" s="188"/>
+      <c r="AG27" s="189"/>
+      <c r="AH27" s="189"/>
+      <c r="AI27" s="190"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="231"/>
-      <c r="C28" s="232"/>
-      <c r="D28" s="233"/>
-      <c r="E28" s="234"/>
-      <c r="F28" s="235"/>
-      <c r="G28" s="231"/>
-      <c r="H28" s="236"/>
-      <c r="I28" s="232"/>
-      <c r="J28" s="237"/>
-      <c r="K28" s="238"/>
-      <c r="L28" s="238"/>
-      <c r="M28" s="238"/>
-      <c r="N28" s="238"/>
-      <c r="O28" s="238"/>
-      <c r="P28" s="239"/>
-      <c r="Q28" s="240"/>
-      <c r="R28" s="241"/>
-      <c r="S28" s="241"/>
-      <c r="T28" s="241"/>
-      <c r="U28" s="241"/>
-      <c r="V28" s="241"/>
-      <c r="W28" s="241"/>
-      <c r="X28" s="241"/>
-      <c r="Y28" s="241"/>
-      <c r="Z28" s="241"/>
-      <c r="AA28" s="241"/>
-      <c r="AB28" s="241"/>
-      <c r="AC28" s="241"/>
-      <c r="AD28" s="241"/>
-      <c r="AE28" s="242"/>
-      <c r="AF28" s="237"/>
-      <c r="AG28" s="238"/>
-      <c r="AH28" s="238"/>
-      <c r="AI28" s="239"/>
+      <c r="B28" s="182"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="188"/>
+      <c r="K28" s="189"/>
+      <c r="L28" s="189"/>
+      <c r="M28" s="189"/>
+      <c r="N28" s="189"/>
+      <c r="O28" s="189"/>
+      <c r="P28" s="190"/>
+      <c r="Q28" s="191"/>
+      <c r="R28" s="192"/>
+      <c r="S28" s="192"/>
+      <c r="T28" s="192"/>
+      <c r="U28" s="192"/>
+      <c r="V28" s="192"/>
+      <c r="W28" s="192"/>
+      <c r="X28" s="192"/>
+      <c r="Y28" s="192"/>
+      <c r="Z28" s="192"/>
+      <c r="AA28" s="192"/>
+      <c r="AB28" s="192"/>
+      <c r="AC28" s="192"/>
+      <c r="AD28" s="192"/>
+      <c r="AE28" s="193"/>
+      <c r="AF28" s="188"/>
+      <c r="AG28" s="189"/>
+      <c r="AH28" s="189"/>
+      <c r="AI28" s="190"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="231"/>
-      <c r="C29" s="232"/>
-      <c r="D29" s="233"/>
-      <c r="E29" s="234"/>
-      <c r="F29" s="235"/>
-      <c r="G29" s="231"/>
-      <c r="H29" s="236"/>
-      <c r="I29" s="232"/>
-      <c r="J29" s="237"/>
-      <c r="K29" s="238"/>
-      <c r="L29" s="238"/>
-      <c r="M29" s="238"/>
-      <c r="N29" s="238"/>
-      <c r="O29" s="238"/>
-      <c r="P29" s="239"/>
-      <c r="Q29" s="240"/>
-      <c r="R29" s="241"/>
-      <c r="S29" s="241"/>
-      <c r="T29" s="241"/>
-      <c r="U29" s="241"/>
-      <c r="V29" s="241"/>
-      <c r="W29" s="241"/>
-      <c r="X29" s="241"/>
-      <c r="Y29" s="241"/>
-      <c r="Z29" s="241"/>
-      <c r="AA29" s="241"/>
-      <c r="AB29" s="241"/>
-      <c r="AC29" s="241"/>
-      <c r="AD29" s="241"/>
-      <c r="AE29" s="242"/>
-      <c r="AF29" s="237"/>
-      <c r="AG29" s="238"/>
-      <c r="AH29" s="238"/>
-      <c r="AI29" s="239"/>
+      <c r="B29" s="182"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="184"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="188"/>
+      <c r="K29" s="189"/>
+      <c r="L29" s="189"/>
+      <c r="M29" s="189"/>
+      <c r="N29" s="189"/>
+      <c r="O29" s="189"/>
+      <c r="P29" s="190"/>
+      <c r="Q29" s="191"/>
+      <c r="R29" s="192"/>
+      <c r="S29" s="192"/>
+      <c r="T29" s="192"/>
+      <c r="U29" s="192"/>
+      <c r="V29" s="192"/>
+      <c r="W29" s="192"/>
+      <c r="X29" s="192"/>
+      <c r="Y29" s="192"/>
+      <c r="Z29" s="192"/>
+      <c r="AA29" s="192"/>
+      <c r="AB29" s="192"/>
+      <c r="AC29" s="192"/>
+      <c r="AD29" s="192"/>
+      <c r="AE29" s="193"/>
+      <c r="AF29" s="188"/>
+      <c r="AG29" s="189"/>
+      <c r="AH29" s="189"/>
+      <c r="AI29" s="190"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="231"/>
-      <c r="C30" s="232"/>
-      <c r="D30" s="233"/>
-      <c r="E30" s="234"/>
-      <c r="F30" s="235"/>
-      <c r="G30" s="231"/>
-      <c r="H30" s="236"/>
-      <c r="I30" s="232"/>
-      <c r="J30" s="237"/>
-      <c r="K30" s="238"/>
-      <c r="L30" s="238"/>
-      <c r="M30" s="238"/>
-      <c r="N30" s="238"/>
-      <c r="O30" s="238"/>
-      <c r="P30" s="239"/>
-      <c r="Q30" s="240"/>
-      <c r="R30" s="241"/>
-      <c r="S30" s="241"/>
-      <c r="T30" s="241"/>
-      <c r="U30" s="241"/>
-      <c r="V30" s="241"/>
-      <c r="W30" s="241"/>
-      <c r="X30" s="241"/>
-      <c r="Y30" s="241"/>
-      <c r="Z30" s="241"/>
-      <c r="AA30" s="241"/>
-      <c r="AB30" s="241"/>
-      <c r="AC30" s="241"/>
-      <c r="AD30" s="241"/>
-      <c r="AE30" s="242"/>
-      <c r="AF30" s="237"/>
-      <c r="AG30" s="238"/>
-      <c r="AH30" s="238"/>
-      <c r="AI30" s="239"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="183"/>
+      <c r="D30" s="184"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="188"/>
+      <c r="K30" s="189"/>
+      <c r="L30" s="189"/>
+      <c r="M30" s="189"/>
+      <c r="N30" s="189"/>
+      <c r="O30" s="189"/>
+      <c r="P30" s="190"/>
+      <c r="Q30" s="191"/>
+      <c r="R30" s="192"/>
+      <c r="S30" s="192"/>
+      <c r="T30" s="192"/>
+      <c r="U30" s="192"/>
+      <c r="V30" s="192"/>
+      <c r="W30" s="192"/>
+      <c r="X30" s="192"/>
+      <c r="Y30" s="192"/>
+      <c r="Z30" s="192"/>
+      <c r="AA30" s="192"/>
+      <c r="AB30" s="192"/>
+      <c r="AC30" s="192"/>
+      <c r="AD30" s="192"/>
+      <c r="AE30" s="193"/>
+      <c r="AF30" s="188"/>
+      <c r="AG30" s="189"/>
+      <c r="AH30" s="189"/>
+      <c r="AI30" s="190"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="231"/>
-      <c r="C31" s="232"/>
-      <c r="D31" s="233"/>
-      <c r="E31" s="234"/>
-      <c r="F31" s="235"/>
-      <c r="G31" s="231"/>
-      <c r="H31" s="236"/>
-      <c r="I31" s="232"/>
-      <c r="J31" s="237"/>
-      <c r="K31" s="238"/>
-      <c r="L31" s="238"/>
-      <c r="M31" s="238"/>
-      <c r="N31" s="238"/>
-      <c r="O31" s="238"/>
-      <c r="P31" s="239"/>
-      <c r="Q31" s="240"/>
-      <c r="R31" s="241"/>
-      <c r="S31" s="241"/>
-      <c r="T31" s="241"/>
-      <c r="U31" s="241"/>
-      <c r="V31" s="241"/>
-      <c r="W31" s="241"/>
-      <c r="X31" s="241"/>
-      <c r="Y31" s="241"/>
-      <c r="Z31" s="241"/>
-      <c r="AA31" s="241"/>
-      <c r="AB31" s="241"/>
-      <c r="AC31" s="241"/>
-      <c r="AD31" s="241"/>
-      <c r="AE31" s="242"/>
-      <c r="AF31" s="237"/>
-      <c r="AG31" s="238"/>
-      <c r="AH31" s="238"/>
-      <c r="AI31" s="239"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="188"/>
+      <c r="K31" s="189"/>
+      <c r="L31" s="189"/>
+      <c r="M31" s="189"/>
+      <c r="N31" s="189"/>
+      <c r="O31" s="189"/>
+      <c r="P31" s="190"/>
+      <c r="Q31" s="191"/>
+      <c r="R31" s="192"/>
+      <c r="S31" s="192"/>
+      <c r="T31" s="192"/>
+      <c r="U31" s="192"/>
+      <c r="V31" s="192"/>
+      <c r="W31" s="192"/>
+      <c r="X31" s="192"/>
+      <c r="Y31" s="192"/>
+      <c r="Z31" s="192"/>
+      <c r="AA31" s="192"/>
+      <c r="AB31" s="192"/>
+      <c r="AC31" s="192"/>
+      <c r="AD31" s="192"/>
+      <c r="AE31" s="193"/>
+      <c r="AF31" s="188"/>
+      <c r="AG31" s="189"/>
+      <c r="AH31" s="189"/>
+      <c r="AI31" s="190"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="231"/>
-      <c r="C32" s="232"/>
-      <c r="D32" s="233"/>
-      <c r="E32" s="234"/>
-      <c r="F32" s="235"/>
-      <c r="G32" s="231"/>
-      <c r="H32" s="236"/>
-      <c r="I32" s="232"/>
-      <c r="J32" s="237"/>
-      <c r="K32" s="243"/>
-      <c r="L32" s="238"/>
-      <c r="M32" s="238"/>
-      <c r="N32" s="238"/>
-      <c r="O32" s="238"/>
-      <c r="P32" s="239"/>
-      <c r="Q32" s="240"/>
-      <c r="R32" s="241"/>
-      <c r="S32" s="241"/>
-      <c r="T32" s="241"/>
-      <c r="U32" s="241"/>
-      <c r="V32" s="241"/>
-      <c r="W32" s="241"/>
-      <c r="X32" s="241"/>
-      <c r="Y32" s="241"/>
-      <c r="Z32" s="241"/>
-      <c r="AA32" s="241"/>
-      <c r="AB32" s="241"/>
-      <c r="AC32" s="241"/>
-      <c r="AD32" s="241"/>
-      <c r="AE32" s="242"/>
-      <c r="AF32" s="237"/>
-      <c r="AG32" s="238"/>
-      <c r="AH32" s="238"/>
-      <c r="AI32" s="239"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="188"/>
+      <c r="K32" s="194"/>
+      <c r="L32" s="189"/>
+      <c r="M32" s="189"/>
+      <c r="N32" s="189"/>
+      <c r="O32" s="189"/>
+      <c r="P32" s="190"/>
+      <c r="Q32" s="191"/>
+      <c r="R32" s="192"/>
+      <c r="S32" s="192"/>
+      <c r="T32" s="192"/>
+      <c r="U32" s="192"/>
+      <c r="V32" s="192"/>
+      <c r="W32" s="192"/>
+      <c r="X32" s="192"/>
+      <c r="Y32" s="192"/>
+      <c r="Z32" s="192"/>
+      <c r="AA32" s="192"/>
+      <c r="AB32" s="192"/>
+      <c r="AC32" s="192"/>
+      <c r="AD32" s="192"/>
+      <c r="AE32" s="193"/>
+      <c r="AF32" s="188"/>
+      <c r="AG32" s="189"/>
+      <c r="AH32" s="189"/>
+      <c r="AI32" s="190"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="231"/>
-      <c r="C33" s="232"/>
-      <c r="D33" s="233"/>
-      <c r="E33" s="234"/>
-      <c r="F33" s="235"/>
-      <c r="G33" s="231"/>
-      <c r="H33" s="236"/>
-      <c r="I33" s="232"/>
-      <c r="J33" s="237"/>
-      <c r="K33" s="238"/>
-      <c r="L33" s="238"/>
-      <c r="M33" s="238"/>
-      <c r="N33" s="238"/>
-      <c r="O33" s="238"/>
-      <c r="P33" s="239"/>
-      <c r="Q33" s="240"/>
-      <c r="R33" s="241"/>
-      <c r="S33" s="241"/>
-      <c r="T33" s="241"/>
-      <c r="U33" s="241"/>
-      <c r="V33" s="241"/>
-      <c r="W33" s="241"/>
-      <c r="X33" s="241"/>
-      <c r="Y33" s="241"/>
-      <c r="Z33" s="241"/>
-      <c r="AA33" s="241"/>
-      <c r="AB33" s="241"/>
-      <c r="AC33" s="241"/>
-      <c r="AD33" s="241"/>
-      <c r="AE33" s="242"/>
-      <c r="AF33" s="237"/>
-      <c r="AG33" s="238"/>
-      <c r="AH33" s="238"/>
-      <c r="AI33" s="239"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="188"/>
+      <c r="K33" s="189"/>
+      <c r="L33" s="189"/>
+      <c r="M33" s="189"/>
+      <c r="N33" s="189"/>
+      <c r="O33" s="189"/>
+      <c r="P33" s="190"/>
+      <c r="Q33" s="191"/>
+      <c r="R33" s="192"/>
+      <c r="S33" s="192"/>
+      <c r="T33" s="192"/>
+      <c r="U33" s="192"/>
+      <c r="V33" s="192"/>
+      <c r="W33" s="192"/>
+      <c r="X33" s="192"/>
+      <c r="Y33" s="192"/>
+      <c r="Z33" s="192"/>
+      <c r="AA33" s="192"/>
+      <c r="AB33" s="192"/>
+      <c r="AC33" s="192"/>
+      <c r="AD33" s="192"/>
+      <c r="AE33" s="193"/>
+      <c r="AF33" s="188"/>
+      <c r="AG33" s="189"/>
+      <c r="AH33" s="189"/>
+      <c r="AI33" s="190"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -10982,167 +11143,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -31516,15 +31516,15 @@
     <row r="296" spans="1:18" ht="45">
       <c r="A296" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A296" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E296),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E296)&gt;0)*ROW($E$296:E296),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E296),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E296)&gt;0)*ROW($E$11:E296),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F296),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F296)&gt;0)*ROW($F$296:F296),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F296)&gt;0)*ROW($F$11:F296),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J296),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>1-1-1</v>
+        <v>101-1-1</v>
       </c>
       <c r="B296" s="105" t="s">
         <v>454</v>
@@ -31557,15 +31557,15 @@
     <row r="297" spans="1:18" ht="45">
       <c r="A297" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A297" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E297),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E297)&gt;0)*ROW($E$296:E297),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E297),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E297)&gt;0)*ROW($E$11:E297),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F297),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F297)&gt;0)*ROW($F$296:F297),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F297)&gt;0)*ROW($F$11:F297),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J297),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>1-2-1</v>
+        <v>101-2-1</v>
       </c>
       <c r="B297" s="106"/>
       <c r="C297" s="106"/>
@@ -31590,15 +31590,15 @@
     <row r="298" spans="1:18" ht="45">
       <c r="A298" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A298" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E298),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E298)&gt;0)*ROW($E$296:E298),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E298),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E298)&gt;0)*ROW($E$11:E298),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F298),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F298)&gt;0)*ROW($F$296:F298),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F298)&gt;0)*ROW($F$11:F298),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J298),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>1-3-1</v>
+        <v>101-3-1</v>
       </c>
       <c r="B298" s="106"/>
       <c r="C298" s="106"/>
@@ -31623,15 +31623,15 @@
     <row r="299" spans="1:18" ht="33.75">
       <c r="A299" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A299" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E299),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E299)&gt;0)*ROW($E$296:E299),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E299),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E299)&gt;0)*ROW($E$11:E299),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F299),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F299)&gt;0)*ROW($F$296:F299),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F299)&gt;0)*ROW($F$11:F299),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J299),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>1-4-1</v>
+        <v>101-4-1</v>
       </c>
       <c r="B299" s="106"/>
       <c r="C299" s="106"/>
@@ -31656,15 +31656,15 @@
     <row r="300" spans="1:18" ht="33.75">
       <c r="A300" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A300" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E300),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E300)&gt;0)*ROW($E$296:E300),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E300),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E300)&gt;0)*ROW($E$11:E300),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F300),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F300)&gt;0)*ROW($F$296:F300),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F300)&gt;0)*ROW($F$11:F300),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J300),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>2-1-1</v>
+        <v>102-1-1</v>
       </c>
       <c r="B300" s="106"/>
       <c r="C300" s="106"/>
@@ -31691,15 +31691,15 @@
     <row r="301" spans="1:18" ht="33.75">
       <c r="A301" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A301" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E301),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E301)&gt;0)*ROW($E$296:E301),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E301),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E301)&gt;0)*ROW($E$11:E301),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F301),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F301)&gt;0)*ROW($F$296:F301),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F301)&gt;0)*ROW($F$11:F301),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J301),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>3-1-1</v>
+        <v>103-1-1</v>
       </c>
       <c r="B301" s="106"/>
       <c r="C301" s="106"/>
@@ -31726,15 +31726,15 @@
     <row r="302" spans="1:18" ht="33.75">
       <c r="A302" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A302" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E302),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E302)&gt;0)*ROW($E$296:E302),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E302),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E302)&gt;0)*ROW($E$11:E302),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F302),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F302)&gt;0)*ROW($F$296:F302),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F302)&gt;0)*ROW($F$11:F302),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J302),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>4-1-1</v>
+        <v>104-1-1</v>
       </c>
       <c r="B302" s="106"/>
       <c r="C302" s="106"/>
@@ -31763,15 +31763,15 @@
     <row r="303" spans="1:18" ht="33.75">
       <c r="A303" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A303" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E303),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E303)&gt;0)*ROW($E$296:E303),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E303),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E303)&gt;0)*ROW($E$11:E303),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F303),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F303)&gt;0)*ROW($F$296:F303),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F303)&gt;0)*ROW($F$11:F303),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J303),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>5-1-1</v>
+        <v>105-1-1</v>
       </c>
       <c r="B303" s="106"/>
       <c r="C303" s="106"/>
@@ -31800,15 +31800,15 @@
     <row r="304" spans="1:18" ht="33.75">
       <c r="A304" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A304" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E304),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E304)&gt;0)*ROW($E$296:E304),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E304),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E304)&gt;0)*ROW($E$11:E304),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F304),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F304)&gt;0)*ROW($F$296:F304),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F304)&gt;0)*ROW($F$11:F304),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J304),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>6-1-1</v>
+        <v>106-1-1</v>
       </c>
       <c r="B304" s="106"/>
       <c r="C304" s="106"/>
@@ -31837,15 +31837,15 @@
     <row r="305" spans="1:18" ht="33.75">
       <c r="A305" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A305" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E305),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E305)&gt;0)*ROW($E$296:E305),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E305),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E305)&gt;0)*ROW($E$11:E305),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F305),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F305)&gt;0)*ROW($F$296:F305),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F305)&gt;0)*ROW($F$11:F305),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J305),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>6-2-1</v>
+        <v>106-2-1</v>
       </c>
       <c r="B305" s="106"/>
       <c r="C305" s="106"/>
@@ -31870,15 +31870,15 @@
     <row r="306" spans="1:18">
       <c r="A306" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A306" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E306),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E306)&gt;0)*ROW($E$296:E306),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E306),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E306)&gt;0)*ROW($E$11:E306),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F306),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F306)&gt;0)*ROW($F$296:F306),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F306)&gt;0)*ROW($F$11:F306),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J306),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>6-3-1</v>
+        <v>106-3-1</v>
       </c>
       <c r="B306" s="106"/>
       <c r="C306" s="106"/>
@@ -31903,15 +31903,15 @@
     <row r="307" spans="1:18" ht="33.75">
       <c r="A307" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A307" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E307),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E307)&gt;0)*ROW($E$296:E307),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E307),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E307)&gt;0)*ROW($E$11:E307),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F307),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F307)&gt;0)*ROW($F$296:F307),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F307)&gt;0)*ROW($F$11:F307),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J307),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>7-1-1</v>
+        <v>107-1-1</v>
       </c>
       <c r="B307" s="106"/>
       <c r="C307" s="106"/>
@@ -31940,15 +31940,15 @@
     <row r="308" spans="1:18" ht="33.75">
       <c r="A308" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A308" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E308),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E308)&gt;0)*ROW($E$296:E308),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E308),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E308)&gt;0)*ROW($E$11:E308),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F308),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F308)&gt;0)*ROW($F$296:F308),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F308)&gt;0)*ROW($F$11:F308),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J308),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>7-2-1</v>
+        <v>107-2-1</v>
       </c>
       <c r="B308" s="106"/>
       <c r="C308" s="106"/>
@@ -31973,15 +31973,15 @@
     <row r="309" spans="1:18" ht="33.75">
       <c r="A309" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A309" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E309),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E309)&gt;0)*ROW($E$296:E309),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E309),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E309)&gt;0)*ROW($E$11:E309),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F309),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F309)&gt;0)*ROW($F$296:F309),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F309)&gt;0)*ROW($F$11:F309),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J309),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>7-3-1</v>
+        <v>107-3-1</v>
       </c>
       <c r="B309" s="106"/>
       <c r="C309" s="106"/>
@@ -32006,15 +32006,15 @@
     <row r="310" spans="1:18" ht="33.75">
       <c r="A310" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A310" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E310),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E310)&gt;0)*ROW($E$296:E310),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E310),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E310)&gt;0)*ROW($E$11:E310),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F310),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F310)&gt;0)*ROW($F$296:F310),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F310)&gt;0)*ROW($F$11:F310),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J310),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>8-1-1</v>
+        <v>108-1-1</v>
       </c>
       <c r="B310" s="106"/>
       <c r="C310" s="106"/>
@@ -32043,15 +32043,15 @@
     <row r="311" spans="1:18" ht="33.75">
       <c r="A311" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A311" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E311),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E311)&gt;0)*ROW($E$296:E311),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E311),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E311)&gt;0)*ROW($E$11:E311),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F311),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F311)&gt;0)*ROW($F$296:F311),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F311)&gt;0)*ROW($F$11:F311),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J311),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>8-2-1</v>
+        <v>108-2-1</v>
       </c>
       <c r="B311" s="106"/>
       <c r="C311" s="106"/>
@@ -32076,15 +32076,15 @@
     <row r="312" spans="1:18" ht="45">
       <c r="A312" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A312" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E312),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E312)&gt;0)*ROW($E$296:E312),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E312),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E312)&gt;0)*ROW($E$11:E312),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F312),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F312)&gt;0)*ROW($F$296:F312),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F312)&gt;0)*ROW($F$11:F312),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J312),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>8-3-1</v>
+        <v>108-3-1</v>
       </c>
       <c r="B312" s="106"/>
       <c r="C312" s="106"/>
@@ -32109,15 +32109,15 @@
     <row r="313" spans="1:18" ht="33.75">
       <c r="A313" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A313" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E313),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E313)&gt;0)*ROW($E$296:E313),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E313),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E313)&gt;0)*ROW($E$11:E313),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F313),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F313)&gt;0)*ROW($F$296:F313),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F313)&gt;0)*ROW($F$11:F313),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J313),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>8-4-1</v>
+        <v>108-4-1</v>
       </c>
       <c r="B313" s="106"/>
       <c r="C313" s="106"/>
@@ -32142,15 +32142,15 @@
     <row r="314" spans="1:18" ht="45">
       <c r="A314" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A314" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E314),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E314)&gt;0)*ROW($E$296:E314),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E314),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E314)&gt;0)*ROW($E$11:E314),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F314),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F314)&gt;0)*ROW($F$296:F314),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F314)&gt;0)*ROW($F$11:F314),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J314),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>8-5-1</v>
+        <v>108-5-1</v>
       </c>
       <c r="B314" s="106"/>
       <c r="C314" s="106"/>
@@ -32175,15 +32175,15 @@
     <row r="315" spans="1:18" ht="33.75">
       <c r="A315" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A315" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E315),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E315)&gt;0)*ROW($E$296:E315),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E315),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E315)&gt;0)*ROW($E$11:E315),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F315),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F315)&gt;0)*ROW($F$296:F315),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F315)&gt;0)*ROW($F$11:F315),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J315),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>8-6-1</v>
+        <v>108-6-1</v>
       </c>
       <c r="B315" s="106"/>
       <c r="C315" s="106"/>
@@ -32208,15 +32208,15 @@
     <row r="316" spans="1:18" ht="45">
       <c r="A316" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A316" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E316),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E316)&gt;0)*ROW($E$296:E316),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E316),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E316)&gt;0)*ROW($E$11:E316),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F316),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F316)&gt;0)*ROW($F$296:F316),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F316)&gt;0)*ROW($F$11:F316),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J316),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>8-7-1</v>
+        <v>108-7-1</v>
       </c>
       <c r="B316" s="106"/>
       <c r="C316" s="106"/>
@@ -32241,15 +32241,15 @@
     <row r="317" spans="1:18" ht="22.5">
       <c r="A317" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A317" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E317),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E317)&gt;0)*ROW($E$296:E317),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E317),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E317)&gt;0)*ROW($E$11:E317),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F317),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F317)&gt;0)*ROW($F$296:F317),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F317)&gt;0)*ROW($F$11:F317),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J317),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>8-8-1</v>
+        <v>108-8-1</v>
       </c>
       <c r="B317" s="107"/>
       <c r="C317" s="107"/>
@@ -32274,15 +32274,15 @@
     <row r="318" spans="1:18" ht="33.75">
       <c r="A318" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A318" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E318),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E318)&gt;0)*ROW($E$296:E318),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E318),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E318)&gt;0)*ROW($E$11:E318),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F318),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F318)&gt;0)*ROW($F$296:F318),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F318)&gt;0)*ROW($F$11:F318),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J318),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>9-1-1</v>
+        <v>109-1-1</v>
       </c>
       <c r="B318" s="67" t="s">
         <v>484</v>
@@ -32315,15 +32315,15 @@
     <row r="319" spans="1:18" ht="33.75">
       <c r="A319" s="42" t="str" cm="1">
         <f t="array" aca="1" ref="A319" ca="1">_xlfn.LET(
-_xlpm.詳細項目数, COUNTA($E$296:E319),
-_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$296:E319)&gt;0)*ROW($E$296:E319),0)),
+_xlpm.詳細項目数, COUNTA($E$11:E319),
+_xlpm.直近で詳細項目が空でないセルの行番号, MAX(INDEX((LEN($E$11:E319)&gt;0)*ROW($E$11:E319),0)),
 _xlpm.観点数, COUNTA(INDIRECT("F"&amp;_xlpm.直近で詳細項目が空でないセルの行番号):F319),
-_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$296:F319)&gt;0)*ROW($F$296:F319),0)),
+_xlpm.直近で観点が空でないセルの行番号, MAX(INDEX((LEN($F$11:F319)&gt;0)*ROW($F$11:F319),0)),
 _xlpm.テスト内容数, COUNTA(INDIRECT("J"&amp;_xlpm.直近で観点が空でないセルの行番号):J319),
 _xlpm.テスト内容数（テスト内容が空の場合は1）, IF(_xlpm.テスト内容数=0,1,_xlpm.テスト内容数),
 _xlpm.詳細項目数&amp;"-"&amp;_xlpm.観点数&amp;"-"&amp;_xlpm.テスト内容数（テスト内容が空の場合は1）
 )</f>
-        <v>10-1-1</v>
+        <v>110-1-1</v>
       </c>
       <c r="B319" s="67" t="s">
         <v>486</v>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(バッチ)_(取引ID)_(取引名).xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/020_方式設計/020_開発標準/020_テスト標準/単体テスト仕様書_リクエスト・取引単体(バッチ)_(取引ID)_(取引名).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCF1BC3-5BC3-4F61-883C-3569D4757449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D027F314-2174-4373-9768-BEF0E73BE01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="537">
   <si>
     <t>正常取引</t>
     <rPh sb="0" eb="2">
@@ -8069,93 +8069,6 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -8254,6 +8167,93 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="14" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -9763,57 +9763,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="217" t="s">
+      <c r="B1" s="187"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="188" t="s">
         <v>524</v>
       </c>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="226" t="s">
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="189"/>
+      <c r="K1" s="189"/>
+      <c r="L1" s="189"/>
+      <c r="M1" s="189"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="197" t="s">
         <v>49</v>
       </c>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="228"/>
-      <c r="S1" s="235" t="s">
+      <c r="P1" s="198"/>
+      <c r="Q1" s="198"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="206" t="s">
         <v>523</v>
       </c>
-      <c r="T1" s="236"/>
-      <c r="U1" s="236"/>
-      <c r="V1" s="236"/>
-      <c r="W1" s="236"/>
-      <c r="X1" s="236"/>
-      <c r="Y1" s="236"/>
-      <c r="Z1" s="237"/>
-      <c r="AA1" s="211" t="s">
+      <c r="T1" s="207"/>
+      <c r="U1" s="207"/>
+      <c r="V1" s="207"/>
+      <c r="W1" s="207"/>
+      <c r="X1" s="207"/>
+      <c r="Y1" s="207"/>
+      <c r="Z1" s="208"/>
+      <c r="AA1" s="182" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="212"/>
-      <c r="AC1" s="213" t="str">
+      <c r="AB1" s="183"/>
+      <c r="AC1" s="184" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="214"/>
-      <c r="AE1" s="214"/>
-      <c r="AF1" s="215"/>
-      <c r="AG1" s="220" t="str">
+      <c r="AD1" s="185"/>
+      <c r="AE1" s="185"/>
+      <c r="AF1" s="186"/>
+      <c r="AG1" s="191" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="221"/>
-      <c r="AI1" s="222"/>
+      <c r="AH1" s="192"/>
+      <c r="AI1" s="193"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -9821,53 +9821,53 @@
       <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="217" t="s">
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="188" t="s">
         <v>525</v>
       </c>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="219"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="231"/>
-      <c r="S2" s="238"/>
-      <c r="T2" s="239"/>
-      <c r="U2" s="239"/>
-      <c r="V2" s="239"/>
-      <c r="W2" s="239"/>
-      <c r="X2" s="239"/>
-      <c r="Y2" s="239"/>
-      <c r="Z2" s="240"/>
-      <c r="AA2" s="211" t="s">
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="190"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="201"/>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="210"/>
+      <c r="V2" s="210"/>
+      <c r="W2" s="210"/>
+      <c r="X2" s="210"/>
+      <c r="Y2" s="210"/>
+      <c r="Z2" s="211"/>
+      <c r="AA2" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="212"/>
-      <c r="AC2" s="223" t="str">
+      <c r="AB2" s="183"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="224"/>
-      <c r="AE2" s="224"/>
-      <c r="AF2" s="225"/>
-      <c r="AG2" s="220" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="191" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="221"/>
-      <c r="AI2" s="222"/>
+      <c r="AH2" s="192"/>
+      <c r="AI2" s="193"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -9875,45 +9875,45 @@
       <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="211" t="s">
+      <c r="A3" s="182" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="216"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="217" t="s">
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="188" t="s">
         <v>527</v>
       </c>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="219"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="233"/>
-      <c r="Q3" s="233"/>
-      <c r="R3" s="234"/>
-      <c r="S3" s="241"/>
-      <c r="T3" s="242"/>
-      <c r="U3" s="242"/>
-      <c r="V3" s="242"/>
-      <c r="W3" s="242"/>
-      <c r="X3" s="242"/>
-      <c r="Y3" s="242"/>
-      <c r="Z3" s="243"/>
-      <c r="AA3" s="211"/>
-      <c r="AB3" s="212"/>
-      <c r="AC3" s="213"/>
-      <c r="AD3" s="214"/>
-      <c r="AE3" s="214"/>
-      <c r="AF3" s="215"/>
-      <c r="AG3" s="220"/>
-      <c r="AH3" s="221"/>
-      <c r="AI3" s="222"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
+      <c r="K3" s="189"/>
+      <c r="L3" s="189"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="190"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="204"/>
+      <c r="Q3" s="204"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="213"/>
+      <c r="V3" s="213"/>
+      <c r="W3" s="213"/>
+      <c r="X3" s="213"/>
+      <c r="Y3" s="213"/>
+      <c r="Z3" s="214"/>
+      <c r="AA3" s="182"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="184"/>
+      <c r="AD3" s="185"/>
+      <c r="AE3" s="185"/>
+      <c r="AF3" s="186"/>
+      <c r="AG3" s="191"/>
+      <c r="AH3" s="192"/>
+      <c r="AI3" s="193"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -9950,1181 +9950,1020 @@
       <c r="A7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="195" t="s">
+      <c r="C7" s="216"/>
+      <c r="D7" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="197"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="195" t="s">
+      <c r="E7" s="217"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="197"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="195" t="s">
+      <c r="H7" s="217"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="215" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="197"/>
-      <c r="O7" s="197"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="195" t="s">
+      <c r="K7" s="217"/>
+      <c r="L7" s="217"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="217"/>
+      <c r="O7" s="217"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="197"/>
-      <c r="S7" s="197"/>
-      <c r="T7" s="197"/>
-      <c r="U7" s="197"/>
-      <c r="V7" s="197"/>
-      <c r="W7" s="197"/>
-      <c r="X7" s="197"/>
-      <c r="Y7" s="197"/>
-      <c r="Z7" s="197"/>
-      <c r="AA7" s="197"/>
-      <c r="AB7" s="197"/>
-      <c r="AC7" s="197"/>
-      <c r="AD7" s="197"/>
-      <c r="AE7" s="196"/>
-      <c r="AF7" s="195" t="s">
+      <c r="R7" s="217"/>
+      <c r="S7" s="217"/>
+      <c r="T7" s="217"/>
+      <c r="U7" s="217"/>
+      <c r="V7" s="217"/>
+      <c r="W7" s="217"/>
+      <c r="X7" s="217"/>
+      <c r="Y7" s="217"/>
+      <c r="Z7" s="217"/>
+      <c r="AA7" s="217"/>
+      <c r="AB7" s="217"/>
+      <c r="AC7" s="217"/>
+      <c r="AD7" s="217"/>
+      <c r="AE7" s="216"/>
+      <c r="AF7" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="AG7" s="197"/>
-      <c r="AH7" s="197"/>
-      <c r="AI7" s="196"/>
+      <c r="AG7" s="217"/>
+      <c r="AH7" s="217"/>
+      <c r="AI7" s="216"/>
     </row>
     <row r="8" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="198"/>
-      <c r="C8" s="199"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="201"/>
-      <c r="F8" s="202"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="199"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="206"/>
-      <c r="L8" s="206"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="206"/>
-      <c r="O8" s="206"/>
-      <c r="P8" s="207"/>
-      <c r="Q8" s="208"/>
-      <c r="R8" s="209"/>
-      <c r="S8" s="209"/>
-      <c r="T8" s="209"/>
-      <c r="U8" s="209"/>
-      <c r="V8" s="209"/>
-      <c r="W8" s="209"/>
-      <c r="X8" s="209"/>
-      <c r="Y8" s="209"/>
-      <c r="Z8" s="209"/>
-      <c r="AA8" s="209"/>
-      <c r="AB8" s="209"/>
-      <c r="AC8" s="209"/>
-      <c r="AD8" s="209"/>
-      <c r="AE8" s="210"/>
-      <c r="AF8" s="205"/>
-      <c r="AG8" s="206"/>
-      <c r="AH8" s="206"/>
-      <c r="AI8" s="207"/>
+      <c r="B8" s="218"/>
+      <c r="C8" s="219"/>
+      <c r="D8" s="220"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="219"/>
+      <c r="J8" s="225"/>
+      <c r="K8" s="226"/>
+      <c r="L8" s="226"/>
+      <c r="M8" s="226"/>
+      <c r="N8" s="226"/>
+      <c r="O8" s="226"/>
+      <c r="P8" s="227"/>
+      <c r="Q8" s="228"/>
+      <c r="R8" s="229"/>
+      <c r="S8" s="229"/>
+      <c r="T8" s="229"/>
+      <c r="U8" s="229"/>
+      <c r="V8" s="229"/>
+      <c r="W8" s="229"/>
+      <c r="X8" s="229"/>
+      <c r="Y8" s="229"/>
+      <c r="Z8" s="229"/>
+      <c r="AA8" s="229"/>
+      <c r="AB8" s="229"/>
+      <c r="AC8" s="229"/>
+      <c r="AD8" s="229"/>
+      <c r="AE8" s="230"/>
+      <c r="AF8" s="225"/>
+      <c r="AG8" s="226"/>
+      <c r="AH8" s="226"/>
+      <c r="AI8" s="227"/>
     </row>
     <row r="9" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="14"/>
-      <c r="B9" s="182"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="188"/>
-      <c r="K9" s="189"/>
-      <c r="L9" s="189"/>
-      <c r="M9" s="189"/>
-      <c r="N9" s="189"/>
-      <c r="O9" s="189"/>
-      <c r="P9" s="190"/>
-      <c r="Q9" s="191"/>
-      <c r="R9" s="192"/>
-      <c r="S9" s="192"/>
-      <c r="T9" s="192"/>
-      <c r="U9" s="192"/>
-      <c r="V9" s="192"/>
-      <c r="W9" s="192"/>
-      <c r="X9" s="192"/>
-      <c r="Y9" s="192"/>
-      <c r="Z9" s="192"/>
-      <c r="AA9" s="192"/>
-      <c r="AB9" s="192"/>
-      <c r="AC9" s="192"/>
-      <c r="AD9" s="192"/>
-      <c r="AE9" s="193"/>
-      <c r="AF9" s="188"/>
-      <c r="AG9" s="189"/>
-      <c r="AH9" s="189"/>
-      <c r="AI9" s="190"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="233"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="238"/>
+      <c r="L9" s="238"/>
+      <c r="M9" s="238"/>
+      <c r="N9" s="238"/>
+      <c r="O9" s="238"/>
+      <c r="P9" s="239"/>
+      <c r="Q9" s="240"/>
+      <c r="R9" s="241"/>
+      <c r="S9" s="241"/>
+      <c r="T9" s="241"/>
+      <c r="U9" s="241"/>
+      <c r="V9" s="241"/>
+      <c r="W9" s="241"/>
+      <c r="X9" s="241"/>
+      <c r="Y9" s="241"/>
+      <c r="Z9" s="241"/>
+      <c r="AA9" s="241"/>
+      <c r="AB9" s="241"/>
+      <c r="AC9" s="241"/>
+      <c r="AD9" s="241"/>
+      <c r="AE9" s="242"/>
+      <c r="AF9" s="237"/>
+      <c r="AG9" s="238"/>
+      <c r="AH9" s="238"/>
+      <c r="AI9" s="239"/>
     </row>
     <row r="10" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="182"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="189"/>
-      <c r="M10" s="189"/>
-      <c r="N10" s="189"/>
-      <c r="O10" s="189"/>
-      <c r="P10" s="190"/>
-      <c r="Q10" s="191"/>
-      <c r="R10" s="192"/>
-      <c r="S10" s="192"/>
-      <c r="T10" s="192"/>
-      <c r="U10" s="192"/>
-      <c r="V10" s="192"/>
-      <c r="W10" s="192"/>
-      <c r="X10" s="192"/>
-      <c r="Y10" s="192"/>
-      <c r="Z10" s="192"/>
-      <c r="AA10" s="192"/>
-      <c r="AB10" s="192"/>
-      <c r="AC10" s="192"/>
-      <c r="AD10" s="192"/>
-      <c r="AE10" s="193"/>
-      <c r="AF10" s="188"/>
-      <c r="AG10" s="189"/>
-      <c r="AH10" s="189"/>
-      <c r="AI10" s="190"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="232"/>
+      <c r="D10" s="233"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="235"/>
+      <c r="G10" s="231"/>
+      <c r="H10" s="236"/>
+      <c r="I10" s="232"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="238"/>
+      <c r="L10" s="238"/>
+      <c r="M10" s="238"/>
+      <c r="N10" s="238"/>
+      <c r="O10" s="238"/>
+      <c r="P10" s="239"/>
+      <c r="Q10" s="240"/>
+      <c r="R10" s="241"/>
+      <c r="S10" s="241"/>
+      <c r="T10" s="241"/>
+      <c r="U10" s="241"/>
+      <c r="V10" s="241"/>
+      <c r="W10" s="241"/>
+      <c r="X10" s="241"/>
+      <c r="Y10" s="241"/>
+      <c r="Z10" s="241"/>
+      <c r="AA10" s="241"/>
+      <c r="AB10" s="241"/>
+      <c r="AC10" s="241"/>
+      <c r="AD10" s="241"/>
+      <c r="AE10" s="242"/>
+      <c r="AF10" s="237"/>
+      <c r="AG10" s="238"/>
+      <c r="AH10" s="238"/>
+      <c r="AI10" s="239"/>
     </row>
     <row r="11" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="182"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="189"/>
-      <c r="M11" s="189"/>
-      <c r="N11" s="189"/>
-      <c r="O11" s="189"/>
-      <c r="P11" s="190"/>
-      <c r="Q11" s="191"/>
-      <c r="R11" s="192"/>
-      <c r="S11" s="192"/>
-      <c r="T11" s="192"/>
-      <c r="U11" s="192"/>
-      <c r="V11" s="192"/>
-      <c r="W11" s="192"/>
-      <c r="X11" s="192"/>
-      <c r="Y11" s="192"/>
-      <c r="Z11" s="192"/>
-      <c r="AA11" s="192"/>
-      <c r="AB11" s="192"/>
-      <c r="AC11" s="192"/>
-      <c r="AD11" s="192"/>
-      <c r="AE11" s="193"/>
-      <c r="AF11" s="188"/>
-      <c r="AG11" s="189"/>
-      <c r="AH11" s="189"/>
-      <c r="AI11" s="190"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="232"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="231"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="232"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="238"/>
+      <c r="L11" s="238"/>
+      <c r="M11" s="238"/>
+      <c r="N11" s="238"/>
+      <c r="O11" s="238"/>
+      <c r="P11" s="239"/>
+      <c r="Q11" s="240"/>
+      <c r="R11" s="241"/>
+      <c r="S11" s="241"/>
+      <c r="T11" s="241"/>
+      <c r="U11" s="241"/>
+      <c r="V11" s="241"/>
+      <c r="W11" s="241"/>
+      <c r="X11" s="241"/>
+      <c r="Y11" s="241"/>
+      <c r="Z11" s="241"/>
+      <c r="AA11" s="241"/>
+      <c r="AB11" s="241"/>
+      <c r="AC11" s="241"/>
+      <c r="AD11" s="241"/>
+      <c r="AE11" s="242"/>
+      <c r="AF11" s="237"/>
+      <c r="AG11" s="238"/>
+      <c r="AH11" s="238"/>
+      <c r="AI11" s="239"/>
     </row>
     <row r="12" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="182"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="189"/>
-      <c r="N12" s="189"/>
-      <c r="O12" s="189"/>
-      <c r="P12" s="190"/>
-      <c r="Q12" s="191"/>
-      <c r="R12" s="192"/>
-      <c r="S12" s="192"/>
-      <c r="T12" s="192"/>
-      <c r="U12" s="192"/>
-      <c r="V12" s="192"/>
-      <c r="W12" s="192"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="192"/>
-      <c r="Z12" s="192"/>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="193"/>
-      <c r="AF12" s="188"/>
-      <c r="AG12" s="189"/>
-      <c r="AH12" s="189"/>
-      <c r="AI12" s="190"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="232"/>
+      <c r="D12" s="233"/>
+      <c r="E12" s="234"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="231"/>
+      <c r="H12" s="236"/>
+      <c r="I12" s="232"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="238"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="238"/>
+      <c r="N12" s="238"/>
+      <c r="O12" s="238"/>
+      <c r="P12" s="239"/>
+      <c r="Q12" s="240"/>
+      <c r="R12" s="241"/>
+      <c r="S12" s="241"/>
+      <c r="T12" s="241"/>
+      <c r="U12" s="241"/>
+      <c r="V12" s="241"/>
+      <c r="W12" s="241"/>
+      <c r="X12" s="241"/>
+      <c r="Y12" s="241"/>
+      <c r="Z12" s="241"/>
+      <c r="AA12" s="241"/>
+      <c r="AB12" s="241"/>
+      <c r="AC12" s="241"/>
+      <c r="AD12" s="241"/>
+      <c r="AE12" s="242"/>
+      <c r="AF12" s="237"/>
+      <c r="AG12" s="238"/>
+      <c r="AH12" s="238"/>
+      <c r="AI12" s="239"/>
     </row>
     <row r="13" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="14"/>
-      <c r="B13" s="182"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="187"/>
-      <c r="I13" s="183"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="189"/>
-      <c r="M13" s="189"/>
-      <c r="N13" s="189"/>
-      <c r="O13" s="189"/>
-      <c r="P13" s="190"/>
-      <c r="Q13" s="191"/>
-      <c r="R13" s="192"/>
-      <c r="S13" s="192"/>
-      <c r="T13" s="192"/>
-      <c r="U13" s="192"/>
-      <c r="V13" s="192"/>
-      <c r="W13" s="192"/>
-      <c r="X13" s="192"/>
-      <c r="Y13" s="192"/>
-      <c r="Z13" s="192"/>
-      <c r="AA13" s="192"/>
-      <c r="AB13" s="192"/>
-      <c r="AC13" s="192"/>
-      <c r="AD13" s="192"/>
-      <c r="AE13" s="193"/>
-      <c r="AF13" s="188"/>
-      <c r="AG13" s="189"/>
-      <c r="AH13" s="189"/>
-      <c r="AI13" s="190"/>
+      <c r="B13" s="231"/>
+      <c r="C13" s="232"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="234"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="231"/>
+      <c r="H13" s="236"/>
+      <c r="I13" s="232"/>
+      <c r="J13" s="237"/>
+      <c r="K13" s="238"/>
+      <c r="L13" s="238"/>
+      <c r="M13" s="238"/>
+      <c r="N13" s="238"/>
+      <c r="O13" s="238"/>
+      <c r="P13" s="239"/>
+      <c r="Q13" s="240"/>
+      <c r="R13" s="241"/>
+      <c r="S13" s="241"/>
+      <c r="T13" s="241"/>
+      <c r="U13" s="241"/>
+      <c r="V13" s="241"/>
+      <c r="W13" s="241"/>
+      <c r="X13" s="241"/>
+      <c r="Y13" s="241"/>
+      <c r="Z13" s="241"/>
+      <c r="AA13" s="241"/>
+      <c r="AB13" s="241"/>
+      <c r="AC13" s="241"/>
+      <c r="AD13" s="241"/>
+      <c r="AE13" s="242"/>
+      <c r="AF13" s="237"/>
+      <c r="AG13" s="238"/>
+      <c r="AH13" s="238"/>
+      <c r="AI13" s="239"/>
     </row>
     <row r="14" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="14"/>
-      <c r="B14" s="182"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="184"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="189"/>
-      <c r="M14" s="189"/>
-      <c r="N14" s="189"/>
-      <c r="O14" s="189"/>
-      <c r="P14" s="190"/>
-      <c r="Q14" s="191"/>
-      <c r="R14" s="192"/>
-      <c r="S14" s="192"/>
-      <c r="T14" s="192"/>
-      <c r="U14" s="192"/>
-      <c r="V14" s="192"/>
-      <c r="W14" s="192"/>
-      <c r="X14" s="192"/>
-      <c r="Y14" s="192"/>
-      <c r="Z14" s="192"/>
-      <c r="AA14" s="192"/>
-      <c r="AB14" s="192"/>
-      <c r="AC14" s="192"/>
-      <c r="AD14" s="192"/>
-      <c r="AE14" s="193"/>
-      <c r="AF14" s="188"/>
-      <c r="AG14" s="189"/>
-      <c r="AH14" s="189"/>
-      <c r="AI14" s="190"/>
+      <c r="B14" s="231"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="235"/>
+      <c r="G14" s="231"/>
+      <c r="H14" s="236"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="237"/>
+      <c r="K14" s="238"/>
+      <c r="L14" s="238"/>
+      <c r="M14" s="238"/>
+      <c r="N14" s="238"/>
+      <c r="O14" s="238"/>
+      <c r="P14" s="239"/>
+      <c r="Q14" s="240"/>
+      <c r="R14" s="241"/>
+      <c r="S14" s="241"/>
+      <c r="T14" s="241"/>
+      <c r="U14" s="241"/>
+      <c r="V14" s="241"/>
+      <c r="W14" s="241"/>
+      <c r="X14" s="241"/>
+      <c r="Y14" s="241"/>
+      <c r="Z14" s="241"/>
+      <c r="AA14" s="241"/>
+      <c r="AB14" s="241"/>
+      <c r="AC14" s="241"/>
+      <c r="AD14" s="241"/>
+      <c r="AE14" s="242"/>
+      <c r="AF14" s="237"/>
+      <c r="AG14" s="238"/>
+      <c r="AH14" s="238"/>
+      <c r="AI14" s="239"/>
     </row>
     <row r="15" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="14"/>
-      <c r="B15" s="182"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="188"/>
-      <c r="K15" s="189"/>
-      <c r="L15" s="189"/>
-      <c r="M15" s="189"/>
-      <c r="N15" s="189"/>
-      <c r="O15" s="189"/>
-      <c r="P15" s="190"/>
-      <c r="Q15" s="191"/>
-      <c r="R15" s="192"/>
-      <c r="S15" s="192"/>
-      <c r="T15" s="192"/>
-      <c r="U15" s="192"/>
-      <c r="V15" s="192"/>
-      <c r="W15" s="192"/>
-      <c r="X15" s="192"/>
-      <c r="Y15" s="192"/>
-      <c r="Z15" s="192"/>
-      <c r="AA15" s="192"/>
-      <c r="AB15" s="192"/>
-      <c r="AC15" s="192"/>
-      <c r="AD15" s="192"/>
-      <c r="AE15" s="193"/>
-      <c r="AF15" s="188"/>
-      <c r="AG15" s="189"/>
-      <c r="AH15" s="189"/>
-      <c r="AI15" s="190"/>
+      <c r="B15" s="231"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="231"/>
+      <c r="H15" s="236"/>
+      <c r="I15" s="232"/>
+      <c r="J15" s="237"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="238"/>
+      <c r="M15" s="238"/>
+      <c r="N15" s="238"/>
+      <c r="O15" s="238"/>
+      <c r="P15" s="239"/>
+      <c r="Q15" s="240"/>
+      <c r="R15" s="241"/>
+      <c r="S15" s="241"/>
+      <c r="T15" s="241"/>
+      <c r="U15" s="241"/>
+      <c r="V15" s="241"/>
+      <c r="W15" s="241"/>
+      <c r="X15" s="241"/>
+      <c r="Y15" s="241"/>
+      <c r="Z15" s="241"/>
+      <c r="AA15" s="241"/>
+      <c r="AB15" s="241"/>
+      <c r="AC15" s="241"/>
+      <c r="AD15" s="241"/>
+      <c r="AE15" s="242"/>
+      <c r="AF15" s="237"/>
+      <c r="AG15" s="238"/>
+      <c r="AH15" s="238"/>
+      <c r="AI15" s="239"/>
     </row>
     <row r="16" spans="1:40" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="182"/>
-      <c r="C16" s="183"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="189"/>
-      <c r="L16" s="189"/>
-      <c r="M16" s="189"/>
-      <c r="N16" s="189"/>
-      <c r="O16" s="189"/>
-      <c r="P16" s="190"/>
-      <c r="Q16" s="191"/>
-      <c r="R16" s="192"/>
-      <c r="S16" s="192"/>
-      <c r="T16" s="192"/>
-      <c r="U16" s="192"/>
-      <c r="V16" s="192"/>
-      <c r="W16" s="192"/>
-      <c r="X16" s="192"/>
-      <c r="Y16" s="192"/>
-      <c r="Z16" s="192"/>
-      <c r="AA16" s="192"/>
-      <c r="AB16" s="192"/>
-      <c r="AC16" s="192"/>
-      <c r="AD16" s="192"/>
-      <c r="AE16" s="193"/>
-      <c r="AF16" s="188"/>
-      <c r="AG16" s="189"/>
-      <c r="AH16" s="189"/>
-      <c r="AI16" s="190"/>
+      <c r="B16" s="231"/>
+      <c r="C16" s="232"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="234"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="231"/>
+      <c r="H16" s="236"/>
+      <c r="I16" s="232"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="238"/>
+      <c r="L16" s="238"/>
+      <c r="M16" s="238"/>
+      <c r="N16" s="238"/>
+      <c r="O16" s="238"/>
+      <c r="P16" s="239"/>
+      <c r="Q16" s="240"/>
+      <c r="R16" s="241"/>
+      <c r="S16" s="241"/>
+      <c r="T16" s="241"/>
+      <c r="U16" s="241"/>
+      <c r="V16" s="241"/>
+      <c r="W16" s="241"/>
+      <c r="X16" s="241"/>
+      <c r="Y16" s="241"/>
+      <c r="Z16" s="241"/>
+      <c r="AA16" s="241"/>
+      <c r="AB16" s="241"/>
+      <c r="AC16" s="241"/>
+      <c r="AD16" s="241"/>
+      <c r="AE16" s="242"/>
+      <c r="AF16" s="237"/>
+      <c r="AG16" s="238"/>
+      <c r="AH16" s="238"/>
+      <c r="AI16" s="239"/>
     </row>
     <row r="17" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="182"/>
-      <c r="C17" s="183"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="188"/>
-      <c r="K17" s="189"/>
-      <c r="L17" s="189"/>
-      <c r="M17" s="189"/>
-      <c r="N17" s="189"/>
-      <c r="O17" s="189"/>
-      <c r="P17" s="190"/>
-      <c r="Q17" s="191"/>
-      <c r="R17" s="192"/>
-      <c r="S17" s="192"/>
-      <c r="T17" s="192"/>
-      <c r="U17" s="192"/>
-      <c r="V17" s="192"/>
-      <c r="W17" s="192"/>
-      <c r="X17" s="192"/>
-      <c r="Y17" s="192"/>
-      <c r="Z17" s="192"/>
-      <c r="AA17" s="192"/>
-      <c r="AB17" s="192"/>
-      <c r="AC17" s="192"/>
-      <c r="AD17" s="192"/>
-      <c r="AE17" s="193"/>
-      <c r="AF17" s="188"/>
-      <c r="AG17" s="189"/>
-      <c r="AH17" s="189"/>
-      <c r="AI17" s="190"/>
+      <c r="B17" s="231"/>
+      <c r="C17" s="232"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="234"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="231"/>
+      <c r="H17" s="236"/>
+      <c r="I17" s="232"/>
+      <c r="J17" s="237"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="238"/>
+      <c r="M17" s="238"/>
+      <c r="N17" s="238"/>
+      <c r="O17" s="238"/>
+      <c r="P17" s="239"/>
+      <c r="Q17" s="240"/>
+      <c r="R17" s="241"/>
+      <c r="S17" s="241"/>
+      <c r="T17" s="241"/>
+      <c r="U17" s="241"/>
+      <c r="V17" s="241"/>
+      <c r="W17" s="241"/>
+      <c r="X17" s="241"/>
+      <c r="Y17" s="241"/>
+      <c r="Z17" s="241"/>
+      <c r="AA17" s="241"/>
+      <c r="AB17" s="241"/>
+      <c r="AC17" s="241"/>
+      <c r="AD17" s="241"/>
+      <c r="AE17" s="242"/>
+      <c r="AF17" s="237"/>
+      <c r="AG17" s="238"/>
+      <c r="AH17" s="238"/>
+      <c r="AI17" s="239"/>
     </row>
     <row r="18" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="182"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="184"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="188"/>
-      <c r="K18" s="189"/>
-      <c r="L18" s="189"/>
-      <c r="M18" s="189"/>
-      <c r="N18" s="189"/>
-      <c r="O18" s="189"/>
-      <c r="P18" s="190"/>
-      <c r="Q18" s="191"/>
-      <c r="R18" s="192"/>
-      <c r="S18" s="192"/>
-      <c r="T18" s="192"/>
-      <c r="U18" s="192"/>
-      <c r="V18" s="192"/>
-      <c r="W18" s="192"/>
-      <c r="X18" s="192"/>
-      <c r="Y18" s="192"/>
-      <c r="Z18" s="192"/>
-      <c r="AA18" s="192"/>
-      <c r="AB18" s="192"/>
-      <c r="AC18" s="192"/>
-      <c r="AD18" s="192"/>
-      <c r="AE18" s="193"/>
-      <c r="AF18" s="188"/>
-      <c r="AG18" s="189"/>
-      <c r="AH18" s="189"/>
-      <c r="AI18" s="190"/>
+      <c r="B18" s="231"/>
+      <c r="C18" s="232"/>
+      <c r="D18" s="233"/>
+      <c r="E18" s="234"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="231"/>
+      <c r="H18" s="236"/>
+      <c r="I18" s="232"/>
+      <c r="J18" s="237"/>
+      <c r="K18" s="238"/>
+      <c r="L18" s="238"/>
+      <c r="M18" s="238"/>
+      <c r="N18" s="238"/>
+      <c r="O18" s="238"/>
+      <c r="P18" s="239"/>
+      <c r="Q18" s="240"/>
+      <c r="R18" s="241"/>
+      <c r="S18" s="241"/>
+      <c r="T18" s="241"/>
+      <c r="U18" s="241"/>
+      <c r="V18" s="241"/>
+      <c r="W18" s="241"/>
+      <c r="X18" s="241"/>
+      <c r="Y18" s="241"/>
+      <c r="Z18" s="241"/>
+      <c r="AA18" s="241"/>
+      <c r="AB18" s="241"/>
+      <c r="AC18" s="241"/>
+      <c r="AD18" s="241"/>
+      <c r="AE18" s="242"/>
+      <c r="AF18" s="237"/>
+      <c r="AG18" s="238"/>
+      <c r="AH18" s="238"/>
+      <c r="AI18" s="239"/>
     </row>
     <row r="19" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="182"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="188"/>
-      <c r="K19" s="189"/>
-      <c r="L19" s="189"/>
-      <c r="M19" s="189"/>
-      <c r="N19" s="189"/>
-      <c r="O19" s="189"/>
-      <c r="P19" s="190"/>
-      <c r="Q19" s="191"/>
-      <c r="R19" s="192"/>
-      <c r="S19" s="192"/>
-      <c r="T19" s="192"/>
-      <c r="U19" s="192"/>
-      <c r="V19" s="192"/>
-      <c r="W19" s="192"/>
-      <c r="X19" s="192"/>
-      <c r="Y19" s="192"/>
-      <c r="Z19" s="192"/>
-      <c r="AA19" s="192"/>
-      <c r="AB19" s="192"/>
-      <c r="AC19" s="192"/>
-      <c r="AD19" s="192"/>
-      <c r="AE19" s="193"/>
-      <c r="AF19" s="188"/>
-      <c r="AG19" s="189"/>
-      <c r="AH19" s="189"/>
-      <c r="AI19" s="190"/>
+      <c r="B19" s="231"/>
+      <c r="C19" s="232"/>
+      <c r="D19" s="233"/>
+      <c r="E19" s="234"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="231"/>
+      <c r="H19" s="236"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="238"/>
+      <c r="L19" s="238"/>
+      <c r="M19" s="238"/>
+      <c r="N19" s="238"/>
+      <c r="O19" s="238"/>
+      <c r="P19" s="239"/>
+      <c r="Q19" s="240"/>
+      <c r="R19" s="241"/>
+      <c r="S19" s="241"/>
+      <c r="T19" s="241"/>
+      <c r="U19" s="241"/>
+      <c r="V19" s="241"/>
+      <c r="W19" s="241"/>
+      <c r="X19" s="241"/>
+      <c r="Y19" s="241"/>
+      <c r="Z19" s="241"/>
+      <c r="AA19" s="241"/>
+      <c r="AB19" s="241"/>
+      <c r="AC19" s="241"/>
+      <c r="AD19" s="241"/>
+      <c r="AE19" s="242"/>
+      <c r="AF19" s="237"/>
+      <c r="AG19" s="238"/>
+      <c r="AH19" s="238"/>
+      <c r="AI19" s="239"/>
     </row>
     <row r="20" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="182"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="185"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="188"/>
-      <c r="K20" s="189"/>
-      <c r="L20" s="189"/>
-      <c r="M20" s="189"/>
-      <c r="N20" s="189"/>
-      <c r="O20" s="189"/>
-      <c r="P20" s="190"/>
-      <c r="Q20" s="191"/>
-      <c r="R20" s="192"/>
-      <c r="S20" s="192"/>
-      <c r="T20" s="192"/>
-      <c r="U20" s="192"/>
-      <c r="V20" s="192"/>
-      <c r="W20" s="192"/>
-      <c r="X20" s="192"/>
-      <c r="Y20" s="192"/>
-      <c r="Z20" s="192"/>
-      <c r="AA20" s="192"/>
-      <c r="AB20" s="192"/>
-      <c r="AC20" s="192"/>
-      <c r="AD20" s="192"/>
-      <c r="AE20" s="193"/>
-      <c r="AF20" s="188"/>
-      <c r="AG20" s="189"/>
-      <c r="AH20" s="189"/>
-      <c r="AI20" s="190"/>
+      <c r="B20" s="231"/>
+      <c r="C20" s="232"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="234"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="231"/>
+      <c r="H20" s="236"/>
+      <c r="I20" s="232"/>
+      <c r="J20" s="237"/>
+      <c r="K20" s="238"/>
+      <c r="L20" s="238"/>
+      <c r="M20" s="238"/>
+      <c r="N20" s="238"/>
+      <c r="O20" s="238"/>
+      <c r="P20" s="239"/>
+      <c r="Q20" s="240"/>
+      <c r="R20" s="241"/>
+      <c r="S20" s="241"/>
+      <c r="T20" s="241"/>
+      <c r="U20" s="241"/>
+      <c r="V20" s="241"/>
+      <c r="W20" s="241"/>
+      <c r="X20" s="241"/>
+      <c r="Y20" s="241"/>
+      <c r="Z20" s="241"/>
+      <c r="AA20" s="241"/>
+      <c r="AB20" s="241"/>
+      <c r="AC20" s="241"/>
+      <c r="AD20" s="241"/>
+      <c r="AE20" s="242"/>
+      <c r="AF20" s="237"/>
+      <c r="AG20" s="238"/>
+      <c r="AH20" s="238"/>
+      <c r="AI20" s="239"/>
     </row>
     <row r="21" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="182"/>
-      <c r="C21" s="183"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="188"/>
-      <c r="K21" s="189"/>
-      <c r="L21" s="189"/>
-      <c r="M21" s="189"/>
-      <c r="N21" s="189"/>
-      <c r="O21" s="189"/>
-      <c r="P21" s="190"/>
-      <c r="Q21" s="191"/>
-      <c r="R21" s="192"/>
-      <c r="S21" s="192"/>
-      <c r="T21" s="192"/>
-      <c r="U21" s="192"/>
-      <c r="V21" s="192"/>
-      <c r="W21" s="192"/>
-      <c r="X21" s="192"/>
-      <c r="Y21" s="192"/>
-      <c r="Z21" s="192"/>
-      <c r="AA21" s="192"/>
-      <c r="AB21" s="192"/>
-      <c r="AC21" s="192"/>
-      <c r="AD21" s="192"/>
-      <c r="AE21" s="193"/>
-      <c r="AF21" s="188"/>
-      <c r="AG21" s="189"/>
-      <c r="AH21" s="189"/>
-      <c r="AI21" s="190"/>
+      <c r="B21" s="231"/>
+      <c r="C21" s="232"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="234"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="231"/>
+      <c r="H21" s="236"/>
+      <c r="I21" s="232"/>
+      <c r="J21" s="237"/>
+      <c r="K21" s="238"/>
+      <c r="L21" s="238"/>
+      <c r="M21" s="238"/>
+      <c r="N21" s="238"/>
+      <c r="O21" s="238"/>
+      <c r="P21" s="239"/>
+      <c r="Q21" s="240"/>
+      <c r="R21" s="241"/>
+      <c r="S21" s="241"/>
+      <c r="T21" s="241"/>
+      <c r="U21" s="241"/>
+      <c r="V21" s="241"/>
+      <c r="W21" s="241"/>
+      <c r="X21" s="241"/>
+      <c r="Y21" s="241"/>
+      <c r="Z21" s="241"/>
+      <c r="AA21" s="241"/>
+      <c r="AB21" s="241"/>
+      <c r="AC21" s="241"/>
+      <c r="AD21" s="241"/>
+      <c r="AE21" s="242"/>
+      <c r="AF21" s="237"/>
+      <c r="AG21" s="238"/>
+      <c r="AH21" s="238"/>
+      <c r="AI21" s="239"/>
     </row>
     <row r="22" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="182"/>
-      <c r="C22" s="183"/>
-      <c r="D22" s="184"/>
-      <c r="E22" s="185"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="188"/>
-      <c r="K22" s="189"/>
-      <c r="L22" s="189"/>
-      <c r="M22" s="189"/>
-      <c r="N22" s="189"/>
-      <c r="O22" s="189"/>
-      <c r="P22" s="190"/>
-      <c r="Q22" s="191"/>
-      <c r="R22" s="192"/>
-      <c r="S22" s="192"/>
-      <c r="T22" s="192"/>
-      <c r="U22" s="192"/>
-      <c r="V22" s="192"/>
-      <c r="W22" s="192"/>
-      <c r="X22" s="192"/>
-      <c r="Y22" s="192"/>
-      <c r="Z22" s="192"/>
-      <c r="AA22" s="192"/>
-      <c r="AB22" s="192"/>
-      <c r="AC22" s="192"/>
-      <c r="AD22" s="192"/>
-      <c r="AE22" s="193"/>
-      <c r="AF22" s="188"/>
-      <c r="AG22" s="189"/>
-      <c r="AH22" s="189"/>
-      <c r="AI22" s="190"/>
+      <c r="B22" s="231"/>
+      <c r="C22" s="232"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="234"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="231"/>
+      <c r="H22" s="236"/>
+      <c r="I22" s="232"/>
+      <c r="J22" s="237"/>
+      <c r="K22" s="238"/>
+      <c r="L22" s="238"/>
+      <c r="M22" s="238"/>
+      <c r="N22" s="238"/>
+      <c r="O22" s="238"/>
+      <c r="P22" s="239"/>
+      <c r="Q22" s="240"/>
+      <c r="R22" s="241"/>
+      <c r="S22" s="241"/>
+      <c r="T22" s="241"/>
+      <c r="U22" s="241"/>
+      <c r="V22" s="241"/>
+      <c r="W22" s="241"/>
+      <c r="X22" s="241"/>
+      <c r="Y22" s="241"/>
+      <c r="Z22" s="241"/>
+      <c r="AA22" s="241"/>
+      <c r="AB22" s="241"/>
+      <c r="AC22" s="241"/>
+      <c r="AD22" s="241"/>
+      <c r="AE22" s="242"/>
+      <c r="AF22" s="237"/>
+      <c r="AG22" s="238"/>
+      <c r="AH22" s="238"/>
+      <c r="AI22" s="239"/>
     </row>
     <row r="23" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="182"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="184"/>
-      <c r="E23" s="185"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="182"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="188"/>
-      <c r="K23" s="189"/>
-      <c r="L23" s="189"/>
-      <c r="M23" s="189"/>
-      <c r="N23" s="189"/>
-      <c r="O23" s="189"/>
-      <c r="P23" s="190"/>
-      <c r="Q23" s="191"/>
-      <c r="R23" s="192"/>
-      <c r="S23" s="192"/>
-      <c r="T23" s="192"/>
-      <c r="U23" s="192"/>
-      <c r="V23" s="192"/>
-      <c r="W23" s="192"/>
-      <c r="X23" s="192"/>
-      <c r="Y23" s="192"/>
-      <c r="Z23" s="192"/>
-      <c r="AA23" s="192"/>
-      <c r="AB23" s="192"/>
-      <c r="AC23" s="192"/>
-      <c r="AD23" s="192"/>
-      <c r="AE23" s="193"/>
-      <c r="AF23" s="188"/>
-      <c r="AG23" s="189"/>
-      <c r="AH23" s="189"/>
-      <c r="AI23" s="190"/>
+      <c r="B23" s="231"/>
+      <c r="C23" s="232"/>
+      <c r="D23" s="233"/>
+      <c r="E23" s="234"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="231"/>
+      <c r="H23" s="236"/>
+      <c r="I23" s="232"/>
+      <c r="J23" s="237"/>
+      <c r="K23" s="238"/>
+      <c r="L23" s="238"/>
+      <c r="M23" s="238"/>
+      <c r="N23" s="238"/>
+      <c r="O23" s="238"/>
+      <c r="P23" s="239"/>
+      <c r="Q23" s="240"/>
+      <c r="R23" s="241"/>
+      <c r="S23" s="241"/>
+      <c r="T23" s="241"/>
+      <c r="U23" s="241"/>
+      <c r="V23" s="241"/>
+      <c r="W23" s="241"/>
+      <c r="X23" s="241"/>
+      <c r="Y23" s="241"/>
+      <c r="Z23" s="241"/>
+      <c r="AA23" s="241"/>
+      <c r="AB23" s="241"/>
+      <c r="AC23" s="241"/>
+      <c r="AD23" s="241"/>
+      <c r="AE23" s="242"/>
+      <c r="AF23" s="237"/>
+      <c r="AG23" s="238"/>
+      <c r="AH23" s="238"/>
+      <c r="AI23" s="239"/>
     </row>
     <row r="24" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="182"/>
-      <c r="C24" s="183"/>
-      <c r="D24" s="184"/>
-      <c r="E24" s="185"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="188"/>
-      <c r="K24" s="189"/>
-      <c r="L24" s="189"/>
-      <c r="M24" s="189"/>
-      <c r="N24" s="189"/>
-      <c r="O24" s="189"/>
-      <c r="P24" s="190"/>
-      <c r="Q24" s="191"/>
-      <c r="R24" s="192"/>
-      <c r="S24" s="192"/>
-      <c r="T24" s="192"/>
-      <c r="U24" s="192"/>
-      <c r="V24" s="192"/>
-      <c r="W24" s="192"/>
-      <c r="X24" s="192"/>
-      <c r="Y24" s="192"/>
-      <c r="Z24" s="192"/>
-      <c r="AA24" s="192"/>
-      <c r="AB24" s="192"/>
-      <c r="AC24" s="192"/>
-      <c r="AD24" s="192"/>
-      <c r="AE24" s="193"/>
-      <c r="AF24" s="188"/>
-      <c r="AG24" s="189"/>
-      <c r="AH24" s="189"/>
-      <c r="AI24" s="190"/>
+      <c r="B24" s="231"/>
+      <c r="C24" s="232"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="231"/>
+      <c r="H24" s="236"/>
+      <c r="I24" s="232"/>
+      <c r="J24" s="237"/>
+      <c r="K24" s="238"/>
+      <c r="L24" s="238"/>
+      <c r="M24" s="238"/>
+      <c r="N24" s="238"/>
+      <c r="O24" s="238"/>
+      <c r="P24" s="239"/>
+      <c r="Q24" s="240"/>
+      <c r="R24" s="241"/>
+      <c r="S24" s="241"/>
+      <c r="T24" s="241"/>
+      <c r="U24" s="241"/>
+      <c r="V24" s="241"/>
+      <c r="W24" s="241"/>
+      <c r="X24" s="241"/>
+      <c r="Y24" s="241"/>
+      <c r="Z24" s="241"/>
+      <c r="AA24" s="241"/>
+      <c r="AB24" s="241"/>
+      <c r="AC24" s="241"/>
+      <c r="AD24" s="241"/>
+      <c r="AE24" s="242"/>
+      <c r="AF24" s="237"/>
+      <c r="AG24" s="238"/>
+      <c r="AH24" s="238"/>
+      <c r="AI24" s="239"/>
     </row>
     <row r="25" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="182"/>
-      <c r="C25" s="183"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="188"/>
-      <c r="K25" s="189"/>
-      <c r="L25" s="189"/>
-      <c r="M25" s="189"/>
-      <c r="N25" s="189"/>
-      <c r="O25" s="189"/>
-      <c r="P25" s="190"/>
-      <c r="Q25" s="191"/>
-      <c r="R25" s="192"/>
-      <c r="S25" s="192"/>
-      <c r="T25" s="192"/>
-      <c r="U25" s="192"/>
-      <c r="V25" s="192"/>
-      <c r="W25" s="192"/>
-      <c r="X25" s="192"/>
-      <c r="Y25" s="192"/>
-      <c r="Z25" s="192"/>
-      <c r="AA25" s="192"/>
-      <c r="AB25" s="192"/>
-      <c r="AC25" s="192"/>
-      <c r="AD25" s="192"/>
-      <c r="AE25" s="193"/>
-      <c r="AF25" s="188"/>
-      <c r="AG25" s="189"/>
-      <c r="AH25" s="189"/>
-      <c r="AI25" s="190"/>
+      <c r="B25" s="231"/>
+      <c r="C25" s="232"/>
+      <c r="D25" s="233"/>
+      <c r="E25" s="234"/>
+      <c r="F25" s="235"/>
+      <c r="G25" s="231"/>
+      <c r="H25" s="236"/>
+      <c r="I25" s="232"/>
+      <c r="J25" s="237"/>
+      <c r="K25" s="238"/>
+      <c r="L25" s="238"/>
+      <c r="M25" s="238"/>
+      <c r="N25" s="238"/>
+      <c r="O25" s="238"/>
+      <c r="P25" s="239"/>
+      <c r="Q25" s="240"/>
+      <c r="R25" s="241"/>
+      <c r="S25" s="241"/>
+      <c r="T25" s="241"/>
+      <c r="U25" s="241"/>
+      <c r="V25" s="241"/>
+      <c r="W25" s="241"/>
+      <c r="X25" s="241"/>
+      <c r="Y25" s="241"/>
+      <c r="Z25" s="241"/>
+      <c r="AA25" s="241"/>
+      <c r="AB25" s="241"/>
+      <c r="AC25" s="241"/>
+      <c r="AD25" s="241"/>
+      <c r="AE25" s="242"/>
+      <c r="AF25" s="237"/>
+      <c r="AG25" s="238"/>
+      <c r="AH25" s="238"/>
+      <c r="AI25" s="239"/>
     </row>
     <row r="26" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="14"/>
-      <c r="B26" s="182"/>
-      <c r="C26" s="183"/>
-      <c r="D26" s="184"/>
-      <c r="E26" s="185"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="188"/>
-      <c r="K26" s="189"/>
-      <c r="L26" s="189"/>
-      <c r="M26" s="189"/>
-      <c r="N26" s="189"/>
-      <c r="O26" s="189"/>
-      <c r="P26" s="190"/>
-      <c r="Q26" s="191"/>
-      <c r="R26" s="192"/>
-      <c r="S26" s="192"/>
-      <c r="T26" s="192"/>
-      <c r="U26" s="192"/>
-      <c r="V26" s="192"/>
-      <c r="W26" s="192"/>
-      <c r="X26" s="192"/>
-      <c r="Y26" s="192"/>
-      <c r="Z26" s="192"/>
-      <c r="AA26" s="192"/>
-      <c r="AB26" s="192"/>
-      <c r="AC26" s="192"/>
-      <c r="AD26" s="192"/>
-      <c r="AE26" s="193"/>
-      <c r="AF26" s="188"/>
-      <c r="AG26" s="189"/>
-      <c r="AH26" s="189"/>
-      <c r="AI26" s="190"/>
+      <c r="B26" s="231"/>
+      <c r="C26" s="232"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="234"/>
+      <c r="F26" s="235"/>
+      <c r="G26" s="231"/>
+      <c r="H26" s="236"/>
+      <c r="I26" s="232"/>
+      <c r="J26" s="237"/>
+      <c r="K26" s="238"/>
+      <c r="L26" s="238"/>
+      <c r="M26" s="238"/>
+      <c r="N26" s="238"/>
+      <c r="O26" s="238"/>
+      <c r="P26" s="239"/>
+      <c r="Q26" s="240"/>
+      <c r="R26" s="241"/>
+      <c r="S26" s="241"/>
+      <c r="T26" s="241"/>
+      <c r="U26" s="241"/>
+      <c r="V26" s="241"/>
+      <c r="W26" s="241"/>
+      <c r="X26" s="241"/>
+      <c r="Y26" s="241"/>
+      <c r="Z26" s="241"/>
+      <c r="AA26" s="241"/>
+      <c r="AB26" s="241"/>
+      <c r="AC26" s="241"/>
+      <c r="AD26" s="241"/>
+      <c r="AE26" s="242"/>
+      <c r="AF26" s="237"/>
+      <c r="AG26" s="238"/>
+      <c r="AH26" s="238"/>
+      <c r="AI26" s="239"/>
     </row>
     <row r="27" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="182"/>
-      <c r="C27" s="183"/>
-      <c r="D27" s="184"/>
-      <c r="E27" s="185"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="188"/>
-      <c r="K27" s="189"/>
-      <c r="L27" s="189"/>
-      <c r="M27" s="189"/>
-      <c r="N27" s="189"/>
-      <c r="O27" s="189"/>
-      <c r="P27" s="190"/>
-      <c r="Q27" s="191"/>
-      <c r="R27" s="192"/>
-      <c r="S27" s="192"/>
-      <c r="T27" s="192"/>
-      <c r="U27" s="192"/>
-      <c r="V27" s="192"/>
-      <c r="W27" s="192"/>
-      <c r="X27" s="192"/>
-      <c r="Y27" s="192"/>
-      <c r="Z27" s="192"/>
-      <c r="AA27" s="192"/>
-      <c r="AB27" s="192"/>
-      <c r="AC27" s="192"/>
-      <c r="AD27" s="192"/>
-      <c r="AE27" s="193"/>
-      <c r="AF27" s="188"/>
-      <c r="AG27" s="189"/>
-      <c r="AH27" s="189"/>
-      <c r="AI27" s="190"/>
+      <c r="B27" s="231"/>
+      <c r="C27" s="232"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="234"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="231"/>
+      <c r="H27" s="236"/>
+      <c r="I27" s="232"/>
+      <c r="J27" s="237"/>
+      <c r="K27" s="238"/>
+      <c r="L27" s="238"/>
+      <c r="M27" s="238"/>
+      <c r="N27" s="238"/>
+      <c r="O27" s="238"/>
+      <c r="P27" s="239"/>
+      <c r="Q27" s="240"/>
+      <c r="R27" s="241"/>
+      <c r="S27" s="241"/>
+      <c r="T27" s="241"/>
+      <c r="U27" s="241"/>
+      <c r="V27" s="241"/>
+      <c r="W27" s="241"/>
+      <c r="X27" s="241"/>
+      <c r="Y27" s="241"/>
+      <c r="Z27" s="241"/>
+      <c r="AA27" s="241"/>
+      <c r="AB27" s="241"/>
+      <c r="AC27" s="241"/>
+      <c r="AD27" s="241"/>
+      <c r="AE27" s="242"/>
+      <c r="AF27" s="237"/>
+      <c r="AG27" s="238"/>
+      <c r="AH27" s="238"/>
+      <c r="AI27" s="239"/>
     </row>
     <row r="28" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="14"/>
-      <c r="B28" s="182"/>
-      <c r="C28" s="183"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="188"/>
-      <c r="K28" s="189"/>
-      <c r="L28" s="189"/>
-      <c r="M28" s="189"/>
-      <c r="N28" s="189"/>
-      <c r="O28" s="189"/>
-      <c r="P28" s="190"/>
-      <c r="Q28" s="191"/>
-      <c r="R28" s="192"/>
-      <c r="S28" s="192"/>
-      <c r="T28" s="192"/>
-      <c r="U28" s="192"/>
-      <c r="V28" s="192"/>
-      <c r="W28" s="192"/>
-      <c r="X28" s="192"/>
-      <c r="Y28" s="192"/>
-      <c r="Z28" s="192"/>
-      <c r="AA28" s="192"/>
-      <c r="AB28" s="192"/>
-      <c r="AC28" s="192"/>
-      <c r="AD28" s="192"/>
-      <c r="AE28" s="193"/>
-      <c r="AF28" s="188"/>
-      <c r="AG28" s="189"/>
-      <c r="AH28" s="189"/>
-      <c r="AI28" s="190"/>
+      <c r="B28" s="231"/>
+      <c r="C28" s="232"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="234"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="231"/>
+      <c r="H28" s="236"/>
+      <c r="I28" s="232"/>
+      <c r="J28" s="237"/>
+      <c r="K28" s="238"/>
+      <c r="L28" s="238"/>
+      <c r="M28" s="238"/>
+      <c r="N28" s="238"/>
+      <c r="O28" s="238"/>
+      <c r="P28" s="239"/>
+      <c r="Q28" s="240"/>
+      <c r="R28" s="241"/>
+      <c r="S28" s="241"/>
+      <c r="T28" s="241"/>
+      <c r="U28" s="241"/>
+      <c r="V28" s="241"/>
+      <c r="W28" s="241"/>
+      <c r="X28" s="241"/>
+      <c r="Y28" s="241"/>
+      <c r="Z28" s="241"/>
+      <c r="AA28" s="241"/>
+      <c r="AB28" s="241"/>
+      <c r="AC28" s="241"/>
+      <c r="AD28" s="241"/>
+      <c r="AE28" s="242"/>
+      <c r="AF28" s="237"/>
+      <c r="AG28" s="238"/>
+      <c r="AH28" s="238"/>
+      <c r="AI28" s="239"/>
     </row>
     <row r="29" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="14"/>
-      <c r="B29" s="182"/>
-      <c r="C29" s="183"/>
-      <c r="D29" s="184"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="186"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="188"/>
-      <c r="K29" s="189"/>
-      <c r="L29" s="189"/>
-      <c r="M29" s="189"/>
-      <c r="N29" s="189"/>
-      <c r="O29" s="189"/>
-      <c r="P29" s="190"/>
-      <c r="Q29" s="191"/>
-      <c r="R29" s="192"/>
-      <c r="S29" s="192"/>
-      <c r="T29" s="192"/>
-      <c r="U29" s="192"/>
-      <c r="V29" s="192"/>
-      <c r="W29" s="192"/>
-      <c r="X29" s="192"/>
-      <c r="Y29" s="192"/>
-      <c r="Z29" s="192"/>
-      <c r="AA29" s="192"/>
-      <c r="AB29" s="192"/>
-      <c r="AC29" s="192"/>
-      <c r="AD29" s="192"/>
-      <c r="AE29" s="193"/>
-      <c r="AF29" s="188"/>
-      <c r="AG29" s="189"/>
-      <c r="AH29" s="189"/>
-      <c r="AI29" s="190"/>
+      <c r="B29" s="231"/>
+      <c r="C29" s="232"/>
+      <c r="D29" s="233"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="231"/>
+      <c r="H29" s="236"/>
+      <c r="I29" s="232"/>
+      <c r="J29" s="237"/>
+      <c r="K29" s="238"/>
+      <c r="L29" s="238"/>
+      <c r="M29" s="238"/>
+      <c r="N29" s="238"/>
+      <c r="O29" s="238"/>
+      <c r="P29" s="239"/>
+      <c r="Q29" s="240"/>
+      <c r="R29" s="241"/>
+      <c r="S29" s="241"/>
+      <c r="T29" s="241"/>
+      <c r="U29" s="241"/>
+      <c r="V29" s="241"/>
+      <c r="W29" s="241"/>
+      <c r="X29" s="241"/>
+      <c r="Y29" s="241"/>
+      <c r="Z29" s="241"/>
+      <c r="AA29" s="241"/>
+      <c r="AB29" s="241"/>
+      <c r="AC29" s="241"/>
+      <c r="AD29" s="241"/>
+      <c r="AE29" s="242"/>
+      <c r="AF29" s="237"/>
+      <c r="AG29" s="238"/>
+      <c r="AH29" s="238"/>
+      <c r="AI29" s="239"/>
     </row>
     <row r="30" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="14"/>
-      <c r="B30" s="182"/>
-      <c r="C30" s="183"/>
-      <c r="D30" s="184"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="188"/>
-      <c r="K30" s="189"/>
-      <c r="L30" s="189"/>
-      <c r="M30" s="189"/>
-      <c r="N30" s="189"/>
-      <c r="O30" s="189"/>
-      <c r="P30" s="190"/>
-      <c r="Q30" s="191"/>
-      <c r="R30" s="192"/>
-      <c r="S30" s="192"/>
-      <c r="T30" s="192"/>
-      <c r="U30" s="192"/>
-      <c r="V30" s="192"/>
-      <c r="W30" s="192"/>
-      <c r="X30" s="192"/>
-      <c r="Y30" s="192"/>
-      <c r="Z30" s="192"/>
-      <c r="AA30" s="192"/>
-      <c r="AB30" s="192"/>
-      <c r="AC30" s="192"/>
-      <c r="AD30" s="192"/>
-      <c r="AE30" s="193"/>
-      <c r="AF30" s="188"/>
-      <c r="AG30" s="189"/>
-      <c r="AH30" s="189"/>
-      <c r="AI30" s="190"/>
+      <c r="B30" s="231"/>
+      <c r="C30" s="232"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="234"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="231"/>
+      <c r="H30" s="236"/>
+      <c r="I30" s="232"/>
+      <c r="J30" s="237"/>
+      <c r="K30" s="238"/>
+      <c r="L30" s="238"/>
+      <c r="M30" s="238"/>
+      <c r="N30" s="238"/>
+      <c r="O30" s="238"/>
+      <c r="P30" s="239"/>
+      <c r="Q30" s="240"/>
+      <c r="R30" s="241"/>
+      <c r="S30" s="241"/>
+      <c r="T30" s="241"/>
+      <c r="U30" s="241"/>
+      <c r="V30" s="241"/>
+      <c r="W30" s="241"/>
+      <c r="X30" s="241"/>
+      <c r="Y30" s="241"/>
+      <c r="Z30" s="241"/>
+      <c r="AA30" s="241"/>
+      <c r="AB30" s="241"/>
+      <c r="AC30" s="241"/>
+      <c r="AD30" s="241"/>
+      <c r="AE30" s="242"/>
+      <c r="AF30" s="237"/>
+      <c r="AG30" s="238"/>
+      <c r="AH30" s="238"/>
+      <c r="AI30" s="239"/>
     </row>
     <row r="31" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="14"/>
-      <c r="B31" s="182"/>
-      <c r="C31" s="183"/>
-      <c r="D31" s="184"/>
-      <c r="E31" s="185"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="187"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="188"/>
-      <c r="K31" s="189"/>
-      <c r="L31" s="189"/>
-      <c r="M31" s="189"/>
-      <c r="N31" s="189"/>
-      <c r="O31" s="189"/>
-      <c r="P31" s="190"/>
-      <c r="Q31" s="191"/>
-      <c r="R31" s="192"/>
-      <c r="S31" s="192"/>
-      <c r="T31" s="192"/>
-      <c r="U31" s="192"/>
-      <c r="V31" s="192"/>
-      <c r="W31" s="192"/>
-      <c r="X31" s="192"/>
-      <c r="Y31" s="192"/>
-      <c r="Z31" s="192"/>
-      <c r="AA31" s="192"/>
-      <c r="AB31" s="192"/>
-      <c r="AC31" s="192"/>
-      <c r="AD31" s="192"/>
-      <c r="AE31" s="193"/>
-      <c r="AF31" s="188"/>
-      <c r="AG31" s="189"/>
-      <c r="AH31" s="189"/>
-      <c r="AI31" s="190"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="232"/>
+      <c r="D31" s="233"/>
+      <c r="E31" s="234"/>
+      <c r="F31" s="235"/>
+      <c r="G31" s="231"/>
+      <c r="H31" s="236"/>
+      <c r="I31" s="232"/>
+      <c r="J31" s="237"/>
+      <c r="K31" s="238"/>
+      <c r="L31" s="238"/>
+      <c r="M31" s="238"/>
+      <c r="N31" s="238"/>
+      <c r="O31" s="238"/>
+      <c r="P31" s="239"/>
+      <c r="Q31" s="240"/>
+      <c r="R31" s="241"/>
+      <c r="S31" s="241"/>
+      <c r="T31" s="241"/>
+      <c r="U31" s="241"/>
+      <c r="V31" s="241"/>
+      <c r="W31" s="241"/>
+      <c r="X31" s="241"/>
+      <c r="Y31" s="241"/>
+      <c r="Z31" s="241"/>
+      <c r="AA31" s="241"/>
+      <c r="AB31" s="241"/>
+      <c r="AC31" s="241"/>
+      <c r="AD31" s="241"/>
+      <c r="AE31" s="242"/>
+      <c r="AF31" s="237"/>
+      <c r="AG31" s="238"/>
+      <c r="AH31" s="238"/>
+      <c r="AI31" s="239"/>
     </row>
     <row r="32" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="14"/>
-      <c r="B32" s="182"/>
-      <c r="C32" s="183"/>
-      <c r="D32" s="184"/>
-      <c r="E32" s="185"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="188"/>
-      <c r="K32" s="194"/>
-      <c r="L32" s="189"/>
-      <c r="M32" s="189"/>
-      <c r="N32" s="189"/>
-      <c r="O32" s="189"/>
-      <c r="P32" s="190"/>
-      <c r="Q32" s="191"/>
-      <c r="R32" s="192"/>
-      <c r="S32" s="192"/>
-      <c r="T32" s="192"/>
-      <c r="U32" s="192"/>
-      <c r="V32" s="192"/>
-      <c r="W32" s="192"/>
-      <c r="X32" s="192"/>
-      <c r="Y32" s="192"/>
-      <c r="Z32" s="192"/>
-      <c r="AA32" s="192"/>
-      <c r="AB32" s="192"/>
-      <c r="AC32" s="192"/>
-      <c r="AD32" s="192"/>
-      <c r="AE32" s="193"/>
-      <c r="AF32" s="188"/>
-      <c r="AG32" s="189"/>
-      <c r="AH32" s="189"/>
-      <c r="AI32" s="190"/>
+      <c r="B32" s="231"/>
+      <c r="C32" s="232"/>
+      <c r="D32" s="233"/>
+      <c r="E32" s="234"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="231"/>
+      <c r="H32" s="236"/>
+      <c r="I32" s="232"/>
+      <c r="J32" s="237"/>
+      <c r="K32" s="243"/>
+      <c r="L32" s="238"/>
+      <c r="M32" s="238"/>
+      <c r="N32" s="238"/>
+      <c r="O32" s="238"/>
+      <c r="P32" s="239"/>
+      <c r="Q32" s="240"/>
+      <c r="R32" s="241"/>
+      <c r="S32" s="241"/>
+      <c r="T32" s="241"/>
+      <c r="U32" s="241"/>
+      <c r="V32" s="241"/>
+      <c r="W32" s="241"/>
+      <c r="X32" s="241"/>
+      <c r="Y32" s="241"/>
+      <c r="Z32" s="241"/>
+      <c r="AA32" s="241"/>
+      <c r="AB32" s="241"/>
+      <c r="AC32" s="241"/>
+      <c r="AD32" s="241"/>
+      <c r="AE32" s="242"/>
+      <c r="AF32" s="237"/>
+      <c r="AG32" s="238"/>
+      <c r="AH32" s="238"/>
+      <c r="AI32" s="239"/>
     </row>
     <row r="33" spans="1:35" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="182"/>
-      <c r="C33" s="183"/>
-      <c r="D33" s="184"/>
-      <c r="E33" s="185"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="188"/>
-      <c r="K33" s="189"/>
-      <c r="L33" s="189"/>
-      <c r="M33" s="189"/>
-      <c r="N33" s="189"/>
-      <c r="O33" s="189"/>
-      <c r="P33" s="190"/>
-      <c r="Q33" s="191"/>
-      <c r="R33" s="192"/>
-      <c r="S33" s="192"/>
-      <c r="T33" s="192"/>
-      <c r="U33" s="192"/>
-      <c r="V33" s="192"/>
-      <c r="W33" s="192"/>
-      <c r="X33" s="192"/>
-      <c r="Y33" s="192"/>
-      <c r="Z33" s="192"/>
-      <c r="AA33" s="192"/>
-      <c r="AB33" s="192"/>
-      <c r="AC33" s="192"/>
-      <c r="AD33" s="192"/>
-      <c r="AE33" s="193"/>
-      <c r="AF33" s="188"/>
-      <c r="AG33" s="189"/>
-      <c r="AH33" s="189"/>
-      <c r="AI33" s="190"/>
+      <c r="B33" s="231"/>
+      <c r="C33" s="232"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="234"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="231"/>
+      <c r="H33" s="236"/>
+      <c r="I33" s="232"/>
+      <c r="J33" s="237"/>
+      <c r="K33" s="238"/>
+      <c r="L33" s="238"/>
+      <c r="M33" s="238"/>
+      <c r="N33" s="238"/>
+      <c r="O33" s="238"/>
+      <c r="P33" s="239"/>
+      <c r="Q33" s="240"/>
+      <c r="R33" s="241"/>
+      <c r="S33" s="241"/>
+      <c r="T33" s="241"/>
+      <c r="U33" s="241"/>
+      <c r="V33" s="241"/>
+      <c r="W33" s="241"/>
+      <c r="X33" s="241"/>
+      <c r="Y33" s="241"/>
+      <c r="Z33" s="241"/>
+      <c r="AA33" s="241"/>
+      <c r="AB33" s="241"/>
+      <c r="AC33" s="241"/>
+      <c r="AD33" s="241"/>
+      <c r="AE33" s="242"/>
+      <c r="AF33" s="237"/>
+      <c r="AG33" s="238"/>
+      <c r="AH33" s="238"/>
+      <c r="AI33" s="239"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -11143,6 +10982,167 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -25261,21 +25261,23 @@
       <c r="C119" s="138"/>
       <c r="D119" s="133"/>
       <c r="E119" s="157"/>
-      <c r="F119" s="30" t="s">
+      <c r="F119" s="119" t="s">
         <v>235</v>
       </c>
-      <c r="G119" s="158"/>
-      <c r="H119" s="111"/>
-      <c r="I119" s="111"/>
-      <c r="J119" s="158"/>
-      <c r="K119" s="158"/>
-      <c r="L119" s="111"/>
-      <c r="M119" s="111"/>
-      <c r="N119" s="111"/>
-      <c r="O119" s="111"/>
-      <c r="P119" s="111"/>
-      <c r="Q119" s="159"/>
-      <c r="R119" s="158"/>
+      <c r="G119" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="H119" s="93"/>
+      <c r="I119" s="93"/>
+      <c r="J119" s="114"/>
+      <c r="K119" s="114"/>
+      <c r="L119" s="93"/>
+      <c r="M119" s="93"/>
+      <c r="N119" s="93"/>
+      <c r="O119" s="93"/>
+      <c r="P119" s="93"/>
+      <c r="Q119" s="120"/>
+      <c r="R119" s="114"/>
     </row>
     <row r="120" spans="1:18" ht="33.75">
       <c r="A120" s="42" t="str" cm="1">
